--- a/_ConfigExcels/Datas/com_global_param.xlsx
+++ b/_ConfigExcels/Datas/com_global_param.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mine\Project\TablePet\_ConfigExcels\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mine\Project\MiniGame_EarthDefender\_ConfigExcels\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -77,11 +77,11 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>Enums.Com_ParamType</t>
+    <t>maincharacter_idle_count</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>maincharacter_idle_count</t>
+    <t>Enums.Com.ParamType</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1932,7 +1932,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -1977,7 +1977,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>9</v>
@@ -2009,7 +2009,7 @@
     <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>16</v>

--- a/_ConfigExcels/Datas/com_global_param.xlsx
+++ b/_ConfigExcels/Datas/com_global_param.xlsx
@@ -1,25 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mine\Project\MiniGame_EarthDefender\_ConfigExcels\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16770" tabRatio="736"/>
+    <workbookView windowHeight="17775" tabRatio="736"/>
   </bookViews>
   <sheets>
     <sheet name="com_param" sheetId="11" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>##var</t>
   </si>
@@ -48,6 +56,9 @@
     <t>string&amp;group=c</t>
   </si>
   <si>
+    <t>Enums.Com.ParamType</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -69,27 +80,32 @@
     <t>字符串值</t>
   </si>
   <si>
+    <t>maincharacter_idle_count</t>
+  </si>
+  <si>
     <t>主角idle待机数量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>INT</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>maincharacter_idle_count</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>enemy_stop_distance</t>
   </si>
   <si>
-    <t>Enums.Com.ParamType</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>敌人会在距离地球X距离时停止移动并播放攻击动作</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,68 +116,197 @@
     <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑 Light"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="微软雅黑 Light"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑 Light"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,8 +337,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -216,502 +547,744 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="485">
+  <cellStyleXfs count="533">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -722,16 +1295,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="327" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="375" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -743,15 +1316,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -761,861 +1337,543 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="485">
+  <cellStyles count="533">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 10" xfId="1"/>
-    <cellStyle name="常规 11" xfId="2"/>
-    <cellStyle name="常规 12" xfId="3"/>
-    <cellStyle name="常规 13" xfId="4"/>
-    <cellStyle name="常规 2" xfId="5"/>
-    <cellStyle name="常规 2 10" xfId="6"/>
-    <cellStyle name="常规 2 11" xfId="7"/>
-    <cellStyle name="常规 2 2" xfId="8"/>
-    <cellStyle name="常规 2 2 2" xfId="9"/>
-    <cellStyle name="常规 2 2 2 2" xfId="10"/>
-    <cellStyle name="常规 2 2 2 2 2" xfId="11"/>
-    <cellStyle name="常规 2 2 2 2 2 2" xfId="12"/>
-    <cellStyle name="常规 2 2 2 2 2 2 2" xfId="13"/>
-    <cellStyle name="常规 2 2 2 2 2 2 2 2" xfId="14"/>
-    <cellStyle name="常规 2 2 2 2 2 2 2 3" xfId="15"/>
-    <cellStyle name="常规 2 2 2 2 2 2 3" xfId="16"/>
-    <cellStyle name="常规 2 2 2 2 2 3" xfId="17"/>
-    <cellStyle name="常规 2 2 2 2 2 3 2" xfId="18"/>
-    <cellStyle name="常规 2 2 2 2 2 3 3" xfId="19"/>
-    <cellStyle name="常规 2 2 2 2 2 4" xfId="20"/>
-    <cellStyle name="常规 2 2 2 2 3" xfId="21"/>
-    <cellStyle name="常规 2 2 2 2 3 2" xfId="22"/>
-    <cellStyle name="常规 2 2 2 2 3 2 2" xfId="23"/>
-    <cellStyle name="常规 2 2 2 2 3 2 3" xfId="24"/>
-    <cellStyle name="常规 2 2 2 2 3 3" xfId="25"/>
-    <cellStyle name="常规 2 2 2 2 4" xfId="26"/>
-    <cellStyle name="常规 2 2 2 2 4 2" xfId="27"/>
-    <cellStyle name="常规 2 2 2 2 4 3" xfId="28"/>
-    <cellStyle name="常规 2 2 2 2 5" xfId="29"/>
-    <cellStyle name="常规 2 2 2 3" xfId="30"/>
-    <cellStyle name="常规 2 2 2 3 2" xfId="31"/>
-    <cellStyle name="常规 2 2 2 3 2 2" xfId="32"/>
-    <cellStyle name="常规 2 2 2 3 2 2 2" xfId="33"/>
-    <cellStyle name="常规 2 2 2 3 2 2 3" xfId="34"/>
-    <cellStyle name="常规 2 2 2 3 2 3" xfId="35"/>
-    <cellStyle name="常规 2 2 2 3 3" xfId="36"/>
-    <cellStyle name="常规 2 2 2 3 3 2" xfId="37"/>
-    <cellStyle name="常规 2 2 2 3 3 3" xfId="38"/>
-    <cellStyle name="常规 2 2 2 3 4" xfId="39"/>
-    <cellStyle name="常规 2 2 2 4" xfId="40"/>
-    <cellStyle name="常规 2 2 2 4 2" xfId="41"/>
-    <cellStyle name="常规 2 2 2 4 2 2" xfId="42"/>
-    <cellStyle name="常规 2 2 2 4 2 3" xfId="43"/>
-    <cellStyle name="常规 2 2 2 4 3" xfId="44"/>
-    <cellStyle name="常规 2 2 2 5" xfId="45"/>
-    <cellStyle name="常规 2 2 2 5 2" xfId="46"/>
-    <cellStyle name="常规 2 2 2 5 3" xfId="47"/>
-    <cellStyle name="常规 2 2 2 6" xfId="48"/>
-    <cellStyle name="常规 2 2 3" xfId="49"/>
-    <cellStyle name="常规 2 2 3 2" xfId="50"/>
-    <cellStyle name="常规 2 2 3 2 2" xfId="51"/>
-    <cellStyle name="常规 2 2 3 2 2 2" xfId="52"/>
-    <cellStyle name="常规 2 2 3 2 2 2 2" xfId="53"/>
-    <cellStyle name="常规 2 2 3 2 2 2 3" xfId="54"/>
-    <cellStyle name="常规 2 2 3 2 2 3" xfId="55"/>
-    <cellStyle name="常规 2 2 3 2 3" xfId="56"/>
-    <cellStyle name="常规 2 2 3 2 3 2" xfId="57"/>
-    <cellStyle name="常规 2 2 3 2 3 3" xfId="58"/>
-    <cellStyle name="常规 2 2 3 2 4" xfId="59"/>
-    <cellStyle name="常规 2 2 3 3" xfId="60"/>
-    <cellStyle name="常规 2 2 3 3 2" xfId="61"/>
-    <cellStyle name="常规 2 2 3 3 2 2" xfId="62"/>
-    <cellStyle name="常规 2 2 3 3 2 3" xfId="63"/>
-    <cellStyle name="常规 2 2 3 3 3" xfId="64"/>
-    <cellStyle name="常规 2 2 3 4" xfId="65"/>
-    <cellStyle name="常规 2 2 3 4 2" xfId="66"/>
-    <cellStyle name="常规 2 2 3 4 3" xfId="67"/>
-    <cellStyle name="常规 2 2 3 5" xfId="68"/>
-    <cellStyle name="常规 2 2 4" xfId="69"/>
-    <cellStyle name="常规 2 2 4 2" xfId="70"/>
-    <cellStyle name="常规 2 2 4 2 2" xfId="71"/>
-    <cellStyle name="常规 2 2 4 2 2 2" xfId="72"/>
-    <cellStyle name="常规 2 2 4 2 2 3" xfId="73"/>
-    <cellStyle name="常规 2 2 4 2 3" xfId="74"/>
-    <cellStyle name="常规 2 2 4 3" xfId="75"/>
-    <cellStyle name="常规 2 2 4 3 2" xfId="76"/>
-    <cellStyle name="常规 2 2 4 3 3" xfId="77"/>
-    <cellStyle name="常规 2 2 4 4" xfId="78"/>
-    <cellStyle name="常规 2 2 5" xfId="79"/>
-    <cellStyle name="常规 2 2 5 2" xfId="80"/>
-    <cellStyle name="常规 2 2 5 2 2" xfId="81"/>
-    <cellStyle name="常规 2 2 5 2 3" xfId="82"/>
-    <cellStyle name="常规 2 2 5 3" xfId="83"/>
-    <cellStyle name="常规 2 2 6" xfId="84"/>
-    <cellStyle name="常规 2 2 6 2" xfId="85"/>
-    <cellStyle name="常规 2 2 6 3" xfId="86"/>
-    <cellStyle name="常规 2 2 7" xfId="87"/>
-    <cellStyle name="常规 2 3" xfId="88"/>
-    <cellStyle name="常规 2 3 2" xfId="89"/>
-    <cellStyle name="常规 2 3 2 2" xfId="90"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="91"/>
-    <cellStyle name="常规 2 3 2 2 2 2" xfId="92"/>
-    <cellStyle name="常规 2 3 2 2 2 2 2" xfId="93"/>
-    <cellStyle name="常规 2 3 2 2 2 2 2 2" xfId="94"/>
-    <cellStyle name="常规 2 3 2 2 2 2 2 3" xfId="95"/>
-    <cellStyle name="常规 2 3 2 2 2 2 3" xfId="96"/>
-    <cellStyle name="常规 2 3 2 2 2 3" xfId="97"/>
-    <cellStyle name="常规 2 3 2 2 2 3 2" xfId="98"/>
-    <cellStyle name="常规 2 3 2 2 2 3 3" xfId="99"/>
-    <cellStyle name="常规 2 3 2 2 2 4" xfId="100"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="101"/>
-    <cellStyle name="常规 2 3 2 2 3 2" xfId="102"/>
-    <cellStyle name="常规 2 3 2 2 3 2 2" xfId="103"/>
-    <cellStyle name="常规 2 3 2 2 3 2 3" xfId="104"/>
-    <cellStyle name="常规 2 3 2 2 3 3" xfId="105"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="106"/>
-    <cellStyle name="常规 2 3 2 2 4 2" xfId="107"/>
-    <cellStyle name="常规 2 3 2 2 4 3" xfId="108"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="109"/>
-    <cellStyle name="常规 2 3 2 3" xfId="110"/>
-    <cellStyle name="常规 2 3 2 3 2" xfId="111"/>
-    <cellStyle name="常规 2 3 2 3 2 2" xfId="112"/>
-    <cellStyle name="常规 2 3 2 3 2 2 2" xfId="113"/>
-    <cellStyle name="常规 2 3 2 3 2 2 3" xfId="114"/>
-    <cellStyle name="常规 2 3 2 3 2 3" xfId="115"/>
-    <cellStyle name="常规 2 3 2 3 3" xfId="116"/>
-    <cellStyle name="常规 2 3 2 3 3 2" xfId="117"/>
-    <cellStyle name="常规 2 3 2 3 3 3" xfId="118"/>
-    <cellStyle name="常规 2 3 2 3 4" xfId="119"/>
-    <cellStyle name="常规 2 3 2 4" xfId="120"/>
-    <cellStyle name="常规 2 3 2 4 2" xfId="121"/>
-    <cellStyle name="常规 2 3 2 4 2 2" xfId="122"/>
-    <cellStyle name="常规 2 3 2 4 2 3" xfId="123"/>
-    <cellStyle name="常规 2 3 2 4 3" xfId="124"/>
-    <cellStyle name="常规 2 3 2 5" xfId="125"/>
-    <cellStyle name="常规 2 3 2 5 2" xfId="126"/>
-    <cellStyle name="常规 2 3 2 5 3" xfId="127"/>
-    <cellStyle name="常规 2 3 2 6" xfId="128"/>
-    <cellStyle name="常规 2 3 3" xfId="129"/>
-    <cellStyle name="常规 2 3 3 2" xfId="130"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="131"/>
-    <cellStyle name="常规 2 3 3 2 2 2" xfId="132"/>
-    <cellStyle name="常规 2 3 3 2 2 2 2" xfId="133"/>
-    <cellStyle name="常规 2 3 3 2 2 2 3" xfId="134"/>
-    <cellStyle name="常规 2 3 3 2 2 3" xfId="135"/>
-    <cellStyle name="常规 2 3 3 2 3" xfId="136"/>
-    <cellStyle name="常规 2 3 3 2 3 2" xfId="137"/>
-    <cellStyle name="常规 2 3 3 2 3 3" xfId="138"/>
-    <cellStyle name="常规 2 3 3 2 4" xfId="139"/>
-    <cellStyle name="常规 2 3 3 3" xfId="140"/>
-    <cellStyle name="常规 2 3 3 3 2" xfId="141"/>
-    <cellStyle name="常规 2 3 3 3 2 2" xfId="142"/>
-    <cellStyle name="常规 2 3 3 3 2 3" xfId="143"/>
-    <cellStyle name="常规 2 3 3 3 3" xfId="144"/>
-    <cellStyle name="常规 2 3 3 4" xfId="145"/>
-    <cellStyle name="常规 2 3 3 4 2" xfId="146"/>
-    <cellStyle name="常规 2 3 3 4 3" xfId="147"/>
-    <cellStyle name="常规 2 3 3 5" xfId="148"/>
-    <cellStyle name="常规 2 3 4" xfId="149"/>
-    <cellStyle name="常规 2 3 4 2" xfId="150"/>
-    <cellStyle name="常规 2 3 4 2 2" xfId="151"/>
-    <cellStyle name="常规 2 3 4 2 2 2" xfId="152"/>
-    <cellStyle name="常规 2 3 4 2 2 3" xfId="153"/>
-    <cellStyle name="常规 2 3 4 2 3" xfId="154"/>
-    <cellStyle name="常规 2 3 4 3" xfId="155"/>
-    <cellStyle name="常规 2 3 4 3 2" xfId="156"/>
-    <cellStyle name="常规 2 3 4 3 3" xfId="157"/>
-    <cellStyle name="常规 2 3 4 4" xfId="158"/>
-    <cellStyle name="常规 2 3 5" xfId="159"/>
-    <cellStyle name="常规 2 3 5 2" xfId="160"/>
-    <cellStyle name="常规 2 3 5 2 2" xfId="161"/>
-    <cellStyle name="常规 2 3 5 2 3" xfId="162"/>
-    <cellStyle name="常规 2 3 5 3" xfId="163"/>
-    <cellStyle name="常规 2 3 6" xfId="164"/>
-    <cellStyle name="常规 2 3 6 2" xfId="165"/>
-    <cellStyle name="常规 2 3 6 3" xfId="166"/>
-    <cellStyle name="常规 2 3 7" xfId="167"/>
-    <cellStyle name="常规 2 4" xfId="168"/>
-    <cellStyle name="常规 2 4 2" xfId="169"/>
-    <cellStyle name="常规 2 4 2 2" xfId="170"/>
-    <cellStyle name="常规 2 4 2 2 2" xfId="171"/>
-    <cellStyle name="常规 2 4 2 2 2 2" xfId="172"/>
-    <cellStyle name="常规 2 4 2 2 2 2 2" xfId="173"/>
-    <cellStyle name="常规 2 4 2 2 2 2 3" xfId="174"/>
-    <cellStyle name="常规 2 4 2 2 2 3" xfId="175"/>
-    <cellStyle name="常规 2 4 2 2 3" xfId="176"/>
-    <cellStyle name="常规 2 4 2 2 3 2" xfId="177"/>
-    <cellStyle name="常规 2 4 2 2 3 3" xfId="178"/>
-    <cellStyle name="常规 2 4 2 2 4" xfId="179"/>
-    <cellStyle name="常规 2 4 2 3" xfId="180"/>
-    <cellStyle name="常规 2 4 2 3 2" xfId="181"/>
-    <cellStyle name="常规 2 4 2 3 2 2" xfId="182"/>
-    <cellStyle name="常规 2 4 2 3 2 3" xfId="183"/>
-    <cellStyle name="常规 2 4 2 3 3" xfId="184"/>
-    <cellStyle name="常规 2 4 2 4" xfId="185"/>
-    <cellStyle name="常规 2 4 2 4 2" xfId="186"/>
-    <cellStyle name="常规 2 4 2 4 3" xfId="187"/>
-    <cellStyle name="常规 2 4 2 5" xfId="188"/>
-    <cellStyle name="常规 2 4 3" xfId="189"/>
-    <cellStyle name="常规 2 4 3 2" xfId="190"/>
-    <cellStyle name="常规 2 4 3 2 2" xfId="191"/>
-    <cellStyle name="常规 2 4 3 2 2 2" xfId="192"/>
-    <cellStyle name="常规 2 4 3 2 2 3" xfId="193"/>
-    <cellStyle name="常规 2 4 3 2 3" xfId="194"/>
-    <cellStyle name="常规 2 4 3 3" xfId="195"/>
-    <cellStyle name="常规 2 4 3 3 2" xfId="196"/>
-    <cellStyle name="常规 2 4 3 3 3" xfId="197"/>
-    <cellStyle name="常规 2 4 3 4" xfId="198"/>
-    <cellStyle name="常规 2 4 4" xfId="199"/>
-    <cellStyle name="常规 2 4 4 2" xfId="200"/>
-    <cellStyle name="常规 2 4 4 2 2" xfId="201"/>
-    <cellStyle name="常规 2 4 4 2 3" xfId="202"/>
-    <cellStyle name="常规 2 4 4 3" xfId="203"/>
-    <cellStyle name="常规 2 4 5" xfId="204"/>
-    <cellStyle name="常规 2 4 5 2" xfId="205"/>
-    <cellStyle name="常规 2 4 5 3" xfId="206"/>
-    <cellStyle name="常规 2 4 6" xfId="207"/>
-    <cellStyle name="常规 2 5" xfId="208"/>
-    <cellStyle name="常规 2 5 2" xfId="209"/>
-    <cellStyle name="常规 2 5 2 2" xfId="210"/>
-    <cellStyle name="常规 2 5 2 2 2" xfId="211"/>
-    <cellStyle name="常规 2 5 2 2 2 2" xfId="212"/>
-    <cellStyle name="常规 2 5 2 2 2 3" xfId="213"/>
-    <cellStyle name="常规 2 5 2 2 3" xfId="214"/>
-    <cellStyle name="常规 2 5 2 3" xfId="215"/>
-    <cellStyle name="常规 2 5 2 3 2" xfId="216"/>
-    <cellStyle name="常规 2 5 2 3 3" xfId="217"/>
-    <cellStyle name="常规 2 5 2 4" xfId="218"/>
-    <cellStyle name="常规 2 5 3" xfId="219"/>
-    <cellStyle name="常规 2 5 3 2" xfId="220"/>
-    <cellStyle name="常规 2 5 3 2 2" xfId="221"/>
-    <cellStyle name="常规 2 5 3 2 3" xfId="222"/>
-    <cellStyle name="常规 2 5 3 3" xfId="223"/>
-    <cellStyle name="常规 2 5 4" xfId="224"/>
-    <cellStyle name="常规 2 5 4 2" xfId="225"/>
-    <cellStyle name="常规 2 5 4 3" xfId="226"/>
-    <cellStyle name="常规 2 5 5" xfId="227"/>
-    <cellStyle name="常规 2 6" xfId="228"/>
-    <cellStyle name="常规 2 6 2" xfId="229"/>
-    <cellStyle name="常规 2 6 2 2" xfId="230"/>
-    <cellStyle name="常规 2 6 2 2 2" xfId="231"/>
-    <cellStyle name="常规 2 6 2 2 3" xfId="232"/>
-    <cellStyle name="常规 2 6 2 3" xfId="233"/>
-    <cellStyle name="常规 2 6 3" xfId="234"/>
-    <cellStyle name="常规 2 6 3 2" xfId="235"/>
-    <cellStyle name="常规 2 6 3 3" xfId="236"/>
-    <cellStyle name="常规 2 6 4" xfId="237"/>
-    <cellStyle name="常规 2 7" xfId="238"/>
-    <cellStyle name="常规 2 7 2" xfId="239"/>
-    <cellStyle name="常规 2 7 2 2" xfId="240"/>
-    <cellStyle name="常规 2 7 2 3" xfId="241"/>
-    <cellStyle name="常规 2 7 3" xfId="242"/>
-    <cellStyle name="常规 2 8" xfId="243"/>
-    <cellStyle name="常规 2 8 2" xfId="244"/>
-    <cellStyle name="常规 2 8 3" xfId="245"/>
-    <cellStyle name="常规 2 9" xfId="246"/>
-    <cellStyle name="常规 3" xfId="247"/>
-    <cellStyle name="常规 3 2" xfId="248"/>
-    <cellStyle name="常规 3 2 2" xfId="249"/>
-    <cellStyle name="常规 3 2 2 2" xfId="250"/>
-    <cellStyle name="常规 3 2 2 2 2" xfId="251"/>
-    <cellStyle name="常规 3 2 2 2 2 2" xfId="252"/>
-    <cellStyle name="常规 3 2 2 2 2 2 2" xfId="253"/>
-    <cellStyle name="常规 3 2 2 2 2 2 3" xfId="254"/>
-    <cellStyle name="常规 3 2 2 2 2 3" xfId="255"/>
-    <cellStyle name="常规 3 2 2 2 3" xfId="256"/>
-    <cellStyle name="常规 3 2 2 2 3 2" xfId="257"/>
-    <cellStyle name="常规 3 2 2 2 3 3" xfId="258"/>
-    <cellStyle name="常规 3 2 2 2 4" xfId="259"/>
-    <cellStyle name="常规 3 2 2 3" xfId="260"/>
-    <cellStyle name="常规 3 2 2 3 2" xfId="261"/>
-    <cellStyle name="常规 3 2 2 3 2 2" xfId="262"/>
-    <cellStyle name="常规 3 2 2 3 2 3" xfId="263"/>
-    <cellStyle name="常规 3 2 2 3 3" xfId="264"/>
-    <cellStyle name="常规 3 2 2 4" xfId="265"/>
-    <cellStyle name="常规 3 2 2 4 2" xfId="266"/>
-    <cellStyle name="常规 3 2 2 4 3" xfId="267"/>
-    <cellStyle name="常规 3 2 2 5" xfId="268"/>
-    <cellStyle name="常规 3 2 3" xfId="269"/>
-    <cellStyle name="常规 3 2 3 2" xfId="270"/>
-    <cellStyle name="常规 3 2 3 2 2" xfId="271"/>
-    <cellStyle name="常规 3 2 3 2 2 2" xfId="272"/>
-    <cellStyle name="常规 3 2 3 2 2 3" xfId="273"/>
-    <cellStyle name="常规 3 2 3 2 3" xfId="274"/>
-    <cellStyle name="常规 3 2 3 3" xfId="275"/>
-    <cellStyle name="常规 3 2 3 3 2" xfId="276"/>
-    <cellStyle name="常规 3 2 3 3 3" xfId="277"/>
-    <cellStyle name="常规 3 2 3 4" xfId="278"/>
-    <cellStyle name="常规 3 2 4" xfId="279"/>
-    <cellStyle name="常规 3 2 4 2" xfId="280"/>
-    <cellStyle name="常规 3 2 4 2 2" xfId="281"/>
-    <cellStyle name="常规 3 2 4 2 3" xfId="282"/>
-    <cellStyle name="常规 3 2 4 3" xfId="283"/>
-    <cellStyle name="常规 3 2 5" xfId="284"/>
-    <cellStyle name="常规 3 2 5 2" xfId="285"/>
-    <cellStyle name="常规 3 2 5 3" xfId="286"/>
-    <cellStyle name="常规 3 2 6" xfId="287"/>
-    <cellStyle name="常规 3 3" xfId="288"/>
-    <cellStyle name="常规 3 3 2" xfId="289"/>
-    <cellStyle name="常规 3 3 2 2" xfId="290"/>
-    <cellStyle name="常规 3 3 2 2 2" xfId="291"/>
-    <cellStyle name="常规 3 3 2 2 2 2" xfId="292"/>
-    <cellStyle name="常规 3 3 2 2 2 3" xfId="293"/>
-    <cellStyle name="常规 3 3 2 2 3" xfId="294"/>
-    <cellStyle name="常规 3 3 2 3" xfId="295"/>
-    <cellStyle name="常规 3 3 2 3 2" xfId="296"/>
-    <cellStyle name="常规 3 3 2 3 3" xfId="297"/>
-    <cellStyle name="常规 3 3 2 4" xfId="298"/>
-    <cellStyle name="常规 3 3 3" xfId="299"/>
-    <cellStyle name="常规 3 3 3 2" xfId="300"/>
-    <cellStyle name="常规 3 3 3 2 2" xfId="301"/>
-    <cellStyle name="常规 3 3 3 2 3" xfId="302"/>
-    <cellStyle name="常规 3 3 3 3" xfId="303"/>
-    <cellStyle name="常规 3 3 4" xfId="304"/>
-    <cellStyle name="常规 3 3 4 2" xfId="305"/>
-    <cellStyle name="常规 3 3 4 3" xfId="306"/>
-    <cellStyle name="常规 3 3 5" xfId="307"/>
-    <cellStyle name="常规 3 4" xfId="308"/>
-    <cellStyle name="常规 3 4 2" xfId="309"/>
-    <cellStyle name="常规 3 4 2 2" xfId="310"/>
-    <cellStyle name="常规 3 4 2 2 2" xfId="311"/>
-    <cellStyle name="常规 3 4 2 2 3" xfId="312"/>
-    <cellStyle name="常规 3 4 2 3" xfId="313"/>
-    <cellStyle name="常规 3 4 3" xfId="314"/>
-    <cellStyle name="常规 3 4 3 2" xfId="315"/>
-    <cellStyle name="常规 3 4 3 3" xfId="316"/>
-    <cellStyle name="常规 3 4 4" xfId="317"/>
-    <cellStyle name="常规 3 5" xfId="318"/>
-    <cellStyle name="常规 3 5 2" xfId="319"/>
-    <cellStyle name="常规 3 5 2 2" xfId="320"/>
-    <cellStyle name="常规 3 5 2 3" xfId="321"/>
-    <cellStyle name="常规 3 5 3" xfId="322"/>
-    <cellStyle name="常规 3 6" xfId="323"/>
-    <cellStyle name="常规 3 6 2" xfId="324"/>
-    <cellStyle name="常规 3 6 3" xfId="325"/>
-    <cellStyle name="常规 3 7" xfId="326"/>
-    <cellStyle name="常规 4" xfId="327"/>
-    <cellStyle name="常规 4 2" xfId="328"/>
-    <cellStyle name="常规 4 2 2" xfId="329"/>
-    <cellStyle name="常规 4 2 2 2" xfId="330"/>
-    <cellStyle name="常规 4 2 2 2 2" xfId="331"/>
-    <cellStyle name="常规 4 2 2 2 2 2" xfId="332"/>
-    <cellStyle name="常规 4 2 2 2 2 2 2" xfId="333"/>
-    <cellStyle name="常规 4 2 2 2 2 2 3" xfId="334"/>
-    <cellStyle name="常规 4 2 2 2 2 3" xfId="335"/>
-    <cellStyle name="常规 4 2 2 2 3" xfId="336"/>
-    <cellStyle name="常规 4 2 2 2 3 2" xfId="337"/>
-    <cellStyle name="常规 4 2 2 2 3 3" xfId="338"/>
-    <cellStyle name="常规 4 2 2 2 4" xfId="339"/>
-    <cellStyle name="常规 4 2 2 3" xfId="340"/>
-    <cellStyle name="常规 4 2 2 3 2" xfId="341"/>
-    <cellStyle name="常规 4 2 2 3 2 2" xfId="342"/>
-    <cellStyle name="常规 4 2 2 3 2 3" xfId="343"/>
-    <cellStyle name="常规 4 2 2 3 3" xfId="344"/>
-    <cellStyle name="常规 4 2 2 4" xfId="345"/>
-    <cellStyle name="常规 4 2 2 4 2" xfId="346"/>
-    <cellStyle name="常规 4 2 2 4 3" xfId="347"/>
-    <cellStyle name="常规 4 2 2 5" xfId="348"/>
-    <cellStyle name="常规 4 2 3" xfId="349"/>
-    <cellStyle name="常规 4 2 3 2" xfId="350"/>
-    <cellStyle name="常规 4 2 3 2 2" xfId="351"/>
-    <cellStyle name="常规 4 2 3 2 2 2" xfId="352"/>
-    <cellStyle name="常规 4 2 3 2 2 3" xfId="353"/>
-    <cellStyle name="常规 4 2 3 2 3" xfId="354"/>
-    <cellStyle name="常规 4 2 3 3" xfId="355"/>
-    <cellStyle name="常规 4 2 3 3 2" xfId="356"/>
-    <cellStyle name="常规 4 2 3 3 3" xfId="357"/>
-    <cellStyle name="常规 4 2 3 4" xfId="358"/>
-    <cellStyle name="常规 4 2 4" xfId="359"/>
-    <cellStyle name="常规 4 2 4 2" xfId="360"/>
-    <cellStyle name="常规 4 2 4 2 2" xfId="361"/>
-    <cellStyle name="常规 4 2 4 2 3" xfId="362"/>
-    <cellStyle name="常规 4 2 4 3" xfId="363"/>
-    <cellStyle name="常规 4 2 5" xfId="364"/>
-    <cellStyle name="常规 4 2 5 2" xfId="365"/>
-    <cellStyle name="常规 4 2 5 3" xfId="366"/>
-    <cellStyle name="常规 4 2 6" xfId="367"/>
-    <cellStyle name="常规 4 3" xfId="368"/>
-    <cellStyle name="常规 4 3 2" xfId="369"/>
-    <cellStyle name="常规 4 3 2 2" xfId="370"/>
-    <cellStyle name="常规 4 3 2 2 2" xfId="371"/>
-    <cellStyle name="常规 4 3 2 2 2 2" xfId="372"/>
-    <cellStyle name="常规 4 3 2 2 2 3" xfId="373"/>
-    <cellStyle name="常规 4 3 2 2 3" xfId="374"/>
-    <cellStyle name="常规 4 3 2 3" xfId="375"/>
-    <cellStyle name="常规 4 3 2 3 2" xfId="376"/>
-    <cellStyle name="常规 4 3 2 3 3" xfId="377"/>
-    <cellStyle name="常规 4 3 2 4" xfId="378"/>
-    <cellStyle name="常规 4 3 3" xfId="379"/>
-    <cellStyle name="常规 4 3 3 2" xfId="380"/>
-    <cellStyle name="常规 4 3 3 2 2" xfId="381"/>
-    <cellStyle name="常规 4 3 3 2 3" xfId="382"/>
-    <cellStyle name="常规 4 3 3 3" xfId="383"/>
-    <cellStyle name="常规 4 3 4" xfId="384"/>
-    <cellStyle name="常规 4 3 4 2" xfId="385"/>
-    <cellStyle name="常规 4 3 4 3" xfId="386"/>
-    <cellStyle name="常规 4 3 5" xfId="387"/>
-    <cellStyle name="常规 4 4" xfId="388"/>
-    <cellStyle name="常规 4 4 2" xfId="389"/>
-    <cellStyle name="常规 4 4 2 2" xfId="390"/>
-    <cellStyle name="常规 4 4 2 2 2" xfId="391"/>
-    <cellStyle name="常规 4 4 2 2 3" xfId="392"/>
-    <cellStyle name="常规 4 4 2 3" xfId="393"/>
-    <cellStyle name="常规 4 4 3" xfId="394"/>
-    <cellStyle name="常规 4 4 3 2" xfId="395"/>
-    <cellStyle name="常规 4 4 3 3" xfId="396"/>
-    <cellStyle name="常规 4 4 4" xfId="397"/>
-    <cellStyle name="常规 4 5" xfId="398"/>
-    <cellStyle name="常规 4 5 2" xfId="399"/>
-    <cellStyle name="常规 4 5 2 2" xfId="400"/>
-    <cellStyle name="常规 4 5 2 3" xfId="401"/>
-    <cellStyle name="常规 4 5 3" xfId="402"/>
-    <cellStyle name="常规 4 6" xfId="403"/>
-    <cellStyle name="常规 4 6 2" xfId="404"/>
-    <cellStyle name="常规 4 6 3" xfId="405"/>
-    <cellStyle name="常规 4 7" xfId="406"/>
-    <cellStyle name="常规 5" xfId="407"/>
-    <cellStyle name="常规 5 2" xfId="408"/>
-    <cellStyle name="常规 5 2 2" xfId="409"/>
-    <cellStyle name="常规 5 2 2 2" xfId="410"/>
-    <cellStyle name="常规 5 2 2 2 2" xfId="411"/>
-    <cellStyle name="常规 5 2 2 2 2 2" xfId="412"/>
-    <cellStyle name="常规 5 2 2 2 2 3" xfId="413"/>
-    <cellStyle name="常规 5 2 2 2 3" xfId="414"/>
-    <cellStyle name="常规 5 2 2 3" xfId="415"/>
-    <cellStyle name="常规 5 2 2 3 2" xfId="416"/>
-    <cellStyle name="常规 5 2 2 3 3" xfId="417"/>
-    <cellStyle name="常规 5 2 2 4" xfId="418"/>
-    <cellStyle name="常规 5 2 3" xfId="419"/>
-    <cellStyle name="常规 5 2 3 2" xfId="420"/>
-    <cellStyle name="常规 5 2 3 2 2" xfId="421"/>
-    <cellStyle name="常规 5 2 3 2 3" xfId="422"/>
-    <cellStyle name="常规 5 2 3 3" xfId="423"/>
-    <cellStyle name="常规 5 2 4" xfId="424"/>
-    <cellStyle name="常规 5 2 4 2" xfId="425"/>
-    <cellStyle name="常规 5 2 4 3" xfId="426"/>
-    <cellStyle name="常规 5 2 5" xfId="427"/>
-    <cellStyle name="常规 5 3" xfId="428"/>
-    <cellStyle name="常规 5 3 2" xfId="429"/>
-    <cellStyle name="常规 5 3 2 2" xfId="430"/>
-    <cellStyle name="常规 5 3 2 2 2" xfId="431"/>
-    <cellStyle name="常规 5 3 2 2 3" xfId="432"/>
-    <cellStyle name="常规 5 3 2 3" xfId="433"/>
-    <cellStyle name="常规 5 3 3" xfId="434"/>
-    <cellStyle name="常规 5 3 3 2" xfId="435"/>
-    <cellStyle name="常规 5 3 3 3" xfId="436"/>
-    <cellStyle name="常规 5 3 4" xfId="437"/>
-    <cellStyle name="常规 5 4" xfId="438"/>
-    <cellStyle name="常规 5 4 2" xfId="439"/>
-    <cellStyle name="常规 5 4 2 2" xfId="440"/>
-    <cellStyle name="常规 5 4 2 3" xfId="441"/>
-    <cellStyle name="常规 5 4 3" xfId="442"/>
-    <cellStyle name="常规 5 5" xfId="443"/>
-    <cellStyle name="常规 5 5 2" xfId="444"/>
-    <cellStyle name="常规 5 5 3" xfId="445"/>
-    <cellStyle name="常规 5 6" xfId="446"/>
-    <cellStyle name="常规 6" xfId="447"/>
-    <cellStyle name="常规 6 2" xfId="448"/>
-    <cellStyle name="常规 6 2 2" xfId="449"/>
-    <cellStyle name="常规 6 2 2 2" xfId="450"/>
-    <cellStyle name="常规 6 2 2 2 2" xfId="451"/>
-    <cellStyle name="常规 6 2 2 2 3" xfId="452"/>
-    <cellStyle name="常规 6 2 2 3" xfId="453"/>
-    <cellStyle name="常规 6 2 3" xfId="454"/>
-    <cellStyle name="常规 6 2 3 2" xfId="455"/>
-    <cellStyle name="常规 6 2 3 3" xfId="456"/>
-    <cellStyle name="常规 6 2 4" xfId="457"/>
-    <cellStyle name="常规 6 3" xfId="458"/>
-    <cellStyle name="常规 6 3 2" xfId="459"/>
-    <cellStyle name="常规 6 3 2 2" xfId="460"/>
-    <cellStyle name="常规 6 3 2 3" xfId="461"/>
-    <cellStyle name="常规 6 3 3" xfId="462"/>
-    <cellStyle name="常规 6 4" xfId="463"/>
-    <cellStyle name="常规 6 4 2" xfId="464"/>
-    <cellStyle name="常规 6 4 3" xfId="465"/>
-    <cellStyle name="常规 6 5" xfId="466"/>
-    <cellStyle name="常规 7" xfId="467"/>
-    <cellStyle name="常规 7 2" xfId="468"/>
-    <cellStyle name="常规 7 2 2" xfId="469"/>
-    <cellStyle name="常规 7 2 2 2" xfId="470"/>
-    <cellStyle name="常规 7 2 2 3" xfId="471"/>
-    <cellStyle name="常规 7 2 3" xfId="472"/>
-    <cellStyle name="常规 7 3" xfId="473"/>
-    <cellStyle name="常规 7 3 2" xfId="474"/>
-    <cellStyle name="常规 7 3 3" xfId="475"/>
-    <cellStyle name="常规 7 4" xfId="476"/>
-    <cellStyle name="常规 8" xfId="477"/>
-    <cellStyle name="常规 8 2" xfId="478"/>
-    <cellStyle name="常规 8 2 2" xfId="479"/>
-    <cellStyle name="常规 8 2 3" xfId="480"/>
-    <cellStyle name="常规 8 3" xfId="481"/>
-    <cellStyle name="常规 9" xfId="482"/>
-    <cellStyle name="常规 9 2" xfId="483"/>
-    <cellStyle name="常规 9 3" xfId="484"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 10" xfId="49"/>
+    <cellStyle name="常规 11" xfId="50"/>
+    <cellStyle name="常规 12" xfId="51"/>
+    <cellStyle name="常规 13" xfId="52"/>
+    <cellStyle name="常规 2" xfId="53"/>
+    <cellStyle name="常规 2 10" xfId="54"/>
+    <cellStyle name="常规 2 11" xfId="55"/>
+    <cellStyle name="常规 2 2" xfId="56"/>
+    <cellStyle name="常规 2 2 2" xfId="57"/>
+    <cellStyle name="常规 2 2 2 2" xfId="58"/>
+    <cellStyle name="常规 2 2 2 2 2" xfId="59"/>
+    <cellStyle name="常规 2 2 2 2 2 2" xfId="60"/>
+    <cellStyle name="常规 2 2 2 2 2 2 2" xfId="61"/>
+    <cellStyle name="常规 2 2 2 2 2 2 2 2" xfId="62"/>
+    <cellStyle name="常规 2 2 2 2 2 2 2 3" xfId="63"/>
+    <cellStyle name="常规 2 2 2 2 2 2 3" xfId="64"/>
+    <cellStyle name="常规 2 2 2 2 2 3" xfId="65"/>
+    <cellStyle name="常规 2 2 2 2 2 3 2" xfId="66"/>
+    <cellStyle name="常规 2 2 2 2 2 3 3" xfId="67"/>
+    <cellStyle name="常规 2 2 2 2 2 4" xfId="68"/>
+    <cellStyle name="常规 2 2 2 2 3" xfId="69"/>
+    <cellStyle name="常规 2 2 2 2 3 2" xfId="70"/>
+    <cellStyle name="常规 2 2 2 2 3 2 2" xfId="71"/>
+    <cellStyle name="常规 2 2 2 2 3 2 3" xfId="72"/>
+    <cellStyle name="常规 2 2 2 2 3 3" xfId="73"/>
+    <cellStyle name="常规 2 2 2 2 4" xfId="74"/>
+    <cellStyle name="常规 2 2 2 2 4 2" xfId="75"/>
+    <cellStyle name="常规 2 2 2 2 4 3" xfId="76"/>
+    <cellStyle name="常规 2 2 2 2 5" xfId="77"/>
+    <cellStyle name="常规 2 2 2 3" xfId="78"/>
+    <cellStyle name="常规 2 2 2 3 2" xfId="79"/>
+    <cellStyle name="常规 2 2 2 3 2 2" xfId="80"/>
+    <cellStyle name="常规 2 2 2 3 2 2 2" xfId="81"/>
+    <cellStyle name="常规 2 2 2 3 2 2 3" xfId="82"/>
+    <cellStyle name="常规 2 2 2 3 2 3" xfId="83"/>
+    <cellStyle name="常规 2 2 2 3 3" xfId="84"/>
+    <cellStyle name="常规 2 2 2 3 3 2" xfId="85"/>
+    <cellStyle name="常规 2 2 2 3 3 3" xfId="86"/>
+    <cellStyle name="常规 2 2 2 3 4" xfId="87"/>
+    <cellStyle name="常规 2 2 2 4" xfId="88"/>
+    <cellStyle name="常规 2 2 2 4 2" xfId="89"/>
+    <cellStyle name="常规 2 2 2 4 2 2" xfId="90"/>
+    <cellStyle name="常规 2 2 2 4 2 3" xfId="91"/>
+    <cellStyle name="常规 2 2 2 4 3" xfId="92"/>
+    <cellStyle name="常规 2 2 2 5" xfId="93"/>
+    <cellStyle name="常规 2 2 2 5 2" xfId="94"/>
+    <cellStyle name="常规 2 2 2 5 3" xfId="95"/>
+    <cellStyle name="常规 2 2 2 6" xfId="96"/>
+    <cellStyle name="常规 2 2 3" xfId="97"/>
+    <cellStyle name="常规 2 2 3 2" xfId="98"/>
+    <cellStyle name="常规 2 2 3 2 2" xfId="99"/>
+    <cellStyle name="常规 2 2 3 2 2 2" xfId="100"/>
+    <cellStyle name="常规 2 2 3 2 2 2 2" xfId="101"/>
+    <cellStyle name="常规 2 2 3 2 2 2 3" xfId="102"/>
+    <cellStyle name="常规 2 2 3 2 2 3" xfId="103"/>
+    <cellStyle name="常规 2 2 3 2 3" xfId="104"/>
+    <cellStyle name="常规 2 2 3 2 3 2" xfId="105"/>
+    <cellStyle name="常规 2 2 3 2 3 3" xfId="106"/>
+    <cellStyle name="常规 2 2 3 2 4" xfId="107"/>
+    <cellStyle name="常规 2 2 3 3" xfId="108"/>
+    <cellStyle name="常规 2 2 3 3 2" xfId="109"/>
+    <cellStyle name="常规 2 2 3 3 2 2" xfId="110"/>
+    <cellStyle name="常规 2 2 3 3 2 3" xfId="111"/>
+    <cellStyle name="常规 2 2 3 3 3" xfId="112"/>
+    <cellStyle name="常规 2 2 3 4" xfId="113"/>
+    <cellStyle name="常规 2 2 3 4 2" xfId="114"/>
+    <cellStyle name="常规 2 2 3 4 3" xfId="115"/>
+    <cellStyle name="常规 2 2 3 5" xfId="116"/>
+    <cellStyle name="常规 2 2 4" xfId="117"/>
+    <cellStyle name="常规 2 2 4 2" xfId="118"/>
+    <cellStyle name="常规 2 2 4 2 2" xfId="119"/>
+    <cellStyle name="常规 2 2 4 2 2 2" xfId="120"/>
+    <cellStyle name="常规 2 2 4 2 2 3" xfId="121"/>
+    <cellStyle name="常规 2 2 4 2 3" xfId="122"/>
+    <cellStyle name="常规 2 2 4 3" xfId="123"/>
+    <cellStyle name="常规 2 2 4 3 2" xfId="124"/>
+    <cellStyle name="常规 2 2 4 3 3" xfId="125"/>
+    <cellStyle name="常规 2 2 4 4" xfId="126"/>
+    <cellStyle name="常规 2 2 5" xfId="127"/>
+    <cellStyle name="常规 2 2 5 2" xfId="128"/>
+    <cellStyle name="常规 2 2 5 2 2" xfId="129"/>
+    <cellStyle name="常规 2 2 5 2 3" xfId="130"/>
+    <cellStyle name="常规 2 2 5 3" xfId="131"/>
+    <cellStyle name="常规 2 2 6" xfId="132"/>
+    <cellStyle name="常规 2 2 6 2" xfId="133"/>
+    <cellStyle name="常规 2 2 6 3" xfId="134"/>
+    <cellStyle name="常规 2 2 7" xfId="135"/>
+    <cellStyle name="常规 2 3" xfId="136"/>
+    <cellStyle name="常规 2 3 2" xfId="137"/>
+    <cellStyle name="常规 2 3 2 2" xfId="138"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="139"/>
+    <cellStyle name="常规 2 3 2 2 2 2" xfId="140"/>
+    <cellStyle name="常规 2 3 2 2 2 2 2" xfId="141"/>
+    <cellStyle name="常规 2 3 2 2 2 2 2 2" xfId="142"/>
+    <cellStyle name="常规 2 3 2 2 2 2 2 3" xfId="143"/>
+    <cellStyle name="常规 2 3 2 2 2 2 3" xfId="144"/>
+    <cellStyle name="常规 2 3 2 2 2 3" xfId="145"/>
+    <cellStyle name="常规 2 3 2 2 2 3 2" xfId="146"/>
+    <cellStyle name="常规 2 3 2 2 2 3 3" xfId="147"/>
+    <cellStyle name="常规 2 3 2 2 2 4" xfId="148"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="149"/>
+    <cellStyle name="常规 2 3 2 2 3 2" xfId="150"/>
+    <cellStyle name="常规 2 3 2 2 3 2 2" xfId="151"/>
+    <cellStyle name="常规 2 3 2 2 3 2 3" xfId="152"/>
+    <cellStyle name="常规 2 3 2 2 3 3" xfId="153"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="154"/>
+    <cellStyle name="常规 2 3 2 2 4 2" xfId="155"/>
+    <cellStyle name="常规 2 3 2 2 4 3" xfId="156"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="157"/>
+    <cellStyle name="常规 2 3 2 3" xfId="158"/>
+    <cellStyle name="常规 2 3 2 3 2" xfId="159"/>
+    <cellStyle name="常规 2 3 2 3 2 2" xfId="160"/>
+    <cellStyle name="常规 2 3 2 3 2 2 2" xfId="161"/>
+    <cellStyle name="常规 2 3 2 3 2 2 3" xfId="162"/>
+    <cellStyle name="常规 2 3 2 3 2 3" xfId="163"/>
+    <cellStyle name="常规 2 3 2 3 3" xfId="164"/>
+    <cellStyle name="常规 2 3 2 3 3 2" xfId="165"/>
+    <cellStyle name="常规 2 3 2 3 3 3" xfId="166"/>
+    <cellStyle name="常规 2 3 2 3 4" xfId="167"/>
+    <cellStyle name="常规 2 3 2 4" xfId="168"/>
+    <cellStyle name="常规 2 3 2 4 2" xfId="169"/>
+    <cellStyle name="常规 2 3 2 4 2 2" xfId="170"/>
+    <cellStyle name="常规 2 3 2 4 2 3" xfId="171"/>
+    <cellStyle name="常规 2 3 2 4 3" xfId="172"/>
+    <cellStyle name="常规 2 3 2 5" xfId="173"/>
+    <cellStyle name="常规 2 3 2 5 2" xfId="174"/>
+    <cellStyle name="常规 2 3 2 5 3" xfId="175"/>
+    <cellStyle name="常规 2 3 2 6" xfId="176"/>
+    <cellStyle name="常规 2 3 3" xfId="177"/>
+    <cellStyle name="常规 2 3 3 2" xfId="178"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="179"/>
+    <cellStyle name="常规 2 3 3 2 2 2" xfId="180"/>
+    <cellStyle name="常规 2 3 3 2 2 2 2" xfId="181"/>
+    <cellStyle name="常规 2 3 3 2 2 2 3" xfId="182"/>
+    <cellStyle name="常规 2 3 3 2 2 3" xfId="183"/>
+    <cellStyle name="常规 2 3 3 2 3" xfId="184"/>
+    <cellStyle name="常规 2 3 3 2 3 2" xfId="185"/>
+    <cellStyle name="常规 2 3 3 2 3 3" xfId="186"/>
+    <cellStyle name="常规 2 3 3 2 4" xfId="187"/>
+    <cellStyle name="常规 2 3 3 3" xfId="188"/>
+    <cellStyle name="常规 2 3 3 3 2" xfId="189"/>
+    <cellStyle name="常规 2 3 3 3 2 2" xfId="190"/>
+    <cellStyle name="常规 2 3 3 3 2 3" xfId="191"/>
+    <cellStyle name="常规 2 3 3 3 3" xfId="192"/>
+    <cellStyle name="常规 2 3 3 4" xfId="193"/>
+    <cellStyle name="常规 2 3 3 4 2" xfId="194"/>
+    <cellStyle name="常规 2 3 3 4 3" xfId="195"/>
+    <cellStyle name="常规 2 3 3 5" xfId="196"/>
+    <cellStyle name="常规 2 3 4" xfId="197"/>
+    <cellStyle name="常规 2 3 4 2" xfId="198"/>
+    <cellStyle name="常规 2 3 4 2 2" xfId="199"/>
+    <cellStyle name="常规 2 3 4 2 2 2" xfId="200"/>
+    <cellStyle name="常规 2 3 4 2 2 3" xfId="201"/>
+    <cellStyle name="常规 2 3 4 2 3" xfId="202"/>
+    <cellStyle name="常规 2 3 4 3" xfId="203"/>
+    <cellStyle name="常规 2 3 4 3 2" xfId="204"/>
+    <cellStyle name="常规 2 3 4 3 3" xfId="205"/>
+    <cellStyle name="常规 2 3 4 4" xfId="206"/>
+    <cellStyle name="常规 2 3 5" xfId="207"/>
+    <cellStyle name="常规 2 3 5 2" xfId="208"/>
+    <cellStyle name="常规 2 3 5 2 2" xfId="209"/>
+    <cellStyle name="常规 2 3 5 2 3" xfId="210"/>
+    <cellStyle name="常规 2 3 5 3" xfId="211"/>
+    <cellStyle name="常规 2 3 6" xfId="212"/>
+    <cellStyle name="常规 2 3 6 2" xfId="213"/>
+    <cellStyle name="常规 2 3 6 3" xfId="214"/>
+    <cellStyle name="常规 2 3 7" xfId="215"/>
+    <cellStyle name="常规 2 4" xfId="216"/>
+    <cellStyle name="常规 2 4 2" xfId="217"/>
+    <cellStyle name="常规 2 4 2 2" xfId="218"/>
+    <cellStyle name="常规 2 4 2 2 2" xfId="219"/>
+    <cellStyle name="常规 2 4 2 2 2 2" xfId="220"/>
+    <cellStyle name="常规 2 4 2 2 2 2 2" xfId="221"/>
+    <cellStyle name="常规 2 4 2 2 2 2 3" xfId="222"/>
+    <cellStyle name="常规 2 4 2 2 2 3" xfId="223"/>
+    <cellStyle name="常规 2 4 2 2 3" xfId="224"/>
+    <cellStyle name="常规 2 4 2 2 3 2" xfId="225"/>
+    <cellStyle name="常规 2 4 2 2 3 3" xfId="226"/>
+    <cellStyle name="常规 2 4 2 2 4" xfId="227"/>
+    <cellStyle name="常规 2 4 2 3" xfId="228"/>
+    <cellStyle name="常规 2 4 2 3 2" xfId="229"/>
+    <cellStyle name="常规 2 4 2 3 2 2" xfId="230"/>
+    <cellStyle name="常规 2 4 2 3 2 3" xfId="231"/>
+    <cellStyle name="常规 2 4 2 3 3" xfId="232"/>
+    <cellStyle name="常规 2 4 2 4" xfId="233"/>
+    <cellStyle name="常规 2 4 2 4 2" xfId="234"/>
+    <cellStyle name="常规 2 4 2 4 3" xfId="235"/>
+    <cellStyle name="常规 2 4 2 5" xfId="236"/>
+    <cellStyle name="常规 2 4 3" xfId="237"/>
+    <cellStyle name="常规 2 4 3 2" xfId="238"/>
+    <cellStyle name="常规 2 4 3 2 2" xfId="239"/>
+    <cellStyle name="常规 2 4 3 2 2 2" xfId="240"/>
+    <cellStyle name="常规 2 4 3 2 2 3" xfId="241"/>
+    <cellStyle name="常规 2 4 3 2 3" xfId="242"/>
+    <cellStyle name="常规 2 4 3 3" xfId="243"/>
+    <cellStyle name="常规 2 4 3 3 2" xfId="244"/>
+    <cellStyle name="常规 2 4 3 3 3" xfId="245"/>
+    <cellStyle name="常规 2 4 3 4" xfId="246"/>
+    <cellStyle name="常规 2 4 4" xfId="247"/>
+    <cellStyle name="常规 2 4 4 2" xfId="248"/>
+    <cellStyle name="常规 2 4 4 2 2" xfId="249"/>
+    <cellStyle name="常规 2 4 4 2 3" xfId="250"/>
+    <cellStyle name="常规 2 4 4 3" xfId="251"/>
+    <cellStyle name="常规 2 4 5" xfId="252"/>
+    <cellStyle name="常规 2 4 5 2" xfId="253"/>
+    <cellStyle name="常规 2 4 5 3" xfId="254"/>
+    <cellStyle name="常规 2 4 6" xfId="255"/>
+    <cellStyle name="常规 2 5" xfId="256"/>
+    <cellStyle name="常规 2 5 2" xfId="257"/>
+    <cellStyle name="常规 2 5 2 2" xfId="258"/>
+    <cellStyle name="常规 2 5 2 2 2" xfId="259"/>
+    <cellStyle name="常规 2 5 2 2 2 2" xfId="260"/>
+    <cellStyle name="常规 2 5 2 2 2 3" xfId="261"/>
+    <cellStyle name="常规 2 5 2 2 3" xfId="262"/>
+    <cellStyle name="常规 2 5 2 3" xfId="263"/>
+    <cellStyle name="常规 2 5 2 3 2" xfId="264"/>
+    <cellStyle name="常规 2 5 2 3 3" xfId="265"/>
+    <cellStyle name="常规 2 5 2 4" xfId="266"/>
+    <cellStyle name="常规 2 5 3" xfId="267"/>
+    <cellStyle name="常规 2 5 3 2" xfId="268"/>
+    <cellStyle name="常规 2 5 3 2 2" xfId="269"/>
+    <cellStyle name="常规 2 5 3 2 3" xfId="270"/>
+    <cellStyle name="常规 2 5 3 3" xfId="271"/>
+    <cellStyle name="常规 2 5 4" xfId="272"/>
+    <cellStyle name="常规 2 5 4 2" xfId="273"/>
+    <cellStyle name="常规 2 5 4 3" xfId="274"/>
+    <cellStyle name="常规 2 5 5" xfId="275"/>
+    <cellStyle name="常规 2 6" xfId="276"/>
+    <cellStyle name="常规 2 6 2" xfId="277"/>
+    <cellStyle name="常规 2 6 2 2" xfId="278"/>
+    <cellStyle name="常规 2 6 2 2 2" xfId="279"/>
+    <cellStyle name="常规 2 6 2 2 3" xfId="280"/>
+    <cellStyle name="常规 2 6 2 3" xfId="281"/>
+    <cellStyle name="常规 2 6 3" xfId="282"/>
+    <cellStyle name="常规 2 6 3 2" xfId="283"/>
+    <cellStyle name="常规 2 6 3 3" xfId="284"/>
+    <cellStyle name="常规 2 6 4" xfId="285"/>
+    <cellStyle name="常规 2 7" xfId="286"/>
+    <cellStyle name="常规 2 7 2" xfId="287"/>
+    <cellStyle name="常规 2 7 2 2" xfId="288"/>
+    <cellStyle name="常规 2 7 2 3" xfId="289"/>
+    <cellStyle name="常规 2 7 3" xfId="290"/>
+    <cellStyle name="常规 2 8" xfId="291"/>
+    <cellStyle name="常规 2 8 2" xfId="292"/>
+    <cellStyle name="常规 2 8 3" xfId="293"/>
+    <cellStyle name="常规 2 9" xfId="294"/>
+    <cellStyle name="常规 3" xfId="295"/>
+    <cellStyle name="常规 3 2" xfId="296"/>
+    <cellStyle name="常规 3 2 2" xfId="297"/>
+    <cellStyle name="常规 3 2 2 2" xfId="298"/>
+    <cellStyle name="常规 3 2 2 2 2" xfId="299"/>
+    <cellStyle name="常规 3 2 2 2 2 2" xfId="300"/>
+    <cellStyle name="常规 3 2 2 2 2 2 2" xfId="301"/>
+    <cellStyle name="常规 3 2 2 2 2 2 3" xfId="302"/>
+    <cellStyle name="常规 3 2 2 2 2 3" xfId="303"/>
+    <cellStyle name="常规 3 2 2 2 3" xfId="304"/>
+    <cellStyle name="常规 3 2 2 2 3 2" xfId="305"/>
+    <cellStyle name="常规 3 2 2 2 3 3" xfId="306"/>
+    <cellStyle name="常规 3 2 2 2 4" xfId="307"/>
+    <cellStyle name="常规 3 2 2 3" xfId="308"/>
+    <cellStyle name="常规 3 2 2 3 2" xfId="309"/>
+    <cellStyle name="常规 3 2 2 3 2 2" xfId="310"/>
+    <cellStyle name="常规 3 2 2 3 2 3" xfId="311"/>
+    <cellStyle name="常规 3 2 2 3 3" xfId="312"/>
+    <cellStyle name="常规 3 2 2 4" xfId="313"/>
+    <cellStyle name="常规 3 2 2 4 2" xfId="314"/>
+    <cellStyle name="常规 3 2 2 4 3" xfId="315"/>
+    <cellStyle name="常规 3 2 2 5" xfId="316"/>
+    <cellStyle name="常规 3 2 3" xfId="317"/>
+    <cellStyle name="常规 3 2 3 2" xfId="318"/>
+    <cellStyle name="常规 3 2 3 2 2" xfId="319"/>
+    <cellStyle name="常规 3 2 3 2 2 2" xfId="320"/>
+    <cellStyle name="常规 3 2 3 2 2 3" xfId="321"/>
+    <cellStyle name="常规 3 2 3 2 3" xfId="322"/>
+    <cellStyle name="常规 3 2 3 3" xfId="323"/>
+    <cellStyle name="常规 3 2 3 3 2" xfId="324"/>
+    <cellStyle name="常规 3 2 3 3 3" xfId="325"/>
+    <cellStyle name="常规 3 2 3 4" xfId="326"/>
+    <cellStyle name="常规 3 2 4" xfId="327"/>
+    <cellStyle name="常规 3 2 4 2" xfId="328"/>
+    <cellStyle name="常规 3 2 4 2 2" xfId="329"/>
+    <cellStyle name="常规 3 2 4 2 3" xfId="330"/>
+    <cellStyle name="常规 3 2 4 3" xfId="331"/>
+    <cellStyle name="常规 3 2 5" xfId="332"/>
+    <cellStyle name="常规 3 2 5 2" xfId="333"/>
+    <cellStyle name="常规 3 2 5 3" xfId="334"/>
+    <cellStyle name="常规 3 2 6" xfId="335"/>
+    <cellStyle name="常规 3 3" xfId="336"/>
+    <cellStyle name="常规 3 3 2" xfId="337"/>
+    <cellStyle name="常规 3 3 2 2" xfId="338"/>
+    <cellStyle name="常规 3 3 2 2 2" xfId="339"/>
+    <cellStyle name="常规 3 3 2 2 2 2" xfId="340"/>
+    <cellStyle name="常规 3 3 2 2 2 3" xfId="341"/>
+    <cellStyle name="常规 3 3 2 2 3" xfId="342"/>
+    <cellStyle name="常规 3 3 2 3" xfId="343"/>
+    <cellStyle name="常规 3 3 2 3 2" xfId="344"/>
+    <cellStyle name="常规 3 3 2 3 3" xfId="345"/>
+    <cellStyle name="常规 3 3 2 4" xfId="346"/>
+    <cellStyle name="常规 3 3 3" xfId="347"/>
+    <cellStyle name="常规 3 3 3 2" xfId="348"/>
+    <cellStyle name="常规 3 3 3 2 2" xfId="349"/>
+    <cellStyle name="常规 3 3 3 2 3" xfId="350"/>
+    <cellStyle name="常规 3 3 3 3" xfId="351"/>
+    <cellStyle name="常规 3 3 4" xfId="352"/>
+    <cellStyle name="常规 3 3 4 2" xfId="353"/>
+    <cellStyle name="常规 3 3 4 3" xfId="354"/>
+    <cellStyle name="常规 3 3 5" xfId="355"/>
+    <cellStyle name="常规 3 4" xfId="356"/>
+    <cellStyle name="常规 3 4 2" xfId="357"/>
+    <cellStyle name="常规 3 4 2 2" xfId="358"/>
+    <cellStyle name="常规 3 4 2 2 2" xfId="359"/>
+    <cellStyle name="常规 3 4 2 2 3" xfId="360"/>
+    <cellStyle name="常规 3 4 2 3" xfId="361"/>
+    <cellStyle name="常规 3 4 3" xfId="362"/>
+    <cellStyle name="常规 3 4 3 2" xfId="363"/>
+    <cellStyle name="常规 3 4 3 3" xfId="364"/>
+    <cellStyle name="常规 3 4 4" xfId="365"/>
+    <cellStyle name="常规 3 5" xfId="366"/>
+    <cellStyle name="常规 3 5 2" xfId="367"/>
+    <cellStyle name="常规 3 5 2 2" xfId="368"/>
+    <cellStyle name="常规 3 5 2 3" xfId="369"/>
+    <cellStyle name="常规 3 5 3" xfId="370"/>
+    <cellStyle name="常规 3 6" xfId="371"/>
+    <cellStyle name="常规 3 6 2" xfId="372"/>
+    <cellStyle name="常规 3 6 3" xfId="373"/>
+    <cellStyle name="常规 3 7" xfId="374"/>
+    <cellStyle name="常规 4" xfId="375"/>
+    <cellStyle name="常规 4 2" xfId="376"/>
+    <cellStyle name="常规 4 2 2" xfId="377"/>
+    <cellStyle name="常规 4 2 2 2" xfId="378"/>
+    <cellStyle name="常规 4 2 2 2 2" xfId="379"/>
+    <cellStyle name="常规 4 2 2 2 2 2" xfId="380"/>
+    <cellStyle name="常规 4 2 2 2 2 2 2" xfId="381"/>
+    <cellStyle name="常规 4 2 2 2 2 2 3" xfId="382"/>
+    <cellStyle name="常规 4 2 2 2 2 3" xfId="383"/>
+    <cellStyle name="常规 4 2 2 2 3" xfId="384"/>
+    <cellStyle name="常规 4 2 2 2 3 2" xfId="385"/>
+    <cellStyle name="常规 4 2 2 2 3 3" xfId="386"/>
+    <cellStyle name="常规 4 2 2 2 4" xfId="387"/>
+    <cellStyle name="常规 4 2 2 3" xfId="388"/>
+    <cellStyle name="常规 4 2 2 3 2" xfId="389"/>
+    <cellStyle name="常规 4 2 2 3 2 2" xfId="390"/>
+    <cellStyle name="常规 4 2 2 3 2 3" xfId="391"/>
+    <cellStyle name="常规 4 2 2 3 3" xfId="392"/>
+    <cellStyle name="常规 4 2 2 4" xfId="393"/>
+    <cellStyle name="常规 4 2 2 4 2" xfId="394"/>
+    <cellStyle name="常规 4 2 2 4 3" xfId="395"/>
+    <cellStyle name="常规 4 2 2 5" xfId="396"/>
+    <cellStyle name="常规 4 2 3" xfId="397"/>
+    <cellStyle name="常规 4 2 3 2" xfId="398"/>
+    <cellStyle name="常规 4 2 3 2 2" xfId="399"/>
+    <cellStyle name="常规 4 2 3 2 2 2" xfId="400"/>
+    <cellStyle name="常规 4 2 3 2 2 3" xfId="401"/>
+    <cellStyle name="常规 4 2 3 2 3" xfId="402"/>
+    <cellStyle name="常规 4 2 3 3" xfId="403"/>
+    <cellStyle name="常规 4 2 3 3 2" xfId="404"/>
+    <cellStyle name="常规 4 2 3 3 3" xfId="405"/>
+    <cellStyle name="常规 4 2 3 4" xfId="406"/>
+    <cellStyle name="常规 4 2 4" xfId="407"/>
+    <cellStyle name="常规 4 2 4 2" xfId="408"/>
+    <cellStyle name="常规 4 2 4 2 2" xfId="409"/>
+    <cellStyle name="常规 4 2 4 2 3" xfId="410"/>
+    <cellStyle name="常规 4 2 4 3" xfId="411"/>
+    <cellStyle name="常规 4 2 5" xfId="412"/>
+    <cellStyle name="常规 4 2 5 2" xfId="413"/>
+    <cellStyle name="常规 4 2 5 3" xfId="414"/>
+    <cellStyle name="常规 4 2 6" xfId="415"/>
+    <cellStyle name="常规 4 3" xfId="416"/>
+    <cellStyle name="常规 4 3 2" xfId="417"/>
+    <cellStyle name="常规 4 3 2 2" xfId="418"/>
+    <cellStyle name="常规 4 3 2 2 2" xfId="419"/>
+    <cellStyle name="常规 4 3 2 2 2 2" xfId="420"/>
+    <cellStyle name="常规 4 3 2 2 2 3" xfId="421"/>
+    <cellStyle name="常规 4 3 2 2 3" xfId="422"/>
+    <cellStyle name="常规 4 3 2 3" xfId="423"/>
+    <cellStyle name="常规 4 3 2 3 2" xfId="424"/>
+    <cellStyle name="常规 4 3 2 3 3" xfId="425"/>
+    <cellStyle name="常规 4 3 2 4" xfId="426"/>
+    <cellStyle name="常规 4 3 3" xfId="427"/>
+    <cellStyle name="常规 4 3 3 2" xfId="428"/>
+    <cellStyle name="常规 4 3 3 2 2" xfId="429"/>
+    <cellStyle name="常规 4 3 3 2 3" xfId="430"/>
+    <cellStyle name="常规 4 3 3 3" xfId="431"/>
+    <cellStyle name="常规 4 3 4" xfId="432"/>
+    <cellStyle name="常规 4 3 4 2" xfId="433"/>
+    <cellStyle name="常规 4 3 4 3" xfId="434"/>
+    <cellStyle name="常规 4 3 5" xfId="435"/>
+    <cellStyle name="常规 4 4" xfId="436"/>
+    <cellStyle name="常规 4 4 2" xfId="437"/>
+    <cellStyle name="常规 4 4 2 2" xfId="438"/>
+    <cellStyle name="常规 4 4 2 2 2" xfId="439"/>
+    <cellStyle name="常规 4 4 2 2 3" xfId="440"/>
+    <cellStyle name="常规 4 4 2 3" xfId="441"/>
+    <cellStyle name="常规 4 4 3" xfId="442"/>
+    <cellStyle name="常规 4 4 3 2" xfId="443"/>
+    <cellStyle name="常规 4 4 3 3" xfId="444"/>
+    <cellStyle name="常规 4 4 4" xfId="445"/>
+    <cellStyle name="常规 4 5" xfId="446"/>
+    <cellStyle name="常规 4 5 2" xfId="447"/>
+    <cellStyle name="常规 4 5 2 2" xfId="448"/>
+    <cellStyle name="常规 4 5 2 3" xfId="449"/>
+    <cellStyle name="常规 4 5 3" xfId="450"/>
+    <cellStyle name="常规 4 6" xfId="451"/>
+    <cellStyle name="常规 4 6 2" xfId="452"/>
+    <cellStyle name="常规 4 6 3" xfId="453"/>
+    <cellStyle name="常规 4 7" xfId="454"/>
+    <cellStyle name="常规 5" xfId="455"/>
+    <cellStyle name="常规 5 2" xfId="456"/>
+    <cellStyle name="常规 5 2 2" xfId="457"/>
+    <cellStyle name="常规 5 2 2 2" xfId="458"/>
+    <cellStyle name="常规 5 2 2 2 2" xfId="459"/>
+    <cellStyle name="常规 5 2 2 2 2 2" xfId="460"/>
+    <cellStyle name="常规 5 2 2 2 2 3" xfId="461"/>
+    <cellStyle name="常规 5 2 2 2 3" xfId="462"/>
+    <cellStyle name="常规 5 2 2 3" xfId="463"/>
+    <cellStyle name="常规 5 2 2 3 2" xfId="464"/>
+    <cellStyle name="常规 5 2 2 3 3" xfId="465"/>
+    <cellStyle name="常规 5 2 2 4" xfId="466"/>
+    <cellStyle name="常规 5 2 3" xfId="467"/>
+    <cellStyle name="常规 5 2 3 2" xfId="468"/>
+    <cellStyle name="常规 5 2 3 2 2" xfId="469"/>
+    <cellStyle name="常规 5 2 3 2 3" xfId="470"/>
+    <cellStyle name="常规 5 2 3 3" xfId="471"/>
+    <cellStyle name="常规 5 2 4" xfId="472"/>
+    <cellStyle name="常规 5 2 4 2" xfId="473"/>
+    <cellStyle name="常规 5 2 4 3" xfId="474"/>
+    <cellStyle name="常规 5 2 5" xfId="475"/>
+    <cellStyle name="常规 5 3" xfId="476"/>
+    <cellStyle name="常规 5 3 2" xfId="477"/>
+    <cellStyle name="常规 5 3 2 2" xfId="478"/>
+    <cellStyle name="常规 5 3 2 2 2" xfId="479"/>
+    <cellStyle name="常规 5 3 2 2 3" xfId="480"/>
+    <cellStyle name="常规 5 3 2 3" xfId="481"/>
+    <cellStyle name="常规 5 3 3" xfId="482"/>
+    <cellStyle name="常规 5 3 3 2" xfId="483"/>
+    <cellStyle name="常规 5 3 3 3" xfId="484"/>
+    <cellStyle name="常规 5 3 4" xfId="485"/>
+    <cellStyle name="常规 5 4" xfId="486"/>
+    <cellStyle name="常规 5 4 2" xfId="487"/>
+    <cellStyle name="常规 5 4 2 2" xfId="488"/>
+    <cellStyle name="常规 5 4 2 3" xfId="489"/>
+    <cellStyle name="常规 5 4 3" xfId="490"/>
+    <cellStyle name="常规 5 5" xfId="491"/>
+    <cellStyle name="常规 5 5 2" xfId="492"/>
+    <cellStyle name="常规 5 5 3" xfId="493"/>
+    <cellStyle name="常规 5 6" xfId="494"/>
+    <cellStyle name="常规 6" xfId="495"/>
+    <cellStyle name="常规 6 2" xfId="496"/>
+    <cellStyle name="常规 6 2 2" xfId="497"/>
+    <cellStyle name="常规 6 2 2 2" xfId="498"/>
+    <cellStyle name="常规 6 2 2 2 2" xfId="499"/>
+    <cellStyle name="常规 6 2 2 2 3" xfId="500"/>
+    <cellStyle name="常规 6 2 2 3" xfId="501"/>
+    <cellStyle name="常规 6 2 3" xfId="502"/>
+    <cellStyle name="常规 6 2 3 2" xfId="503"/>
+    <cellStyle name="常规 6 2 3 3" xfId="504"/>
+    <cellStyle name="常规 6 2 4" xfId="505"/>
+    <cellStyle name="常规 6 3" xfId="506"/>
+    <cellStyle name="常规 6 3 2" xfId="507"/>
+    <cellStyle name="常规 6 3 2 2" xfId="508"/>
+    <cellStyle name="常规 6 3 2 3" xfId="509"/>
+    <cellStyle name="常规 6 3 3" xfId="510"/>
+    <cellStyle name="常规 6 4" xfId="511"/>
+    <cellStyle name="常规 6 4 2" xfId="512"/>
+    <cellStyle name="常规 6 4 3" xfId="513"/>
+    <cellStyle name="常规 6 5" xfId="514"/>
+    <cellStyle name="常规 7" xfId="515"/>
+    <cellStyle name="常规 7 2" xfId="516"/>
+    <cellStyle name="常规 7 2 2" xfId="517"/>
+    <cellStyle name="常规 7 2 2 2" xfId="518"/>
+    <cellStyle name="常规 7 2 2 3" xfId="519"/>
+    <cellStyle name="常规 7 2 3" xfId="520"/>
+    <cellStyle name="常规 7 3" xfId="521"/>
+    <cellStyle name="常规 7 3 2" xfId="522"/>
+    <cellStyle name="常规 7 3 3" xfId="523"/>
+    <cellStyle name="常规 7 4" xfId="524"/>
+    <cellStyle name="常规 8" xfId="525"/>
+    <cellStyle name="常规 8 2" xfId="526"/>
+    <cellStyle name="常规 8 2 2" xfId="527"/>
+    <cellStyle name="常规 8 2 3" xfId="528"/>
+    <cellStyle name="常规 8 3" xfId="529"/>
+    <cellStyle name="常规 9" xfId="530"/>
+    <cellStyle name="常规 9 2" xfId="531"/>
+    <cellStyle name="常规 9 3" xfId="532"/>
   </cellStyles>
-  <dxfs count="37">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1631,9 +1889,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1682,7 +1937,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1717,7 +1972,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1920,22 +2175,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="8.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="56.875" style="5" customWidth="1"/>
@@ -1946,7 +2202,7 @@
     <col min="7" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1966,7 +2222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -1977,60 +2233,68 @@
         <v>8</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" spans="1:6">
       <c r="A3" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" s="3" customFormat="1" spans="1:6">
       <c r="A4" s="12"/>
       <c r="B4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>16</v>
-      </c>
       <c r="D4" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="13">
         <v>4</v>
       </c>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" s="3" customFormat="1" spans="1:6">
       <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="B5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="13">
+        <v>5</v>
+      </c>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" s="3" customFormat="1" spans="1:6">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -2038,7 +2302,7 @@
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" s="3" customFormat="1" spans="1:6">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -2046,7 +2310,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" s="3" customFormat="1" spans="1:6">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -2054,7 +2318,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" s="3" customFormat="1" spans="1:6">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -2062,7 +2326,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" s="3" customFormat="1" spans="1:6">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -2070,7 +2334,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" s="3" customFormat="1" spans="1:6">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -2078,7 +2342,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" s="3" customFormat="1" spans="1:6">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -2086,7 +2350,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" s="3" customFormat="1" spans="1:6">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -2094,7 +2358,7 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" s="3" customFormat="1" spans="1:6">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -2102,7 +2366,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" s="3" customFormat="1" spans="1:6">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -2110,7 +2374,7 @@
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" s="3" customFormat="1" spans="1:6">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -2118,7 +2382,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" s="3" customFormat="1" spans="1:6">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -2126,7 +2390,7 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" s="3" customFormat="1" spans="1:6">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -2134,7 +2398,7 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" s="3" customFormat="1" spans="1:6">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -2142,7 +2406,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" s="3" customFormat="1" spans="1:6">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -2150,7 +2414,7 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" s="3" customFormat="1" spans="1:6">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -2158,7 +2422,7 @@
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" s="3" customFormat="1" spans="1:6">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -2166,7 +2430,7 @@
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" s="3" customFormat="1" spans="1:6">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -2174,7 +2438,7 @@
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" s="3" customFormat="1" spans="1:6">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -2182,7 +2446,7 @@
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" s="3" customFormat="1" spans="1:6">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -2190,7 +2454,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
     </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" s="3" customFormat="1" spans="1:6">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -2198,7 +2462,7 @@
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
     </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" s="3" customFormat="1" spans="1:6">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -2206,7 +2470,7 @@
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
     </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" s="3" customFormat="1" spans="1:6">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -2214,7 +2478,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
     </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" s="3" customFormat="1" spans="1:6">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -2222,7 +2486,7 @@
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
     </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" s="3" customFormat="1" spans="1:6">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -2230,7 +2494,7 @@
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
     </row>
-    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" s="3" customFormat="1" spans="1:6">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -2238,7 +2502,7 @@
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" s="3" customFormat="1" spans="1:6">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -2246,7 +2510,7 @@
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
     </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" s="3" customFormat="1" spans="1:6">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -2254,7 +2518,7 @@
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
     </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" s="3" customFormat="1" spans="1:6">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -2262,7 +2526,7 @@
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
     </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" s="3" customFormat="1" spans="1:6">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -2270,7 +2534,7 @@
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
     </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" s="3" customFormat="1" spans="1:6">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -2278,7 +2542,7 @@
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" s="3" customFormat="1" spans="1:6">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -2286,7 +2550,7 @@
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
     </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" s="3" customFormat="1" spans="1:6">
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -2294,7 +2558,7 @@
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
     </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" s="3" customFormat="1" spans="1:6">
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -2302,7 +2566,7 @@
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
     </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" s="3" customFormat="1" spans="1:6">
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -2310,7 +2574,7 @@
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
     </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" s="3" customFormat="1" spans="1:6">
       <c r="A41" s="12"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -2318,7 +2582,7 @@
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
     </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" s="3" customFormat="1" spans="1:6">
       <c r="A42" s="12"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -2326,7 +2590,7 @@
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
     </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" s="3" customFormat="1" spans="1:6">
       <c r="A43" s="12"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -2334,7 +2598,7 @@
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
     </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" s="3" customFormat="1" spans="1:6">
       <c r="A44" s="12"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -2342,7 +2606,7 @@
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
     </row>
-    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" s="3" customFormat="1" spans="1:6">
       <c r="A45" s="12"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -2350,7 +2614,7 @@
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
     </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" s="3" customFormat="1" spans="1:6">
       <c r="A46" s="12"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -2358,7 +2622,7 @@
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
     </row>
-    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" s="3" customFormat="1" spans="1:6">
       <c r="A47" s="12"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -2366,7 +2630,7 @@
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
     </row>
-    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" s="3" customFormat="1" spans="1:6">
       <c r="A48" s="12"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -2374,31 +2638,31 @@
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
     </row>
-    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" s="3" customFormat="1" spans="1:6">
       <c r="A49" s="12"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
-      <c r="F49" s="20"/>
-    </row>
-    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" s="3" customFormat="1" spans="1:6">
       <c r="A50" s="12"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
-      <c r="F50" s="20"/>
-    </row>
-    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F50" s="13"/>
+    </row>
+    <row r="51" s="3" customFormat="1" spans="1:6">
       <c r="A51" s="12"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
-      <c r="F51" s="20"/>
-    </row>
-    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F51" s="13"/>
+    </row>
+    <row r="52" s="3" customFormat="1" spans="1:6">
       <c r="A52" s="12"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -2406,7 +2670,7 @@
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
     </row>
-    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" s="3" customFormat="1" spans="1:6">
       <c r="A53" s="12"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -2414,7 +2678,7 @@
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
     </row>
-    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" s="3" customFormat="1" spans="1:6">
       <c r="A54" s="12"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -2422,7 +2686,7 @@
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
     </row>
-    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" s="3" customFormat="1" spans="1:6">
       <c r="A55" s="12"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
@@ -2430,7 +2694,7 @@
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
     </row>
-    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" s="3" customFormat="1" spans="1:6">
       <c r="A56" s="12"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -2438,7 +2702,7 @@
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
     </row>
-    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" s="3" customFormat="1" spans="1:6">
       <c r="A57" s="12"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -2446,7 +2710,7 @@
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
     </row>
-    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" s="3" customFormat="1" spans="1:6">
       <c r="A58" s="12"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
@@ -2454,7 +2718,7 @@
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
     </row>
-    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" s="3" customFormat="1" spans="1:6">
       <c r="A59" s="12"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -2462,7 +2726,7 @@
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
     </row>
-    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" s="3" customFormat="1" spans="1:6">
       <c r="A60" s="12"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -2470,7 +2734,7 @@
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
     </row>
-    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" s="3" customFormat="1" spans="1:6">
       <c r="A61" s="12"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -2478,7 +2742,7 @@
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
     </row>
-    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" s="3" customFormat="1" spans="1:6">
       <c r="A62" s="12"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
@@ -2486,7 +2750,7 @@
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
     </row>
-    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" s="3" customFormat="1" spans="1:6">
       <c r="A63" s="12"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -2494,7 +2758,7 @@
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
     </row>
-    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" s="3" customFormat="1" spans="1:6">
       <c r="A64" s="12"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
@@ -2502,7 +2766,7 @@
       <c r="E64" s="13"/>
       <c r="F64" s="13"/>
     </row>
-    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" s="3" customFormat="1" spans="1:6">
       <c r="A65" s="12"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -2510,7 +2774,7 @@
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
     </row>
-    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" s="3" customFormat="1" spans="1:6">
       <c r="A66" s="12"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -2518,7 +2782,7 @@
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
     </row>
-    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" s="3" customFormat="1" spans="1:6">
       <c r="A67" s="12"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -2526,7 +2790,7 @@
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
     </row>
-    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" s="3" customFormat="1" spans="1:6">
       <c r="A68" s="12"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -2534,7 +2798,7 @@
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
     </row>
-    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" s="3" customFormat="1" spans="1:6">
       <c r="A69" s="12"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -2542,7 +2806,7 @@
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
     </row>
-    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" s="3" customFormat="1" spans="1:6">
       <c r="A70" s="12"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -2550,7 +2814,7 @@
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
     </row>
-    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" s="3" customFormat="1" spans="1:6">
       <c r="A71" s="12"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -2558,7 +2822,7 @@
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
     </row>
-    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" s="3" customFormat="1" spans="1:6">
       <c r="A72" s="12"/>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
@@ -2566,7 +2830,7 @@
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
     </row>
-    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" s="3" customFormat="1" spans="1:6">
       <c r="A73" s="12"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
@@ -2574,7 +2838,7 @@
       <c r="E73" s="13"/>
       <c r="F73" s="13"/>
     </row>
-    <row r="74" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" s="3" customFormat="1" spans="1:6">
       <c r="A74" s="12"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
@@ -2582,7 +2846,7 @@
       <c r="E74" s="13"/>
       <c r="F74" s="13"/>
     </row>
-    <row r="75" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" s="3" customFormat="1" spans="1:6">
       <c r="A75" s="12"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
@@ -2590,7 +2854,7 @@
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
     </row>
-    <row r="76" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" s="3" customFormat="1" spans="1:6">
       <c r="A76" s="12"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
@@ -2598,169 +2862,169 @@
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
     </row>
-    <row r="77" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" s="3" customFormat="1"/>
+    <row r="78" s="3" customFormat="1" spans="2:6">
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
     </row>
-    <row r="79" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" s="3" customFormat="1" spans="2:6">
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
     </row>
-    <row r="80" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" s="3" customFormat="1" spans="2:6">
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
     </row>
-    <row r="81" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" s="3" customFormat="1" spans="2:6">
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
       <c r="F81" s="13"/>
     </row>
-    <row r="82" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" s="3" customFormat="1" spans="2:6">
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
       <c r="F82" s="13"/>
     </row>
-    <row r="83" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" s="3" customFormat="1" spans="2:6">
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
       <c r="F83" s="13"/>
     </row>
-    <row r="84" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" s="3" customFormat="1" spans="2:6">
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
       <c r="F84" s="13"/>
     </row>
-    <row r="85" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" s="3" customFormat="1" spans="2:6">
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
       <c r="F85" s="13"/>
     </row>
-    <row r="86" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" s="3" customFormat="1" spans="2:6">
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13"/>
       <c r="F86" s="13"/>
     </row>
-    <row r="87" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" s="3" customFormat="1" spans="2:6">
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
       <c r="E87" s="13"/>
       <c r="F87" s="13"/>
     </row>
-    <row r="88" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" s="3" customFormat="1" spans="2:6">
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
       <c r="F88" s="13"/>
     </row>
-    <row r="89" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" s="3" customFormat="1" spans="2:6">
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13"/>
       <c r="F89" s="13"/>
     </row>
-    <row r="90" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" s="3" customFormat="1" spans="2:6">
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
       <c r="F90" s="13"/>
     </row>
-    <row r="91" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" s="3" customFormat="1" spans="2:6">
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
       <c r="E91" s="13"/>
       <c r="F91" s="13"/>
     </row>
-    <row r="92" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" s="3" customFormat="1" spans="2:6">
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
       <c r="E92" s="13"/>
       <c r="F92" s="13"/>
     </row>
-    <row r="93" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" s="3" customFormat="1" spans="2:6">
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
       <c r="E93" s="13"/>
       <c r="F93" s="13"/>
     </row>
-    <row r="94" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" s="3" customFormat="1" spans="2:6">
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
       <c r="E94" s="13"/>
       <c r="F94" s="13"/>
     </row>
-    <row r="95" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" s="3" customFormat="1" spans="2:6">
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
       <c r="F95" s="13"/>
     </row>
-    <row r="96" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" s="3" customFormat="1" spans="2:6">
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
       <c r="F96" s="13"/>
     </row>
-    <row r="97" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" s="3" customFormat="1" spans="2:6">
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
       <c r="E97" s="13"/>
       <c r="F97" s="13"/>
     </row>
-    <row r="98" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" s="3" customFormat="1" spans="2:6">
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
       <c r="E98" s="13"/>
       <c r="F98" s="13"/>
     </row>
-    <row r="99" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" s="3" customFormat="1" ht="18" customHeight="1" spans="2:6">
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
       <c r="E99" s="13"/>
       <c r="F99" s="13"/>
     </row>
-    <row r="100" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" s="3" customFormat="1" ht="18" customHeight="1" spans="2:6">
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
       <c r="E100" s="13"/>
       <c r="F100" s="13"/>
     </row>
-    <row r="101" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" s="3" customFormat="1" spans="1:6">
       <c r="A101" s="12"/>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
@@ -2768,7 +3032,7 @@
       <c r="E101" s="13"/>
       <c r="F101" s="13"/>
     </row>
-    <row r="102" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" s="3" customFormat="1" spans="1:6">
       <c r="A102" s="12"/>
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
@@ -2776,7 +3040,7 @@
       <c r="E102" s="13"/>
       <c r="F102" s="13"/>
     </row>
-    <row r="103" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" s="3" customFormat="1" spans="1:6">
       <c r="A103" s="12"/>
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
@@ -2784,7 +3048,7 @@
       <c r="E103" s="13"/>
       <c r="F103" s="13"/>
     </row>
-    <row r="104" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" s="3" customFormat="1" spans="1:6">
       <c r="A104" s="12"/>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
@@ -2792,7 +3056,7 @@
       <c r="E104" s="13"/>
       <c r="F104" s="13"/>
     </row>
-    <row r="105" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" s="3" customFormat="1" spans="1:6">
       <c r="A105" s="12"/>
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
@@ -2800,7 +3064,7 @@
       <c r="E105" s="13"/>
       <c r="F105" s="13"/>
     </row>
-    <row r="106" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" s="3" customFormat="1" spans="1:6">
       <c r="A106" s="12"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
@@ -2808,7 +3072,7 @@
       <c r="E106" s="13"/>
       <c r="F106" s="13"/>
     </row>
-    <row r="107" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" s="3" customFormat="1" spans="1:6">
       <c r="A107" s="12"/>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
@@ -2816,7 +3080,7 @@
       <c r="E107" s="13"/>
       <c r="F107" s="13"/>
     </row>
-    <row r="108" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" s="3" customFormat="1" spans="1:6">
       <c r="A108" s="12"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
@@ -2824,7 +3088,7 @@
       <c r="E108" s="13"/>
       <c r="F108" s="13"/>
     </row>
-    <row r="109" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" s="3" customFormat="1" spans="1:6">
       <c r="A109" s="12"/>
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
@@ -2832,7 +3096,7 @@
       <c r="E109" s="13"/>
       <c r="F109" s="13"/>
     </row>
-    <row r="110" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" s="3" customFormat="1" spans="1:6">
       <c r="A110" s="12"/>
       <c r="B110" s="13"/>
       <c r="C110" s="13"/>
@@ -2840,7 +3104,7 @@
       <c r="E110" s="13"/>
       <c r="F110" s="13"/>
     </row>
-    <row r="111" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" s="3" customFormat="1" spans="1:6">
       <c r="A111" s="14"/>
       <c r="B111" s="15"/>
       <c r="C111" s="15"/>
@@ -2848,7 +3112,7 @@
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
     </row>
-    <row r="112" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" s="3" customFormat="1" spans="1:6">
       <c r="A112" s="12"/>
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
@@ -2856,133 +3120,133 @@
       <c r="E112" s="13"/>
       <c r="F112" s="13"/>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:6">
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
       <c r="E113" s="13"/>
       <c r="F113" s="13"/>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:6">
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
       <c r="E114" s="13"/>
       <c r="F114" s="13"/>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:6">
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
       <c r="D115" s="13"/>
       <c r="E115" s="13"/>
       <c r="F115" s="13"/>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:6">
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
       <c r="D116" s="13"/>
       <c r="E116" s="13"/>
       <c r="F116" s="13"/>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:6">
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
       <c r="D117" s="13"/>
       <c r="E117" s="13"/>
       <c r="F117" s="13"/>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:6">
       <c r="B118" s="13"/>
       <c r="C118" s="13"/>
       <c r="D118" s="13"/>
       <c r="E118" s="13"/>
       <c r="F118" s="13"/>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:6">
       <c r="B119" s="13"/>
       <c r="C119" s="13"/>
       <c r="D119" s="13"/>
       <c r="E119" s="13"/>
       <c r="F119" s="13"/>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:6">
       <c r="B120" s="13"/>
       <c r="C120" s="13"/>
       <c r="D120" s="13"/>
       <c r="E120" s="13"/>
       <c r="F120" s="13"/>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:6">
       <c r="B121" s="13"/>
       <c r="C121" s="13"/>
       <c r="D121" s="13"/>
       <c r="E121" s="13"/>
       <c r="F121" s="13"/>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:6">
       <c r="B122" s="13"/>
       <c r="C122" s="13"/>
       <c r="D122" s="13"/>
       <c r="E122" s="13"/>
       <c r="F122" s="13"/>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:6">
       <c r="B123" s="13"/>
       <c r="C123" s="13"/>
       <c r="D123" s="13"/>
       <c r="E123" s="13"/>
       <c r="F123" s="13"/>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:6">
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
       <c r="D124" s="13"/>
       <c r="E124" s="13"/>
       <c r="F124" s="13"/>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:6">
       <c r="B125" s="13"/>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
       <c r="E125" s="13"/>
       <c r="F125" s="13"/>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:6">
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
       <c r="E126" s="13"/>
       <c r="F126" s="13"/>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:6">
       <c r="B127" s="13"/>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
       <c r="E127" s="13"/>
       <c r="F127" s="13"/>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:6">
       <c r="B128" s="13"/>
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
       <c r="E128" s="13"/>
       <c r="F128" s="16"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:6">
       <c r="B129" s="13"/>
       <c r="C129" s="13"/>
       <c r="D129" s="13"/>
       <c r="E129" s="13"/>
       <c r="F129" s="13"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:6">
       <c r="B130" s="13"/>
       <c r="C130" s="13"/>
       <c r="D130" s="13"/>
       <c r="E130" s="13"/>
       <c r="F130" s="13"/>
     </row>
-    <row r="131" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" s="3" customFormat="1" spans="1:6">
       <c r="A131" s="12"/>
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
@@ -2990,7 +3254,7 @@
       <c r="E131" s="13"/>
       <c r="F131" s="13"/>
     </row>
-    <row r="132" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" s="3" customFormat="1" spans="1:6">
       <c r="A132" s="12"/>
       <c r="B132" s="13"/>
       <c r="C132" s="13"/>
@@ -2998,7 +3262,7 @@
       <c r="E132" s="13"/>
       <c r="F132" s="13"/>
     </row>
-    <row r="133" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" s="3" customFormat="1" spans="1:6">
       <c r="A133" s="4"/>
       <c r="B133" s="13"/>
       <c r="C133" s="13"/>
@@ -3006,7 +3270,7 @@
       <c r="E133" s="13"/>
       <c r="F133" s="5"/>
     </row>
-    <row r="134" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" s="3" customFormat="1" spans="1:6">
       <c r="A134" s="12"/>
       <c r="B134" s="13"/>
       <c r="C134" s="13"/>
@@ -3014,7 +3278,7 @@
       <c r="E134" s="13"/>
       <c r="F134" s="13"/>
     </row>
-    <row r="135" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" s="3" customFormat="1" spans="1:6">
       <c r="A135" s="12"/>
       <c r="B135" s="13"/>
       <c r="C135" s="13"/>
@@ -3022,7 +3286,7 @@
       <c r="E135" s="13"/>
       <c r="F135" s="13"/>
     </row>
-    <row r="136" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" s="3" customFormat="1" spans="1:6">
       <c r="A136" s="12"/>
       <c r="B136" s="13"/>
       <c r="C136" s="13"/>
@@ -3030,7 +3294,7 @@
       <c r="E136" s="13"/>
       <c r="F136" s="13"/>
     </row>
-    <row r="137" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" s="3" customFormat="1" spans="1:6">
       <c r="A137" s="12"/>
       <c r="B137" s="13"/>
       <c r="C137" s="13"/>
@@ -3038,7 +3302,7 @@
       <c r="E137" s="13"/>
       <c r="F137" s="13"/>
     </row>
-    <row r="138" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" s="3" customFormat="1" spans="1:6">
       <c r="A138" s="12"/>
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
@@ -3046,7 +3310,7 @@
       <c r="E138" s="13"/>
       <c r="F138" s="13"/>
     </row>
-    <row r="139" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" s="3" customFormat="1" spans="1:6">
       <c r="A139" s="12"/>
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
@@ -3054,15 +3318,15 @@
       <c r="E139" s="13"/>
       <c r="F139" s="13"/>
     </row>
-    <row r="140" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" s="3" customFormat="1" spans="1:6">
       <c r="A140" s="12"/>
       <c r="B140" s="13"/>
       <c r="C140" s="13"/>
       <c r="D140" s="13"/>
-      <c r="E140" s="21"/>
+      <c r="E140" s="17"/>
       <c r="F140" s="13"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6">
       <c r="A141" s="12"/>
       <c r="B141" s="13"/>
       <c r="C141" s="13"/>
@@ -3070,7 +3334,7 @@
       <c r="E141" s="13"/>
       <c r="F141" s="13"/>
     </row>
-    <row r="142" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" s="3" customFormat="1" spans="1:6">
       <c r="A142" s="12"/>
       <c r="B142" s="13"/>
       <c r="C142" s="13"/>
@@ -3078,7 +3342,7 @@
       <c r="E142" s="13"/>
       <c r="F142" s="13"/>
     </row>
-    <row r="143" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" s="3" customFormat="1" spans="1:6">
       <c r="A143" s="12"/>
       <c r="B143" s="13"/>
       <c r="C143" s="13"/>
@@ -3086,7 +3350,7 @@
       <c r="E143" s="13"/>
       <c r="F143" s="13"/>
     </row>
-    <row r="144" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" s="3" customFormat="1" spans="1:6">
       <c r="A144" s="12"/>
       <c r="B144" s="13"/>
       <c r="C144" s="13"/>
@@ -3094,7 +3358,7 @@
       <c r="E144" s="13"/>
       <c r="F144" s="13"/>
     </row>
-    <row r="145" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" s="3" customFormat="1" spans="1:6">
       <c r="A145" s="12"/>
       <c r="B145" s="13"/>
       <c r="C145" s="13"/>
@@ -3102,7 +3366,7 @@
       <c r="E145" s="13"/>
       <c r="F145" s="13"/>
     </row>
-    <row r="146" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" s="3" customFormat="1" spans="1:6">
       <c r="A146" s="12"/>
       <c r="B146" s="13"/>
       <c r="C146" s="13"/>
@@ -3110,7 +3374,7 @@
       <c r="E146" s="13"/>
       <c r="F146" s="13"/>
     </row>
-    <row r="147" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" s="3" customFormat="1" spans="1:6">
       <c r="A147" s="12"/>
       <c r="B147" s="13"/>
       <c r="C147" s="13"/>
@@ -3118,7 +3382,7 @@
       <c r="E147" s="13"/>
       <c r="F147" s="13"/>
     </row>
-    <row r="148" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" s="3" customFormat="1" spans="1:6">
       <c r="A148" s="12"/>
       <c r="B148" s="13"/>
       <c r="C148" s="13"/>
@@ -3126,7 +3390,7 @@
       <c r="E148" s="13"/>
       <c r="F148" s="13"/>
     </row>
-    <row r="149" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" s="3" customFormat="1" spans="1:6">
       <c r="A149" s="12"/>
       <c r="B149" s="13"/>
       <c r="C149" s="13"/>
@@ -3134,7 +3398,7 @@
       <c r="E149" s="13"/>
       <c r="F149" s="13"/>
     </row>
-    <row r="150" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" s="3" customFormat="1" spans="1:6">
       <c r="A150" s="12"/>
       <c r="B150" s="13"/>
       <c r="C150" s="13"/>
@@ -3142,7 +3406,7 @@
       <c r="E150" s="13"/>
       <c r="F150" s="13"/>
     </row>
-    <row r="151" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" s="3" customFormat="1" spans="1:6">
       <c r="A151" s="12"/>
       <c r="B151" s="13"/>
       <c r="C151" s="13"/>
@@ -3150,7 +3414,7 @@
       <c r="E151" s="13"/>
       <c r="F151" s="13"/>
     </row>
-    <row r="152" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" s="3" customFormat="1" spans="1:6">
       <c r="A152" s="12"/>
       <c r="B152" s="13"/>
       <c r="C152" s="13"/>
@@ -3158,7 +3422,7 @@
       <c r="E152" s="13"/>
       <c r="F152" s="13"/>
     </row>
-    <row r="153" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" s="3" customFormat="1" spans="1:6">
       <c r="A153" s="12"/>
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
@@ -3166,7 +3430,7 @@
       <c r="E153" s="13"/>
       <c r="F153" s="13"/>
     </row>
-    <row r="154" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" s="3" customFormat="1" spans="1:6">
       <c r="A154" s="12"/>
       <c r="B154" s="13"/>
       <c r="C154" s="13"/>
@@ -3174,7 +3438,7 @@
       <c r="E154" s="13"/>
       <c r="F154" s="13"/>
     </row>
-    <row r="155" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" s="3" customFormat="1" spans="1:6">
       <c r="A155" s="12"/>
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
@@ -3182,7 +3446,7 @@
       <c r="E155" s="13"/>
       <c r="F155" s="13"/>
     </row>
-    <row r="156" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" s="3" customFormat="1" spans="1:6">
       <c r="A156" s="12"/>
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
@@ -3190,7 +3454,7 @@
       <c r="E156" s="13"/>
       <c r="F156" s="13"/>
     </row>
-    <row r="157" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" s="3" customFormat="1" spans="1:6">
       <c r="A157" s="4"/>
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
@@ -3198,7 +3462,7 @@
       <c r="E157" s="13"/>
       <c r="F157" s="13"/>
     </row>
-    <row r="158" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" s="3" customFormat="1" spans="1:6">
       <c r="A158" s="4"/>
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
@@ -3206,7 +3470,7 @@
       <c r="E158" s="13"/>
       <c r="F158" s="13"/>
     </row>
-    <row r="159" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" s="3" customFormat="1" spans="1:6">
       <c r="A159" s="4"/>
       <c r="B159" s="13"/>
       <c r="C159" s="13"/>
@@ -3214,7 +3478,7 @@
       <c r="E159" s="13"/>
       <c r="F159" s="13"/>
     </row>
-    <row r="160" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" s="3" customFormat="1" spans="1:6">
       <c r="A160" s="4"/>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
@@ -3222,7 +3486,7 @@
       <c r="E160" s="13"/>
       <c r="F160" s="13"/>
     </row>
-    <row r="161" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" s="3" customFormat="1" spans="1:6">
       <c r="A161" s="12"/>
       <c r="B161" s="13"/>
       <c r="C161" s="13"/>
@@ -3230,7 +3494,7 @@
       <c r="E161" s="13"/>
       <c r="F161" s="5"/>
     </row>
-    <row r="162" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" s="3" customFormat="1" spans="1:6">
       <c r="A162" s="12"/>
       <c r="B162" s="13"/>
       <c r="C162" s="13"/>
@@ -3238,7 +3502,7 @@
       <c r="E162" s="13"/>
       <c r="F162" s="5"/>
     </row>
-    <row r="163" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" s="3" customFormat="1" spans="1:6">
       <c r="A163" s="12"/>
       <c r="B163" s="13"/>
       <c r="C163" s="13"/>
@@ -3246,7 +3510,7 @@
       <c r="E163" s="13"/>
       <c r="F163" s="5"/>
     </row>
-    <row r="164" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" s="3" customFormat="1" spans="1:6">
       <c r="A164" s="12"/>
       <c r="B164" s="13"/>
       <c r="C164" s="13"/>
@@ -3254,7 +3518,7 @@
       <c r="E164" s="13"/>
       <c r="F164" s="5"/>
     </row>
-    <row r="165" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="165" customFormat="1" spans="1:6">
       <c r="A165" s="4"/>
       <c r="B165" s="13"/>
       <c r="C165" s="13"/>
@@ -3262,492 +3526,490 @@
       <c r="E165" s="13"/>
       <c r="F165" s="5"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:5">
       <c r="B166" s="13"/>
       <c r="C166" s="13"/>
       <c r="D166" s="13"/>
       <c r="E166" s="13"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:5">
       <c r="B167" s="13"/>
       <c r="C167" s="13"/>
       <c r="D167" s="13"/>
       <c r="E167" s="13"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="168" spans="2:5">
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
       <c r="D168" s="13"/>
       <c r="E168" s="13"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="169" spans="2:4">
       <c r="B169" s="13"/>
       <c r="C169" s="13"/>
       <c r="D169" s="13"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:5">
       <c r="A171" s="12"/>
       <c r="B171" s="13"/>
       <c r="C171" s="13"/>
       <c r="D171" s="13"/>
       <c r="E171" s="13"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:5">
       <c r="A173" s="12"/>
       <c r="B173" s="13"/>
       <c r="C173" s="13"/>
       <c r="D173" s="13"/>
       <c r="E173" s="13"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="175" spans="2:5">
       <c r="B175" s="13"/>
       <c r="C175" s="13"/>
       <c r="D175" s="13"/>
       <c r="E175" s="13"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="176" spans="2:5">
       <c r="B176" s="13"/>
       <c r="C176" s="13"/>
       <c r="D176" s="13"/>
       <c r="E176" s="13"/>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="177" spans="2:5">
       <c r="B177" s="13"/>
       <c r="C177" s="13"/>
       <c r="D177" s="13"/>
       <c r="E177" s="13"/>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:6">
       <c r="B179" s="13"/>
       <c r="C179" s="13"/>
       <c r="D179" s="13"/>
       <c r="E179" s="13"/>
       <c r="F179" s="13"/>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="181" spans="2:5">
       <c r="B181" s="13"/>
       <c r="C181" s="13"/>
       <c r="D181" s="13"/>
       <c r="E181" s="13"/>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:5">
       <c r="B182" s="13"/>
       <c r="C182" s="13"/>
       <c r="D182" s="13"/>
       <c r="E182" s="13"/>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="183" spans="2:5">
       <c r="B183" s="13"/>
       <c r="C183" s="13"/>
       <c r="D183" s="13"/>
       <c r="E183" s="13"/>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:5">
       <c r="B184" s="13"/>
       <c r="C184" s="13"/>
       <c r="D184" s="13"/>
       <c r="E184" s="13"/>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="185" spans="2:5">
       <c r="B185" s="13"/>
       <c r="C185" s="13"/>
       <c r="D185" s="13"/>
       <c r="E185" s="13"/>
     </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="186" spans="2:5">
       <c r="B186" s="13"/>
       <c r="C186" s="13"/>
       <c r="D186" s="13"/>
       <c r="E186" s="13"/>
     </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="188" spans="2:6">
       <c r="B188" s="13"/>
       <c r="C188" s="13"/>
       <c r="D188" s="13"/>
       <c r="E188" s="13"/>
       <c r="F188" s="13"/>
     </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="190" spans="2:6">
       <c r="B190" s="13"/>
       <c r="C190" s="13"/>
       <c r="D190" s="13"/>
       <c r="E190" s="13"/>
       <c r="F190" s="13"/>
     </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="191" spans="2:5">
       <c r="B191" s="13"/>
       <c r="C191" s="13"/>
       <c r="D191" s="13"/>
       <c r="E191" s="13"/>
     </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:5">
       <c r="B192" s="13"/>
       <c r="C192" s="13"/>
       <c r="D192" s="13"/>
       <c r="E192" s="13"/>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="193" spans="2:5">
       <c r="B193" s="13"/>
       <c r="C193" s="13"/>
       <c r="D193" s="13"/>
       <c r="E193" s="13"/>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="195" spans="2:6">
       <c r="B195" s="13"/>
       <c r="C195" s="13"/>
       <c r="D195" s="13"/>
       <c r="E195" s="13"/>
       <c r="F195" s="13"/>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="197" spans="2:6">
       <c r="B197" s="13"/>
       <c r="C197" s="13"/>
       <c r="D197" s="13"/>
       <c r="E197" s="13"/>
       <c r="F197" s="13"/>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="198" spans="2:6">
       <c r="B198" s="13"/>
       <c r="C198" s="13"/>
       <c r="D198" s="13"/>
       <c r="E198" s="13"/>
       <c r="F198" s="13"/>
     </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="200" spans="4:4">
       <c r="D200" s="13"/>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="201" spans="4:4">
       <c r="D201" s="13"/>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D202" s="17"/>
-      <c r="E202" s="18"/>
-    </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D203" s="18"/>
-      <c r="E203" s="17"/>
-    </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D204" s="18"/>
-      <c r="E204" s="18"/>
-    </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="202" spans="4:5">
+      <c r="D202" s="18"/>
+      <c r="E202" s="19"/>
+    </row>
+    <row r="203" spans="4:5">
+      <c r="D203" s="19"/>
+      <c r="E203" s="18"/>
+    </row>
+    <row r="204" spans="4:5">
+      <c r="D204" s="19"/>
+      <c r="E204" s="19"/>
+    </row>
+    <row r="205" spans="2:5">
       <c r="B205" s="13"/>
       <c r="C205" s="13"/>
       <c r="D205" s="13"/>
       <c r="E205" s="13"/>
     </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="206" spans="2:4">
       <c r="B206" s="13"/>
       <c r="C206" s="13"/>
       <c r="D206" s="13"/>
     </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="207" spans="2:5">
       <c r="B207" s="13"/>
       <c r="C207" s="13"/>
-      <c r="D207" s="17"/>
-      <c r="E207" s="18"/>
-    </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D207" s="18"/>
+      <c r="E207" s="19"/>
+    </row>
+    <row r="208" spans="2:5">
       <c r="B208" s="13"/>
       <c r="C208" s="13"/>
-      <c r="D208" s="17"/>
-      <c r="E208" s="18"/>
-    </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D208" s="18"/>
+      <c r="E208" s="19"/>
+    </row>
+    <row r="209" spans="2:5">
       <c r="B209" s="13"/>
       <c r="C209" s="13"/>
       <c r="D209" s="13"/>
       <c r="E209" s="13"/>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="210" spans="2:5">
       <c r="B210" s="13"/>
       <c r="C210" s="13"/>
       <c r="D210" s="13"/>
       <c r="E210" s="13"/>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B211" s="17"/>
-      <c r="C211" s="17"/>
-      <c r="D211" s="17"/>
-      <c r="E211" s="17"/>
-      <c r="F211" s="17"/>
-    </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B212" s="17"/>
-      <c r="C212" s="17"/>
-      <c r="D212" s="17"/>
-      <c r="E212" s="17"/>
-      <c r="F212" s="17"/>
-    </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B213" s="19"/>
+    <row r="211" spans="2:6">
+      <c r="B211" s="18"/>
+      <c r="C211" s="18"/>
+      <c r="D211" s="18"/>
+      <c r="E211" s="18"/>
+      <c r="F211" s="18"/>
+    </row>
+    <row r="212" spans="2:6">
+      <c r="B212" s="18"/>
+      <c r="C212" s="18"/>
+      <c r="D212" s="18"/>
+      <c r="E212" s="18"/>
+      <c r="F212" s="18"/>
+    </row>
+    <row r="213" spans="2:6">
+      <c r="B213" s="20"/>
       <c r="C213" s="13"/>
       <c r="D213" s="13"/>
       <c r="E213" s="13"/>
       <c r="F213" s="13"/>
     </row>
-    <row r="215" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" ht="16.5" customHeight="1" spans="2:6">
       <c r="B215" s="13"/>
       <c r="C215" s="13"/>
       <c r="D215" s="13"/>
       <c r="E215" s="13"/>
       <c r="F215" s="13"/>
     </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="216" spans="2:6">
       <c r="B216" s="13"/>
       <c r="C216" s="13"/>
       <c r="D216" s="13"/>
       <c r="E216" s="13"/>
       <c r="F216" s="13"/>
     </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="217" spans="2:6">
       <c r="B217" s="13"/>
       <c r="C217" s="13"/>
       <c r="D217" s="13"/>
       <c r="E217" s="13"/>
       <c r="F217" s="13"/>
     </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="218" spans="2:6">
       <c r="B218" s="13"/>
       <c r="C218" s="13"/>
       <c r="D218" s="13"/>
       <c r="E218" s="13"/>
       <c r="F218" s="13"/>
     </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="219" spans="2:6">
       <c r="B219" s="13"/>
       <c r="C219" s="13"/>
       <c r="D219" s="13"/>
       <c r="E219" s="13"/>
       <c r="F219" s="13"/>
     </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="220" spans="2:6">
       <c r="B220" s="13"/>
       <c r="C220" s="13"/>
       <c r="D220" s="13"/>
       <c r="E220" s="13"/>
       <c r="F220" s="13"/>
     </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="221" spans="2:6">
       <c r="B221" s="13"/>
       <c r="C221" s="13"/>
       <c r="D221" s="13"/>
       <c r="E221" s="13"/>
       <c r="F221" s="13"/>
     </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="222" spans="2:6">
       <c r="B222" s="13"/>
       <c r="C222" s="13"/>
       <c r="D222" s="13"/>
       <c r="E222" s="13"/>
       <c r="F222" s="13"/>
     </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="223" spans="2:6">
       <c r="B223" s="13"/>
       <c r="C223" s="13"/>
       <c r="D223" s="13"/>
       <c r="E223" s="13"/>
       <c r="F223" s="13"/>
     </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="224" spans="2:6">
       <c r="B224" s="13"/>
       <c r="C224" s="13"/>
       <c r="D224" s="13"/>
       <c r="E224" s="13"/>
       <c r="F224" s="13"/>
     </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="225" spans="2:6">
       <c r="B225" s="13"/>
       <c r="C225" s="13"/>
       <c r="D225" s="13"/>
       <c r="E225" s="13"/>
       <c r="F225" s="13"/>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="226" spans="2:6">
       <c r="B226" s="13"/>
       <c r="C226" s="13"/>
       <c r="D226" s="13"/>
       <c r="E226" s="13"/>
       <c r="F226" s="13"/>
     </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="227" spans="2:6">
       <c r="B227" s="13"/>
       <c r="C227" s="13"/>
       <c r="D227" s="13"/>
       <c r="E227" s="13"/>
       <c r="F227" s="13"/>
     </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="229" spans="2:4">
       <c r="B229" s="13"/>
       <c r="C229" s="13"/>
       <c r="D229" s="13"/>
     </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="230" spans="2:4">
       <c r="B230" s="13"/>
       <c r="C230" s="13"/>
       <c r="D230" s="13"/>
     </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="231" spans="2:4">
       <c r="B231" s="13"/>
       <c r="C231" s="13"/>
       <c r="D231" s="13"/>
     </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="232" spans="2:4">
       <c r="B232" s="13"/>
       <c r="C232" s="13"/>
       <c r="D232" s="13"/>
     </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="233" spans="2:4">
       <c r="B233" s="13"/>
       <c r="C233" s="13"/>
       <c r="D233" s="13"/>
     </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="234" spans="2:4">
       <c r="B234" s="13"/>
       <c r="C234" s="13"/>
       <c r="D234" s="13"/>
     </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="235" spans="2:4">
       <c r="B235" s="13"/>
       <c r="C235" s="13"/>
       <c r="D235" s="13"/>
     </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="236" spans="2:4">
       <c r="B236" s="13"/>
       <c r="C236" s="13"/>
       <c r="D236" s="13"/>
     </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="237" spans="2:4">
       <c r="B237" s="13"/>
       <c r="C237" s="13"/>
       <c r="D237" s="13"/>
     </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="238" spans="2:4">
       <c r="B238" s="13"/>
       <c r="C238" s="13"/>
       <c r="D238" s="13"/>
     </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="242" spans="2:6">
       <c r="B242" s="13"/>
       <c r="C242" s="13"/>
       <c r="D242" s="13"/>
       <c r="E242" s="13"/>
       <c r="F242" s="13"/>
     </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="244" spans="2:2">
       <c r="B244"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="B228 B1:B63 B213:B214 B209 B239:B241 B243 B194:B205 B131:B192 B66:B76 B245:B1048576">
-    <cfRule type="duplicateValues" dxfId="36" priority="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B105 B107:B108 B112:B127 B130:B1048576">
-    <cfRule type="duplicateValues" dxfId="35" priority="9"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="34" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="duplicateValues" dxfId="33" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B81:B82">
-    <cfRule type="duplicateValues" dxfId="32" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="duplicateValues" dxfId="31" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="duplicateValues" dxfId="30" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
-    <cfRule type="duplicateValues" dxfId="29" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86">
-    <cfRule type="duplicateValues" dxfId="28" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B88 B93">
-    <cfRule type="duplicateValues" dxfId="27" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B89:B90">
-    <cfRule type="duplicateValues" dxfId="26" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B91:B92">
-    <cfRule type="duplicateValues" dxfId="25" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="24" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100">
-    <cfRule type="duplicateValues" dxfId="23" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B102:B103 B107 B105">
-    <cfRule type="duplicateValues" dxfId="22" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104">
-    <cfRule type="duplicateValues" dxfId="21" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B106">
-    <cfRule type="duplicateValues" dxfId="20" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108">
-    <cfRule type="duplicateValues" dxfId="18" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B109:B111">
-    <cfRule type="duplicateValues" dxfId="17" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B112 B101 B78:B80 B94:B98 B87">
-    <cfRule type="duplicateValues" dxfId="15" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120">
-    <cfRule type="duplicateValues" dxfId="14" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B121:B127">
-    <cfRule type="duplicateValues" dxfId="13" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B193">
-    <cfRule type="duplicateValues" dxfId="12" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B206:B208">
-    <cfRule type="duplicateValues" dxfId="11" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="duplicateValues" dxfId="10" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B114:C119 C120:C127">
-    <cfRule type="duplicateValues" dxfId="9" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B229:C232 B236:C238">
-    <cfRule type="duplicateValues" dxfId="8" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B233:C235">
-    <cfRule type="duplicateValues" dxfId="7" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C85:C86">
-    <cfRule type="duplicateValues" dxfId="6" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128:B129">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128:B129">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C128:C129">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B113 B130">
-    <cfRule type="duplicateValues" dxfId="2" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B215:B227">
-    <cfRule type="duplicateValues" dxfId="1" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B242">
     <cfRule type="duplicateValues" dxfId="0" priority="48"/>
   </conditionalFormatting>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <conditionalFormatting sqref="B81:B82">
+    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B89:B90">
+    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B91:B92">
+    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B109:B111">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B121:B127">
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B128:B129">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B206:B208">
+    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B215:B227">
+    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85:C86">
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C128:C129">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B228 B1:B63 B213:B214 B209 B239:B241 B243 B194:B205 B131:B192 B66:B76 B245:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B105 B107:B108 B112:B127 B130:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B112 B101 B78:B80 B94:B98 B87">
+    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B88 B93">
+    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B102:B103 B107 B105">
+    <cfRule type="duplicateValues" dxfId="0" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B113 B130">
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B114:C119 C120:C127">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B229:C232 B236:C238">
+    <cfRule type="duplicateValues" dxfId="0" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B233:C235">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  </conditionalFormatting>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/_ConfigExcels/Datas/com_global_param.xlsx
+++ b/_ConfigExcels/Datas/com_global_param.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mine\Project\MiniGame_EarthDefender\_ConfigExcels\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="17775" tabRatio="736"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17775" tabRatio="736"/>
   </bookViews>
   <sheets>
     <sheet name="com_param" sheetId="11" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>##var</t>
   </si>
@@ -94,18 +99,28 @@
   <si>
     <t>敌人会在距离地球X距离时停止移动并播放攻击动作</t>
   </si>
+  <si>
+    <t>final_dungeon</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终关卡（以防后续有支线关卡，在这进行标记）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,150 +164,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -305,8 +176,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,194 +214,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -547,744 +238,502 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="533">
+  <cellStyleXfs count="485">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1295,16 +744,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="375" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="327" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1316,10 +765,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1338,542 +787,854 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="533">
+  <cellStyles count="485">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 10" xfId="49"/>
-    <cellStyle name="常规 11" xfId="50"/>
-    <cellStyle name="常规 12" xfId="51"/>
-    <cellStyle name="常规 13" xfId="52"/>
-    <cellStyle name="常规 2" xfId="53"/>
-    <cellStyle name="常规 2 10" xfId="54"/>
-    <cellStyle name="常规 2 11" xfId="55"/>
-    <cellStyle name="常规 2 2" xfId="56"/>
-    <cellStyle name="常规 2 2 2" xfId="57"/>
-    <cellStyle name="常规 2 2 2 2" xfId="58"/>
-    <cellStyle name="常规 2 2 2 2 2" xfId="59"/>
-    <cellStyle name="常规 2 2 2 2 2 2" xfId="60"/>
-    <cellStyle name="常规 2 2 2 2 2 2 2" xfId="61"/>
-    <cellStyle name="常规 2 2 2 2 2 2 2 2" xfId="62"/>
-    <cellStyle name="常规 2 2 2 2 2 2 2 3" xfId="63"/>
-    <cellStyle name="常规 2 2 2 2 2 2 3" xfId="64"/>
-    <cellStyle name="常规 2 2 2 2 2 3" xfId="65"/>
-    <cellStyle name="常规 2 2 2 2 2 3 2" xfId="66"/>
-    <cellStyle name="常规 2 2 2 2 2 3 3" xfId="67"/>
-    <cellStyle name="常规 2 2 2 2 2 4" xfId="68"/>
-    <cellStyle name="常规 2 2 2 2 3" xfId="69"/>
-    <cellStyle name="常规 2 2 2 2 3 2" xfId="70"/>
-    <cellStyle name="常规 2 2 2 2 3 2 2" xfId="71"/>
-    <cellStyle name="常规 2 2 2 2 3 2 3" xfId="72"/>
-    <cellStyle name="常规 2 2 2 2 3 3" xfId="73"/>
-    <cellStyle name="常规 2 2 2 2 4" xfId="74"/>
-    <cellStyle name="常规 2 2 2 2 4 2" xfId="75"/>
-    <cellStyle name="常规 2 2 2 2 4 3" xfId="76"/>
-    <cellStyle name="常规 2 2 2 2 5" xfId="77"/>
-    <cellStyle name="常规 2 2 2 3" xfId="78"/>
-    <cellStyle name="常规 2 2 2 3 2" xfId="79"/>
-    <cellStyle name="常规 2 2 2 3 2 2" xfId="80"/>
-    <cellStyle name="常规 2 2 2 3 2 2 2" xfId="81"/>
-    <cellStyle name="常规 2 2 2 3 2 2 3" xfId="82"/>
-    <cellStyle name="常规 2 2 2 3 2 3" xfId="83"/>
-    <cellStyle name="常规 2 2 2 3 3" xfId="84"/>
-    <cellStyle name="常规 2 2 2 3 3 2" xfId="85"/>
-    <cellStyle name="常规 2 2 2 3 3 3" xfId="86"/>
-    <cellStyle name="常规 2 2 2 3 4" xfId="87"/>
-    <cellStyle name="常规 2 2 2 4" xfId="88"/>
-    <cellStyle name="常规 2 2 2 4 2" xfId="89"/>
-    <cellStyle name="常规 2 2 2 4 2 2" xfId="90"/>
-    <cellStyle name="常规 2 2 2 4 2 3" xfId="91"/>
-    <cellStyle name="常规 2 2 2 4 3" xfId="92"/>
-    <cellStyle name="常规 2 2 2 5" xfId="93"/>
-    <cellStyle name="常规 2 2 2 5 2" xfId="94"/>
-    <cellStyle name="常规 2 2 2 5 3" xfId="95"/>
-    <cellStyle name="常规 2 2 2 6" xfId="96"/>
-    <cellStyle name="常规 2 2 3" xfId="97"/>
-    <cellStyle name="常规 2 2 3 2" xfId="98"/>
-    <cellStyle name="常规 2 2 3 2 2" xfId="99"/>
-    <cellStyle name="常规 2 2 3 2 2 2" xfId="100"/>
-    <cellStyle name="常规 2 2 3 2 2 2 2" xfId="101"/>
-    <cellStyle name="常规 2 2 3 2 2 2 3" xfId="102"/>
-    <cellStyle name="常规 2 2 3 2 2 3" xfId="103"/>
-    <cellStyle name="常规 2 2 3 2 3" xfId="104"/>
-    <cellStyle name="常规 2 2 3 2 3 2" xfId="105"/>
-    <cellStyle name="常规 2 2 3 2 3 3" xfId="106"/>
-    <cellStyle name="常规 2 2 3 2 4" xfId="107"/>
-    <cellStyle name="常规 2 2 3 3" xfId="108"/>
-    <cellStyle name="常规 2 2 3 3 2" xfId="109"/>
-    <cellStyle name="常规 2 2 3 3 2 2" xfId="110"/>
-    <cellStyle name="常规 2 2 3 3 2 3" xfId="111"/>
-    <cellStyle name="常规 2 2 3 3 3" xfId="112"/>
-    <cellStyle name="常规 2 2 3 4" xfId="113"/>
-    <cellStyle name="常规 2 2 3 4 2" xfId="114"/>
-    <cellStyle name="常规 2 2 3 4 3" xfId="115"/>
-    <cellStyle name="常规 2 2 3 5" xfId="116"/>
-    <cellStyle name="常规 2 2 4" xfId="117"/>
-    <cellStyle name="常规 2 2 4 2" xfId="118"/>
-    <cellStyle name="常规 2 2 4 2 2" xfId="119"/>
-    <cellStyle name="常规 2 2 4 2 2 2" xfId="120"/>
-    <cellStyle name="常规 2 2 4 2 2 3" xfId="121"/>
-    <cellStyle name="常规 2 2 4 2 3" xfId="122"/>
-    <cellStyle name="常规 2 2 4 3" xfId="123"/>
-    <cellStyle name="常规 2 2 4 3 2" xfId="124"/>
-    <cellStyle name="常规 2 2 4 3 3" xfId="125"/>
-    <cellStyle name="常规 2 2 4 4" xfId="126"/>
-    <cellStyle name="常规 2 2 5" xfId="127"/>
-    <cellStyle name="常规 2 2 5 2" xfId="128"/>
-    <cellStyle name="常规 2 2 5 2 2" xfId="129"/>
-    <cellStyle name="常规 2 2 5 2 3" xfId="130"/>
-    <cellStyle name="常规 2 2 5 3" xfId="131"/>
-    <cellStyle name="常规 2 2 6" xfId="132"/>
-    <cellStyle name="常规 2 2 6 2" xfId="133"/>
-    <cellStyle name="常规 2 2 6 3" xfId="134"/>
-    <cellStyle name="常规 2 2 7" xfId="135"/>
-    <cellStyle name="常规 2 3" xfId="136"/>
-    <cellStyle name="常规 2 3 2" xfId="137"/>
-    <cellStyle name="常规 2 3 2 2" xfId="138"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="139"/>
-    <cellStyle name="常规 2 3 2 2 2 2" xfId="140"/>
-    <cellStyle name="常规 2 3 2 2 2 2 2" xfId="141"/>
-    <cellStyle name="常规 2 3 2 2 2 2 2 2" xfId="142"/>
-    <cellStyle name="常规 2 3 2 2 2 2 2 3" xfId="143"/>
-    <cellStyle name="常规 2 3 2 2 2 2 3" xfId="144"/>
-    <cellStyle name="常规 2 3 2 2 2 3" xfId="145"/>
-    <cellStyle name="常规 2 3 2 2 2 3 2" xfId="146"/>
-    <cellStyle name="常规 2 3 2 2 2 3 3" xfId="147"/>
-    <cellStyle name="常规 2 3 2 2 2 4" xfId="148"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="149"/>
-    <cellStyle name="常规 2 3 2 2 3 2" xfId="150"/>
-    <cellStyle name="常规 2 3 2 2 3 2 2" xfId="151"/>
-    <cellStyle name="常规 2 3 2 2 3 2 3" xfId="152"/>
-    <cellStyle name="常规 2 3 2 2 3 3" xfId="153"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="154"/>
-    <cellStyle name="常规 2 3 2 2 4 2" xfId="155"/>
-    <cellStyle name="常规 2 3 2 2 4 3" xfId="156"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="157"/>
-    <cellStyle name="常规 2 3 2 3" xfId="158"/>
-    <cellStyle name="常规 2 3 2 3 2" xfId="159"/>
-    <cellStyle name="常规 2 3 2 3 2 2" xfId="160"/>
-    <cellStyle name="常规 2 3 2 3 2 2 2" xfId="161"/>
-    <cellStyle name="常规 2 3 2 3 2 2 3" xfId="162"/>
-    <cellStyle name="常规 2 3 2 3 2 3" xfId="163"/>
-    <cellStyle name="常规 2 3 2 3 3" xfId="164"/>
-    <cellStyle name="常规 2 3 2 3 3 2" xfId="165"/>
-    <cellStyle name="常规 2 3 2 3 3 3" xfId="166"/>
-    <cellStyle name="常规 2 3 2 3 4" xfId="167"/>
-    <cellStyle name="常规 2 3 2 4" xfId="168"/>
-    <cellStyle name="常规 2 3 2 4 2" xfId="169"/>
-    <cellStyle name="常规 2 3 2 4 2 2" xfId="170"/>
-    <cellStyle name="常规 2 3 2 4 2 3" xfId="171"/>
-    <cellStyle name="常规 2 3 2 4 3" xfId="172"/>
-    <cellStyle name="常规 2 3 2 5" xfId="173"/>
-    <cellStyle name="常规 2 3 2 5 2" xfId="174"/>
-    <cellStyle name="常规 2 3 2 5 3" xfId="175"/>
-    <cellStyle name="常规 2 3 2 6" xfId="176"/>
-    <cellStyle name="常规 2 3 3" xfId="177"/>
-    <cellStyle name="常规 2 3 3 2" xfId="178"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="179"/>
-    <cellStyle name="常规 2 3 3 2 2 2" xfId="180"/>
-    <cellStyle name="常规 2 3 3 2 2 2 2" xfId="181"/>
-    <cellStyle name="常规 2 3 3 2 2 2 3" xfId="182"/>
-    <cellStyle name="常规 2 3 3 2 2 3" xfId="183"/>
-    <cellStyle name="常规 2 3 3 2 3" xfId="184"/>
-    <cellStyle name="常规 2 3 3 2 3 2" xfId="185"/>
-    <cellStyle name="常规 2 3 3 2 3 3" xfId="186"/>
-    <cellStyle name="常规 2 3 3 2 4" xfId="187"/>
-    <cellStyle name="常规 2 3 3 3" xfId="188"/>
-    <cellStyle name="常规 2 3 3 3 2" xfId="189"/>
-    <cellStyle name="常规 2 3 3 3 2 2" xfId="190"/>
-    <cellStyle name="常规 2 3 3 3 2 3" xfId="191"/>
-    <cellStyle name="常规 2 3 3 3 3" xfId="192"/>
-    <cellStyle name="常规 2 3 3 4" xfId="193"/>
-    <cellStyle name="常规 2 3 3 4 2" xfId="194"/>
-    <cellStyle name="常规 2 3 3 4 3" xfId="195"/>
-    <cellStyle name="常规 2 3 3 5" xfId="196"/>
-    <cellStyle name="常规 2 3 4" xfId="197"/>
-    <cellStyle name="常规 2 3 4 2" xfId="198"/>
-    <cellStyle name="常规 2 3 4 2 2" xfId="199"/>
-    <cellStyle name="常规 2 3 4 2 2 2" xfId="200"/>
-    <cellStyle name="常规 2 3 4 2 2 3" xfId="201"/>
-    <cellStyle name="常规 2 3 4 2 3" xfId="202"/>
-    <cellStyle name="常规 2 3 4 3" xfId="203"/>
-    <cellStyle name="常规 2 3 4 3 2" xfId="204"/>
-    <cellStyle name="常规 2 3 4 3 3" xfId="205"/>
-    <cellStyle name="常规 2 3 4 4" xfId="206"/>
-    <cellStyle name="常规 2 3 5" xfId="207"/>
-    <cellStyle name="常规 2 3 5 2" xfId="208"/>
-    <cellStyle name="常规 2 3 5 2 2" xfId="209"/>
-    <cellStyle name="常规 2 3 5 2 3" xfId="210"/>
-    <cellStyle name="常规 2 3 5 3" xfId="211"/>
-    <cellStyle name="常规 2 3 6" xfId="212"/>
-    <cellStyle name="常规 2 3 6 2" xfId="213"/>
-    <cellStyle name="常规 2 3 6 3" xfId="214"/>
-    <cellStyle name="常规 2 3 7" xfId="215"/>
-    <cellStyle name="常规 2 4" xfId="216"/>
-    <cellStyle name="常规 2 4 2" xfId="217"/>
-    <cellStyle name="常规 2 4 2 2" xfId="218"/>
-    <cellStyle name="常规 2 4 2 2 2" xfId="219"/>
-    <cellStyle name="常规 2 4 2 2 2 2" xfId="220"/>
-    <cellStyle name="常规 2 4 2 2 2 2 2" xfId="221"/>
-    <cellStyle name="常规 2 4 2 2 2 2 3" xfId="222"/>
-    <cellStyle name="常规 2 4 2 2 2 3" xfId="223"/>
-    <cellStyle name="常规 2 4 2 2 3" xfId="224"/>
-    <cellStyle name="常规 2 4 2 2 3 2" xfId="225"/>
-    <cellStyle name="常规 2 4 2 2 3 3" xfId="226"/>
-    <cellStyle name="常规 2 4 2 2 4" xfId="227"/>
-    <cellStyle name="常规 2 4 2 3" xfId="228"/>
-    <cellStyle name="常规 2 4 2 3 2" xfId="229"/>
-    <cellStyle name="常规 2 4 2 3 2 2" xfId="230"/>
-    <cellStyle name="常规 2 4 2 3 2 3" xfId="231"/>
-    <cellStyle name="常规 2 4 2 3 3" xfId="232"/>
-    <cellStyle name="常规 2 4 2 4" xfId="233"/>
-    <cellStyle name="常规 2 4 2 4 2" xfId="234"/>
-    <cellStyle name="常规 2 4 2 4 3" xfId="235"/>
-    <cellStyle name="常规 2 4 2 5" xfId="236"/>
-    <cellStyle name="常规 2 4 3" xfId="237"/>
-    <cellStyle name="常规 2 4 3 2" xfId="238"/>
-    <cellStyle name="常规 2 4 3 2 2" xfId="239"/>
-    <cellStyle name="常规 2 4 3 2 2 2" xfId="240"/>
-    <cellStyle name="常规 2 4 3 2 2 3" xfId="241"/>
-    <cellStyle name="常规 2 4 3 2 3" xfId="242"/>
-    <cellStyle name="常规 2 4 3 3" xfId="243"/>
-    <cellStyle name="常规 2 4 3 3 2" xfId="244"/>
-    <cellStyle name="常规 2 4 3 3 3" xfId="245"/>
-    <cellStyle name="常规 2 4 3 4" xfId="246"/>
-    <cellStyle name="常规 2 4 4" xfId="247"/>
-    <cellStyle name="常规 2 4 4 2" xfId="248"/>
-    <cellStyle name="常规 2 4 4 2 2" xfId="249"/>
-    <cellStyle name="常规 2 4 4 2 3" xfId="250"/>
-    <cellStyle name="常规 2 4 4 3" xfId="251"/>
-    <cellStyle name="常规 2 4 5" xfId="252"/>
-    <cellStyle name="常规 2 4 5 2" xfId="253"/>
-    <cellStyle name="常规 2 4 5 3" xfId="254"/>
-    <cellStyle name="常规 2 4 6" xfId="255"/>
-    <cellStyle name="常规 2 5" xfId="256"/>
-    <cellStyle name="常规 2 5 2" xfId="257"/>
-    <cellStyle name="常规 2 5 2 2" xfId="258"/>
-    <cellStyle name="常规 2 5 2 2 2" xfId="259"/>
-    <cellStyle name="常规 2 5 2 2 2 2" xfId="260"/>
-    <cellStyle name="常规 2 5 2 2 2 3" xfId="261"/>
-    <cellStyle name="常规 2 5 2 2 3" xfId="262"/>
-    <cellStyle name="常规 2 5 2 3" xfId="263"/>
-    <cellStyle name="常规 2 5 2 3 2" xfId="264"/>
-    <cellStyle name="常规 2 5 2 3 3" xfId="265"/>
-    <cellStyle name="常规 2 5 2 4" xfId="266"/>
-    <cellStyle name="常规 2 5 3" xfId="267"/>
-    <cellStyle name="常规 2 5 3 2" xfId="268"/>
-    <cellStyle name="常规 2 5 3 2 2" xfId="269"/>
-    <cellStyle name="常规 2 5 3 2 3" xfId="270"/>
-    <cellStyle name="常规 2 5 3 3" xfId="271"/>
-    <cellStyle name="常规 2 5 4" xfId="272"/>
-    <cellStyle name="常规 2 5 4 2" xfId="273"/>
-    <cellStyle name="常规 2 5 4 3" xfId="274"/>
-    <cellStyle name="常规 2 5 5" xfId="275"/>
-    <cellStyle name="常规 2 6" xfId="276"/>
-    <cellStyle name="常规 2 6 2" xfId="277"/>
-    <cellStyle name="常规 2 6 2 2" xfId="278"/>
-    <cellStyle name="常规 2 6 2 2 2" xfId="279"/>
-    <cellStyle name="常规 2 6 2 2 3" xfId="280"/>
-    <cellStyle name="常规 2 6 2 3" xfId="281"/>
-    <cellStyle name="常规 2 6 3" xfId="282"/>
-    <cellStyle name="常规 2 6 3 2" xfId="283"/>
-    <cellStyle name="常规 2 6 3 3" xfId="284"/>
-    <cellStyle name="常规 2 6 4" xfId="285"/>
-    <cellStyle name="常规 2 7" xfId="286"/>
-    <cellStyle name="常规 2 7 2" xfId="287"/>
-    <cellStyle name="常规 2 7 2 2" xfId="288"/>
-    <cellStyle name="常规 2 7 2 3" xfId="289"/>
-    <cellStyle name="常规 2 7 3" xfId="290"/>
-    <cellStyle name="常规 2 8" xfId="291"/>
-    <cellStyle name="常规 2 8 2" xfId="292"/>
-    <cellStyle name="常规 2 8 3" xfId="293"/>
-    <cellStyle name="常规 2 9" xfId="294"/>
-    <cellStyle name="常规 3" xfId="295"/>
-    <cellStyle name="常规 3 2" xfId="296"/>
-    <cellStyle name="常规 3 2 2" xfId="297"/>
-    <cellStyle name="常规 3 2 2 2" xfId="298"/>
-    <cellStyle name="常规 3 2 2 2 2" xfId="299"/>
-    <cellStyle name="常规 3 2 2 2 2 2" xfId="300"/>
-    <cellStyle name="常规 3 2 2 2 2 2 2" xfId="301"/>
-    <cellStyle name="常规 3 2 2 2 2 2 3" xfId="302"/>
-    <cellStyle name="常规 3 2 2 2 2 3" xfId="303"/>
-    <cellStyle name="常规 3 2 2 2 3" xfId="304"/>
-    <cellStyle name="常规 3 2 2 2 3 2" xfId="305"/>
-    <cellStyle name="常规 3 2 2 2 3 3" xfId="306"/>
-    <cellStyle name="常规 3 2 2 2 4" xfId="307"/>
-    <cellStyle name="常规 3 2 2 3" xfId="308"/>
-    <cellStyle name="常规 3 2 2 3 2" xfId="309"/>
-    <cellStyle name="常规 3 2 2 3 2 2" xfId="310"/>
-    <cellStyle name="常规 3 2 2 3 2 3" xfId="311"/>
-    <cellStyle name="常规 3 2 2 3 3" xfId="312"/>
-    <cellStyle name="常规 3 2 2 4" xfId="313"/>
-    <cellStyle name="常规 3 2 2 4 2" xfId="314"/>
-    <cellStyle name="常规 3 2 2 4 3" xfId="315"/>
-    <cellStyle name="常规 3 2 2 5" xfId="316"/>
-    <cellStyle name="常规 3 2 3" xfId="317"/>
-    <cellStyle name="常规 3 2 3 2" xfId="318"/>
-    <cellStyle name="常规 3 2 3 2 2" xfId="319"/>
-    <cellStyle name="常规 3 2 3 2 2 2" xfId="320"/>
-    <cellStyle name="常规 3 2 3 2 2 3" xfId="321"/>
-    <cellStyle name="常规 3 2 3 2 3" xfId="322"/>
-    <cellStyle name="常规 3 2 3 3" xfId="323"/>
-    <cellStyle name="常规 3 2 3 3 2" xfId="324"/>
-    <cellStyle name="常规 3 2 3 3 3" xfId="325"/>
-    <cellStyle name="常规 3 2 3 4" xfId="326"/>
-    <cellStyle name="常规 3 2 4" xfId="327"/>
-    <cellStyle name="常规 3 2 4 2" xfId="328"/>
-    <cellStyle name="常规 3 2 4 2 2" xfId="329"/>
-    <cellStyle name="常规 3 2 4 2 3" xfId="330"/>
-    <cellStyle name="常规 3 2 4 3" xfId="331"/>
-    <cellStyle name="常规 3 2 5" xfId="332"/>
-    <cellStyle name="常规 3 2 5 2" xfId="333"/>
-    <cellStyle name="常规 3 2 5 3" xfId="334"/>
-    <cellStyle name="常规 3 2 6" xfId="335"/>
-    <cellStyle name="常规 3 3" xfId="336"/>
-    <cellStyle name="常规 3 3 2" xfId="337"/>
-    <cellStyle name="常规 3 3 2 2" xfId="338"/>
-    <cellStyle name="常规 3 3 2 2 2" xfId="339"/>
-    <cellStyle name="常规 3 3 2 2 2 2" xfId="340"/>
-    <cellStyle name="常规 3 3 2 2 2 3" xfId="341"/>
-    <cellStyle name="常规 3 3 2 2 3" xfId="342"/>
-    <cellStyle name="常规 3 3 2 3" xfId="343"/>
-    <cellStyle name="常规 3 3 2 3 2" xfId="344"/>
-    <cellStyle name="常规 3 3 2 3 3" xfId="345"/>
-    <cellStyle name="常规 3 3 2 4" xfId="346"/>
-    <cellStyle name="常规 3 3 3" xfId="347"/>
-    <cellStyle name="常规 3 3 3 2" xfId="348"/>
-    <cellStyle name="常规 3 3 3 2 2" xfId="349"/>
-    <cellStyle name="常规 3 3 3 2 3" xfId="350"/>
-    <cellStyle name="常规 3 3 3 3" xfId="351"/>
-    <cellStyle name="常规 3 3 4" xfId="352"/>
-    <cellStyle name="常规 3 3 4 2" xfId="353"/>
-    <cellStyle name="常规 3 3 4 3" xfId="354"/>
-    <cellStyle name="常规 3 3 5" xfId="355"/>
-    <cellStyle name="常规 3 4" xfId="356"/>
-    <cellStyle name="常规 3 4 2" xfId="357"/>
-    <cellStyle name="常规 3 4 2 2" xfId="358"/>
-    <cellStyle name="常规 3 4 2 2 2" xfId="359"/>
-    <cellStyle name="常规 3 4 2 2 3" xfId="360"/>
-    <cellStyle name="常规 3 4 2 3" xfId="361"/>
-    <cellStyle name="常规 3 4 3" xfId="362"/>
-    <cellStyle name="常规 3 4 3 2" xfId="363"/>
-    <cellStyle name="常规 3 4 3 3" xfId="364"/>
-    <cellStyle name="常规 3 4 4" xfId="365"/>
-    <cellStyle name="常规 3 5" xfId="366"/>
-    <cellStyle name="常规 3 5 2" xfId="367"/>
-    <cellStyle name="常规 3 5 2 2" xfId="368"/>
-    <cellStyle name="常规 3 5 2 3" xfId="369"/>
-    <cellStyle name="常规 3 5 3" xfId="370"/>
-    <cellStyle name="常规 3 6" xfId="371"/>
-    <cellStyle name="常规 3 6 2" xfId="372"/>
-    <cellStyle name="常规 3 6 3" xfId="373"/>
-    <cellStyle name="常规 3 7" xfId="374"/>
-    <cellStyle name="常规 4" xfId="375"/>
-    <cellStyle name="常规 4 2" xfId="376"/>
-    <cellStyle name="常规 4 2 2" xfId="377"/>
-    <cellStyle name="常规 4 2 2 2" xfId="378"/>
-    <cellStyle name="常规 4 2 2 2 2" xfId="379"/>
-    <cellStyle name="常规 4 2 2 2 2 2" xfId="380"/>
-    <cellStyle name="常规 4 2 2 2 2 2 2" xfId="381"/>
-    <cellStyle name="常规 4 2 2 2 2 2 3" xfId="382"/>
-    <cellStyle name="常规 4 2 2 2 2 3" xfId="383"/>
-    <cellStyle name="常规 4 2 2 2 3" xfId="384"/>
-    <cellStyle name="常规 4 2 2 2 3 2" xfId="385"/>
-    <cellStyle name="常规 4 2 2 2 3 3" xfId="386"/>
-    <cellStyle name="常规 4 2 2 2 4" xfId="387"/>
-    <cellStyle name="常规 4 2 2 3" xfId="388"/>
-    <cellStyle name="常规 4 2 2 3 2" xfId="389"/>
-    <cellStyle name="常规 4 2 2 3 2 2" xfId="390"/>
-    <cellStyle name="常规 4 2 2 3 2 3" xfId="391"/>
-    <cellStyle name="常规 4 2 2 3 3" xfId="392"/>
-    <cellStyle name="常规 4 2 2 4" xfId="393"/>
-    <cellStyle name="常规 4 2 2 4 2" xfId="394"/>
-    <cellStyle name="常规 4 2 2 4 3" xfId="395"/>
-    <cellStyle name="常规 4 2 2 5" xfId="396"/>
-    <cellStyle name="常规 4 2 3" xfId="397"/>
-    <cellStyle name="常规 4 2 3 2" xfId="398"/>
-    <cellStyle name="常规 4 2 3 2 2" xfId="399"/>
-    <cellStyle name="常规 4 2 3 2 2 2" xfId="400"/>
-    <cellStyle name="常规 4 2 3 2 2 3" xfId="401"/>
-    <cellStyle name="常规 4 2 3 2 3" xfId="402"/>
-    <cellStyle name="常规 4 2 3 3" xfId="403"/>
-    <cellStyle name="常规 4 2 3 3 2" xfId="404"/>
-    <cellStyle name="常规 4 2 3 3 3" xfId="405"/>
-    <cellStyle name="常规 4 2 3 4" xfId="406"/>
-    <cellStyle name="常规 4 2 4" xfId="407"/>
-    <cellStyle name="常规 4 2 4 2" xfId="408"/>
-    <cellStyle name="常规 4 2 4 2 2" xfId="409"/>
-    <cellStyle name="常规 4 2 4 2 3" xfId="410"/>
-    <cellStyle name="常规 4 2 4 3" xfId="411"/>
-    <cellStyle name="常规 4 2 5" xfId="412"/>
-    <cellStyle name="常规 4 2 5 2" xfId="413"/>
-    <cellStyle name="常规 4 2 5 3" xfId="414"/>
-    <cellStyle name="常规 4 2 6" xfId="415"/>
-    <cellStyle name="常规 4 3" xfId="416"/>
-    <cellStyle name="常规 4 3 2" xfId="417"/>
-    <cellStyle name="常规 4 3 2 2" xfId="418"/>
-    <cellStyle name="常规 4 3 2 2 2" xfId="419"/>
-    <cellStyle name="常规 4 3 2 2 2 2" xfId="420"/>
-    <cellStyle name="常规 4 3 2 2 2 3" xfId="421"/>
-    <cellStyle name="常规 4 3 2 2 3" xfId="422"/>
-    <cellStyle name="常规 4 3 2 3" xfId="423"/>
-    <cellStyle name="常规 4 3 2 3 2" xfId="424"/>
-    <cellStyle name="常规 4 3 2 3 3" xfId="425"/>
-    <cellStyle name="常规 4 3 2 4" xfId="426"/>
-    <cellStyle name="常规 4 3 3" xfId="427"/>
-    <cellStyle name="常规 4 3 3 2" xfId="428"/>
-    <cellStyle name="常规 4 3 3 2 2" xfId="429"/>
-    <cellStyle name="常规 4 3 3 2 3" xfId="430"/>
-    <cellStyle name="常规 4 3 3 3" xfId="431"/>
-    <cellStyle name="常规 4 3 4" xfId="432"/>
-    <cellStyle name="常规 4 3 4 2" xfId="433"/>
-    <cellStyle name="常规 4 3 4 3" xfId="434"/>
-    <cellStyle name="常规 4 3 5" xfId="435"/>
-    <cellStyle name="常规 4 4" xfId="436"/>
-    <cellStyle name="常规 4 4 2" xfId="437"/>
-    <cellStyle name="常规 4 4 2 2" xfId="438"/>
-    <cellStyle name="常规 4 4 2 2 2" xfId="439"/>
-    <cellStyle name="常规 4 4 2 2 3" xfId="440"/>
-    <cellStyle name="常规 4 4 2 3" xfId="441"/>
-    <cellStyle name="常规 4 4 3" xfId="442"/>
-    <cellStyle name="常规 4 4 3 2" xfId="443"/>
-    <cellStyle name="常规 4 4 3 3" xfId="444"/>
-    <cellStyle name="常规 4 4 4" xfId="445"/>
-    <cellStyle name="常规 4 5" xfId="446"/>
-    <cellStyle name="常规 4 5 2" xfId="447"/>
-    <cellStyle name="常规 4 5 2 2" xfId="448"/>
-    <cellStyle name="常规 4 5 2 3" xfId="449"/>
-    <cellStyle name="常规 4 5 3" xfId="450"/>
-    <cellStyle name="常规 4 6" xfId="451"/>
-    <cellStyle name="常规 4 6 2" xfId="452"/>
-    <cellStyle name="常规 4 6 3" xfId="453"/>
-    <cellStyle name="常规 4 7" xfId="454"/>
-    <cellStyle name="常规 5" xfId="455"/>
-    <cellStyle name="常规 5 2" xfId="456"/>
-    <cellStyle name="常规 5 2 2" xfId="457"/>
-    <cellStyle name="常规 5 2 2 2" xfId="458"/>
-    <cellStyle name="常规 5 2 2 2 2" xfId="459"/>
-    <cellStyle name="常规 5 2 2 2 2 2" xfId="460"/>
-    <cellStyle name="常规 5 2 2 2 2 3" xfId="461"/>
-    <cellStyle name="常规 5 2 2 2 3" xfId="462"/>
-    <cellStyle name="常规 5 2 2 3" xfId="463"/>
-    <cellStyle name="常规 5 2 2 3 2" xfId="464"/>
-    <cellStyle name="常规 5 2 2 3 3" xfId="465"/>
-    <cellStyle name="常规 5 2 2 4" xfId="466"/>
-    <cellStyle name="常规 5 2 3" xfId="467"/>
-    <cellStyle name="常规 5 2 3 2" xfId="468"/>
-    <cellStyle name="常规 5 2 3 2 2" xfId="469"/>
-    <cellStyle name="常规 5 2 3 2 3" xfId="470"/>
-    <cellStyle name="常规 5 2 3 3" xfId="471"/>
-    <cellStyle name="常规 5 2 4" xfId="472"/>
-    <cellStyle name="常规 5 2 4 2" xfId="473"/>
-    <cellStyle name="常规 5 2 4 3" xfId="474"/>
-    <cellStyle name="常规 5 2 5" xfId="475"/>
-    <cellStyle name="常规 5 3" xfId="476"/>
-    <cellStyle name="常规 5 3 2" xfId="477"/>
-    <cellStyle name="常规 5 3 2 2" xfId="478"/>
-    <cellStyle name="常规 5 3 2 2 2" xfId="479"/>
-    <cellStyle name="常规 5 3 2 2 3" xfId="480"/>
-    <cellStyle name="常规 5 3 2 3" xfId="481"/>
-    <cellStyle name="常规 5 3 3" xfId="482"/>
-    <cellStyle name="常规 5 3 3 2" xfId="483"/>
-    <cellStyle name="常规 5 3 3 3" xfId="484"/>
-    <cellStyle name="常规 5 3 4" xfId="485"/>
-    <cellStyle name="常规 5 4" xfId="486"/>
-    <cellStyle name="常规 5 4 2" xfId="487"/>
-    <cellStyle name="常规 5 4 2 2" xfId="488"/>
-    <cellStyle name="常规 5 4 2 3" xfId="489"/>
-    <cellStyle name="常规 5 4 3" xfId="490"/>
-    <cellStyle name="常规 5 5" xfId="491"/>
-    <cellStyle name="常规 5 5 2" xfId="492"/>
-    <cellStyle name="常规 5 5 3" xfId="493"/>
-    <cellStyle name="常规 5 6" xfId="494"/>
-    <cellStyle name="常规 6" xfId="495"/>
-    <cellStyle name="常规 6 2" xfId="496"/>
-    <cellStyle name="常规 6 2 2" xfId="497"/>
-    <cellStyle name="常规 6 2 2 2" xfId="498"/>
-    <cellStyle name="常规 6 2 2 2 2" xfId="499"/>
-    <cellStyle name="常规 6 2 2 2 3" xfId="500"/>
-    <cellStyle name="常规 6 2 2 3" xfId="501"/>
-    <cellStyle name="常规 6 2 3" xfId="502"/>
-    <cellStyle name="常规 6 2 3 2" xfId="503"/>
-    <cellStyle name="常规 6 2 3 3" xfId="504"/>
-    <cellStyle name="常规 6 2 4" xfId="505"/>
-    <cellStyle name="常规 6 3" xfId="506"/>
-    <cellStyle name="常规 6 3 2" xfId="507"/>
-    <cellStyle name="常规 6 3 2 2" xfId="508"/>
-    <cellStyle name="常规 6 3 2 3" xfId="509"/>
-    <cellStyle name="常规 6 3 3" xfId="510"/>
-    <cellStyle name="常规 6 4" xfId="511"/>
-    <cellStyle name="常规 6 4 2" xfId="512"/>
-    <cellStyle name="常规 6 4 3" xfId="513"/>
-    <cellStyle name="常规 6 5" xfId="514"/>
-    <cellStyle name="常规 7" xfId="515"/>
-    <cellStyle name="常规 7 2" xfId="516"/>
-    <cellStyle name="常规 7 2 2" xfId="517"/>
-    <cellStyle name="常规 7 2 2 2" xfId="518"/>
-    <cellStyle name="常规 7 2 2 3" xfId="519"/>
-    <cellStyle name="常规 7 2 3" xfId="520"/>
-    <cellStyle name="常规 7 3" xfId="521"/>
-    <cellStyle name="常规 7 3 2" xfId="522"/>
-    <cellStyle name="常规 7 3 3" xfId="523"/>
-    <cellStyle name="常规 7 4" xfId="524"/>
-    <cellStyle name="常规 8" xfId="525"/>
-    <cellStyle name="常规 8 2" xfId="526"/>
-    <cellStyle name="常规 8 2 2" xfId="527"/>
-    <cellStyle name="常规 8 2 3" xfId="528"/>
-    <cellStyle name="常规 8 3" xfId="529"/>
-    <cellStyle name="常规 9" xfId="530"/>
-    <cellStyle name="常规 9 2" xfId="531"/>
-    <cellStyle name="常规 9 3" xfId="532"/>
+    <cellStyle name="常规 10" xfId="1"/>
+    <cellStyle name="常规 11" xfId="2"/>
+    <cellStyle name="常规 12" xfId="3"/>
+    <cellStyle name="常规 13" xfId="4"/>
+    <cellStyle name="常规 2" xfId="5"/>
+    <cellStyle name="常规 2 10" xfId="6"/>
+    <cellStyle name="常规 2 11" xfId="7"/>
+    <cellStyle name="常规 2 2" xfId="8"/>
+    <cellStyle name="常规 2 2 2" xfId="9"/>
+    <cellStyle name="常规 2 2 2 2" xfId="10"/>
+    <cellStyle name="常规 2 2 2 2 2" xfId="11"/>
+    <cellStyle name="常规 2 2 2 2 2 2" xfId="12"/>
+    <cellStyle name="常规 2 2 2 2 2 2 2" xfId="13"/>
+    <cellStyle name="常规 2 2 2 2 2 2 2 2" xfId="14"/>
+    <cellStyle name="常规 2 2 2 2 2 2 2 3" xfId="15"/>
+    <cellStyle name="常规 2 2 2 2 2 2 3" xfId="16"/>
+    <cellStyle name="常规 2 2 2 2 2 3" xfId="17"/>
+    <cellStyle name="常规 2 2 2 2 2 3 2" xfId="18"/>
+    <cellStyle name="常规 2 2 2 2 2 3 3" xfId="19"/>
+    <cellStyle name="常规 2 2 2 2 2 4" xfId="20"/>
+    <cellStyle name="常规 2 2 2 2 3" xfId="21"/>
+    <cellStyle name="常规 2 2 2 2 3 2" xfId="22"/>
+    <cellStyle name="常规 2 2 2 2 3 2 2" xfId="23"/>
+    <cellStyle name="常规 2 2 2 2 3 2 3" xfId="24"/>
+    <cellStyle name="常规 2 2 2 2 3 3" xfId="25"/>
+    <cellStyle name="常规 2 2 2 2 4" xfId="26"/>
+    <cellStyle name="常规 2 2 2 2 4 2" xfId="27"/>
+    <cellStyle name="常规 2 2 2 2 4 3" xfId="28"/>
+    <cellStyle name="常规 2 2 2 2 5" xfId="29"/>
+    <cellStyle name="常规 2 2 2 3" xfId="30"/>
+    <cellStyle name="常规 2 2 2 3 2" xfId="31"/>
+    <cellStyle name="常规 2 2 2 3 2 2" xfId="32"/>
+    <cellStyle name="常规 2 2 2 3 2 2 2" xfId="33"/>
+    <cellStyle name="常规 2 2 2 3 2 2 3" xfId="34"/>
+    <cellStyle name="常规 2 2 2 3 2 3" xfId="35"/>
+    <cellStyle name="常规 2 2 2 3 3" xfId="36"/>
+    <cellStyle name="常规 2 2 2 3 3 2" xfId="37"/>
+    <cellStyle name="常规 2 2 2 3 3 3" xfId="38"/>
+    <cellStyle name="常规 2 2 2 3 4" xfId="39"/>
+    <cellStyle name="常规 2 2 2 4" xfId="40"/>
+    <cellStyle name="常规 2 2 2 4 2" xfId="41"/>
+    <cellStyle name="常规 2 2 2 4 2 2" xfId="42"/>
+    <cellStyle name="常规 2 2 2 4 2 3" xfId="43"/>
+    <cellStyle name="常规 2 2 2 4 3" xfId="44"/>
+    <cellStyle name="常规 2 2 2 5" xfId="45"/>
+    <cellStyle name="常规 2 2 2 5 2" xfId="46"/>
+    <cellStyle name="常规 2 2 2 5 3" xfId="47"/>
+    <cellStyle name="常规 2 2 2 6" xfId="48"/>
+    <cellStyle name="常规 2 2 3" xfId="49"/>
+    <cellStyle name="常规 2 2 3 2" xfId="50"/>
+    <cellStyle name="常规 2 2 3 2 2" xfId="51"/>
+    <cellStyle name="常规 2 2 3 2 2 2" xfId="52"/>
+    <cellStyle name="常规 2 2 3 2 2 2 2" xfId="53"/>
+    <cellStyle name="常规 2 2 3 2 2 2 3" xfId="54"/>
+    <cellStyle name="常规 2 2 3 2 2 3" xfId="55"/>
+    <cellStyle name="常规 2 2 3 2 3" xfId="56"/>
+    <cellStyle name="常规 2 2 3 2 3 2" xfId="57"/>
+    <cellStyle name="常规 2 2 3 2 3 3" xfId="58"/>
+    <cellStyle name="常规 2 2 3 2 4" xfId="59"/>
+    <cellStyle name="常规 2 2 3 3" xfId="60"/>
+    <cellStyle name="常规 2 2 3 3 2" xfId="61"/>
+    <cellStyle name="常规 2 2 3 3 2 2" xfId="62"/>
+    <cellStyle name="常规 2 2 3 3 2 3" xfId="63"/>
+    <cellStyle name="常规 2 2 3 3 3" xfId="64"/>
+    <cellStyle name="常规 2 2 3 4" xfId="65"/>
+    <cellStyle name="常规 2 2 3 4 2" xfId="66"/>
+    <cellStyle name="常规 2 2 3 4 3" xfId="67"/>
+    <cellStyle name="常规 2 2 3 5" xfId="68"/>
+    <cellStyle name="常规 2 2 4" xfId="69"/>
+    <cellStyle name="常规 2 2 4 2" xfId="70"/>
+    <cellStyle name="常规 2 2 4 2 2" xfId="71"/>
+    <cellStyle name="常规 2 2 4 2 2 2" xfId="72"/>
+    <cellStyle name="常规 2 2 4 2 2 3" xfId="73"/>
+    <cellStyle name="常规 2 2 4 2 3" xfId="74"/>
+    <cellStyle name="常规 2 2 4 3" xfId="75"/>
+    <cellStyle name="常规 2 2 4 3 2" xfId="76"/>
+    <cellStyle name="常规 2 2 4 3 3" xfId="77"/>
+    <cellStyle name="常规 2 2 4 4" xfId="78"/>
+    <cellStyle name="常规 2 2 5" xfId="79"/>
+    <cellStyle name="常规 2 2 5 2" xfId="80"/>
+    <cellStyle name="常规 2 2 5 2 2" xfId="81"/>
+    <cellStyle name="常规 2 2 5 2 3" xfId="82"/>
+    <cellStyle name="常规 2 2 5 3" xfId="83"/>
+    <cellStyle name="常规 2 2 6" xfId="84"/>
+    <cellStyle name="常规 2 2 6 2" xfId="85"/>
+    <cellStyle name="常规 2 2 6 3" xfId="86"/>
+    <cellStyle name="常规 2 2 7" xfId="87"/>
+    <cellStyle name="常规 2 3" xfId="88"/>
+    <cellStyle name="常规 2 3 2" xfId="89"/>
+    <cellStyle name="常规 2 3 2 2" xfId="90"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="91"/>
+    <cellStyle name="常规 2 3 2 2 2 2" xfId="92"/>
+    <cellStyle name="常规 2 3 2 2 2 2 2" xfId="93"/>
+    <cellStyle name="常规 2 3 2 2 2 2 2 2" xfId="94"/>
+    <cellStyle name="常规 2 3 2 2 2 2 2 3" xfId="95"/>
+    <cellStyle name="常规 2 3 2 2 2 2 3" xfId="96"/>
+    <cellStyle name="常规 2 3 2 2 2 3" xfId="97"/>
+    <cellStyle name="常规 2 3 2 2 2 3 2" xfId="98"/>
+    <cellStyle name="常规 2 3 2 2 2 3 3" xfId="99"/>
+    <cellStyle name="常规 2 3 2 2 2 4" xfId="100"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="101"/>
+    <cellStyle name="常规 2 3 2 2 3 2" xfId="102"/>
+    <cellStyle name="常规 2 3 2 2 3 2 2" xfId="103"/>
+    <cellStyle name="常规 2 3 2 2 3 2 3" xfId="104"/>
+    <cellStyle name="常规 2 3 2 2 3 3" xfId="105"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="106"/>
+    <cellStyle name="常规 2 3 2 2 4 2" xfId="107"/>
+    <cellStyle name="常规 2 3 2 2 4 3" xfId="108"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="109"/>
+    <cellStyle name="常规 2 3 2 3" xfId="110"/>
+    <cellStyle name="常规 2 3 2 3 2" xfId="111"/>
+    <cellStyle name="常规 2 3 2 3 2 2" xfId="112"/>
+    <cellStyle name="常规 2 3 2 3 2 2 2" xfId="113"/>
+    <cellStyle name="常规 2 3 2 3 2 2 3" xfId="114"/>
+    <cellStyle name="常规 2 3 2 3 2 3" xfId="115"/>
+    <cellStyle name="常规 2 3 2 3 3" xfId="116"/>
+    <cellStyle name="常规 2 3 2 3 3 2" xfId="117"/>
+    <cellStyle name="常规 2 3 2 3 3 3" xfId="118"/>
+    <cellStyle name="常规 2 3 2 3 4" xfId="119"/>
+    <cellStyle name="常规 2 3 2 4" xfId="120"/>
+    <cellStyle name="常规 2 3 2 4 2" xfId="121"/>
+    <cellStyle name="常规 2 3 2 4 2 2" xfId="122"/>
+    <cellStyle name="常规 2 3 2 4 2 3" xfId="123"/>
+    <cellStyle name="常规 2 3 2 4 3" xfId="124"/>
+    <cellStyle name="常规 2 3 2 5" xfId="125"/>
+    <cellStyle name="常规 2 3 2 5 2" xfId="126"/>
+    <cellStyle name="常规 2 3 2 5 3" xfId="127"/>
+    <cellStyle name="常规 2 3 2 6" xfId="128"/>
+    <cellStyle name="常规 2 3 3" xfId="129"/>
+    <cellStyle name="常规 2 3 3 2" xfId="130"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="131"/>
+    <cellStyle name="常规 2 3 3 2 2 2" xfId="132"/>
+    <cellStyle name="常规 2 3 3 2 2 2 2" xfId="133"/>
+    <cellStyle name="常规 2 3 3 2 2 2 3" xfId="134"/>
+    <cellStyle name="常规 2 3 3 2 2 3" xfId="135"/>
+    <cellStyle name="常规 2 3 3 2 3" xfId="136"/>
+    <cellStyle name="常规 2 3 3 2 3 2" xfId="137"/>
+    <cellStyle name="常规 2 3 3 2 3 3" xfId="138"/>
+    <cellStyle name="常规 2 3 3 2 4" xfId="139"/>
+    <cellStyle name="常规 2 3 3 3" xfId="140"/>
+    <cellStyle name="常规 2 3 3 3 2" xfId="141"/>
+    <cellStyle name="常规 2 3 3 3 2 2" xfId="142"/>
+    <cellStyle name="常规 2 3 3 3 2 3" xfId="143"/>
+    <cellStyle name="常规 2 3 3 3 3" xfId="144"/>
+    <cellStyle name="常规 2 3 3 4" xfId="145"/>
+    <cellStyle name="常规 2 3 3 4 2" xfId="146"/>
+    <cellStyle name="常规 2 3 3 4 3" xfId="147"/>
+    <cellStyle name="常规 2 3 3 5" xfId="148"/>
+    <cellStyle name="常规 2 3 4" xfId="149"/>
+    <cellStyle name="常规 2 3 4 2" xfId="150"/>
+    <cellStyle name="常规 2 3 4 2 2" xfId="151"/>
+    <cellStyle name="常规 2 3 4 2 2 2" xfId="152"/>
+    <cellStyle name="常规 2 3 4 2 2 3" xfId="153"/>
+    <cellStyle name="常规 2 3 4 2 3" xfId="154"/>
+    <cellStyle name="常规 2 3 4 3" xfId="155"/>
+    <cellStyle name="常规 2 3 4 3 2" xfId="156"/>
+    <cellStyle name="常规 2 3 4 3 3" xfId="157"/>
+    <cellStyle name="常规 2 3 4 4" xfId="158"/>
+    <cellStyle name="常规 2 3 5" xfId="159"/>
+    <cellStyle name="常规 2 3 5 2" xfId="160"/>
+    <cellStyle name="常规 2 3 5 2 2" xfId="161"/>
+    <cellStyle name="常规 2 3 5 2 3" xfId="162"/>
+    <cellStyle name="常规 2 3 5 3" xfId="163"/>
+    <cellStyle name="常规 2 3 6" xfId="164"/>
+    <cellStyle name="常规 2 3 6 2" xfId="165"/>
+    <cellStyle name="常规 2 3 6 3" xfId="166"/>
+    <cellStyle name="常规 2 3 7" xfId="167"/>
+    <cellStyle name="常规 2 4" xfId="168"/>
+    <cellStyle name="常规 2 4 2" xfId="169"/>
+    <cellStyle name="常规 2 4 2 2" xfId="170"/>
+    <cellStyle name="常规 2 4 2 2 2" xfId="171"/>
+    <cellStyle name="常规 2 4 2 2 2 2" xfId="172"/>
+    <cellStyle name="常规 2 4 2 2 2 2 2" xfId="173"/>
+    <cellStyle name="常规 2 4 2 2 2 2 3" xfId="174"/>
+    <cellStyle name="常规 2 4 2 2 2 3" xfId="175"/>
+    <cellStyle name="常规 2 4 2 2 3" xfId="176"/>
+    <cellStyle name="常规 2 4 2 2 3 2" xfId="177"/>
+    <cellStyle name="常规 2 4 2 2 3 3" xfId="178"/>
+    <cellStyle name="常规 2 4 2 2 4" xfId="179"/>
+    <cellStyle name="常规 2 4 2 3" xfId="180"/>
+    <cellStyle name="常规 2 4 2 3 2" xfId="181"/>
+    <cellStyle name="常规 2 4 2 3 2 2" xfId="182"/>
+    <cellStyle name="常规 2 4 2 3 2 3" xfId="183"/>
+    <cellStyle name="常规 2 4 2 3 3" xfId="184"/>
+    <cellStyle name="常规 2 4 2 4" xfId="185"/>
+    <cellStyle name="常规 2 4 2 4 2" xfId="186"/>
+    <cellStyle name="常规 2 4 2 4 3" xfId="187"/>
+    <cellStyle name="常规 2 4 2 5" xfId="188"/>
+    <cellStyle name="常规 2 4 3" xfId="189"/>
+    <cellStyle name="常规 2 4 3 2" xfId="190"/>
+    <cellStyle name="常规 2 4 3 2 2" xfId="191"/>
+    <cellStyle name="常规 2 4 3 2 2 2" xfId="192"/>
+    <cellStyle name="常规 2 4 3 2 2 3" xfId="193"/>
+    <cellStyle name="常规 2 4 3 2 3" xfId="194"/>
+    <cellStyle name="常规 2 4 3 3" xfId="195"/>
+    <cellStyle name="常规 2 4 3 3 2" xfId="196"/>
+    <cellStyle name="常规 2 4 3 3 3" xfId="197"/>
+    <cellStyle name="常规 2 4 3 4" xfId="198"/>
+    <cellStyle name="常规 2 4 4" xfId="199"/>
+    <cellStyle name="常规 2 4 4 2" xfId="200"/>
+    <cellStyle name="常规 2 4 4 2 2" xfId="201"/>
+    <cellStyle name="常规 2 4 4 2 3" xfId="202"/>
+    <cellStyle name="常规 2 4 4 3" xfId="203"/>
+    <cellStyle name="常规 2 4 5" xfId="204"/>
+    <cellStyle name="常规 2 4 5 2" xfId="205"/>
+    <cellStyle name="常规 2 4 5 3" xfId="206"/>
+    <cellStyle name="常规 2 4 6" xfId="207"/>
+    <cellStyle name="常规 2 5" xfId="208"/>
+    <cellStyle name="常规 2 5 2" xfId="209"/>
+    <cellStyle name="常规 2 5 2 2" xfId="210"/>
+    <cellStyle name="常规 2 5 2 2 2" xfId="211"/>
+    <cellStyle name="常规 2 5 2 2 2 2" xfId="212"/>
+    <cellStyle name="常规 2 5 2 2 2 3" xfId="213"/>
+    <cellStyle name="常规 2 5 2 2 3" xfId="214"/>
+    <cellStyle name="常规 2 5 2 3" xfId="215"/>
+    <cellStyle name="常规 2 5 2 3 2" xfId="216"/>
+    <cellStyle name="常规 2 5 2 3 3" xfId="217"/>
+    <cellStyle name="常规 2 5 2 4" xfId="218"/>
+    <cellStyle name="常规 2 5 3" xfId="219"/>
+    <cellStyle name="常规 2 5 3 2" xfId="220"/>
+    <cellStyle name="常规 2 5 3 2 2" xfId="221"/>
+    <cellStyle name="常规 2 5 3 2 3" xfId="222"/>
+    <cellStyle name="常规 2 5 3 3" xfId="223"/>
+    <cellStyle name="常规 2 5 4" xfId="224"/>
+    <cellStyle name="常规 2 5 4 2" xfId="225"/>
+    <cellStyle name="常规 2 5 4 3" xfId="226"/>
+    <cellStyle name="常规 2 5 5" xfId="227"/>
+    <cellStyle name="常规 2 6" xfId="228"/>
+    <cellStyle name="常规 2 6 2" xfId="229"/>
+    <cellStyle name="常规 2 6 2 2" xfId="230"/>
+    <cellStyle name="常规 2 6 2 2 2" xfId="231"/>
+    <cellStyle name="常规 2 6 2 2 3" xfId="232"/>
+    <cellStyle name="常规 2 6 2 3" xfId="233"/>
+    <cellStyle name="常规 2 6 3" xfId="234"/>
+    <cellStyle name="常规 2 6 3 2" xfId="235"/>
+    <cellStyle name="常规 2 6 3 3" xfId="236"/>
+    <cellStyle name="常规 2 6 4" xfId="237"/>
+    <cellStyle name="常规 2 7" xfId="238"/>
+    <cellStyle name="常规 2 7 2" xfId="239"/>
+    <cellStyle name="常规 2 7 2 2" xfId="240"/>
+    <cellStyle name="常规 2 7 2 3" xfId="241"/>
+    <cellStyle name="常规 2 7 3" xfId="242"/>
+    <cellStyle name="常规 2 8" xfId="243"/>
+    <cellStyle name="常规 2 8 2" xfId="244"/>
+    <cellStyle name="常规 2 8 3" xfId="245"/>
+    <cellStyle name="常规 2 9" xfId="246"/>
+    <cellStyle name="常规 3" xfId="247"/>
+    <cellStyle name="常规 3 2" xfId="248"/>
+    <cellStyle name="常规 3 2 2" xfId="249"/>
+    <cellStyle name="常规 3 2 2 2" xfId="250"/>
+    <cellStyle name="常规 3 2 2 2 2" xfId="251"/>
+    <cellStyle name="常规 3 2 2 2 2 2" xfId="252"/>
+    <cellStyle name="常规 3 2 2 2 2 2 2" xfId="253"/>
+    <cellStyle name="常规 3 2 2 2 2 2 3" xfId="254"/>
+    <cellStyle name="常规 3 2 2 2 2 3" xfId="255"/>
+    <cellStyle name="常规 3 2 2 2 3" xfId="256"/>
+    <cellStyle name="常规 3 2 2 2 3 2" xfId="257"/>
+    <cellStyle name="常规 3 2 2 2 3 3" xfId="258"/>
+    <cellStyle name="常规 3 2 2 2 4" xfId="259"/>
+    <cellStyle name="常规 3 2 2 3" xfId="260"/>
+    <cellStyle name="常规 3 2 2 3 2" xfId="261"/>
+    <cellStyle name="常规 3 2 2 3 2 2" xfId="262"/>
+    <cellStyle name="常规 3 2 2 3 2 3" xfId="263"/>
+    <cellStyle name="常规 3 2 2 3 3" xfId="264"/>
+    <cellStyle name="常规 3 2 2 4" xfId="265"/>
+    <cellStyle name="常规 3 2 2 4 2" xfId="266"/>
+    <cellStyle name="常规 3 2 2 4 3" xfId="267"/>
+    <cellStyle name="常规 3 2 2 5" xfId="268"/>
+    <cellStyle name="常规 3 2 3" xfId="269"/>
+    <cellStyle name="常规 3 2 3 2" xfId="270"/>
+    <cellStyle name="常规 3 2 3 2 2" xfId="271"/>
+    <cellStyle name="常规 3 2 3 2 2 2" xfId="272"/>
+    <cellStyle name="常规 3 2 3 2 2 3" xfId="273"/>
+    <cellStyle name="常规 3 2 3 2 3" xfId="274"/>
+    <cellStyle name="常规 3 2 3 3" xfId="275"/>
+    <cellStyle name="常规 3 2 3 3 2" xfId="276"/>
+    <cellStyle name="常规 3 2 3 3 3" xfId="277"/>
+    <cellStyle name="常规 3 2 3 4" xfId="278"/>
+    <cellStyle name="常规 3 2 4" xfId="279"/>
+    <cellStyle name="常规 3 2 4 2" xfId="280"/>
+    <cellStyle name="常规 3 2 4 2 2" xfId="281"/>
+    <cellStyle name="常规 3 2 4 2 3" xfId="282"/>
+    <cellStyle name="常规 3 2 4 3" xfId="283"/>
+    <cellStyle name="常规 3 2 5" xfId="284"/>
+    <cellStyle name="常规 3 2 5 2" xfId="285"/>
+    <cellStyle name="常规 3 2 5 3" xfId="286"/>
+    <cellStyle name="常规 3 2 6" xfId="287"/>
+    <cellStyle name="常规 3 3" xfId="288"/>
+    <cellStyle name="常规 3 3 2" xfId="289"/>
+    <cellStyle name="常规 3 3 2 2" xfId="290"/>
+    <cellStyle name="常规 3 3 2 2 2" xfId="291"/>
+    <cellStyle name="常规 3 3 2 2 2 2" xfId="292"/>
+    <cellStyle name="常规 3 3 2 2 2 3" xfId="293"/>
+    <cellStyle name="常规 3 3 2 2 3" xfId="294"/>
+    <cellStyle name="常规 3 3 2 3" xfId="295"/>
+    <cellStyle name="常规 3 3 2 3 2" xfId="296"/>
+    <cellStyle name="常规 3 3 2 3 3" xfId="297"/>
+    <cellStyle name="常规 3 3 2 4" xfId="298"/>
+    <cellStyle name="常规 3 3 3" xfId="299"/>
+    <cellStyle name="常规 3 3 3 2" xfId="300"/>
+    <cellStyle name="常规 3 3 3 2 2" xfId="301"/>
+    <cellStyle name="常规 3 3 3 2 3" xfId="302"/>
+    <cellStyle name="常规 3 3 3 3" xfId="303"/>
+    <cellStyle name="常规 3 3 4" xfId="304"/>
+    <cellStyle name="常规 3 3 4 2" xfId="305"/>
+    <cellStyle name="常规 3 3 4 3" xfId="306"/>
+    <cellStyle name="常规 3 3 5" xfId="307"/>
+    <cellStyle name="常规 3 4" xfId="308"/>
+    <cellStyle name="常规 3 4 2" xfId="309"/>
+    <cellStyle name="常规 3 4 2 2" xfId="310"/>
+    <cellStyle name="常规 3 4 2 2 2" xfId="311"/>
+    <cellStyle name="常规 3 4 2 2 3" xfId="312"/>
+    <cellStyle name="常规 3 4 2 3" xfId="313"/>
+    <cellStyle name="常规 3 4 3" xfId="314"/>
+    <cellStyle name="常规 3 4 3 2" xfId="315"/>
+    <cellStyle name="常规 3 4 3 3" xfId="316"/>
+    <cellStyle name="常规 3 4 4" xfId="317"/>
+    <cellStyle name="常规 3 5" xfId="318"/>
+    <cellStyle name="常规 3 5 2" xfId="319"/>
+    <cellStyle name="常规 3 5 2 2" xfId="320"/>
+    <cellStyle name="常规 3 5 2 3" xfId="321"/>
+    <cellStyle name="常规 3 5 3" xfId="322"/>
+    <cellStyle name="常规 3 6" xfId="323"/>
+    <cellStyle name="常规 3 6 2" xfId="324"/>
+    <cellStyle name="常规 3 6 3" xfId="325"/>
+    <cellStyle name="常规 3 7" xfId="326"/>
+    <cellStyle name="常规 4" xfId="327"/>
+    <cellStyle name="常规 4 2" xfId="328"/>
+    <cellStyle name="常规 4 2 2" xfId="329"/>
+    <cellStyle name="常规 4 2 2 2" xfId="330"/>
+    <cellStyle name="常规 4 2 2 2 2" xfId="331"/>
+    <cellStyle name="常规 4 2 2 2 2 2" xfId="332"/>
+    <cellStyle name="常规 4 2 2 2 2 2 2" xfId="333"/>
+    <cellStyle name="常规 4 2 2 2 2 2 3" xfId="334"/>
+    <cellStyle name="常规 4 2 2 2 2 3" xfId="335"/>
+    <cellStyle name="常规 4 2 2 2 3" xfId="336"/>
+    <cellStyle name="常规 4 2 2 2 3 2" xfId="337"/>
+    <cellStyle name="常规 4 2 2 2 3 3" xfId="338"/>
+    <cellStyle name="常规 4 2 2 2 4" xfId="339"/>
+    <cellStyle name="常规 4 2 2 3" xfId="340"/>
+    <cellStyle name="常规 4 2 2 3 2" xfId="341"/>
+    <cellStyle name="常规 4 2 2 3 2 2" xfId="342"/>
+    <cellStyle name="常规 4 2 2 3 2 3" xfId="343"/>
+    <cellStyle name="常规 4 2 2 3 3" xfId="344"/>
+    <cellStyle name="常规 4 2 2 4" xfId="345"/>
+    <cellStyle name="常规 4 2 2 4 2" xfId="346"/>
+    <cellStyle name="常规 4 2 2 4 3" xfId="347"/>
+    <cellStyle name="常规 4 2 2 5" xfId="348"/>
+    <cellStyle name="常规 4 2 3" xfId="349"/>
+    <cellStyle name="常规 4 2 3 2" xfId="350"/>
+    <cellStyle name="常规 4 2 3 2 2" xfId="351"/>
+    <cellStyle name="常规 4 2 3 2 2 2" xfId="352"/>
+    <cellStyle name="常规 4 2 3 2 2 3" xfId="353"/>
+    <cellStyle name="常规 4 2 3 2 3" xfId="354"/>
+    <cellStyle name="常规 4 2 3 3" xfId="355"/>
+    <cellStyle name="常规 4 2 3 3 2" xfId="356"/>
+    <cellStyle name="常规 4 2 3 3 3" xfId="357"/>
+    <cellStyle name="常规 4 2 3 4" xfId="358"/>
+    <cellStyle name="常规 4 2 4" xfId="359"/>
+    <cellStyle name="常规 4 2 4 2" xfId="360"/>
+    <cellStyle name="常规 4 2 4 2 2" xfId="361"/>
+    <cellStyle name="常规 4 2 4 2 3" xfId="362"/>
+    <cellStyle name="常规 4 2 4 3" xfId="363"/>
+    <cellStyle name="常规 4 2 5" xfId="364"/>
+    <cellStyle name="常规 4 2 5 2" xfId="365"/>
+    <cellStyle name="常规 4 2 5 3" xfId="366"/>
+    <cellStyle name="常规 4 2 6" xfId="367"/>
+    <cellStyle name="常规 4 3" xfId="368"/>
+    <cellStyle name="常规 4 3 2" xfId="369"/>
+    <cellStyle name="常规 4 3 2 2" xfId="370"/>
+    <cellStyle name="常规 4 3 2 2 2" xfId="371"/>
+    <cellStyle name="常规 4 3 2 2 2 2" xfId="372"/>
+    <cellStyle name="常规 4 3 2 2 2 3" xfId="373"/>
+    <cellStyle name="常规 4 3 2 2 3" xfId="374"/>
+    <cellStyle name="常规 4 3 2 3" xfId="375"/>
+    <cellStyle name="常规 4 3 2 3 2" xfId="376"/>
+    <cellStyle name="常规 4 3 2 3 3" xfId="377"/>
+    <cellStyle name="常规 4 3 2 4" xfId="378"/>
+    <cellStyle name="常规 4 3 3" xfId="379"/>
+    <cellStyle name="常规 4 3 3 2" xfId="380"/>
+    <cellStyle name="常规 4 3 3 2 2" xfId="381"/>
+    <cellStyle name="常规 4 3 3 2 3" xfId="382"/>
+    <cellStyle name="常规 4 3 3 3" xfId="383"/>
+    <cellStyle name="常规 4 3 4" xfId="384"/>
+    <cellStyle name="常规 4 3 4 2" xfId="385"/>
+    <cellStyle name="常规 4 3 4 3" xfId="386"/>
+    <cellStyle name="常规 4 3 5" xfId="387"/>
+    <cellStyle name="常规 4 4" xfId="388"/>
+    <cellStyle name="常规 4 4 2" xfId="389"/>
+    <cellStyle name="常规 4 4 2 2" xfId="390"/>
+    <cellStyle name="常规 4 4 2 2 2" xfId="391"/>
+    <cellStyle name="常规 4 4 2 2 3" xfId="392"/>
+    <cellStyle name="常规 4 4 2 3" xfId="393"/>
+    <cellStyle name="常规 4 4 3" xfId="394"/>
+    <cellStyle name="常规 4 4 3 2" xfId="395"/>
+    <cellStyle name="常规 4 4 3 3" xfId="396"/>
+    <cellStyle name="常规 4 4 4" xfId="397"/>
+    <cellStyle name="常规 4 5" xfId="398"/>
+    <cellStyle name="常规 4 5 2" xfId="399"/>
+    <cellStyle name="常规 4 5 2 2" xfId="400"/>
+    <cellStyle name="常规 4 5 2 3" xfId="401"/>
+    <cellStyle name="常规 4 5 3" xfId="402"/>
+    <cellStyle name="常规 4 6" xfId="403"/>
+    <cellStyle name="常规 4 6 2" xfId="404"/>
+    <cellStyle name="常规 4 6 3" xfId="405"/>
+    <cellStyle name="常规 4 7" xfId="406"/>
+    <cellStyle name="常规 5" xfId="407"/>
+    <cellStyle name="常规 5 2" xfId="408"/>
+    <cellStyle name="常规 5 2 2" xfId="409"/>
+    <cellStyle name="常规 5 2 2 2" xfId="410"/>
+    <cellStyle name="常规 5 2 2 2 2" xfId="411"/>
+    <cellStyle name="常规 5 2 2 2 2 2" xfId="412"/>
+    <cellStyle name="常规 5 2 2 2 2 3" xfId="413"/>
+    <cellStyle name="常规 5 2 2 2 3" xfId="414"/>
+    <cellStyle name="常规 5 2 2 3" xfId="415"/>
+    <cellStyle name="常规 5 2 2 3 2" xfId="416"/>
+    <cellStyle name="常规 5 2 2 3 3" xfId="417"/>
+    <cellStyle name="常规 5 2 2 4" xfId="418"/>
+    <cellStyle name="常规 5 2 3" xfId="419"/>
+    <cellStyle name="常规 5 2 3 2" xfId="420"/>
+    <cellStyle name="常规 5 2 3 2 2" xfId="421"/>
+    <cellStyle name="常规 5 2 3 2 3" xfId="422"/>
+    <cellStyle name="常规 5 2 3 3" xfId="423"/>
+    <cellStyle name="常规 5 2 4" xfId="424"/>
+    <cellStyle name="常规 5 2 4 2" xfId="425"/>
+    <cellStyle name="常规 5 2 4 3" xfId="426"/>
+    <cellStyle name="常规 5 2 5" xfId="427"/>
+    <cellStyle name="常规 5 3" xfId="428"/>
+    <cellStyle name="常规 5 3 2" xfId="429"/>
+    <cellStyle name="常规 5 3 2 2" xfId="430"/>
+    <cellStyle name="常规 5 3 2 2 2" xfId="431"/>
+    <cellStyle name="常规 5 3 2 2 3" xfId="432"/>
+    <cellStyle name="常规 5 3 2 3" xfId="433"/>
+    <cellStyle name="常规 5 3 3" xfId="434"/>
+    <cellStyle name="常规 5 3 3 2" xfId="435"/>
+    <cellStyle name="常规 5 3 3 3" xfId="436"/>
+    <cellStyle name="常规 5 3 4" xfId="437"/>
+    <cellStyle name="常规 5 4" xfId="438"/>
+    <cellStyle name="常规 5 4 2" xfId="439"/>
+    <cellStyle name="常规 5 4 2 2" xfId="440"/>
+    <cellStyle name="常规 5 4 2 3" xfId="441"/>
+    <cellStyle name="常规 5 4 3" xfId="442"/>
+    <cellStyle name="常规 5 5" xfId="443"/>
+    <cellStyle name="常规 5 5 2" xfId="444"/>
+    <cellStyle name="常规 5 5 3" xfId="445"/>
+    <cellStyle name="常规 5 6" xfId="446"/>
+    <cellStyle name="常规 6" xfId="447"/>
+    <cellStyle name="常规 6 2" xfId="448"/>
+    <cellStyle name="常规 6 2 2" xfId="449"/>
+    <cellStyle name="常规 6 2 2 2" xfId="450"/>
+    <cellStyle name="常规 6 2 2 2 2" xfId="451"/>
+    <cellStyle name="常规 6 2 2 2 3" xfId="452"/>
+    <cellStyle name="常规 6 2 2 3" xfId="453"/>
+    <cellStyle name="常规 6 2 3" xfId="454"/>
+    <cellStyle name="常规 6 2 3 2" xfId="455"/>
+    <cellStyle name="常规 6 2 3 3" xfId="456"/>
+    <cellStyle name="常规 6 2 4" xfId="457"/>
+    <cellStyle name="常规 6 3" xfId="458"/>
+    <cellStyle name="常规 6 3 2" xfId="459"/>
+    <cellStyle name="常规 6 3 2 2" xfId="460"/>
+    <cellStyle name="常规 6 3 2 3" xfId="461"/>
+    <cellStyle name="常规 6 3 3" xfId="462"/>
+    <cellStyle name="常规 6 4" xfId="463"/>
+    <cellStyle name="常规 6 4 2" xfId="464"/>
+    <cellStyle name="常规 6 4 3" xfId="465"/>
+    <cellStyle name="常规 6 5" xfId="466"/>
+    <cellStyle name="常规 7" xfId="467"/>
+    <cellStyle name="常规 7 2" xfId="468"/>
+    <cellStyle name="常规 7 2 2" xfId="469"/>
+    <cellStyle name="常规 7 2 2 2" xfId="470"/>
+    <cellStyle name="常规 7 2 2 3" xfId="471"/>
+    <cellStyle name="常规 7 2 3" xfId="472"/>
+    <cellStyle name="常规 7 3" xfId="473"/>
+    <cellStyle name="常规 7 3 2" xfId="474"/>
+    <cellStyle name="常规 7 3 3" xfId="475"/>
+    <cellStyle name="常规 7 4" xfId="476"/>
+    <cellStyle name="常规 8" xfId="477"/>
+    <cellStyle name="常规 8 2" xfId="478"/>
+    <cellStyle name="常规 8 2 2" xfId="479"/>
+    <cellStyle name="常规 8 2 3" xfId="480"/>
+    <cellStyle name="常规 8 3" xfId="481"/>
+    <cellStyle name="常规 9" xfId="482"/>
+    <cellStyle name="常规 9 2" xfId="483"/>
+    <cellStyle name="常规 9 3" xfId="484"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="37">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1889,6 +1650,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2175,23 +1939,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="56.875" style="5" customWidth="1"/>
@@ -2202,7 +1965,7 @@
     <col min="7" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2222,7 +1985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -2242,7 +2005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:6">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
@@ -2262,7 +2025,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:6">
+    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="13" t="s">
         <v>17</v>
@@ -2278,7 +2041,7 @@
       </c>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:6">
+    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
       <c r="B5" s="13" t="s">
         <v>20</v>
@@ -2294,15 +2057,25 @@
       </c>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:6">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="13">
+        <v>3</v>
+      </c>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:6">
+    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -2310,7 +2083,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:6">
+    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -2318,7 +2091,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:6">
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -2326,7 +2099,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:6">
+    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -2334,7 +2107,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" s="3" customFormat="1" spans="1:6">
+    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -2342,7 +2115,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" s="3" customFormat="1" spans="1:6">
+    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -2350,7 +2123,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" s="3" customFormat="1" spans="1:6">
+    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -2358,7 +2131,7 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" s="3" customFormat="1" spans="1:6">
+    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -2366,7 +2139,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" s="3" customFormat="1" spans="1:6">
+    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -2374,7 +2147,7 @@
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" s="3" customFormat="1" spans="1:6">
+    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -2382,7 +2155,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" s="3" customFormat="1" spans="1:6">
+    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -2390,7 +2163,7 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" s="3" customFormat="1" spans="1:6">
+    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -2398,7 +2171,7 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" s="3" customFormat="1" spans="1:6">
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -2406,7 +2179,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" s="3" customFormat="1" spans="1:6">
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -2414,7 +2187,7 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
     </row>
-    <row r="21" s="3" customFormat="1" spans="1:6">
+    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -2422,7 +2195,7 @@
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" s="3" customFormat="1" spans="1:6">
+    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -2430,7 +2203,7 @@
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" s="3" customFormat="1" spans="1:6">
+    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -2438,7 +2211,7 @@
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" s="3" customFormat="1" spans="1:6">
+    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -2446,7 +2219,7 @@
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
     </row>
-    <row r="25" s="3" customFormat="1" spans="1:6">
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -2454,7 +2227,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
     </row>
-    <row r="26" s="3" customFormat="1" spans="1:6">
+    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -2462,7 +2235,7 @@
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
     </row>
-    <row r="27" s="3" customFormat="1" spans="1:6">
+    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -2470,7 +2243,7 @@
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
     </row>
-    <row r="28" s="3" customFormat="1" spans="1:6">
+    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -2478,7 +2251,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
     </row>
-    <row r="29" s="3" customFormat="1" spans="1:6">
+    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -2486,7 +2259,7 @@
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
     </row>
-    <row r="30" s="3" customFormat="1" spans="1:6">
+    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -2494,7 +2267,7 @@
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
     </row>
-    <row r="31" s="3" customFormat="1" spans="1:6">
+    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -2502,7 +2275,7 @@
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" s="3" customFormat="1" spans="1:6">
+    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -2510,7 +2283,7 @@
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
     </row>
-    <row r="33" s="3" customFormat="1" spans="1:6">
+    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -2518,7 +2291,7 @@
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
     </row>
-    <row r="34" s="3" customFormat="1" spans="1:6">
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -2526,7 +2299,7 @@
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
     </row>
-    <row r="35" s="3" customFormat="1" spans="1:6">
+    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -2534,7 +2307,7 @@
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
     </row>
-    <row r="36" s="3" customFormat="1" spans="1:6">
+    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -2542,7 +2315,7 @@
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
     </row>
-    <row r="37" s="3" customFormat="1" spans="1:6">
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -2550,7 +2323,7 @@
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
     </row>
-    <row r="38" s="3" customFormat="1" spans="1:6">
+    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -2558,7 +2331,7 @@
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
     </row>
-    <row r="39" s="3" customFormat="1" spans="1:6">
+    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -2566,7 +2339,7 @@
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
     </row>
-    <row r="40" s="3" customFormat="1" spans="1:6">
+    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -2574,7 +2347,7 @@
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
     </row>
-    <row r="41" s="3" customFormat="1" spans="1:6">
+    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -2582,7 +2355,7 @@
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
     </row>
-    <row r="42" s="3" customFormat="1" spans="1:6">
+    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -2590,7 +2363,7 @@
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
     </row>
-    <row r="43" s="3" customFormat="1" spans="1:6">
+    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -2598,7 +2371,7 @@
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
     </row>
-    <row r="44" s="3" customFormat="1" spans="1:6">
+    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -2606,7 +2379,7 @@
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
     </row>
-    <row r="45" s="3" customFormat="1" spans="1:6">
+    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -2614,7 +2387,7 @@
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
     </row>
-    <row r="46" s="3" customFormat="1" spans="1:6">
+    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -2622,7 +2395,7 @@
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
     </row>
-    <row r="47" s="3" customFormat="1" spans="1:6">
+    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -2630,7 +2403,7 @@
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
     </row>
-    <row r="48" s="3" customFormat="1" spans="1:6">
+    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -2638,7 +2411,7 @@
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
     </row>
-    <row r="49" s="3" customFormat="1" spans="1:6">
+    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -2646,7 +2419,7 @@
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
     </row>
-    <row r="50" s="3" customFormat="1" spans="1:6">
+    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -2654,7 +2427,7 @@
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
     </row>
-    <row r="51" s="3" customFormat="1" spans="1:6">
+    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -2662,7 +2435,7 @@
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
     </row>
-    <row r="52" s="3" customFormat="1" spans="1:6">
+    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -2670,7 +2443,7 @@
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
     </row>
-    <row r="53" s="3" customFormat="1" spans="1:6">
+    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -2678,7 +2451,7 @@
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
     </row>
-    <row r="54" s="3" customFormat="1" spans="1:6">
+    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -2686,7 +2459,7 @@
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
     </row>
-    <row r="55" s="3" customFormat="1" spans="1:6">
+    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
@@ -2694,7 +2467,7 @@
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
     </row>
-    <row r="56" s="3" customFormat="1" spans="1:6">
+    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -2702,7 +2475,7 @@
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
     </row>
-    <row r="57" s="3" customFormat="1" spans="1:6">
+    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="12"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -2710,7 +2483,7 @@
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
     </row>
-    <row r="58" s="3" customFormat="1" spans="1:6">
+    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="12"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
@@ -2718,7 +2491,7 @@
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
     </row>
-    <row r="59" s="3" customFormat="1" spans="1:6">
+    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="12"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -2726,7 +2499,7 @@
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
     </row>
-    <row r="60" s="3" customFormat="1" spans="1:6">
+    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -2734,7 +2507,7 @@
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
     </row>
-    <row r="61" s="3" customFormat="1" spans="1:6">
+    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -2742,7 +2515,7 @@
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
     </row>
-    <row r="62" s="3" customFormat="1" spans="1:6">
+    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
@@ -2750,7 +2523,7 @@
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
     </row>
-    <row r="63" s="3" customFormat="1" spans="1:6">
+    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -2758,7 +2531,7 @@
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
     </row>
-    <row r="64" s="3" customFormat="1" spans="1:6">
+    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="12"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
@@ -2766,7 +2539,7 @@
       <c r="E64" s="13"/>
       <c r="F64" s="13"/>
     </row>
-    <row r="65" s="3" customFormat="1" spans="1:6">
+    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="12"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -2774,7 +2547,7 @@
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
     </row>
-    <row r="66" s="3" customFormat="1" spans="1:6">
+    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="12"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -2782,7 +2555,7 @@
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
     </row>
-    <row r="67" s="3" customFormat="1" spans="1:6">
+    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="12"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -2790,7 +2563,7 @@
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
     </row>
-    <row r="68" s="3" customFormat="1" spans="1:6">
+    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="12"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -2798,7 +2571,7 @@
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
     </row>
-    <row r="69" s="3" customFormat="1" spans="1:6">
+    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="12"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -2806,7 +2579,7 @@
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
     </row>
-    <row r="70" s="3" customFormat="1" spans="1:6">
+    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="12"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -2814,7 +2587,7 @@
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
     </row>
-    <row r="71" s="3" customFormat="1" spans="1:6">
+    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="12"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -2822,7 +2595,7 @@
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
     </row>
-    <row r="72" s="3" customFormat="1" spans="1:6">
+    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12"/>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
@@ -2830,7 +2603,7 @@
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
     </row>
-    <row r="73" s="3" customFormat="1" spans="1:6">
+    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
@@ -2838,7 +2611,7 @@
       <c r="E73" s="13"/>
       <c r="F73" s="13"/>
     </row>
-    <row r="74" s="3" customFormat="1" spans="1:6">
+    <row r="74" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
@@ -2846,7 +2619,7 @@
       <c r="E74" s="13"/>
       <c r="F74" s="13"/>
     </row>
-    <row r="75" s="3" customFormat="1" spans="1:6">
+    <row r="75" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="12"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
@@ -2854,7 +2627,7 @@
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
     </row>
-    <row r="76" s="3" customFormat="1" spans="1:6">
+    <row r="76" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="12"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
@@ -2862,169 +2635,169 @@
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
     </row>
-    <row r="77" s="3" customFormat="1"/>
-    <row r="78" s="3" customFormat="1" spans="2:6">
+    <row r="77" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
     </row>
-    <row r="79" s="3" customFormat="1" spans="2:6">
+    <row r="79" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
     </row>
-    <row r="80" s="3" customFormat="1" spans="2:6">
+    <row r="80" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
     </row>
-    <row r="81" s="3" customFormat="1" spans="2:6">
+    <row r="81" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
       <c r="F81" s="13"/>
     </row>
-    <row r="82" s="3" customFormat="1" spans="2:6">
+    <row r="82" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
       <c r="F82" s="13"/>
     </row>
-    <row r="83" s="3" customFormat="1" spans="2:6">
+    <row r="83" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
       <c r="F83" s="13"/>
     </row>
-    <row r="84" s="3" customFormat="1" spans="2:6">
+    <row r="84" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
       <c r="F84" s="13"/>
     </row>
-    <row r="85" s="3" customFormat="1" spans="2:6">
+    <row r="85" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
       <c r="F85" s="13"/>
     </row>
-    <row r="86" s="3" customFormat="1" spans="2:6">
+    <row r="86" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13"/>
       <c r="F86" s="13"/>
     </row>
-    <row r="87" s="3" customFormat="1" spans="2:6">
+    <row r="87" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
       <c r="E87" s="13"/>
       <c r="F87" s="13"/>
     </row>
-    <row r="88" s="3" customFormat="1" spans="2:6">
+    <row r="88" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
       <c r="F88" s="13"/>
     </row>
-    <row r="89" s="3" customFormat="1" spans="2:6">
+    <row r="89" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13"/>
       <c r="F89" s="13"/>
     </row>
-    <row r="90" s="3" customFormat="1" spans="2:6">
+    <row r="90" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
       <c r="F90" s="13"/>
     </row>
-    <row r="91" s="3" customFormat="1" spans="2:6">
+    <row r="91" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
       <c r="E91" s="13"/>
       <c r="F91" s="13"/>
     </row>
-    <row r="92" s="3" customFormat="1" spans="2:6">
+    <row r="92" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
       <c r="E92" s="13"/>
       <c r="F92" s="13"/>
     </row>
-    <row r="93" s="3" customFormat="1" spans="2:6">
+    <row r="93" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
       <c r="E93" s="13"/>
       <c r="F93" s="13"/>
     </row>
-    <row r="94" s="3" customFormat="1" spans="2:6">
+    <row r="94" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
       <c r="E94" s="13"/>
       <c r="F94" s="13"/>
     </row>
-    <row r="95" s="3" customFormat="1" spans="2:6">
+    <row r="95" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
       <c r="F95" s="13"/>
     </row>
-    <row r="96" s="3" customFormat="1" spans="2:6">
+    <row r="96" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
       <c r="F96" s="13"/>
     </row>
-    <row r="97" s="3" customFormat="1" spans="2:6">
+    <row r="97" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
       <c r="E97" s="13"/>
       <c r="F97" s="13"/>
     </row>
-    <row r="98" s="3" customFormat="1" spans="2:6">
+    <row r="98" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
       <c r="E98" s="13"/>
       <c r="F98" s="13"/>
     </row>
-    <row r="99" s="3" customFormat="1" ht="18" customHeight="1" spans="2:6">
+    <row r="99" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
       <c r="E99" s="13"/>
       <c r="F99" s="13"/>
     </row>
-    <row r="100" s="3" customFormat="1" ht="18" customHeight="1" spans="2:6">
+    <row r="100" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
       <c r="E100" s="13"/>
       <c r="F100" s="13"/>
     </row>
-    <row r="101" s="3" customFormat="1" spans="1:6">
+    <row r="101" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="12"/>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
@@ -3032,7 +2805,7 @@
       <c r="E101" s="13"/>
       <c r="F101" s="13"/>
     </row>
-    <row r="102" s="3" customFormat="1" spans="1:6">
+    <row r="102" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="12"/>
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
@@ -3040,7 +2813,7 @@
       <c r="E102" s="13"/>
       <c r="F102" s="13"/>
     </row>
-    <row r="103" s="3" customFormat="1" spans="1:6">
+    <row r="103" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="12"/>
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
@@ -3048,7 +2821,7 @@
       <c r="E103" s="13"/>
       <c r="F103" s="13"/>
     </row>
-    <row r="104" s="3" customFormat="1" spans="1:6">
+    <row r="104" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="12"/>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
@@ -3056,7 +2829,7 @@
       <c r="E104" s="13"/>
       <c r="F104" s="13"/>
     </row>
-    <row r="105" s="3" customFormat="1" spans="1:6">
+    <row r="105" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="12"/>
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
@@ -3064,7 +2837,7 @@
       <c r="E105" s="13"/>
       <c r="F105" s="13"/>
     </row>
-    <row r="106" s="3" customFormat="1" spans="1:6">
+    <row r="106" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="12"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
@@ -3072,7 +2845,7 @@
       <c r="E106" s="13"/>
       <c r="F106" s="13"/>
     </row>
-    <row r="107" s="3" customFormat="1" spans="1:6">
+    <row r="107" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="12"/>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
@@ -3080,7 +2853,7 @@
       <c r="E107" s="13"/>
       <c r="F107" s="13"/>
     </row>
-    <row r="108" s="3" customFormat="1" spans="1:6">
+    <row r="108" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="12"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
@@ -3088,7 +2861,7 @@
       <c r="E108" s="13"/>
       <c r="F108" s="13"/>
     </row>
-    <row r="109" s="3" customFormat="1" spans="1:6">
+    <row r="109" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="12"/>
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
@@ -3096,7 +2869,7 @@
       <c r="E109" s="13"/>
       <c r="F109" s="13"/>
     </row>
-    <row r="110" s="3" customFormat="1" spans="1:6">
+    <row r="110" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="12"/>
       <c r="B110" s="13"/>
       <c r="C110" s="13"/>
@@ -3104,7 +2877,7 @@
       <c r="E110" s="13"/>
       <c r="F110" s="13"/>
     </row>
-    <row r="111" s="3" customFormat="1" spans="1:6">
+    <row r="111" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="14"/>
       <c r="B111" s="15"/>
       <c r="C111" s="15"/>
@@ -3112,7 +2885,7 @@
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
     </row>
-    <row r="112" s="3" customFormat="1" spans="1:6">
+    <row r="112" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="12"/>
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
@@ -3120,133 +2893,133 @@
       <c r="E112" s="13"/>
       <c r="F112" s="13"/>
     </row>
-    <row r="113" spans="2:6">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
       <c r="E113" s="13"/>
       <c r="F113" s="13"/>
     </row>
-    <row r="114" spans="2:6">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
       <c r="E114" s="13"/>
       <c r="F114" s="13"/>
     </row>
-    <row r="115" spans="2:6">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
       <c r="D115" s="13"/>
       <c r="E115" s="13"/>
       <c r="F115" s="13"/>
     </row>
-    <row r="116" spans="2:6">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
       <c r="D116" s="13"/>
       <c r="E116" s="13"/>
       <c r="F116" s="13"/>
     </row>
-    <row r="117" spans="2:6">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
       <c r="D117" s="13"/>
       <c r="E117" s="13"/>
       <c r="F117" s="13"/>
     </row>
-    <row r="118" spans="2:6">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B118" s="13"/>
       <c r="C118" s="13"/>
       <c r="D118" s="13"/>
       <c r="E118" s="13"/>
       <c r="F118" s="13"/>
     </row>
-    <row r="119" spans="2:6">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B119" s="13"/>
       <c r="C119" s="13"/>
       <c r="D119" s="13"/>
       <c r="E119" s="13"/>
       <c r="F119" s="13"/>
     </row>
-    <row r="120" spans="2:6">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B120" s="13"/>
       <c r="C120" s="13"/>
       <c r="D120" s="13"/>
       <c r="E120" s="13"/>
       <c r="F120" s="13"/>
     </row>
-    <row r="121" spans="2:6">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B121" s="13"/>
       <c r="C121" s="13"/>
       <c r="D121" s="13"/>
       <c r="E121" s="13"/>
       <c r="F121" s="13"/>
     </row>
-    <row r="122" spans="2:6">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B122" s="13"/>
       <c r="C122" s="13"/>
       <c r="D122" s="13"/>
       <c r="E122" s="13"/>
       <c r="F122" s="13"/>
     </row>
-    <row r="123" spans="2:6">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B123" s="13"/>
       <c r="C123" s="13"/>
       <c r="D123" s="13"/>
       <c r="E123" s="13"/>
       <c r="F123" s="13"/>
     </row>
-    <row r="124" spans="2:6">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
       <c r="D124" s="13"/>
       <c r="E124" s="13"/>
       <c r="F124" s="13"/>
     </row>
-    <row r="125" spans="2:6">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B125" s="13"/>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
       <c r="E125" s="13"/>
       <c r="F125" s="13"/>
     </row>
-    <row r="126" spans="2:6">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
       <c r="E126" s="13"/>
       <c r="F126" s="13"/>
     </row>
-    <row r="127" spans="2:6">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B127" s="13"/>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
       <c r="E127" s="13"/>
       <c r="F127" s="13"/>
     </row>
-    <row r="128" spans="2:6">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B128" s="13"/>
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
       <c r="E128" s="13"/>
       <c r="F128" s="16"/>
     </row>
-    <row r="129" spans="2:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B129" s="13"/>
       <c r="C129" s="13"/>
       <c r="D129" s="13"/>
       <c r="E129" s="13"/>
       <c r="F129" s="13"/>
     </row>
-    <row r="130" spans="2:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B130" s="13"/>
       <c r="C130" s="13"/>
       <c r="D130" s="13"/>
       <c r="E130" s="13"/>
       <c r="F130" s="13"/>
     </row>
-    <row r="131" s="3" customFormat="1" spans="1:6">
+    <row r="131" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="12"/>
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
@@ -3254,7 +3027,7 @@
       <c r="E131" s="13"/>
       <c r="F131" s="13"/>
     </row>
-    <row r="132" s="3" customFormat="1" spans="1:6">
+    <row r="132" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="12"/>
       <c r="B132" s="13"/>
       <c r="C132" s="13"/>
@@ -3262,7 +3035,7 @@
       <c r="E132" s="13"/>
       <c r="F132" s="13"/>
     </row>
-    <row r="133" s="3" customFormat="1" spans="1:6">
+    <row r="133" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4"/>
       <c r="B133" s="13"/>
       <c r="C133" s="13"/>
@@ -3270,7 +3043,7 @@
       <c r="E133" s="13"/>
       <c r="F133" s="5"/>
     </row>
-    <row r="134" s="3" customFormat="1" spans="1:6">
+    <row r="134" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="12"/>
       <c r="B134" s="13"/>
       <c r="C134" s="13"/>
@@ -3278,7 +3051,7 @@
       <c r="E134" s="13"/>
       <c r="F134" s="13"/>
     </row>
-    <row r="135" s="3" customFormat="1" spans="1:6">
+    <row r="135" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="12"/>
       <c r="B135" s="13"/>
       <c r="C135" s="13"/>
@@ -3286,7 +3059,7 @@
       <c r="E135" s="13"/>
       <c r="F135" s="13"/>
     </row>
-    <row r="136" s="3" customFormat="1" spans="1:6">
+    <row r="136" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="12"/>
       <c r="B136" s="13"/>
       <c r="C136" s="13"/>
@@ -3294,7 +3067,7 @@
       <c r="E136" s="13"/>
       <c r="F136" s="13"/>
     </row>
-    <row r="137" s="3" customFormat="1" spans="1:6">
+    <row r="137" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="12"/>
       <c r="B137" s="13"/>
       <c r="C137" s="13"/>
@@ -3302,7 +3075,7 @@
       <c r="E137" s="13"/>
       <c r="F137" s="13"/>
     </row>
-    <row r="138" s="3" customFormat="1" spans="1:6">
+    <row r="138" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="12"/>
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
@@ -3310,7 +3083,7 @@
       <c r="E138" s="13"/>
       <c r="F138" s="13"/>
     </row>
-    <row r="139" s="3" customFormat="1" spans="1:6">
+    <row r="139" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="12"/>
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
@@ -3318,7 +3091,7 @@
       <c r="E139" s="13"/>
       <c r="F139" s="13"/>
     </row>
-    <row r="140" s="3" customFormat="1" spans="1:6">
+    <row r="140" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="12"/>
       <c r="B140" s="13"/>
       <c r="C140" s="13"/>
@@ -3326,7 +3099,7 @@
       <c r="E140" s="17"/>
       <c r="F140" s="13"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" s="12"/>
       <c r="B141" s="13"/>
       <c r="C141" s="13"/>
@@ -3334,7 +3107,7 @@
       <c r="E141" s="13"/>
       <c r="F141" s="13"/>
     </row>
-    <row r="142" s="3" customFormat="1" spans="1:6">
+    <row r="142" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="12"/>
       <c r="B142" s="13"/>
       <c r="C142" s="13"/>
@@ -3342,7 +3115,7 @@
       <c r="E142" s="13"/>
       <c r="F142" s="13"/>
     </row>
-    <row r="143" s="3" customFormat="1" spans="1:6">
+    <row r="143" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="12"/>
       <c r="B143" s="13"/>
       <c r="C143" s="13"/>
@@ -3350,7 +3123,7 @@
       <c r="E143" s="13"/>
       <c r="F143" s="13"/>
     </row>
-    <row r="144" s="3" customFormat="1" spans="1:6">
+    <row r="144" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="12"/>
       <c r="B144" s="13"/>
       <c r="C144" s="13"/>
@@ -3358,7 +3131,7 @@
       <c r="E144" s="13"/>
       <c r="F144" s="13"/>
     </row>
-    <row r="145" s="3" customFormat="1" spans="1:6">
+    <row r="145" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="12"/>
       <c r="B145" s="13"/>
       <c r="C145" s="13"/>
@@ -3366,7 +3139,7 @@
       <c r="E145" s="13"/>
       <c r="F145" s="13"/>
     </row>
-    <row r="146" s="3" customFormat="1" spans="1:6">
+    <row r="146" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="12"/>
       <c r="B146" s="13"/>
       <c r="C146" s="13"/>
@@ -3374,7 +3147,7 @@
       <c r="E146" s="13"/>
       <c r="F146" s="13"/>
     </row>
-    <row r="147" s="3" customFormat="1" spans="1:6">
+    <row r="147" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="12"/>
       <c r="B147" s="13"/>
       <c r="C147" s="13"/>
@@ -3382,7 +3155,7 @@
       <c r="E147" s="13"/>
       <c r="F147" s="13"/>
     </row>
-    <row r="148" s="3" customFormat="1" spans="1:6">
+    <row r="148" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="12"/>
       <c r="B148" s="13"/>
       <c r="C148" s="13"/>
@@ -3390,7 +3163,7 @@
       <c r="E148" s="13"/>
       <c r="F148" s="13"/>
     </row>
-    <row r="149" s="3" customFormat="1" spans="1:6">
+    <row r="149" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="12"/>
       <c r="B149" s="13"/>
       <c r="C149" s="13"/>
@@ -3398,7 +3171,7 @@
       <c r="E149" s="13"/>
       <c r="F149" s="13"/>
     </row>
-    <row r="150" s="3" customFormat="1" spans="1:6">
+    <row r="150" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="12"/>
       <c r="B150" s="13"/>
       <c r="C150" s="13"/>
@@ -3406,7 +3179,7 @@
       <c r="E150" s="13"/>
       <c r="F150" s="13"/>
     </row>
-    <row r="151" s="3" customFormat="1" spans="1:6">
+    <row r="151" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="12"/>
       <c r="B151" s="13"/>
       <c r="C151" s="13"/>
@@ -3414,7 +3187,7 @@
       <c r="E151" s="13"/>
       <c r="F151" s="13"/>
     </row>
-    <row r="152" s="3" customFormat="1" spans="1:6">
+    <row r="152" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="12"/>
       <c r="B152" s="13"/>
       <c r="C152" s="13"/>
@@ -3422,7 +3195,7 @@
       <c r="E152" s="13"/>
       <c r="F152" s="13"/>
     </row>
-    <row r="153" s="3" customFormat="1" spans="1:6">
+    <row r="153" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="12"/>
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
@@ -3430,7 +3203,7 @@
       <c r="E153" s="13"/>
       <c r="F153" s="13"/>
     </row>
-    <row r="154" s="3" customFormat="1" spans="1:6">
+    <row r="154" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="12"/>
       <c r="B154" s="13"/>
       <c r="C154" s="13"/>
@@ -3438,7 +3211,7 @@
       <c r="E154" s="13"/>
       <c r="F154" s="13"/>
     </row>
-    <row r="155" s="3" customFormat="1" spans="1:6">
+    <row r="155" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="12"/>
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
@@ -3446,7 +3219,7 @@
       <c r="E155" s="13"/>
       <c r="F155" s="13"/>
     </row>
-    <row r="156" s="3" customFormat="1" spans="1:6">
+    <row r="156" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="12"/>
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
@@ -3454,7 +3227,7 @@
       <c r="E156" s="13"/>
       <c r="F156" s="13"/>
     </row>
-    <row r="157" s="3" customFormat="1" spans="1:6">
+    <row r="157" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4"/>
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
@@ -3462,7 +3235,7 @@
       <c r="E157" s="13"/>
       <c r="F157" s="13"/>
     </row>
-    <row r="158" s="3" customFormat="1" spans="1:6">
+    <row r="158" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4"/>
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
@@ -3470,7 +3243,7 @@
       <c r="E158" s="13"/>
       <c r="F158" s="13"/>
     </row>
-    <row r="159" s="3" customFormat="1" spans="1:6">
+    <row r="159" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4"/>
       <c r="B159" s="13"/>
       <c r="C159" s="13"/>
@@ -3478,7 +3251,7 @@
       <c r="E159" s="13"/>
       <c r="F159" s="13"/>
     </row>
-    <row r="160" s="3" customFormat="1" spans="1:6">
+    <row r="160" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4"/>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
@@ -3486,7 +3259,7 @@
       <c r="E160" s="13"/>
       <c r="F160" s="13"/>
     </row>
-    <row r="161" s="3" customFormat="1" spans="1:6">
+    <row r="161" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="12"/>
       <c r="B161" s="13"/>
       <c r="C161" s="13"/>
@@ -3494,7 +3267,7 @@
       <c r="E161" s="13"/>
       <c r="F161" s="5"/>
     </row>
-    <row r="162" s="3" customFormat="1" spans="1:6">
+    <row r="162" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="12"/>
       <c r="B162" s="13"/>
       <c r="C162" s="13"/>
@@ -3502,7 +3275,7 @@
       <c r="E162" s="13"/>
       <c r="F162" s="5"/>
     </row>
-    <row r="163" s="3" customFormat="1" spans="1:6">
+    <row r="163" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="12"/>
       <c r="B163" s="13"/>
       <c r="C163" s="13"/>
@@ -3510,7 +3283,7 @@
       <c r="E163" s="13"/>
       <c r="F163" s="5"/>
     </row>
-    <row r="164" s="3" customFormat="1" spans="1:6">
+    <row r="164" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="12"/>
       <c r="B164" s="13"/>
       <c r="C164" s="13"/>
@@ -3518,7 +3291,7 @@
       <c r="E164" s="13"/>
       <c r="F164" s="5"/>
     </row>
-    <row r="165" customFormat="1" spans="1:6">
+    <row r="165" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
       <c r="B165" s="13"/>
       <c r="C165" s="13"/>
@@ -3526,490 +3299,490 @@
       <c r="E165" s="13"/>
       <c r="F165" s="5"/>
     </row>
-    <row r="166" spans="2:5">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B166" s="13"/>
       <c r="C166" s="13"/>
       <c r="D166" s="13"/>
       <c r="E166" s="13"/>
     </row>
-    <row r="167" spans="2:5">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B167" s="13"/>
       <c r="C167" s="13"/>
       <c r="D167" s="13"/>
       <c r="E167" s="13"/>
     </row>
-    <row r="168" spans="2:5">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
       <c r="D168" s="13"/>
       <c r="E168" s="13"/>
     </row>
-    <row r="169" spans="2:4">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B169" s="13"/>
       <c r="C169" s="13"/>
       <c r="D169" s="13"/>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A171" s="12"/>
       <c r="B171" s="13"/>
       <c r="C171" s="13"/>
       <c r="D171" s="13"/>
       <c r="E171" s="13"/>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A173" s="12"/>
       <c r="B173" s="13"/>
       <c r="C173" s="13"/>
       <c r="D173" s="13"/>
       <c r="E173" s="13"/>
     </row>
-    <row r="175" spans="2:5">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B175" s="13"/>
       <c r="C175" s="13"/>
       <c r="D175" s="13"/>
       <c r="E175" s="13"/>
     </row>
-    <row r="176" spans="2:5">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B176" s="13"/>
       <c r="C176" s="13"/>
       <c r="D176" s="13"/>
       <c r="E176" s="13"/>
     </row>
-    <row r="177" spans="2:5">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B177" s="13"/>
       <c r="C177" s="13"/>
       <c r="D177" s="13"/>
       <c r="E177" s="13"/>
     </row>
-    <row r="179" spans="2:6">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B179" s="13"/>
       <c r="C179" s="13"/>
       <c r="D179" s="13"/>
       <c r="E179" s="13"/>
       <c r="F179" s="13"/>
     </row>
-    <row r="181" spans="2:5">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B181" s="13"/>
       <c r="C181" s="13"/>
       <c r="D181" s="13"/>
       <c r="E181" s="13"/>
     </row>
-    <row r="182" spans="2:5">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B182" s="13"/>
       <c r="C182" s="13"/>
       <c r="D182" s="13"/>
       <c r="E182" s="13"/>
     </row>
-    <row r="183" spans="2:5">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B183" s="13"/>
       <c r="C183" s="13"/>
       <c r="D183" s="13"/>
       <c r="E183" s="13"/>
     </row>
-    <row r="184" spans="2:5">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B184" s="13"/>
       <c r="C184" s="13"/>
       <c r="D184" s="13"/>
       <c r="E184" s="13"/>
     </row>
-    <row r="185" spans="2:5">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B185" s="13"/>
       <c r="C185" s="13"/>
       <c r="D185" s="13"/>
       <c r="E185" s="13"/>
     </row>
-    <row r="186" spans="2:5">
+    <row r="186" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B186" s="13"/>
       <c r="C186" s="13"/>
       <c r="D186" s="13"/>
       <c r="E186" s="13"/>
     </row>
-    <row r="188" spans="2:6">
+    <row r="188" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B188" s="13"/>
       <c r="C188" s="13"/>
       <c r="D188" s="13"/>
       <c r="E188" s="13"/>
       <c r="F188" s="13"/>
     </row>
-    <row r="190" spans="2:6">
+    <row r="190" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B190" s="13"/>
       <c r="C190" s="13"/>
       <c r="D190" s="13"/>
       <c r="E190" s="13"/>
       <c r="F190" s="13"/>
     </row>
-    <row r="191" spans="2:5">
+    <row r="191" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B191" s="13"/>
       <c r="C191" s="13"/>
       <c r="D191" s="13"/>
       <c r="E191" s="13"/>
     </row>
-    <row r="192" spans="2:5">
+    <row r="192" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B192" s="13"/>
       <c r="C192" s="13"/>
       <c r="D192" s="13"/>
       <c r="E192" s="13"/>
     </row>
-    <row r="193" spans="2:5">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B193" s="13"/>
       <c r="C193" s="13"/>
       <c r="D193" s="13"/>
       <c r="E193" s="13"/>
     </row>
-    <row r="195" spans="2:6">
+    <row r="195" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B195" s="13"/>
       <c r="C195" s="13"/>
       <c r="D195" s="13"/>
       <c r="E195" s="13"/>
       <c r="F195" s="13"/>
     </row>
-    <row r="197" spans="2:6">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B197" s="13"/>
       <c r="C197" s="13"/>
       <c r="D197" s="13"/>
       <c r="E197" s="13"/>
       <c r="F197" s="13"/>
     </row>
-    <row r="198" spans="2:6">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B198" s="13"/>
       <c r="C198" s="13"/>
       <c r="D198" s="13"/>
       <c r="E198" s="13"/>
       <c r="F198" s="13"/>
     </row>
-    <row r="200" spans="4:4">
+    <row r="200" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D200" s="13"/>
     </row>
-    <row r="201" spans="4:4">
+    <row r="201" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D201" s="13"/>
     </row>
-    <row r="202" spans="4:5">
+    <row r="202" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D202" s="18"/>
       <c r="E202" s="19"/>
     </row>
-    <row r="203" spans="4:5">
+    <row r="203" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D203" s="19"/>
       <c r="E203" s="18"/>
     </row>
-    <row r="204" spans="4:5">
+    <row r="204" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D204" s="19"/>
       <c r="E204" s="19"/>
     </row>
-    <row r="205" spans="2:5">
+    <row r="205" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B205" s="13"/>
       <c r="C205" s="13"/>
       <c r="D205" s="13"/>
       <c r="E205" s="13"/>
     </row>
-    <row r="206" spans="2:4">
+    <row r="206" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B206" s="13"/>
       <c r="C206" s="13"/>
       <c r="D206" s="13"/>
     </row>
-    <row r="207" spans="2:5">
+    <row r="207" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B207" s="13"/>
       <c r="C207" s="13"/>
       <c r="D207" s="18"/>
       <c r="E207" s="19"/>
     </row>
-    <row r="208" spans="2:5">
+    <row r="208" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B208" s="13"/>
       <c r="C208" s="13"/>
       <c r="D208" s="18"/>
       <c r="E208" s="19"/>
     </row>
-    <row r="209" spans="2:5">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B209" s="13"/>
       <c r="C209" s="13"/>
       <c r="D209" s="13"/>
       <c r="E209" s="13"/>
     </row>
-    <row r="210" spans="2:5">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B210" s="13"/>
       <c r="C210" s="13"/>
       <c r="D210" s="13"/>
       <c r="E210" s="13"/>
     </row>
-    <row r="211" spans="2:6">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B211" s="18"/>
       <c r="C211" s="18"/>
       <c r="D211" s="18"/>
       <c r="E211" s="18"/>
       <c r="F211" s="18"/>
     </row>
-    <row r="212" spans="2:6">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B212" s="18"/>
       <c r="C212" s="18"/>
       <c r="D212" s="18"/>
       <c r="E212" s="18"/>
       <c r="F212" s="18"/>
     </row>
-    <row r="213" spans="2:6">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
       <c r="D213" s="13"/>
       <c r="E213" s="13"/>
       <c r="F213" s="13"/>
     </row>
-    <row r="215" ht="16.5" customHeight="1" spans="2:6">
+    <row r="215" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B215" s="13"/>
       <c r="C215" s="13"/>
       <c r="D215" s="13"/>
       <c r="E215" s="13"/>
       <c r="F215" s="13"/>
     </row>
-    <row r="216" spans="2:6">
+    <row r="216" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B216" s="13"/>
       <c r="C216" s="13"/>
       <c r="D216" s="13"/>
       <c r="E216" s="13"/>
       <c r="F216" s="13"/>
     </row>
-    <row r="217" spans="2:6">
+    <row r="217" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B217" s="13"/>
       <c r="C217" s="13"/>
       <c r="D217" s="13"/>
       <c r="E217" s="13"/>
       <c r="F217" s="13"/>
     </row>
-    <row r="218" spans="2:6">
+    <row r="218" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B218" s="13"/>
       <c r="C218" s="13"/>
       <c r="D218" s="13"/>
       <c r="E218" s="13"/>
       <c r="F218" s="13"/>
     </row>
-    <row r="219" spans="2:6">
+    <row r="219" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B219" s="13"/>
       <c r="C219" s="13"/>
       <c r="D219" s="13"/>
       <c r="E219" s="13"/>
       <c r="F219" s="13"/>
     </row>
-    <row r="220" spans="2:6">
+    <row r="220" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B220" s="13"/>
       <c r="C220" s="13"/>
       <c r="D220" s="13"/>
       <c r="E220" s="13"/>
       <c r="F220" s="13"/>
     </row>
-    <row r="221" spans="2:6">
+    <row r="221" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B221" s="13"/>
       <c r="C221" s="13"/>
       <c r="D221" s="13"/>
       <c r="E221" s="13"/>
       <c r="F221" s="13"/>
     </row>
-    <row r="222" spans="2:6">
+    <row r="222" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B222" s="13"/>
       <c r="C222" s="13"/>
       <c r="D222" s="13"/>
       <c r="E222" s="13"/>
       <c r="F222" s="13"/>
     </row>
-    <row r="223" spans="2:6">
+    <row r="223" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B223" s="13"/>
       <c r="C223" s="13"/>
       <c r="D223" s="13"/>
       <c r="E223" s="13"/>
       <c r="F223" s="13"/>
     </row>
-    <row r="224" spans="2:6">
+    <row r="224" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B224" s="13"/>
       <c r="C224" s="13"/>
       <c r="D224" s="13"/>
       <c r="E224" s="13"/>
       <c r="F224" s="13"/>
     </row>
-    <row r="225" spans="2:6">
+    <row r="225" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B225" s="13"/>
       <c r="C225" s="13"/>
       <c r="D225" s="13"/>
       <c r="E225" s="13"/>
       <c r="F225" s="13"/>
     </row>
-    <row r="226" spans="2:6">
+    <row r="226" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B226" s="13"/>
       <c r="C226" s="13"/>
       <c r="D226" s="13"/>
       <c r="E226" s="13"/>
       <c r="F226" s="13"/>
     </row>
-    <row r="227" spans="2:6">
+    <row r="227" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B227" s="13"/>
       <c r="C227" s="13"/>
       <c r="D227" s="13"/>
       <c r="E227" s="13"/>
       <c r="F227" s="13"/>
     </row>
-    <row r="229" spans="2:4">
+    <row r="229" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B229" s="13"/>
       <c r="C229" s="13"/>
       <c r="D229" s="13"/>
     </row>
-    <row r="230" spans="2:4">
+    <row r="230" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B230" s="13"/>
       <c r="C230" s="13"/>
       <c r="D230" s="13"/>
     </row>
-    <row r="231" spans="2:4">
+    <row r="231" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B231" s="13"/>
       <c r="C231" s="13"/>
       <c r="D231" s="13"/>
     </row>
-    <row r="232" spans="2:4">
+    <row r="232" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B232" s="13"/>
       <c r="C232" s="13"/>
       <c r="D232" s="13"/>
     </row>
-    <row r="233" spans="2:4">
+    <row r="233" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B233" s="13"/>
       <c r="C233" s="13"/>
       <c r="D233" s="13"/>
     </row>
-    <row r="234" spans="2:4">
+    <row r="234" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B234" s="13"/>
       <c r="C234" s="13"/>
       <c r="D234" s="13"/>
     </row>
-    <row r="235" spans="2:4">
+    <row r="235" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B235" s="13"/>
       <c r="C235" s="13"/>
       <c r="D235" s="13"/>
     </row>
-    <row r="236" spans="2:4">
+    <row r="236" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B236" s="13"/>
       <c r="C236" s="13"/>
       <c r="D236" s="13"/>
     </row>
-    <row r="237" spans="2:4">
+    <row r="237" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B237" s="13"/>
       <c r="C237" s="13"/>
       <c r="D237" s="13"/>
     </row>
-    <row r="238" spans="2:4">
+    <row r="238" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B238" s="13"/>
       <c r="C238" s="13"/>
       <c r="D238" s="13"/>
     </row>
-    <row r="242" spans="2:6">
+    <row r="242" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B242" s="13"/>
       <c r="C242" s="13"/>
       <c r="D242" s="13"/>
       <c r="E242" s="13"/>
       <c r="F242" s="13"/>
     </row>
-    <row r="244" spans="2:2">
+    <row r="244" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B244"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="duplicateValues" dxfId="0" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86">
-    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="0" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100">
-    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104">
-    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B106">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108">
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120">
-    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B193">
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B242">
-    <cfRule type="duplicateValues" dxfId="0" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81:B82">
-    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89:B90">
-    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91:B92">
-    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B109:B111">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:B127">
-    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128:B129">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B206:B208">
-    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B215:B227">
-    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C85:C86">
-    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C128:C129">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B228 B1:B63 B213:B214 B209 B239:B241 B243 B194:B205 B131:B192 B66:B76 B245:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B105 B107:B108 B112:B127 B130:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112 B101 B78:B80 B94:B98 B87">
-    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88 B93">
-    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102:B103 B107 B105">
-    <cfRule type="duplicateValues" dxfId="0" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B113 B130">
-    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B114:C119 C120:C127">
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B229:C232 B236:C238">
-    <cfRule type="duplicateValues" dxfId="0" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233:C235">
     <cfRule type="duplicateValues" dxfId="0" priority="11"/>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/_ConfigExcels/Datas/com_global_param.xlsx
+++ b/_ConfigExcels/Datas/com_global_param.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -115,6 +115,34 @@
     <t>##</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>card_com</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共防爆卡组</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_LIST</t>
+  </si>
+  <si>
+    <t>int_list_value</t>
+  </si>
+  <si>
+    <t>(list#sep=,),int</t>
+  </si>
+  <si>
+    <t>整型列表值</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -131,42 +159,49 @@
     <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑 Light"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="微软雅黑 Light"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑 Light"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -174,11 +209,13 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1701,7 +1738,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1736,7 +1773,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1945,13 +1982,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F244"/>
+  <dimension ref="A1:G244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -1961,11 +1998,12 @@
     <col min="3" max="3" width="59.125" style="5" customWidth="1"/>
     <col min="4" max="4" width="16.125" style="5" customWidth="1"/>
     <col min="5" max="5" width="10.875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="37.375" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="6"/>
+    <col min="6" max="6" width="15.625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18.25" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1984,8 +2022,11 @@
       <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G1" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -2004,8 +2045,11 @@
       <c r="F2" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G2" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
@@ -2024,8 +2068,11 @@
       <c r="F3" s="11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="13" t="s">
         <v>17</v>
@@ -2041,7 +2088,7 @@
       </c>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
       <c r="B5" s="13" t="s">
         <v>20</v>
@@ -2057,7 +2104,7 @@
       </c>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>25</v>
       </c>
@@ -2075,15 +2122,26 @@
       </c>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -2091,7 +2149,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -2099,7 +2157,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -2107,7 +2165,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -2115,7 +2173,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -2123,7 +2181,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -2131,7 +2189,7 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -2139,7 +2197,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -2147,7 +2205,7 @@
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>

--- a/_ConfigExcels/Datas/com_global_param.xlsx
+++ b/_ConfigExcels/Datas/com_global_param.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -141,6 +141,18 @@
   </si>
   <si>
     <t>##</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>weaponpiece_purple</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器碎片变为紫色、橙色的数量</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,50</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1982,13 +1994,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G244"/>
+  <dimension ref="A1:G243"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -2143,11 +2155,20 @@
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
+      <c r="G8" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
@@ -2685,15 +2706,14 @@
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
     </row>
-    <row r="76" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="12"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-    </row>
-    <row r="77" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+    </row>
     <row r="78" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
@@ -2834,7 +2854,7 @@
       <c r="E97" s="13"/>
       <c r="F97" s="13"/>
     </row>
-    <row r="98" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
@@ -2848,7 +2868,8 @@
       <c r="E99" s="13"/>
       <c r="F99" s="13"/>
     </row>
-    <row r="100" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="12"/>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
@@ -2928,23 +2949,22 @@
       <c r="F109" s="13"/>
     </row>
     <row r="110" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="12"/>
-      <c r="B110" s="13"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13"/>
+      <c r="A110" s="14"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
     </row>
     <row r="111" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="14"/>
-      <c r="B111" s="15"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
-      <c r="E111" s="15"/>
-      <c r="F111" s="15"/>
-    </row>
-    <row r="112" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="12"/>
+      <c r="A111" s="12"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
       <c r="D112" s="13"/>
@@ -3054,14 +3074,14 @@
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
       <c r="E127" s="13"/>
-      <c r="F127" s="13"/>
+      <c r="F127" s="16"/>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B128" s="13"/>
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
       <c r="E128" s="13"/>
-      <c r="F128" s="16"/>
+      <c r="F128" s="13"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B129" s="13"/>
@@ -3070,7 +3090,8 @@
       <c r="E129" s="13"/>
       <c r="F129" s="13"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="12"/>
       <c r="B130" s="13"/>
       <c r="C130" s="13"/>
       <c r="D130" s="13"/>
@@ -3086,20 +3107,20 @@
       <c r="F131" s="13"/>
     </row>
     <row r="132" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="12"/>
+      <c r="A132" s="4"/>
       <c r="B132" s="13"/>
       <c r="C132" s="13"/>
       <c r="D132" s="13"/>
       <c r="E132" s="13"/>
-      <c r="F132" s="13"/>
+      <c r="F132" s="5"/>
     </row>
     <row r="133" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="4"/>
+      <c r="A133" s="12"/>
       <c r="B133" s="13"/>
       <c r="C133" s="13"/>
       <c r="D133" s="13"/>
       <c r="E133" s="13"/>
-      <c r="F133" s="5"/>
+      <c r="F133" s="13"/>
     </row>
     <row r="134" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="12"/>
@@ -3146,18 +3167,18 @@
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
       <c r="D139" s="13"/>
-      <c r="E139" s="13"/>
+      <c r="E139" s="17"/>
       <c r="F139" s="13"/>
     </row>
-    <row r="140" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" s="12"/>
       <c r="B140" s="13"/>
       <c r="C140" s="13"/>
       <c r="D140" s="13"/>
-      <c r="E140" s="17"/>
+      <c r="E140" s="13"/>
       <c r="F140" s="13"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="12"/>
       <c r="B141" s="13"/>
       <c r="C141" s="13"/>
@@ -3278,7 +3299,7 @@
       <c r="F155" s="13"/>
     </row>
     <row r="156" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="12"/>
+      <c r="A156" s="4"/>
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
       <c r="D156" s="13"/>
@@ -3310,12 +3331,12 @@
       <c r="F159" s="13"/>
     </row>
     <row r="160" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="4"/>
+      <c r="A160" s="12"/>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
       <c r="D160" s="13"/>
       <c r="E160" s="13"/>
-      <c r="F160" s="13"/>
+      <c r="F160" s="5"/>
     </row>
     <row r="161" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="12"/>
@@ -3341,21 +3362,19 @@
       <c r="E163" s="13"/>
       <c r="F163" s="5"/>
     </row>
-    <row r="164" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="12"/>
+    <row r="164" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="4"/>
       <c r="B164" s="13"/>
       <c r="C164" s="13"/>
       <c r="D164" s="13"/>
       <c r="E164" s="13"/>
       <c r="F164" s="5"/>
     </row>
-    <row r="165" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="4"/>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B165" s="13"/>
       <c r="C165" s="13"/>
       <c r="D165" s="13"/>
       <c r="E165" s="13"/>
-      <c r="F165" s="5"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B166" s="13"/>
@@ -3373,26 +3392,26 @@
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
       <c r="D168" s="13"/>
-      <c r="E168" s="13"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B169" s="13"/>
-      <c r="C169" s="13"/>
-      <c r="D169" s="13"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A171" s="12"/>
-      <c r="B171" s="13"/>
-      <c r="C171" s="13"/>
-      <c r="D171" s="13"/>
-      <c r="E171" s="13"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A173" s="12"/>
-      <c r="B173" s="13"/>
-      <c r="C173" s="13"/>
-      <c r="D173" s="13"/>
-      <c r="E173" s="13"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A170" s="12"/>
+      <c r="B170" s="13"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="13"/>
+      <c r="E170" s="13"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A172" s="12"/>
+      <c r="B172" s="13"/>
+      <c r="C172" s="13"/>
+      <c r="D172" s="13"/>
+      <c r="E172" s="13"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B174" s="13"/>
+      <c r="C174" s="13"/>
+      <c r="D174" s="13"/>
+      <c r="E174" s="13"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B175" s="13"/>
@@ -3406,18 +3425,18 @@
       <c r="D176" s="13"/>
       <c r="E176" s="13"/>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B177" s="13"/>
-      <c r="C177" s="13"/>
-      <c r="D177" s="13"/>
-      <c r="E177" s="13"/>
-    </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B179" s="13"/>
-      <c r="C179" s="13"/>
-      <c r="D179" s="13"/>
-      <c r="E179" s="13"/>
-      <c r="F179" s="13"/>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B178" s="13"/>
+      <c r="C178" s="13"/>
+      <c r="D178" s="13"/>
+      <c r="E178" s="13"/>
+      <c r="F178" s="13"/>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B180" s="13"/>
+      <c r="C180" s="13"/>
+      <c r="D180" s="13"/>
+      <c r="E180" s="13"/>
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B181" s="13"/>
@@ -3449,25 +3468,25 @@
       <c r="D185" s="13"/>
       <c r="E185" s="13"/>
     </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B186" s="13"/>
-      <c r="C186" s="13"/>
-      <c r="D186" s="13"/>
-      <c r="E186" s="13"/>
-    </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B188" s="13"/>
-      <c r="C188" s="13"/>
-      <c r="D188" s="13"/>
-      <c r="E188" s="13"/>
-      <c r="F188" s="13"/>
+    <row r="187" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B187" s="13"/>
+      <c r="C187" s="13"/>
+      <c r="D187" s="13"/>
+      <c r="E187" s="13"/>
+      <c r="F187" s="13"/>
+    </row>
+    <row r="189" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B189" s="13"/>
+      <c r="C189" s="13"/>
+      <c r="D189" s="13"/>
+      <c r="E189" s="13"/>
+      <c r="F189" s="13"/>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B190" s="13"/>
       <c r="C190" s="13"/>
       <c r="D190" s="13"/>
       <c r="E190" s="13"/>
-      <c r="F190" s="13"/>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B191" s="13"/>
@@ -3481,18 +3500,19 @@
       <c r="D192" s="13"/>
       <c r="E192" s="13"/>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B193" s="13"/>
-      <c r="C193" s="13"/>
-      <c r="D193" s="13"/>
-      <c r="E193" s="13"/>
-    </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B195" s="13"/>
-      <c r="C195" s="13"/>
-      <c r="D195" s="13"/>
-      <c r="E195" s="13"/>
-      <c r="F195" s="13"/>
+    <row r="194" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B194" s="13"/>
+      <c r="C194" s="13"/>
+      <c r="D194" s="13"/>
+      <c r="E194" s="13"/>
+      <c r="F194" s="13"/>
+    </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B196" s="13"/>
+      <c r="C196" s="13"/>
+      <c r="D196" s="13"/>
+      <c r="E196" s="13"/>
+      <c r="F196" s="13"/>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B197" s="13"/>
@@ -3501,41 +3521,40 @@
       <c r="E197" s="13"/>
       <c r="F197" s="13"/>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B198" s="13"/>
-      <c r="C198" s="13"/>
-      <c r="D198" s="13"/>
-      <c r="E198" s="13"/>
-      <c r="F198" s="13"/>
+    <row r="199" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D199" s="13"/>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D200" s="13"/>
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D201" s="13"/>
+      <c r="D201" s="18"/>
+      <c r="E201" s="19"/>
     </row>
     <row r="202" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D202" s="18"/>
-      <c r="E202" s="19"/>
+      <c r="D202" s="19"/>
+      <c r="E202" s="18"/>
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D203" s="19"/>
-      <c r="E203" s="18"/>
+      <c r="E203" s="19"/>
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D204" s="19"/>
-      <c r="E204" s="19"/>
+      <c r="B204" s="13"/>
+      <c r="C204" s="13"/>
+      <c r="D204" s="13"/>
+      <c r="E204" s="13"/>
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B205" s="13"/>
       <c r="C205" s="13"/>
       <c r="D205" s="13"/>
-      <c r="E205" s="13"/>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B206" s="13"/>
       <c r="C206" s="13"/>
-      <c r="D206" s="13"/>
+      <c r="D206" s="18"/>
+      <c r="E206" s="19"/>
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B207" s="13"/>
@@ -3546,8 +3565,8 @@
     <row r="208" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B208" s="13"/>
       <c r="C208" s="13"/>
-      <c r="D208" s="18"/>
-      <c r="E208" s="19"/>
+      <c r="D208" s="13"/>
+      <c r="E208" s="13"/>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B209" s="13"/>
@@ -3556,10 +3575,11 @@
       <c r="E209" s="13"/>
     </row>
     <row r="210" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B210" s="13"/>
-      <c r="C210" s="13"/>
-      <c r="D210" s="13"/>
-      <c r="E210" s="13"/>
+      <c r="B210" s="18"/>
+      <c r="C210" s="18"/>
+      <c r="D210" s="18"/>
+      <c r="E210" s="18"/>
+      <c r="F210" s="18"/>
     </row>
     <row r="211" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B211" s="18"/>
@@ -3569,20 +3589,20 @@
       <c r="F211" s="18"/>
     </row>
     <row r="212" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B212" s="18"/>
-      <c r="C212" s="18"/>
-      <c r="D212" s="18"/>
-      <c r="E212" s="18"/>
-      <c r="F212" s="18"/>
-    </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B213" s="20"/>
-      <c r="C213" s="13"/>
-      <c r="D213" s="13"/>
-      <c r="E213" s="13"/>
-      <c r="F213" s="13"/>
-    </row>
-    <row r="215" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B212" s="20"/>
+      <c r="C212" s="13"/>
+      <c r="D212" s="13"/>
+      <c r="E212" s="13"/>
+      <c r="F212" s="13"/>
+    </row>
+    <row r="214" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B214" s="13"/>
+      <c r="C214" s="13"/>
+      <c r="D214" s="13"/>
+      <c r="E214" s="13"/>
+      <c r="F214" s="13"/>
+    </row>
+    <row r="215" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B215" s="13"/>
       <c r="C215" s="13"/>
       <c r="D215" s="13"/>
@@ -3666,12 +3686,10 @@
       <c r="E226" s="13"/>
       <c r="F226" s="13"/>
     </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B227" s="13"/>
-      <c r="C227" s="13"/>
-      <c r="D227" s="13"/>
-      <c r="E227" s="13"/>
-      <c r="F227" s="13"/>
+    <row r="228" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B228" s="13"/>
+      <c r="C228" s="13"/>
+      <c r="D228" s="13"/>
     </row>
     <row r="229" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B229" s="13"/>
@@ -3718,126 +3736,121 @@
       <c r="C237" s="13"/>
       <c r="D237" s="13"/>
     </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B238" s="13"/>
-      <c r="C238" s="13"/>
-      <c r="D238" s="13"/>
-    </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B242" s="13"/>
-      <c r="C242" s="13"/>
-      <c r="D242" s="13"/>
-      <c r="E242" s="13"/>
-      <c r="F242" s="13"/>
-    </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B244"/>
+    <row r="241" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B241" s="13"/>
+      <c r="C241" s="13"/>
+      <c r="D241" s="13"/>
+      <c r="E241" s="13"/>
+      <c r="F241" s="13"/>
+    </row>
+    <row r="243" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B243"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="B64">
+  <conditionalFormatting sqref="B63">
     <cfRule type="duplicateValues" dxfId="36" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B65">
+  <conditionalFormatting sqref="B64">
     <cfRule type="duplicateValues" dxfId="35" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83">
+  <conditionalFormatting sqref="B82">
     <cfRule type="duplicateValues" dxfId="34" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B84">
+  <conditionalFormatting sqref="B83">
     <cfRule type="duplicateValues" dxfId="33" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B85">
+  <conditionalFormatting sqref="B84">
     <cfRule type="duplicateValues" dxfId="32" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B86">
+  <conditionalFormatting sqref="B85">
     <cfRule type="duplicateValues" dxfId="31" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B99">
+  <conditionalFormatting sqref="B98">
     <cfRule type="duplicateValues" dxfId="30" priority="40"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B100">
+  <conditionalFormatting sqref="B99">
     <cfRule type="duplicateValues" dxfId="29" priority="39"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B104">
+  <conditionalFormatting sqref="B103">
     <cfRule type="duplicateValues" dxfId="28" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B106">
+  <conditionalFormatting sqref="B105">
     <cfRule type="duplicateValues" dxfId="27" priority="7"/>
     <cfRule type="duplicateValues" dxfId="26" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B108">
+  <conditionalFormatting sqref="B107">
     <cfRule type="duplicateValues" dxfId="25" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B120">
+  <conditionalFormatting sqref="B119">
     <cfRule type="duplicateValues" dxfId="24" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B193">
+  <conditionalFormatting sqref="B192">
     <cfRule type="duplicateValues" dxfId="23" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B210">
+  <conditionalFormatting sqref="B209">
     <cfRule type="duplicateValues" dxfId="22" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B242">
+  <conditionalFormatting sqref="B241">
     <cfRule type="duplicateValues" dxfId="21" priority="48"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B81:B82">
+  <conditionalFormatting sqref="B80:B81">
     <cfRule type="duplicateValues" dxfId="20" priority="37"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B89:B90">
+  <conditionalFormatting sqref="B88:B89">
     <cfRule type="duplicateValues" dxfId="19" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B91:B92">
+  <conditionalFormatting sqref="B90:B91">
     <cfRule type="duplicateValues" dxfId="18" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B109:B111">
+  <conditionalFormatting sqref="B108:B110">
     <cfRule type="duplicateValues" dxfId="17" priority="5"/>
     <cfRule type="duplicateValues" dxfId="16" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B121:B127">
+  <conditionalFormatting sqref="B120:B126">
     <cfRule type="duplicateValues" dxfId="15" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B128:B129">
+  <conditionalFormatting sqref="B127:B128">
     <cfRule type="duplicateValues" dxfId="14" priority="1"/>
     <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B206:B208">
+  <conditionalFormatting sqref="B205:B207">
     <cfRule type="duplicateValues" dxfId="12" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B215:B227">
+  <conditionalFormatting sqref="B214:B226">
     <cfRule type="duplicateValues" dxfId="11" priority="47"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C85:C86">
+  <conditionalFormatting sqref="C84:C85">
     <cfRule type="duplicateValues" dxfId="10" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C128:C129">
+  <conditionalFormatting sqref="C127:C128">
     <cfRule type="duplicateValues" dxfId="9" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B228 B1:B63 B213:B214 B209 B239:B241 B243 B194:B205 B131:B192 B66:B76 B245:B1048576">
+  <conditionalFormatting sqref="B227 B212:B213 B208 B238:B240 B242 B193:B204 B130:B191 B65:B75 B244:B1048576 B1:B62">
     <cfRule type="duplicateValues" dxfId="8" priority="43"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B105 B107:B108 B112:B127 B130:B1048576">
+  <conditionalFormatting sqref="B106:B107 B111:B126 B129:B1048576 B1:B104">
     <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B112 B101 B78:B80 B94:B98 B87">
+  <conditionalFormatting sqref="B111 B100 B77:B79 B93:B97 B86">
     <cfRule type="duplicateValues" dxfId="6" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B88 B93">
+  <conditionalFormatting sqref="B87 B92">
     <cfRule type="duplicateValues" dxfId="5" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B102:B103 B107 B105">
+  <conditionalFormatting sqref="B101:B102 B106 B104">
     <cfRule type="duplicateValues" dxfId="4" priority="44"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B113 B130">
+  <conditionalFormatting sqref="B112 B129">
     <cfRule type="duplicateValues" dxfId="3" priority="45"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B114:C119 C120:C127">
+  <conditionalFormatting sqref="B113:C118 C119:C126">
     <cfRule type="duplicateValues" dxfId="2" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B229:C232 B236:C238">
+  <conditionalFormatting sqref="B228:C231 B235:C237">
     <cfRule type="duplicateValues" dxfId="1" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B233:C235">
+  <conditionalFormatting sqref="B232:C234">
     <cfRule type="duplicateValues" dxfId="0" priority="11"/>
   </conditionalFormatting>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_ConfigExcels/Datas/com_global_param.xlsx
+++ b/_ConfigExcels/Datas/com_global_param.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mine\Project\MiniGame_EarthDefender\_ConfigExcels\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17775" tabRatio="736"/>
+    <workbookView windowHeight="17775" tabRatio="736"/>
   </bookViews>
   <sheets>
     <sheet name="com_param" sheetId="11" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -52,6 +47,9 @@
     <t>str_value</t>
   </si>
   <si>
+    <t>int_list_value</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -65,6 +63,9 @@
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>(list#sep=,),int</t>
   </si>
   <si>
     <t>##</t>
@@ -85,6 +86,9 @@
     <t>字符串值</t>
   </si>
   <si>
+    <t>整型列表值</t>
+  </si>
+  <si>
     <t>maincharacter_idle_count</t>
   </si>
   <si>
@@ -101,66 +105,43 @@
   </si>
   <si>
     <t>final_dungeon</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>最终关卡（以防后续有支线关卡，在这进行标记）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>card_com</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>公共防爆卡组</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>INT_LIST</t>
   </si>
   <si>
-    <t>int_list_value</t>
-  </si>
-  <si>
-    <t>(list#sep=,),int</t>
-  </si>
-  <si>
-    <t>整型列表值</t>
-  </si>
-  <si>
     <t>1,2,3,4,5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>weaponpiece_purple</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>武器碎片变为紫色、橙色的数量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>10,50</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,49 +152,186 @@
     <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑 Light"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="微软雅黑 Light"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑 Light"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -221,18 +339,10 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,8 +373,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -287,502 +583,744 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="485">
+  <cellStyleXfs count="533">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -793,16 +1331,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="327" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="375" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -814,10 +1352,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -836,854 +1374,542 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="485">
+  <cellStyles count="533">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 10" xfId="1"/>
-    <cellStyle name="常规 11" xfId="2"/>
-    <cellStyle name="常规 12" xfId="3"/>
-    <cellStyle name="常规 13" xfId="4"/>
-    <cellStyle name="常规 2" xfId="5"/>
-    <cellStyle name="常规 2 10" xfId="6"/>
-    <cellStyle name="常规 2 11" xfId="7"/>
-    <cellStyle name="常规 2 2" xfId="8"/>
-    <cellStyle name="常规 2 2 2" xfId="9"/>
-    <cellStyle name="常规 2 2 2 2" xfId="10"/>
-    <cellStyle name="常规 2 2 2 2 2" xfId="11"/>
-    <cellStyle name="常规 2 2 2 2 2 2" xfId="12"/>
-    <cellStyle name="常规 2 2 2 2 2 2 2" xfId="13"/>
-    <cellStyle name="常规 2 2 2 2 2 2 2 2" xfId="14"/>
-    <cellStyle name="常规 2 2 2 2 2 2 2 3" xfId="15"/>
-    <cellStyle name="常规 2 2 2 2 2 2 3" xfId="16"/>
-    <cellStyle name="常规 2 2 2 2 2 3" xfId="17"/>
-    <cellStyle name="常规 2 2 2 2 2 3 2" xfId="18"/>
-    <cellStyle name="常规 2 2 2 2 2 3 3" xfId="19"/>
-    <cellStyle name="常规 2 2 2 2 2 4" xfId="20"/>
-    <cellStyle name="常规 2 2 2 2 3" xfId="21"/>
-    <cellStyle name="常规 2 2 2 2 3 2" xfId="22"/>
-    <cellStyle name="常规 2 2 2 2 3 2 2" xfId="23"/>
-    <cellStyle name="常规 2 2 2 2 3 2 3" xfId="24"/>
-    <cellStyle name="常规 2 2 2 2 3 3" xfId="25"/>
-    <cellStyle name="常规 2 2 2 2 4" xfId="26"/>
-    <cellStyle name="常规 2 2 2 2 4 2" xfId="27"/>
-    <cellStyle name="常规 2 2 2 2 4 3" xfId="28"/>
-    <cellStyle name="常规 2 2 2 2 5" xfId="29"/>
-    <cellStyle name="常规 2 2 2 3" xfId="30"/>
-    <cellStyle name="常规 2 2 2 3 2" xfId="31"/>
-    <cellStyle name="常规 2 2 2 3 2 2" xfId="32"/>
-    <cellStyle name="常规 2 2 2 3 2 2 2" xfId="33"/>
-    <cellStyle name="常规 2 2 2 3 2 2 3" xfId="34"/>
-    <cellStyle name="常规 2 2 2 3 2 3" xfId="35"/>
-    <cellStyle name="常规 2 2 2 3 3" xfId="36"/>
-    <cellStyle name="常规 2 2 2 3 3 2" xfId="37"/>
-    <cellStyle name="常规 2 2 2 3 3 3" xfId="38"/>
-    <cellStyle name="常规 2 2 2 3 4" xfId="39"/>
-    <cellStyle name="常规 2 2 2 4" xfId="40"/>
-    <cellStyle name="常规 2 2 2 4 2" xfId="41"/>
-    <cellStyle name="常规 2 2 2 4 2 2" xfId="42"/>
-    <cellStyle name="常规 2 2 2 4 2 3" xfId="43"/>
-    <cellStyle name="常规 2 2 2 4 3" xfId="44"/>
-    <cellStyle name="常规 2 2 2 5" xfId="45"/>
-    <cellStyle name="常规 2 2 2 5 2" xfId="46"/>
-    <cellStyle name="常规 2 2 2 5 3" xfId="47"/>
-    <cellStyle name="常规 2 2 2 6" xfId="48"/>
-    <cellStyle name="常规 2 2 3" xfId="49"/>
-    <cellStyle name="常规 2 2 3 2" xfId="50"/>
-    <cellStyle name="常规 2 2 3 2 2" xfId="51"/>
-    <cellStyle name="常规 2 2 3 2 2 2" xfId="52"/>
-    <cellStyle name="常规 2 2 3 2 2 2 2" xfId="53"/>
-    <cellStyle name="常规 2 2 3 2 2 2 3" xfId="54"/>
-    <cellStyle name="常规 2 2 3 2 2 3" xfId="55"/>
-    <cellStyle name="常规 2 2 3 2 3" xfId="56"/>
-    <cellStyle name="常规 2 2 3 2 3 2" xfId="57"/>
-    <cellStyle name="常规 2 2 3 2 3 3" xfId="58"/>
-    <cellStyle name="常规 2 2 3 2 4" xfId="59"/>
-    <cellStyle name="常规 2 2 3 3" xfId="60"/>
-    <cellStyle name="常规 2 2 3 3 2" xfId="61"/>
-    <cellStyle name="常规 2 2 3 3 2 2" xfId="62"/>
-    <cellStyle name="常规 2 2 3 3 2 3" xfId="63"/>
-    <cellStyle name="常规 2 2 3 3 3" xfId="64"/>
-    <cellStyle name="常规 2 2 3 4" xfId="65"/>
-    <cellStyle name="常规 2 2 3 4 2" xfId="66"/>
-    <cellStyle name="常规 2 2 3 4 3" xfId="67"/>
-    <cellStyle name="常规 2 2 3 5" xfId="68"/>
-    <cellStyle name="常规 2 2 4" xfId="69"/>
-    <cellStyle name="常规 2 2 4 2" xfId="70"/>
-    <cellStyle name="常规 2 2 4 2 2" xfId="71"/>
-    <cellStyle name="常规 2 2 4 2 2 2" xfId="72"/>
-    <cellStyle name="常规 2 2 4 2 2 3" xfId="73"/>
-    <cellStyle name="常规 2 2 4 2 3" xfId="74"/>
-    <cellStyle name="常规 2 2 4 3" xfId="75"/>
-    <cellStyle name="常规 2 2 4 3 2" xfId="76"/>
-    <cellStyle name="常规 2 2 4 3 3" xfId="77"/>
-    <cellStyle name="常规 2 2 4 4" xfId="78"/>
-    <cellStyle name="常规 2 2 5" xfId="79"/>
-    <cellStyle name="常规 2 2 5 2" xfId="80"/>
-    <cellStyle name="常规 2 2 5 2 2" xfId="81"/>
-    <cellStyle name="常规 2 2 5 2 3" xfId="82"/>
-    <cellStyle name="常规 2 2 5 3" xfId="83"/>
-    <cellStyle name="常规 2 2 6" xfId="84"/>
-    <cellStyle name="常规 2 2 6 2" xfId="85"/>
-    <cellStyle name="常规 2 2 6 3" xfId="86"/>
-    <cellStyle name="常规 2 2 7" xfId="87"/>
-    <cellStyle name="常规 2 3" xfId="88"/>
-    <cellStyle name="常规 2 3 2" xfId="89"/>
-    <cellStyle name="常规 2 3 2 2" xfId="90"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="91"/>
-    <cellStyle name="常规 2 3 2 2 2 2" xfId="92"/>
-    <cellStyle name="常规 2 3 2 2 2 2 2" xfId="93"/>
-    <cellStyle name="常规 2 3 2 2 2 2 2 2" xfId="94"/>
-    <cellStyle name="常规 2 3 2 2 2 2 2 3" xfId="95"/>
-    <cellStyle name="常规 2 3 2 2 2 2 3" xfId="96"/>
-    <cellStyle name="常规 2 3 2 2 2 3" xfId="97"/>
-    <cellStyle name="常规 2 3 2 2 2 3 2" xfId="98"/>
-    <cellStyle name="常规 2 3 2 2 2 3 3" xfId="99"/>
-    <cellStyle name="常规 2 3 2 2 2 4" xfId="100"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="101"/>
-    <cellStyle name="常规 2 3 2 2 3 2" xfId="102"/>
-    <cellStyle name="常规 2 3 2 2 3 2 2" xfId="103"/>
-    <cellStyle name="常规 2 3 2 2 3 2 3" xfId="104"/>
-    <cellStyle name="常规 2 3 2 2 3 3" xfId="105"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="106"/>
-    <cellStyle name="常规 2 3 2 2 4 2" xfId="107"/>
-    <cellStyle name="常规 2 3 2 2 4 3" xfId="108"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="109"/>
-    <cellStyle name="常规 2 3 2 3" xfId="110"/>
-    <cellStyle name="常规 2 3 2 3 2" xfId="111"/>
-    <cellStyle name="常规 2 3 2 3 2 2" xfId="112"/>
-    <cellStyle name="常规 2 3 2 3 2 2 2" xfId="113"/>
-    <cellStyle name="常规 2 3 2 3 2 2 3" xfId="114"/>
-    <cellStyle name="常规 2 3 2 3 2 3" xfId="115"/>
-    <cellStyle name="常规 2 3 2 3 3" xfId="116"/>
-    <cellStyle name="常规 2 3 2 3 3 2" xfId="117"/>
-    <cellStyle name="常规 2 3 2 3 3 3" xfId="118"/>
-    <cellStyle name="常规 2 3 2 3 4" xfId="119"/>
-    <cellStyle name="常规 2 3 2 4" xfId="120"/>
-    <cellStyle name="常规 2 3 2 4 2" xfId="121"/>
-    <cellStyle name="常规 2 3 2 4 2 2" xfId="122"/>
-    <cellStyle name="常规 2 3 2 4 2 3" xfId="123"/>
-    <cellStyle name="常规 2 3 2 4 3" xfId="124"/>
-    <cellStyle name="常规 2 3 2 5" xfId="125"/>
-    <cellStyle name="常规 2 3 2 5 2" xfId="126"/>
-    <cellStyle name="常规 2 3 2 5 3" xfId="127"/>
-    <cellStyle name="常规 2 3 2 6" xfId="128"/>
-    <cellStyle name="常规 2 3 3" xfId="129"/>
-    <cellStyle name="常规 2 3 3 2" xfId="130"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="131"/>
-    <cellStyle name="常规 2 3 3 2 2 2" xfId="132"/>
-    <cellStyle name="常规 2 3 3 2 2 2 2" xfId="133"/>
-    <cellStyle name="常规 2 3 3 2 2 2 3" xfId="134"/>
-    <cellStyle name="常规 2 3 3 2 2 3" xfId="135"/>
-    <cellStyle name="常规 2 3 3 2 3" xfId="136"/>
-    <cellStyle name="常规 2 3 3 2 3 2" xfId="137"/>
-    <cellStyle name="常规 2 3 3 2 3 3" xfId="138"/>
-    <cellStyle name="常规 2 3 3 2 4" xfId="139"/>
-    <cellStyle name="常规 2 3 3 3" xfId="140"/>
-    <cellStyle name="常规 2 3 3 3 2" xfId="141"/>
-    <cellStyle name="常规 2 3 3 3 2 2" xfId="142"/>
-    <cellStyle name="常规 2 3 3 3 2 3" xfId="143"/>
-    <cellStyle name="常规 2 3 3 3 3" xfId="144"/>
-    <cellStyle name="常规 2 3 3 4" xfId="145"/>
-    <cellStyle name="常规 2 3 3 4 2" xfId="146"/>
-    <cellStyle name="常规 2 3 3 4 3" xfId="147"/>
-    <cellStyle name="常规 2 3 3 5" xfId="148"/>
-    <cellStyle name="常规 2 3 4" xfId="149"/>
-    <cellStyle name="常规 2 3 4 2" xfId="150"/>
-    <cellStyle name="常规 2 3 4 2 2" xfId="151"/>
-    <cellStyle name="常规 2 3 4 2 2 2" xfId="152"/>
-    <cellStyle name="常规 2 3 4 2 2 3" xfId="153"/>
-    <cellStyle name="常规 2 3 4 2 3" xfId="154"/>
-    <cellStyle name="常规 2 3 4 3" xfId="155"/>
-    <cellStyle name="常规 2 3 4 3 2" xfId="156"/>
-    <cellStyle name="常规 2 3 4 3 3" xfId="157"/>
-    <cellStyle name="常规 2 3 4 4" xfId="158"/>
-    <cellStyle name="常规 2 3 5" xfId="159"/>
-    <cellStyle name="常规 2 3 5 2" xfId="160"/>
-    <cellStyle name="常规 2 3 5 2 2" xfId="161"/>
-    <cellStyle name="常规 2 3 5 2 3" xfId="162"/>
-    <cellStyle name="常规 2 3 5 3" xfId="163"/>
-    <cellStyle name="常规 2 3 6" xfId="164"/>
-    <cellStyle name="常规 2 3 6 2" xfId="165"/>
-    <cellStyle name="常规 2 3 6 3" xfId="166"/>
-    <cellStyle name="常规 2 3 7" xfId="167"/>
-    <cellStyle name="常规 2 4" xfId="168"/>
-    <cellStyle name="常规 2 4 2" xfId="169"/>
-    <cellStyle name="常规 2 4 2 2" xfId="170"/>
-    <cellStyle name="常规 2 4 2 2 2" xfId="171"/>
-    <cellStyle name="常规 2 4 2 2 2 2" xfId="172"/>
-    <cellStyle name="常规 2 4 2 2 2 2 2" xfId="173"/>
-    <cellStyle name="常规 2 4 2 2 2 2 3" xfId="174"/>
-    <cellStyle name="常规 2 4 2 2 2 3" xfId="175"/>
-    <cellStyle name="常规 2 4 2 2 3" xfId="176"/>
-    <cellStyle name="常规 2 4 2 2 3 2" xfId="177"/>
-    <cellStyle name="常规 2 4 2 2 3 3" xfId="178"/>
-    <cellStyle name="常规 2 4 2 2 4" xfId="179"/>
-    <cellStyle name="常规 2 4 2 3" xfId="180"/>
-    <cellStyle name="常规 2 4 2 3 2" xfId="181"/>
-    <cellStyle name="常规 2 4 2 3 2 2" xfId="182"/>
-    <cellStyle name="常规 2 4 2 3 2 3" xfId="183"/>
-    <cellStyle name="常规 2 4 2 3 3" xfId="184"/>
-    <cellStyle name="常规 2 4 2 4" xfId="185"/>
-    <cellStyle name="常规 2 4 2 4 2" xfId="186"/>
-    <cellStyle name="常规 2 4 2 4 3" xfId="187"/>
-    <cellStyle name="常规 2 4 2 5" xfId="188"/>
-    <cellStyle name="常规 2 4 3" xfId="189"/>
-    <cellStyle name="常规 2 4 3 2" xfId="190"/>
-    <cellStyle name="常规 2 4 3 2 2" xfId="191"/>
-    <cellStyle name="常规 2 4 3 2 2 2" xfId="192"/>
-    <cellStyle name="常规 2 4 3 2 2 3" xfId="193"/>
-    <cellStyle name="常规 2 4 3 2 3" xfId="194"/>
-    <cellStyle name="常规 2 4 3 3" xfId="195"/>
-    <cellStyle name="常规 2 4 3 3 2" xfId="196"/>
-    <cellStyle name="常规 2 4 3 3 3" xfId="197"/>
-    <cellStyle name="常规 2 4 3 4" xfId="198"/>
-    <cellStyle name="常规 2 4 4" xfId="199"/>
-    <cellStyle name="常规 2 4 4 2" xfId="200"/>
-    <cellStyle name="常规 2 4 4 2 2" xfId="201"/>
-    <cellStyle name="常规 2 4 4 2 3" xfId="202"/>
-    <cellStyle name="常规 2 4 4 3" xfId="203"/>
-    <cellStyle name="常规 2 4 5" xfId="204"/>
-    <cellStyle name="常规 2 4 5 2" xfId="205"/>
-    <cellStyle name="常规 2 4 5 3" xfId="206"/>
-    <cellStyle name="常规 2 4 6" xfId="207"/>
-    <cellStyle name="常规 2 5" xfId="208"/>
-    <cellStyle name="常规 2 5 2" xfId="209"/>
-    <cellStyle name="常规 2 5 2 2" xfId="210"/>
-    <cellStyle name="常规 2 5 2 2 2" xfId="211"/>
-    <cellStyle name="常规 2 5 2 2 2 2" xfId="212"/>
-    <cellStyle name="常规 2 5 2 2 2 3" xfId="213"/>
-    <cellStyle name="常规 2 5 2 2 3" xfId="214"/>
-    <cellStyle name="常规 2 5 2 3" xfId="215"/>
-    <cellStyle name="常规 2 5 2 3 2" xfId="216"/>
-    <cellStyle name="常规 2 5 2 3 3" xfId="217"/>
-    <cellStyle name="常规 2 5 2 4" xfId="218"/>
-    <cellStyle name="常规 2 5 3" xfId="219"/>
-    <cellStyle name="常规 2 5 3 2" xfId="220"/>
-    <cellStyle name="常规 2 5 3 2 2" xfId="221"/>
-    <cellStyle name="常规 2 5 3 2 3" xfId="222"/>
-    <cellStyle name="常规 2 5 3 3" xfId="223"/>
-    <cellStyle name="常规 2 5 4" xfId="224"/>
-    <cellStyle name="常规 2 5 4 2" xfId="225"/>
-    <cellStyle name="常规 2 5 4 3" xfId="226"/>
-    <cellStyle name="常规 2 5 5" xfId="227"/>
-    <cellStyle name="常规 2 6" xfId="228"/>
-    <cellStyle name="常规 2 6 2" xfId="229"/>
-    <cellStyle name="常规 2 6 2 2" xfId="230"/>
-    <cellStyle name="常规 2 6 2 2 2" xfId="231"/>
-    <cellStyle name="常规 2 6 2 2 3" xfId="232"/>
-    <cellStyle name="常规 2 6 2 3" xfId="233"/>
-    <cellStyle name="常规 2 6 3" xfId="234"/>
-    <cellStyle name="常规 2 6 3 2" xfId="235"/>
-    <cellStyle name="常规 2 6 3 3" xfId="236"/>
-    <cellStyle name="常规 2 6 4" xfId="237"/>
-    <cellStyle name="常规 2 7" xfId="238"/>
-    <cellStyle name="常规 2 7 2" xfId="239"/>
-    <cellStyle name="常规 2 7 2 2" xfId="240"/>
-    <cellStyle name="常规 2 7 2 3" xfId="241"/>
-    <cellStyle name="常规 2 7 3" xfId="242"/>
-    <cellStyle name="常规 2 8" xfId="243"/>
-    <cellStyle name="常规 2 8 2" xfId="244"/>
-    <cellStyle name="常规 2 8 3" xfId="245"/>
-    <cellStyle name="常规 2 9" xfId="246"/>
-    <cellStyle name="常规 3" xfId="247"/>
-    <cellStyle name="常规 3 2" xfId="248"/>
-    <cellStyle name="常规 3 2 2" xfId="249"/>
-    <cellStyle name="常规 3 2 2 2" xfId="250"/>
-    <cellStyle name="常规 3 2 2 2 2" xfId="251"/>
-    <cellStyle name="常规 3 2 2 2 2 2" xfId="252"/>
-    <cellStyle name="常规 3 2 2 2 2 2 2" xfId="253"/>
-    <cellStyle name="常规 3 2 2 2 2 2 3" xfId="254"/>
-    <cellStyle name="常规 3 2 2 2 2 3" xfId="255"/>
-    <cellStyle name="常规 3 2 2 2 3" xfId="256"/>
-    <cellStyle name="常规 3 2 2 2 3 2" xfId="257"/>
-    <cellStyle name="常规 3 2 2 2 3 3" xfId="258"/>
-    <cellStyle name="常规 3 2 2 2 4" xfId="259"/>
-    <cellStyle name="常规 3 2 2 3" xfId="260"/>
-    <cellStyle name="常规 3 2 2 3 2" xfId="261"/>
-    <cellStyle name="常规 3 2 2 3 2 2" xfId="262"/>
-    <cellStyle name="常规 3 2 2 3 2 3" xfId="263"/>
-    <cellStyle name="常规 3 2 2 3 3" xfId="264"/>
-    <cellStyle name="常规 3 2 2 4" xfId="265"/>
-    <cellStyle name="常规 3 2 2 4 2" xfId="266"/>
-    <cellStyle name="常规 3 2 2 4 3" xfId="267"/>
-    <cellStyle name="常规 3 2 2 5" xfId="268"/>
-    <cellStyle name="常规 3 2 3" xfId="269"/>
-    <cellStyle name="常规 3 2 3 2" xfId="270"/>
-    <cellStyle name="常规 3 2 3 2 2" xfId="271"/>
-    <cellStyle name="常规 3 2 3 2 2 2" xfId="272"/>
-    <cellStyle name="常规 3 2 3 2 2 3" xfId="273"/>
-    <cellStyle name="常规 3 2 3 2 3" xfId="274"/>
-    <cellStyle name="常规 3 2 3 3" xfId="275"/>
-    <cellStyle name="常规 3 2 3 3 2" xfId="276"/>
-    <cellStyle name="常规 3 2 3 3 3" xfId="277"/>
-    <cellStyle name="常规 3 2 3 4" xfId="278"/>
-    <cellStyle name="常规 3 2 4" xfId="279"/>
-    <cellStyle name="常规 3 2 4 2" xfId="280"/>
-    <cellStyle name="常规 3 2 4 2 2" xfId="281"/>
-    <cellStyle name="常规 3 2 4 2 3" xfId="282"/>
-    <cellStyle name="常规 3 2 4 3" xfId="283"/>
-    <cellStyle name="常规 3 2 5" xfId="284"/>
-    <cellStyle name="常规 3 2 5 2" xfId="285"/>
-    <cellStyle name="常规 3 2 5 3" xfId="286"/>
-    <cellStyle name="常规 3 2 6" xfId="287"/>
-    <cellStyle name="常规 3 3" xfId="288"/>
-    <cellStyle name="常规 3 3 2" xfId="289"/>
-    <cellStyle name="常规 3 3 2 2" xfId="290"/>
-    <cellStyle name="常规 3 3 2 2 2" xfId="291"/>
-    <cellStyle name="常规 3 3 2 2 2 2" xfId="292"/>
-    <cellStyle name="常规 3 3 2 2 2 3" xfId="293"/>
-    <cellStyle name="常规 3 3 2 2 3" xfId="294"/>
-    <cellStyle name="常规 3 3 2 3" xfId="295"/>
-    <cellStyle name="常规 3 3 2 3 2" xfId="296"/>
-    <cellStyle name="常规 3 3 2 3 3" xfId="297"/>
-    <cellStyle name="常规 3 3 2 4" xfId="298"/>
-    <cellStyle name="常规 3 3 3" xfId="299"/>
-    <cellStyle name="常规 3 3 3 2" xfId="300"/>
-    <cellStyle name="常规 3 3 3 2 2" xfId="301"/>
-    <cellStyle name="常规 3 3 3 2 3" xfId="302"/>
-    <cellStyle name="常规 3 3 3 3" xfId="303"/>
-    <cellStyle name="常规 3 3 4" xfId="304"/>
-    <cellStyle name="常规 3 3 4 2" xfId="305"/>
-    <cellStyle name="常规 3 3 4 3" xfId="306"/>
-    <cellStyle name="常规 3 3 5" xfId="307"/>
-    <cellStyle name="常规 3 4" xfId="308"/>
-    <cellStyle name="常规 3 4 2" xfId="309"/>
-    <cellStyle name="常规 3 4 2 2" xfId="310"/>
-    <cellStyle name="常规 3 4 2 2 2" xfId="311"/>
-    <cellStyle name="常规 3 4 2 2 3" xfId="312"/>
-    <cellStyle name="常规 3 4 2 3" xfId="313"/>
-    <cellStyle name="常规 3 4 3" xfId="314"/>
-    <cellStyle name="常规 3 4 3 2" xfId="315"/>
-    <cellStyle name="常规 3 4 3 3" xfId="316"/>
-    <cellStyle name="常规 3 4 4" xfId="317"/>
-    <cellStyle name="常规 3 5" xfId="318"/>
-    <cellStyle name="常规 3 5 2" xfId="319"/>
-    <cellStyle name="常规 3 5 2 2" xfId="320"/>
-    <cellStyle name="常规 3 5 2 3" xfId="321"/>
-    <cellStyle name="常规 3 5 3" xfId="322"/>
-    <cellStyle name="常规 3 6" xfId="323"/>
-    <cellStyle name="常规 3 6 2" xfId="324"/>
-    <cellStyle name="常规 3 6 3" xfId="325"/>
-    <cellStyle name="常规 3 7" xfId="326"/>
-    <cellStyle name="常规 4" xfId="327"/>
-    <cellStyle name="常规 4 2" xfId="328"/>
-    <cellStyle name="常规 4 2 2" xfId="329"/>
-    <cellStyle name="常规 4 2 2 2" xfId="330"/>
-    <cellStyle name="常规 4 2 2 2 2" xfId="331"/>
-    <cellStyle name="常规 4 2 2 2 2 2" xfId="332"/>
-    <cellStyle name="常规 4 2 2 2 2 2 2" xfId="333"/>
-    <cellStyle name="常规 4 2 2 2 2 2 3" xfId="334"/>
-    <cellStyle name="常规 4 2 2 2 2 3" xfId="335"/>
-    <cellStyle name="常规 4 2 2 2 3" xfId="336"/>
-    <cellStyle name="常规 4 2 2 2 3 2" xfId="337"/>
-    <cellStyle name="常规 4 2 2 2 3 3" xfId="338"/>
-    <cellStyle name="常规 4 2 2 2 4" xfId="339"/>
-    <cellStyle name="常规 4 2 2 3" xfId="340"/>
-    <cellStyle name="常规 4 2 2 3 2" xfId="341"/>
-    <cellStyle name="常规 4 2 2 3 2 2" xfId="342"/>
-    <cellStyle name="常规 4 2 2 3 2 3" xfId="343"/>
-    <cellStyle name="常规 4 2 2 3 3" xfId="344"/>
-    <cellStyle name="常规 4 2 2 4" xfId="345"/>
-    <cellStyle name="常规 4 2 2 4 2" xfId="346"/>
-    <cellStyle name="常规 4 2 2 4 3" xfId="347"/>
-    <cellStyle name="常规 4 2 2 5" xfId="348"/>
-    <cellStyle name="常规 4 2 3" xfId="349"/>
-    <cellStyle name="常规 4 2 3 2" xfId="350"/>
-    <cellStyle name="常规 4 2 3 2 2" xfId="351"/>
-    <cellStyle name="常规 4 2 3 2 2 2" xfId="352"/>
-    <cellStyle name="常规 4 2 3 2 2 3" xfId="353"/>
-    <cellStyle name="常规 4 2 3 2 3" xfId="354"/>
-    <cellStyle name="常规 4 2 3 3" xfId="355"/>
-    <cellStyle name="常规 4 2 3 3 2" xfId="356"/>
-    <cellStyle name="常规 4 2 3 3 3" xfId="357"/>
-    <cellStyle name="常规 4 2 3 4" xfId="358"/>
-    <cellStyle name="常规 4 2 4" xfId="359"/>
-    <cellStyle name="常规 4 2 4 2" xfId="360"/>
-    <cellStyle name="常规 4 2 4 2 2" xfId="361"/>
-    <cellStyle name="常规 4 2 4 2 3" xfId="362"/>
-    <cellStyle name="常规 4 2 4 3" xfId="363"/>
-    <cellStyle name="常规 4 2 5" xfId="364"/>
-    <cellStyle name="常规 4 2 5 2" xfId="365"/>
-    <cellStyle name="常规 4 2 5 3" xfId="366"/>
-    <cellStyle name="常规 4 2 6" xfId="367"/>
-    <cellStyle name="常规 4 3" xfId="368"/>
-    <cellStyle name="常规 4 3 2" xfId="369"/>
-    <cellStyle name="常规 4 3 2 2" xfId="370"/>
-    <cellStyle name="常规 4 3 2 2 2" xfId="371"/>
-    <cellStyle name="常规 4 3 2 2 2 2" xfId="372"/>
-    <cellStyle name="常规 4 3 2 2 2 3" xfId="373"/>
-    <cellStyle name="常规 4 3 2 2 3" xfId="374"/>
-    <cellStyle name="常规 4 3 2 3" xfId="375"/>
-    <cellStyle name="常规 4 3 2 3 2" xfId="376"/>
-    <cellStyle name="常规 4 3 2 3 3" xfId="377"/>
-    <cellStyle name="常规 4 3 2 4" xfId="378"/>
-    <cellStyle name="常规 4 3 3" xfId="379"/>
-    <cellStyle name="常规 4 3 3 2" xfId="380"/>
-    <cellStyle name="常规 4 3 3 2 2" xfId="381"/>
-    <cellStyle name="常规 4 3 3 2 3" xfId="382"/>
-    <cellStyle name="常规 4 3 3 3" xfId="383"/>
-    <cellStyle name="常规 4 3 4" xfId="384"/>
-    <cellStyle name="常规 4 3 4 2" xfId="385"/>
-    <cellStyle name="常规 4 3 4 3" xfId="386"/>
-    <cellStyle name="常规 4 3 5" xfId="387"/>
-    <cellStyle name="常规 4 4" xfId="388"/>
-    <cellStyle name="常规 4 4 2" xfId="389"/>
-    <cellStyle name="常规 4 4 2 2" xfId="390"/>
-    <cellStyle name="常规 4 4 2 2 2" xfId="391"/>
-    <cellStyle name="常规 4 4 2 2 3" xfId="392"/>
-    <cellStyle name="常规 4 4 2 3" xfId="393"/>
-    <cellStyle name="常规 4 4 3" xfId="394"/>
-    <cellStyle name="常规 4 4 3 2" xfId="395"/>
-    <cellStyle name="常规 4 4 3 3" xfId="396"/>
-    <cellStyle name="常规 4 4 4" xfId="397"/>
-    <cellStyle name="常规 4 5" xfId="398"/>
-    <cellStyle name="常规 4 5 2" xfId="399"/>
-    <cellStyle name="常规 4 5 2 2" xfId="400"/>
-    <cellStyle name="常规 4 5 2 3" xfId="401"/>
-    <cellStyle name="常规 4 5 3" xfId="402"/>
-    <cellStyle name="常规 4 6" xfId="403"/>
-    <cellStyle name="常规 4 6 2" xfId="404"/>
-    <cellStyle name="常规 4 6 3" xfId="405"/>
-    <cellStyle name="常规 4 7" xfId="406"/>
-    <cellStyle name="常规 5" xfId="407"/>
-    <cellStyle name="常规 5 2" xfId="408"/>
-    <cellStyle name="常规 5 2 2" xfId="409"/>
-    <cellStyle name="常规 5 2 2 2" xfId="410"/>
-    <cellStyle name="常规 5 2 2 2 2" xfId="411"/>
-    <cellStyle name="常规 5 2 2 2 2 2" xfId="412"/>
-    <cellStyle name="常规 5 2 2 2 2 3" xfId="413"/>
-    <cellStyle name="常规 5 2 2 2 3" xfId="414"/>
-    <cellStyle name="常规 5 2 2 3" xfId="415"/>
-    <cellStyle name="常规 5 2 2 3 2" xfId="416"/>
-    <cellStyle name="常规 5 2 2 3 3" xfId="417"/>
-    <cellStyle name="常规 5 2 2 4" xfId="418"/>
-    <cellStyle name="常规 5 2 3" xfId="419"/>
-    <cellStyle name="常规 5 2 3 2" xfId="420"/>
-    <cellStyle name="常规 5 2 3 2 2" xfId="421"/>
-    <cellStyle name="常规 5 2 3 2 3" xfId="422"/>
-    <cellStyle name="常规 5 2 3 3" xfId="423"/>
-    <cellStyle name="常规 5 2 4" xfId="424"/>
-    <cellStyle name="常规 5 2 4 2" xfId="425"/>
-    <cellStyle name="常规 5 2 4 3" xfId="426"/>
-    <cellStyle name="常规 5 2 5" xfId="427"/>
-    <cellStyle name="常规 5 3" xfId="428"/>
-    <cellStyle name="常规 5 3 2" xfId="429"/>
-    <cellStyle name="常规 5 3 2 2" xfId="430"/>
-    <cellStyle name="常规 5 3 2 2 2" xfId="431"/>
-    <cellStyle name="常规 5 3 2 2 3" xfId="432"/>
-    <cellStyle name="常规 5 3 2 3" xfId="433"/>
-    <cellStyle name="常规 5 3 3" xfId="434"/>
-    <cellStyle name="常规 5 3 3 2" xfId="435"/>
-    <cellStyle name="常规 5 3 3 3" xfId="436"/>
-    <cellStyle name="常规 5 3 4" xfId="437"/>
-    <cellStyle name="常规 5 4" xfId="438"/>
-    <cellStyle name="常规 5 4 2" xfId="439"/>
-    <cellStyle name="常规 5 4 2 2" xfId="440"/>
-    <cellStyle name="常规 5 4 2 3" xfId="441"/>
-    <cellStyle name="常规 5 4 3" xfId="442"/>
-    <cellStyle name="常规 5 5" xfId="443"/>
-    <cellStyle name="常规 5 5 2" xfId="444"/>
-    <cellStyle name="常规 5 5 3" xfId="445"/>
-    <cellStyle name="常规 5 6" xfId="446"/>
-    <cellStyle name="常规 6" xfId="447"/>
-    <cellStyle name="常规 6 2" xfId="448"/>
-    <cellStyle name="常规 6 2 2" xfId="449"/>
-    <cellStyle name="常规 6 2 2 2" xfId="450"/>
-    <cellStyle name="常规 6 2 2 2 2" xfId="451"/>
-    <cellStyle name="常规 6 2 2 2 3" xfId="452"/>
-    <cellStyle name="常规 6 2 2 3" xfId="453"/>
-    <cellStyle name="常规 6 2 3" xfId="454"/>
-    <cellStyle name="常规 6 2 3 2" xfId="455"/>
-    <cellStyle name="常规 6 2 3 3" xfId="456"/>
-    <cellStyle name="常规 6 2 4" xfId="457"/>
-    <cellStyle name="常规 6 3" xfId="458"/>
-    <cellStyle name="常规 6 3 2" xfId="459"/>
-    <cellStyle name="常规 6 3 2 2" xfId="460"/>
-    <cellStyle name="常规 6 3 2 3" xfId="461"/>
-    <cellStyle name="常规 6 3 3" xfId="462"/>
-    <cellStyle name="常规 6 4" xfId="463"/>
-    <cellStyle name="常规 6 4 2" xfId="464"/>
-    <cellStyle name="常规 6 4 3" xfId="465"/>
-    <cellStyle name="常规 6 5" xfId="466"/>
-    <cellStyle name="常规 7" xfId="467"/>
-    <cellStyle name="常规 7 2" xfId="468"/>
-    <cellStyle name="常规 7 2 2" xfId="469"/>
-    <cellStyle name="常规 7 2 2 2" xfId="470"/>
-    <cellStyle name="常规 7 2 2 3" xfId="471"/>
-    <cellStyle name="常规 7 2 3" xfId="472"/>
-    <cellStyle name="常规 7 3" xfId="473"/>
-    <cellStyle name="常规 7 3 2" xfId="474"/>
-    <cellStyle name="常规 7 3 3" xfId="475"/>
-    <cellStyle name="常规 7 4" xfId="476"/>
-    <cellStyle name="常规 8" xfId="477"/>
-    <cellStyle name="常规 8 2" xfId="478"/>
-    <cellStyle name="常规 8 2 2" xfId="479"/>
-    <cellStyle name="常规 8 2 3" xfId="480"/>
-    <cellStyle name="常规 8 3" xfId="481"/>
-    <cellStyle name="常规 9" xfId="482"/>
-    <cellStyle name="常规 9 2" xfId="483"/>
-    <cellStyle name="常规 9 3" xfId="484"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 10" xfId="49"/>
+    <cellStyle name="常规 11" xfId="50"/>
+    <cellStyle name="常规 12" xfId="51"/>
+    <cellStyle name="常规 13" xfId="52"/>
+    <cellStyle name="常规 2" xfId="53"/>
+    <cellStyle name="常规 2 10" xfId="54"/>
+    <cellStyle name="常规 2 11" xfId="55"/>
+    <cellStyle name="常规 2 2" xfId="56"/>
+    <cellStyle name="常规 2 2 2" xfId="57"/>
+    <cellStyle name="常规 2 2 2 2" xfId="58"/>
+    <cellStyle name="常规 2 2 2 2 2" xfId="59"/>
+    <cellStyle name="常规 2 2 2 2 2 2" xfId="60"/>
+    <cellStyle name="常规 2 2 2 2 2 2 2" xfId="61"/>
+    <cellStyle name="常规 2 2 2 2 2 2 2 2" xfId="62"/>
+    <cellStyle name="常规 2 2 2 2 2 2 2 3" xfId="63"/>
+    <cellStyle name="常规 2 2 2 2 2 2 3" xfId="64"/>
+    <cellStyle name="常规 2 2 2 2 2 3" xfId="65"/>
+    <cellStyle name="常规 2 2 2 2 2 3 2" xfId="66"/>
+    <cellStyle name="常规 2 2 2 2 2 3 3" xfId="67"/>
+    <cellStyle name="常规 2 2 2 2 2 4" xfId="68"/>
+    <cellStyle name="常规 2 2 2 2 3" xfId="69"/>
+    <cellStyle name="常规 2 2 2 2 3 2" xfId="70"/>
+    <cellStyle name="常规 2 2 2 2 3 2 2" xfId="71"/>
+    <cellStyle name="常规 2 2 2 2 3 2 3" xfId="72"/>
+    <cellStyle name="常规 2 2 2 2 3 3" xfId="73"/>
+    <cellStyle name="常规 2 2 2 2 4" xfId="74"/>
+    <cellStyle name="常规 2 2 2 2 4 2" xfId="75"/>
+    <cellStyle name="常规 2 2 2 2 4 3" xfId="76"/>
+    <cellStyle name="常规 2 2 2 2 5" xfId="77"/>
+    <cellStyle name="常规 2 2 2 3" xfId="78"/>
+    <cellStyle name="常规 2 2 2 3 2" xfId="79"/>
+    <cellStyle name="常规 2 2 2 3 2 2" xfId="80"/>
+    <cellStyle name="常规 2 2 2 3 2 2 2" xfId="81"/>
+    <cellStyle name="常规 2 2 2 3 2 2 3" xfId="82"/>
+    <cellStyle name="常规 2 2 2 3 2 3" xfId="83"/>
+    <cellStyle name="常规 2 2 2 3 3" xfId="84"/>
+    <cellStyle name="常规 2 2 2 3 3 2" xfId="85"/>
+    <cellStyle name="常规 2 2 2 3 3 3" xfId="86"/>
+    <cellStyle name="常规 2 2 2 3 4" xfId="87"/>
+    <cellStyle name="常规 2 2 2 4" xfId="88"/>
+    <cellStyle name="常规 2 2 2 4 2" xfId="89"/>
+    <cellStyle name="常规 2 2 2 4 2 2" xfId="90"/>
+    <cellStyle name="常规 2 2 2 4 2 3" xfId="91"/>
+    <cellStyle name="常规 2 2 2 4 3" xfId="92"/>
+    <cellStyle name="常规 2 2 2 5" xfId="93"/>
+    <cellStyle name="常规 2 2 2 5 2" xfId="94"/>
+    <cellStyle name="常规 2 2 2 5 3" xfId="95"/>
+    <cellStyle name="常规 2 2 2 6" xfId="96"/>
+    <cellStyle name="常规 2 2 3" xfId="97"/>
+    <cellStyle name="常规 2 2 3 2" xfId="98"/>
+    <cellStyle name="常规 2 2 3 2 2" xfId="99"/>
+    <cellStyle name="常规 2 2 3 2 2 2" xfId="100"/>
+    <cellStyle name="常规 2 2 3 2 2 2 2" xfId="101"/>
+    <cellStyle name="常规 2 2 3 2 2 2 3" xfId="102"/>
+    <cellStyle name="常规 2 2 3 2 2 3" xfId="103"/>
+    <cellStyle name="常规 2 2 3 2 3" xfId="104"/>
+    <cellStyle name="常规 2 2 3 2 3 2" xfId="105"/>
+    <cellStyle name="常规 2 2 3 2 3 3" xfId="106"/>
+    <cellStyle name="常规 2 2 3 2 4" xfId="107"/>
+    <cellStyle name="常规 2 2 3 3" xfId="108"/>
+    <cellStyle name="常规 2 2 3 3 2" xfId="109"/>
+    <cellStyle name="常规 2 2 3 3 2 2" xfId="110"/>
+    <cellStyle name="常规 2 2 3 3 2 3" xfId="111"/>
+    <cellStyle name="常规 2 2 3 3 3" xfId="112"/>
+    <cellStyle name="常规 2 2 3 4" xfId="113"/>
+    <cellStyle name="常规 2 2 3 4 2" xfId="114"/>
+    <cellStyle name="常规 2 2 3 4 3" xfId="115"/>
+    <cellStyle name="常规 2 2 3 5" xfId="116"/>
+    <cellStyle name="常规 2 2 4" xfId="117"/>
+    <cellStyle name="常规 2 2 4 2" xfId="118"/>
+    <cellStyle name="常规 2 2 4 2 2" xfId="119"/>
+    <cellStyle name="常规 2 2 4 2 2 2" xfId="120"/>
+    <cellStyle name="常规 2 2 4 2 2 3" xfId="121"/>
+    <cellStyle name="常规 2 2 4 2 3" xfId="122"/>
+    <cellStyle name="常规 2 2 4 3" xfId="123"/>
+    <cellStyle name="常规 2 2 4 3 2" xfId="124"/>
+    <cellStyle name="常规 2 2 4 3 3" xfId="125"/>
+    <cellStyle name="常规 2 2 4 4" xfId="126"/>
+    <cellStyle name="常规 2 2 5" xfId="127"/>
+    <cellStyle name="常规 2 2 5 2" xfId="128"/>
+    <cellStyle name="常规 2 2 5 2 2" xfId="129"/>
+    <cellStyle name="常规 2 2 5 2 3" xfId="130"/>
+    <cellStyle name="常规 2 2 5 3" xfId="131"/>
+    <cellStyle name="常规 2 2 6" xfId="132"/>
+    <cellStyle name="常规 2 2 6 2" xfId="133"/>
+    <cellStyle name="常规 2 2 6 3" xfId="134"/>
+    <cellStyle name="常规 2 2 7" xfId="135"/>
+    <cellStyle name="常规 2 3" xfId="136"/>
+    <cellStyle name="常规 2 3 2" xfId="137"/>
+    <cellStyle name="常规 2 3 2 2" xfId="138"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="139"/>
+    <cellStyle name="常规 2 3 2 2 2 2" xfId="140"/>
+    <cellStyle name="常规 2 3 2 2 2 2 2" xfId="141"/>
+    <cellStyle name="常规 2 3 2 2 2 2 2 2" xfId="142"/>
+    <cellStyle name="常规 2 3 2 2 2 2 2 3" xfId="143"/>
+    <cellStyle name="常规 2 3 2 2 2 2 3" xfId="144"/>
+    <cellStyle name="常规 2 3 2 2 2 3" xfId="145"/>
+    <cellStyle name="常规 2 3 2 2 2 3 2" xfId="146"/>
+    <cellStyle name="常规 2 3 2 2 2 3 3" xfId="147"/>
+    <cellStyle name="常规 2 3 2 2 2 4" xfId="148"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="149"/>
+    <cellStyle name="常规 2 3 2 2 3 2" xfId="150"/>
+    <cellStyle name="常规 2 3 2 2 3 2 2" xfId="151"/>
+    <cellStyle name="常规 2 3 2 2 3 2 3" xfId="152"/>
+    <cellStyle name="常规 2 3 2 2 3 3" xfId="153"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="154"/>
+    <cellStyle name="常规 2 3 2 2 4 2" xfId="155"/>
+    <cellStyle name="常规 2 3 2 2 4 3" xfId="156"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="157"/>
+    <cellStyle name="常规 2 3 2 3" xfId="158"/>
+    <cellStyle name="常规 2 3 2 3 2" xfId="159"/>
+    <cellStyle name="常规 2 3 2 3 2 2" xfId="160"/>
+    <cellStyle name="常规 2 3 2 3 2 2 2" xfId="161"/>
+    <cellStyle name="常规 2 3 2 3 2 2 3" xfId="162"/>
+    <cellStyle name="常规 2 3 2 3 2 3" xfId="163"/>
+    <cellStyle name="常规 2 3 2 3 3" xfId="164"/>
+    <cellStyle name="常规 2 3 2 3 3 2" xfId="165"/>
+    <cellStyle name="常规 2 3 2 3 3 3" xfId="166"/>
+    <cellStyle name="常规 2 3 2 3 4" xfId="167"/>
+    <cellStyle name="常规 2 3 2 4" xfId="168"/>
+    <cellStyle name="常规 2 3 2 4 2" xfId="169"/>
+    <cellStyle name="常规 2 3 2 4 2 2" xfId="170"/>
+    <cellStyle name="常规 2 3 2 4 2 3" xfId="171"/>
+    <cellStyle name="常规 2 3 2 4 3" xfId="172"/>
+    <cellStyle name="常规 2 3 2 5" xfId="173"/>
+    <cellStyle name="常规 2 3 2 5 2" xfId="174"/>
+    <cellStyle name="常规 2 3 2 5 3" xfId="175"/>
+    <cellStyle name="常规 2 3 2 6" xfId="176"/>
+    <cellStyle name="常规 2 3 3" xfId="177"/>
+    <cellStyle name="常规 2 3 3 2" xfId="178"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="179"/>
+    <cellStyle name="常规 2 3 3 2 2 2" xfId="180"/>
+    <cellStyle name="常规 2 3 3 2 2 2 2" xfId="181"/>
+    <cellStyle name="常规 2 3 3 2 2 2 3" xfId="182"/>
+    <cellStyle name="常规 2 3 3 2 2 3" xfId="183"/>
+    <cellStyle name="常规 2 3 3 2 3" xfId="184"/>
+    <cellStyle name="常规 2 3 3 2 3 2" xfId="185"/>
+    <cellStyle name="常规 2 3 3 2 3 3" xfId="186"/>
+    <cellStyle name="常规 2 3 3 2 4" xfId="187"/>
+    <cellStyle name="常规 2 3 3 3" xfId="188"/>
+    <cellStyle name="常规 2 3 3 3 2" xfId="189"/>
+    <cellStyle name="常规 2 3 3 3 2 2" xfId="190"/>
+    <cellStyle name="常规 2 3 3 3 2 3" xfId="191"/>
+    <cellStyle name="常规 2 3 3 3 3" xfId="192"/>
+    <cellStyle name="常规 2 3 3 4" xfId="193"/>
+    <cellStyle name="常规 2 3 3 4 2" xfId="194"/>
+    <cellStyle name="常规 2 3 3 4 3" xfId="195"/>
+    <cellStyle name="常规 2 3 3 5" xfId="196"/>
+    <cellStyle name="常规 2 3 4" xfId="197"/>
+    <cellStyle name="常规 2 3 4 2" xfId="198"/>
+    <cellStyle name="常规 2 3 4 2 2" xfId="199"/>
+    <cellStyle name="常规 2 3 4 2 2 2" xfId="200"/>
+    <cellStyle name="常规 2 3 4 2 2 3" xfId="201"/>
+    <cellStyle name="常规 2 3 4 2 3" xfId="202"/>
+    <cellStyle name="常规 2 3 4 3" xfId="203"/>
+    <cellStyle name="常规 2 3 4 3 2" xfId="204"/>
+    <cellStyle name="常规 2 3 4 3 3" xfId="205"/>
+    <cellStyle name="常规 2 3 4 4" xfId="206"/>
+    <cellStyle name="常规 2 3 5" xfId="207"/>
+    <cellStyle name="常规 2 3 5 2" xfId="208"/>
+    <cellStyle name="常规 2 3 5 2 2" xfId="209"/>
+    <cellStyle name="常规 2 3 5 2 3" xfId="210"/>
+    <cellStyle name="常规 2 3 5 3" xfId="211"/>
+    <cellStyle name="常规 2 3 6" xfId="212"/>
+    <cellStyle name="常规 2 3 6 2" xfId="213"/>
+    <cellStyle name="常规 2 3 6 3" xfId="214"/>
+    <cellStyle name="常规 2 3 7" xfId="215"/>
+    <cellStyle name="常规 2 4" xfId="216"/>
+    <cellStyle name="常规 2 4 2" xfId="217"/>
+    <cellStyle name="常规 2 4 2 2" xfId="218"/>
+    <cellStyle name="常规 2 4 2 2 2" xfId="219"/>
+    <cellStyle name="常规 2 4 2 2 2 2" xfId="220"/>
+    <cellStyle name="常规 2 4 2 2 2 2 2" xfId="221"/>
+    <cellStyle name="常规 2 4 2 2 2 2 3" xfId="222"/>
+    <cellStyle name="常规 2 4 2 2 2 3" xfId="223"/>
+    <cellStyle name="常规 2 4 2 2 3" xfId="224"/>
+    <cellStyle name="常规 2 4 2 2 3 2" xfId="225"/>
+    <cellStyle name="常规 2 4 2 2 3 3" xfId="226"/>
+    <cellStyle name="常规 2 4 2 2 4" xfId="227"/>
+    <cellStyle name="常规 2 4 2 3" xfId="228"/>
+    <cellStyle name="常规 2 4 2 3 2" xfId="229"/>
+    <cellStyle name="常规 2 4 2 3 2 2" xfId="230"/>
+    <cellStyle name="常规 2 4 2 3 2 3" xfId="231"/>
+    <cellStyle name="常规 2 4 2 3 3" xfId="232"/>
+    <cellStyle name="常规 2 4 2 4" xfId="233"/>
+    <cellStyle name="常规 2 4 2 4 2" xfId="234"/>
+    <cellStyle name="常规 2 4 2 4 3" xfId="235"/>
+    <cellStyle name="常规 2 4 2 5" xfId="236"/>
+    <cellStyle name="常规 2 4 3" xfId="237"/>
+    <cellStyle name="常规 2 4 3 2" xfId="238"/>
+    <cellStyle name="常规 2 4 3 2 2" xfId="239"/>
+    <cellStyle name="常规 2 4 3 2 2 2" xfId="240"/>
+    <cellStyle name="常规 2 4 3 2 2 3" xfId="241"/>
+    <cellStyle name="常规 2 4 3 2 3" xfId="242"/>
+    <cellStyle name="常规 2 4 3 3" xfId="243"/>
+    <cellStyle name="常规 2 4 3 3 2" xfId="244"/>
+    <cellStyle name="常规 2 4 3 3 3" xfId="245"/>
+    <cellStyle name="常规 2 4 3 4" xfId="246"/>
+    <cellStyle name="常规 2 4 4" xfId="247"/>
+    <cellStyle name="常规 2 4 4 2" xfId="248"/>
+    <cellStyle name="常规 2 4 4 2 2" xfId="249"/>
+    <cellStyle name="常规 2 4 4 2 3" xfId="250"/>
+    <cellStyle name="常规 2 4 4 3" xfId="251"/>
+    <cellStyle name="常规 2 4 5" xfId="252"/>
+    <cellStyle name="常规 2 4 5 2" xfId="253"/>
+    <cellStyle name="常规 2 4 5 3" xfId="254"/>
+    <cellStyle name="常规 2 4 6" xfId="255"/>
+    <cellStyle name="常规 2 5" xfId="256"/>
+    <cellStyle name="常规 2 5 2" xfId="257"/>
+    <cellStyle name="常规 2 5 2 2" xfId="258"/>
+    <cellStyle name="常规 2 5 2 2 2" xfId="259"/>
+    <cellStyle name="常规 2 5 2 2 2 2" xfId="260"/>
+    <cellStyle name="常规 2 5 2 2 2 3" xfId="261"/>
+    <cellStyle name="常规 2 5 2 2 3" xfId="262"/>
+    <cellStyle name="常规 2 5 2 3" xfId="263"/>
+    <cellStyle name="常规 2 5 2 3 2" xfId="264"/>
+    <cellStyle name="常规 2 5 2 3 3" xfId="265"/>
+    <cellStyle name="常规 2 5 2 4" xfId="266"/>
+    <cellStyle name="常规 2 5 3" xfId="267"/>
+    <cellStyle name="常规 2 5 3 2" xfId="268"/>
+    <cellStyle name="常规 2 5 3 2 2" xfId="269"/>
+    <cellStyle name="常规 2 5 3 2 3" xfId="270"/>
+    <cellStyle name="常规 2 5 3 3" xfId="271"/>
+    <cellStyle name="常规 2 5 4" xfId="272"/>
+    <cellStyle name="常规 2 5 4 2" xfId="273"/>
+    <cellStyle name="常规 2 5 4 3" xfId="274"/>
+    <cellStyle name="常规 2 5 5" xfId="275"/>
+    <cellStyle name="常规 2 6" xfId="276"/>
+    <cellStyle name="常规 2 6 2" xfId="277"/>
+    <cellStyle name="常规 2 6 2 2" xfId="278"/>
+    <cellStyle name="常规 2 6 2 2 2" xfId="279"/>
+    <cellStyle name="常规 2 6 2 2 3" xfId="280"/>
+    <cellStyle name="常规 2 6 2 3" xfId="281"/>
+    <cellStyle name="常规 2 6 3" xfId="282"/>
+    <cellStyle name="常规 2 6 3 2" xfId="283"/>
+    <cellStyle name="常规 2 6 3 3" xfId="284"/>
+    <cellStyle name="常规 2 6 4" xfId="285"/>
+    <cellStyle name="常规 2 7" xfId="286"/>
+    <cellStyle name="常规 2 7 2" xfId="287"/>
+    <cellStyle name="常规 2 7 2 2" xfId="288"/>
+    <cellStyle name="常规 2 7 2 3" xfId="289"/>
+    <cellStyle name="常规 2 7 3" xfId="290"/>
+    <cellStyle name="常规 2 8" xfId="291"/>
+    <cellStyle name="常规 2 8 2" xfId="292"/>
+    <cellStyle name="常规 2 8 3" xfId="293"/>
+    <cellStyle name="常规 2 9" xfId="294"/>
+    <cellStyle name="常规 3" xfId="295"/>
+    <cellStyle name="常规 3 2" xfId="296"/>
+    <cellStyle name="常规 3 2 2" xfId="297"/>
+    <cellStyle name="常规 3 2 2 2" xfId="298"/>
+    <cellStyle name="常规 3 2 2 2 2" xfId="299"/>
+    <cellStyle name="常规 3 2 2 2 2 2" xfId="300"/>
+    <cellStyle name="常规 3 2 2 2 2 2 2" xfId="301"/>
+    <cellStyle name="常规 3 2 2 2 2 2 3" xfId="302"/>
+    <cellStyle name="常规 3 2 2 2 2 3" xfId="303"/>
+    <cellStyle name="常规 3 2 2 2 3" xfId="304"/>
+    <cellStyle name="常规 3 2 2 2 3 2" xfId="305"/>
+    <cellStyle name="常规 3 2 2 2 3 3" xfId="306"/>
+    <cellStyle name="常规 3 2 2 2 4" xfId="307"/>
+    <cellStyle name="常规 3 2 2 3" xfId="308"/>
+    <cellStyle name="常规 3 2 2 3 2" xfId="309"/>
+    <cellStyle name="常规 3 2 2 3 2 2" xfId="310"/>
+    <cellStyle name="常规 3 2 2 3 2 3" xfId="311"/>
+    <cellStyle name="常规 3 2 2 3 3" xfId="312"/>
+    <cellStyle name="常规 3 2 2 4" xfId="313"/>
+    <cellStyle name="常规 3 2 2 4 2" xfId="314"/>
+    <cellStyle name="常规 3 2 2 4 3" xfId="315"/>
+    <cellStyle name="常规 3 2 2 5" xfId="316"/>
+    <cellStyle name="常规 3 2 3" xfId="317"/>
+    <cellStyle name="常规 3 2 3 2" xfId="318"/>
+    <cellStyle name="常规 3 2 3 2 2" xfId="319"/>
+    <cellStyle name="常规 3 2 3 2 2 2" xfId="320"/>
+    <cellStyle name="常规 3 2 3 2 2 3" xfId="321"/>
+    <cellStyle name="常规 3 2 3 2 3" xfId="322"/>
+    <cellStyle name="常规 3 2 3 3" xfId="323"/>
+    <cellStyle name="常规 3 2 3 3 2" xfId="324"/>
+    <cellStyle name="常规 3 2 3 3 3" xfId="325"/>
+    <cellStyle name="常规 3 2 3 4" xfId="326"/>
+    <cellStyle name="常规 3 2 4" xfId="327"/>
+    <cellStyle name="常规 3 2 4 2" xfId="328"/>
+    <cellStyle name="常规 3 2 4 2 2" xfId="329"/>
+    <cellStyle name="常规 3 2 4 2 3" xfId="330"/>
+    <cellStyle name="常规 3 2 4 3" xfId="331"/>
+    <cellStyle name="常规 3 2 5" xfId="332"/>
+    <cellStyle name="常规 3 2 5 2" xfId="333"/>
+    <cellStyle name="常规 3 2 5 3" xfId="334"/>
+    <cellStyle name="常规 3 2 6" xfId="335"/>
+    <cellStyle name="常规 3 3" xfId="336"/>
+    <cellStyle name="常规 3 3 2" xfId="337"/>
+    <cellStyle name="常规 3 3 2 2" xfId="338"/>
+    <cellStyle name="常规 3 3 2 2 2" xfId="339"/>
+    <cellStyle name="常规 3 3 2 2 2 2" xfId="340"/>
+    <cellStyle name="常规 3 3 2 2 2 3" xfId="341"/>
+    <cellStyle name="常规 3 3 2 2 3" xfId="342"/>
+    <cellStyle name="常规 3 3 2 3" xfId="343"/>
+    <cellStyle name="常规 3 3 2 3 2" xfId="344"/>
+    <cellStyle name="常规 3 3 2 3 3" xfId="345"/>
+    <cellStyle name="常规 3 3 2 4" xfId="346"/>
+    <cellStyle name="常规 3 3 3" xfId="347"/>
+    <cellStyle name="常规 3 3 3 2" xfId="348"/>
+    <cellStyle name="常规 3 3 3 2 2" xfId="349"/>
+    <cellStyle name="常规 3 3 3 2 3" xfId="350"/>
+    <cellStyle name="常规 3 3 3 3" xfId="351"/>
+    <cellStyle name="常规 3 3 4" xfId="352"/>
+    <cellStyle name="常规 3 3 4 2" xfId="353"/>
+    <cellStyle name="常规 3 3 4 3" xfId="354"/>
+    <cellStyle name="常规 3 3 5" xfId="355"/>
+    <cellStyle name="常规 3 4" xfId="356"/>
+    <cellStyle name="常规 3 4 2" xfId="357"/>
+    <cellStyle name="常规 3 4 2 2" xfId="358"/>
+    <cellStyle name="常规 3 4 2 2 2" xfId="359"/>
+    <cellStyle name="常规 3 4 2 2 3" xfId="360"/>
+    <cellStyle name="常规 3 4 2 3" xfId="361"/>
+    <cellStyle name="常规 3 4 3" xfId="362"/>
+    <cellStyle name="常规 3 4 3 2" xfId="363"/>
+    <cellStyle name="常规 3 4 3 3" xfId="364"/>
+    <cellStyle name="常规 3 4 4" xfId="365"/>
+    <cellStyle name="常规 3 5" xfId="366"/>
+    <cellStyle name="常规 3 5 2" xfId="367"/>
+    <cellStyle name="常规 3 5 2 2" xfId="368"/>
+    <cellStyle name="常规 3 5 2 3" xfId="369"/>
+    <cellStyle name="常规 3 5 3" xfId="370"/>
+    <cellStyle name="常规 3 6" xfId="371"/>
+    <cellStyle name="常规 3 6 2" xfId="372"/>
+    <cellStyle name="常规 3 6 3" xfId="373"/>
+    <cellStyle name="常规 3 7" xfId="374"/>
+    <cellStyle name="常规 4" xfId="375"/>
+    <cellStyle name="常规 4 2" xfId="376"/>
+    <cellStyle name="常规 4 2 2" xfId="377"/>
+    <cellStyle name="常规 4 2 2 2" xfId="378"/>
+    <cellStyle name="常规 4 2 2 2 2" xfId="379"/>
+    <cellStyle name="常规 4 2 2 2 2 2" xfId="380"/>
+    <cellStyle name="常规 4 2 2 2 2 2 2" xfId="381"/>
+    <cellStyle name="常规 4 2 2 2 2 2 3" xfId="382"/>
+    <cellStyle name="常规 4 2 2 2 2 3" xfId="383"/>
+    <cellStyle name="常规 4 2 2 2 3" xfId="384"/>
+    <cellStyle name="常规 4 2 2 2 3 2" xfId="385"/>
+    <cellStyle name="常规 4 2 2 2 3 3" xfId="386"/>
+    <cellStyle name="常规 4 2 2 2 4" xfId="387"/>
+    <cellStyle name="常规 4 2 2 3" xfId="388"/>
+    <cellStyle name="常规 4 2 2 3 2" xfId="389"/>
+    <cellStyle name="常规 4 2 2 3 2 2" xfId="390"/>
+    <cellStyle name="常规 4 2 2 3 2 3" xfId="391"/>
+    <cellStyle name="常规 4 2 2 3 3" xfId="392"/>
+    <cellStyle name="常规 4 2 2 4" xfId="393"/>
+    <cellStyle name="常规 4 2 2 4 2" xfId="394"/>
+    <cellStyle name="常规 4 2 2 4 3" xfId="395"/>
+    <cellStyle name="常规 4 2 2 5" xfId="396"/>
+    <cellStyle name="常规 4 2 3" xfId="397"/>
+    <cellStyle name="常规 4 2 3 2" xfId="398"/>
+    <cellStyle name="常规 4 2 3 2 2" xfId="399"/>
+    <cellStyle name="常规 4 2 3 2 2 2" xfId="400"/>
+    <cellStyle name="常规 4 2 3 2 2 3" xfId="401"/>
+    <cellStyle name="常规 4 2 3 2 3" xfId="402"/>
+    <cellStyle name="常规 4 2 3 3" xfId="403"/>
+    <cellStyle name="常规 4 2 3 3 2" xfId="404"/>
+    <cellStyle name="常规 4 2 3 3 3" xfId="405"/>
+    <cellStyle name="常规 4 2 3 4" xfId="406"/>
+    <cellStyle name="常规 4 2 4" xfId="407"/>
+    <cellStyle name="常规 4 2 4 2" xfId="408"/>
+    <cellStyle name="常规 4 2 4 2 2" xfId="409"/>
+    <cellStyle name="常规 4 2 4 2 3" xfId="410"/>
+    <cellStyle name="常规 4 2 4 3" xfId="411"/>
+    <cellStyle name="常规 4 2 5" xfId="412"/>
+    <cellStyle name="常规 4 2 5 2" xfId="413"/>
+    <cellStyle name="常规 4 2 5 3" xfId="414"/>
+    <cellStyle name="常规 4 2 6" xfId="415"/>
+    <cellStyle name="常规 4 3" xfId="416"/>
+    <cellStyle name="常规 4 3 2" xfId="417"/>
+    <cellStyle name="常规 4 3 2 2" xfId="418"/>
+    <cellStyle name="常规 4 3 2 2 2" xfId="419"/>
+    <cellStyle name="常规 4 3 2 2 2 2" xfId="420"/>
+    <cellStyle name="常规 4 3 2 2 2 3" xfId="421"/>
+    <cellStyle name="常规 4 3 2 2 3" xfId="422"/>
+    <cellStyle name="常规 4 3 2 3" xfId="423"/>
+    <cellStyle name="常规 4 3 2 3 2" xfId="424"/>
+    <cellStyle name="常规 4 3 2 3 3" xfId="425"/>
+    <cellStyle name="常规 4 3 2 4" xfId="426"/>
+    <cellStyle name="常规 4 3 3" xfId="427"/>
+    <cellStyle name="常规 4 3 3 2" xfId="428"/>
+    <cellStyle name="常规 4 3 3 2 2" xfId="429"/>
+    <cellStyle name="常规 4 3 3 2 3" xfId="430"/>
+    <cellStyle name="常规 4 3 3 3" xfId="431"/>
+    <cellStyle name="常规 4 3 4" xfId="432"/>
+    <cellStyle name="常规 4 3 4 2" xfId="433"/>
+    <cellStyle name="常规 4 3 4 3" xfId="434"/>
+    <cellStyle name="常规 4 3 5" xfId="435"/>
+    <cellStyle name="常规 4 4" xfId="436"/>
+    <cellStyle name="常规 4 4 2" xfId="437"/>
+    <cellStyle name="常规 4 4 2 2" xfId="438"/>
+    <cellStyle name="常规 4 4 2 2 2" xfId="439"/>
+    <cellStyle name="常规 4 4 2 2 3" xfId="440"/>
+    <cellStyle name="常规 4 4 2 3" xfId="441"/>
+    <cellStyle name="常规 4 4 3" xfId="442"/>
+    <cellStyle name="常规 4 4 3 2" xfId="443"/>
+    <cellStyle name="常规 4 4 3 3" xfId="444"/>
+    <cellStyle name="常规 4 4 4" xfId="445"/>
+    <cellStyle name="常规 4 5" xfId="446"/>
+    <cellStyle name="常规 4 5 2" xfId="447"/>
+    <cellStyle name="常规 4 5 2 2" xfId="448"/>
+    <cellStyle name="常规 4 5 2 3" xfId="449"/>
+    <cellStyle name="常规 4 5 3" xfId="450"/>
+    <cellStyle name="常规 4 6" xfId="451"/>
+    <cellStyle name="常规 4 6 2" xfId="452"/>
+    <cellStyle name="常规 4 6 3" xfId="453"/>
+    <cellStyle name="常规 4 7" xfId="454"/>
+    <cellStyle name="常规 5" xfId="455"/>
+    <cellStyle name="常规 5 2" xfId="456"/>
+    <cellStyle name="常规 5 2 2" xfId="457"/>
+    <cellStyle name="常规 5 2 2 2" xfId="458"/>
+    <cellStyle name="常规 5 2 2 2 2" xfId="459"/>
+    <cellStyle name="常规 5 2 2 2 2 2" xfId="460"/>
+    <cellStyle name="常规 5 2 2 2 2 3" xfId="461"/>
+    <cellStyle name="常规 5 2 2 2 3" xfId="462"/>
+    <cellStyle name="常规 5 2 2 3" xfId="463"/>
+    <cellStyle name="常规 5 2 2 3 2" xfId="464"/>
+    <cellStyle name="常规 5 2 2 3 3" xfId="465"/>
+    <cellStyle name="常规 5 2 2 4" xfId="466"/>
+    <cellStyle name="常规 5 2 3" xfId="467"/>
+    <cellStyle name="常规 5 2 3 2" xfId="468"/>
+    <cellStyle name="常规 5 2 3 2 2" xfId="469"/>
+    <cellStyle name="常规 5 2 3 2 3" xfId="470"/>
+    <cellStyle name="常规 5 2 3 3" xfId="471"/>
+    <cellStyle name="常规 5 2 4" xfId="472"/>
+    <cellStyle name="常规 5 2 4 2" xfId="473"/>
+    <cellStyle name="常规 5 2 4 3" xfId="474"/>
+    <cellStyle name="常规 5 2 5" xfId="475"/>
+    <cellStyle name="常规 5 3" xfId="476"/>
+    <cellStyle name="常规 5 3 2" xfId="477"/>
+    <cellStyle name="常规 5 3 2 2" xfId="478"/>
+    <cellStyle name="常规 5 3 2 2 2" xfId="479"/>
+    <cellStyle name="常规 5 3 2 2 3" xfId="480"/>
+    <cellStyle name="常规 5 3 2 3" xfId="481"/>
+    <cellStyle name="常规 5 3 3" xfId="482"/>
+    <cellStyle name="常规 5 3 3 2" xfId="483"/>
+    <cellStyle name="常规 5 3 3 3" xfId="484"/>
+    <cellStyle name="常规 5 3 4" xfId="485"/>
+    <cellStyle name="常规 5 4" xfId="486"/>
+    <cellStyle name="常规 5 4 2" xfId="487"/>
+    <cellStyle name="常规 5 4 2 2" xfId="488"/>
+    <cellStyle name="常规 5 4 2 3" xfId="489"/>
+    <cellStyle name="常规 5 4 3" xfId="490"/>
+    <cellStyle name="常规 5 5" xfId="491"/>
+    <cellStyle name="常规 5 5 2" xfId="492"/>
+    <cellStyle name="常规 5 5 3" xfId="493"/>
+    <cellStyle name="常规 5 6" xfId="494"/>
+    <cellStyle name="常规 6" xfId="495"/>
+    <cellStyle name="常规 6 2" xfId="496"/>
+    <cellStyle name="常规 6 2 2" xfId="497"/>
+    <cellStyle name="常规 6 2 2 2" xfId="498"/>
+    <cellStyle name="常规 6 2 2 2 2" xfId="499"/>
+    <cellStyle name="常规 6 2 2 2 3" xfId="500"/>
+    <cellStyle name="常规 6 2 2 3" xfId="501"/>
+    <cellStyle name="常规 6 2 3" xfId="502"/>
+    <cellStyle name="常规 6 2 3 2" xfId="503"/>
+    <cellStyle name="常规 6 2 3 3" xfId="504"/>
+    <cellStyle name="常规 6 2 4" xfId="505"/>
+    <cellStyle name="常规 6 3" xfId="506"/>
+    <cellStyle name="常规 6 3 2" xfId="507"/>
+    <cellStyle name="常规 6 3 2 2" xfId="508"/>
+    <cellStyle name="常规 6 3 2 3" xfId="509"/>
+    <cellStyle name="常规 6 3 3" xfId="510"/>
+    <cellStyle name="常规 6 4" xfId="511"/>
+    <cellStyle name="常规 6 4 2" xfId="512"/>
+    <cellStyle name="常规 6 4 3" xfId="513"/>
+    <cellStyle name="常规 6 5" xfId="514"/>
+    <cellStyle name="常规 7" xfId="515"/>
+    <cellStyle name="常规 7 2" xfId="516"/>
+    <cellStyle name="常规 7 2 2" xfId="517"/>
+    <cellStyle name="常规 7 2 2 2" xfId="518"/>
+    <cellStyle name="常规 7 2 2 3" xfId="519"/>
+    <cellStyle name="常规 7 2 3" xfId="520"/>
+    <cellStyle name="常规 7 3" xfId="521"/>
+    <cellStyle name="常规 7 3 2" xfId="522"/>
+    <cellStyle name="常规 7 3 3" xfId="523"/>
+    <cellStyle name="常规 7 4" xfId="524"/>
+    <cellStyle name="常规 8" xfId="525"/>
+    <cellStyle name="常规 8 2" xfId="526"/>
+    <cellStyle name="常规 8 2 2" xfId="527"/>
+    <cellStyle name="常规 8 2 3" xfId="528"/>
+    <cellStyle name="常规 8 3" xfId="529"/>
+    <cellStyle name="常规 9" xfId="530"/>
+    <cellStyle name="常规 9 2" xfId="531"/>
+    <cellStyle name="常规 9 3" xfId="532"/>
   </cellStyles>
-  <dxfs count="37">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1699,9 +1925,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1750,7 +1973,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1785,7 +2008,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1988,22 +2211,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G243"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="8.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="56.875" style="5" customWidth="1"/>
@@ -2015,7 +2239,7 @@
     <col min="8" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2035,142 +2259,142 @@
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="G2" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:7">
       <c r="A3" s="10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:6">
       <c r="A4" s="12"/>
       <c r="B4" s="13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E4" s="13">
         <v>4</v>
       </c>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" s="3" customFormat="1" spans="1:6">
       <c r="A5" s="12"/>
       <c r="B5" s="13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" s="3" customFormat="1" spans="1:6">
       <c r="A6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>24</v>
       </c>
       <c r="E6" s="13">
         <v>3</v>
       </c>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" s="3" customFormat="1" spans="1:7">
       <c r="A7" s="12" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:7">
       <c r="A8" s="12"/>
       <c r="B8" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:6">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -2178,7 +2402,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" s="3" customFormat="1" spans="1:6">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -2186,7 +2410,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" s="3" customFormat="1" spans="1:6">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -2194,7 +2418,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" s="3" customFormat="1" spans="1:6">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -2202,7 +2426,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" s="3" customFormat="1" spans="1:6">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -2210,7 +2434,7 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" s="3" customFormat="1" spans="1:6">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -2218,7 +2442,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" s="3" customFormat="1" spans="1:6">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -2226,7 +2450,7 @@
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" s="3" customFormat="1" spans="1:6">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -2234,7 +2458,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" s="3" customFormat="1" spans="1:6">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -2242,7 +2466,7 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" s="3" customFormat="1" spans="1:6">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -2250,7 +2474,7 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" s="3" customFormat="1" spans="1:6">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -2258,7 +2482,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" s="3" customFormat="1" spans="1:6">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -2266,7 +2490,7 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" s="3" customFormat="1" spans="1:6">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -2274,7 +2498,7 @@
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" s="3" customFormat="1" spans="1:6">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -2282,7 +2506,7 @@
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" s="3" customFormat="1" spans="1:6">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -2290,7 +2514,7 @@
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" s="3" customFormat="1" spans="1:6">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -2298,7 +2522,7 @@
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" s="3" customFormat="1" spans="1:6">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -2306,7 +2530,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
     </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" s="3" customFormat="1" spans="1:6">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -2314,7 +2538,7 @@
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
     </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" s="3" customFormat="1" spans="1:6">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -2322,7 +2546,7 @@
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
     </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" s="3" customFormat="1" spans="1:6">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -2330,7 +2554,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
     </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" s="3" customFormat="1" spans="1:6">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -2338,7 +2562,7 @@
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
     </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" s="3" customFormat="1" spans="1:6">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -2346,7 +2570,7 @@
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
     </row>
-    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" s="3" customFormat="1" spans="1:6">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -2354,7 +2578,7 @@
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" s="3" customFormat="1" spans="1:6">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -2362,7 +2586,7 @@
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
     </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" s="3" customFormat="1" spans="1:6">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -2370,7 +2594,7 @@
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
     </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" s="3" customFormat="1" spans="1:6">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -2378,7 +2602,7 @@
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
     </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" s="3" customFormat="1" spans="1:6">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -2386,7 +2610,7 @@
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
     </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" s="3" customFormat="1" spans="1:6">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -2394,7 +2618,7 @@
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" s="3" customFormat="1" spans="1:6">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -2402,7 +2626,7 @@
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
     </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" s="3" customFormat="1" spans="1:6">
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -2410,7 +2634,7 @@
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
     </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" s="3" customFormat="1" spans="1:6">
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -2418,7 +2642,7 @@
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
     </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" s="3" customFormat="1" spans="1:6">
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -2426,7 +2650,7 @@
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
     </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" s="3" customFormat="1" spans="1:6">
       <c r="A41" s="12"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -2434,7 +2658,7 @@
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
     </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" s="3" customFormat="1" spans="1:6">
       <c r="A42" s="12"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -2442,7 +2666,7 @@
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
     </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" s="3" customFormat="1" spans="1:6">
       <c r="A43" s="12"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -2450,7 +2674,7 @@
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
     </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" s="3" customFormat="1" spans="1:6">
       <c r="A44" s="12"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -2458,7 +2682,7 @@
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
     </row>
-    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" s="3" customFormat="1" spans="1:6">
       <c r="A45" s="12"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -2466,7 +2690,7 @@
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
     </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" s="3" customFormat="1" spans="1:6">
       <c r="A46" s="12"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -2474,7 +2698,7 @@
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
     </row>
-    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" s="3" customFormat="1" spans="1:6">
       <c r="A47" s="12"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -2482,7 +2706,7 @@
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
     </row>
-    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" s="3" customFormat="1" spans="1:6">
       <c r="A48" s="12"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -2490,7 +2714,7 @@
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
     </row>
-    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" s="3" customFormat="1" spans="1:6">
       <c r="A49" s="12"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -2498,7 +2722,7 @@
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
     </row>
-    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" s="3" customFormat="1" spans="1:6">
       <c r="A50" s="12"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -2506,7 +2730,7 @@
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
     </row>
-    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" s="3" customFormat="1" spans="1:6">
       <c r="A51" s="12"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -2514,7 +2738,7 @@
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
     </row>
-    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" s="3" customFormat="1" spans="1:6">
       <c r="A52" s="12"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -2522,7 +2746,7 @@
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
     </row>
-    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" s="3" customFormat="1" spans="1:6">
       <c r="A53" s="12"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -2530,7 +2754,7 @@
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
     </row>
-    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" s="3" customFormat="1" spans="1:6">
       <c r="A54" s="12"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -2538,7 +2762,7 @@
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
     </row>
-    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" s="3" customFormat="1" spans="1:6">
       <c r="A55" s="12"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
@@ -2546,7 +2770,7 @@
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
     </row>
-    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" s="3" customFormat="1" spans="1:6">
       <c r="A56" s="12"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -2554,7 +2778,7 @@
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
     </row>
-    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" s="3" customFormat="1" spans="1:6">
       <c r="A57" s="12"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -2562,7 +2786,7 @@
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
     </row>
-    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" s="3" customFormat="1" spans="1:6">
       <c r="A58" s="12"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
@@ -2570,7 +2794,7 @@
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
     </row>
-    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" s="3" customFormat="1" spans="1:6">
       <c r="A59" s="12"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -2578,7 +2802,7 @@
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
     </row>
-    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" s="3" customFormat="1" spans="1:6">
       <c r="A60" s="12"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -2586,7 +2810,7 @@
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
     </row>
-    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" s="3" customFormat="1" spans="1:6">
       <c r="A61" s="12"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -2594,7 +2818,7 @@
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
     </row>
-    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" s="3" customFormat="1" spans="1:6">
       <c r="A62" s="12"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
@@ -2602,7 +2826,7 @@
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
     </row>
-    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" s="3" customFormat="1" spans="1:6">
       <c r="A63" s="12"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -2610,7 +2834,7 @@
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
     </row>
-    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" s="3" customFormat="1" spans="1:6">
       <c r="A64" s="12"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
@@ -2618,7 +2842,7 @@
       <c r="E64" s="13"/>
       <c r="F64" s="13"/>
     </row>
-    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" s="3" customFormat="1" spans="1:6">
       <c r="A65" s="12"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -2626,7 +2850,7 @@
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
     </row>
-    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" s="3" customFormat="1" spans="1:6">
       <c r="A66" s="12"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -2634,7 +2858,7 @@
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
     </row>
-    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" s="3" customFormat="1" spans="1:6">
       <c r="A67" s="12"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -2642,7 +2866,7 @@
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
     </row>
-    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" s="3" customFormat="1" spans="1:6">
       <c r="A68" s="12"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -2650,7 +2874,7 @@
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
     </row>
-    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" s="3" customFormat="1" spans="1:6">
       <c r="A69" s="12"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -2658,7 +2882,7 @@
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
     </row>
-    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" s="3" customFormat="1" spans="1:6">
       <c r="A70" s="12"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -2666,7 +2890,7 @@
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
     </row>
-    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" s="3" customFormat="1" spans="1:6">
       <c r="A71" s="12"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -2674,7 +2898,7 @@
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
     </row>
-    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" s="3" customFormat="1" spans="1:6">
       <c r="A72" s="12"/>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
@@ -2682,7 +2906,7 @@
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
     </row>
-    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" s="3" customFormat="1" spans="1:6">
       <c r="A73" s="12"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
@@ -2690,7 +2914,7 @@
       <c r="E73" s="13"/>
       <c r="F73" s="13"/>
     </row>
-    <row r="74" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" s="3" customFormat="1" spans="1:6">
       <c r="A74" s="12"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
@@ -2698,7 +2922,7 @@
       <c r="E74" s="13"/>
       <c r="F74" s="13"/>
     </row>
-    <row r="75" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" s="3" customFormat="1" spans="1:6">
       <c r="A75" s="12"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
@@ -2706,169 +2930,169 @@
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
     </row>
-    <row r="76" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" s="3" customFormat="1"/>
+    <row r="77" s="3" customFormat="1" spans="2:6">
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
     </row>
-    <row r="78" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" s="3" customFormat="1" spans="2:6">
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
     </row>
-    <row r="79" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" s="3" customFormat="1" spans="2:6">
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
     </row>
-    <row r="80" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" s="3" customFormat="1" spans="2:6">
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
     </row>
-    <row r="81" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" s="3" customFormat="1" spans="2:6">
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
       <c r="F81" s="13"/>
     </row>
-    <row r="82" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" s="3" customFormat="1" spans="2:6">
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
       <c r="F82" s="13"/>
     </row>
-    <row r="83" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" s="3" customFormat="1" spans="2:6">
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
       <c r="F83" s="13"/>
     </row>
-    <row r="84" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" s="3" customFormat="1" spans="2:6">
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
       <c r="F84" s="13"/>
     </row>
-    <row r="85" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" s="3" customFormat="1" spans="2:6">
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
       <c r="F85" s="13"/>
     </row>
-    <row r="86" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" s="3" customFormat="1" spans="2:6">
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13"/>
       <c r="F86" s="13"/>
     </row>
-    <row r="87" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" s="3" customFormat="1" spans="2:6">
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
       <c r="E87" s="13"/>
       <c r="F87" s="13"/>
     </row>
-    <row r="88" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" s="3" customFormat="1" spans="2:6">
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
       <c r="F88" s="13"/>
     </row>
-    <row r="89" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" s="3" customFormat="1" spans="2:6">
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13"/>
       <c r="F89" s="13"/>
     </row>
-    <row r="90" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" s="3" customFormat="1" spans="2:6">
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
       <c r="F90" s="13"/>
     </row>
-    <row r="91" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" s="3" customFormat="1" spans="2:6">
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
       <c r="E91" s="13"/>
       <c r="F91" s="13"/>
     </row>
-    <row r="92" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" s="3" customFormat="1" spans="2:6">
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
       <c r="E92" s="13"/>
       <c r="F92" s="13"/>
     </row>
-    <row r="93" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" s="3" customFormat="1" spans="2:6">
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
       <c r="E93" s="13"/>
       <c r="F93" s="13"/>
     </row>
-    <row r="94" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" s="3" customFormat="1" spans="2:6">
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
       <c r="E94" s="13"/>
       <c r="F94" s="13"/>
     </row>
-    <row r="95" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" s="3" customFormat="1" spans="2:6">
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
       <c r="F95" s="13"/>
     </row>
-    <row r="96" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" s="3" customFormat="1" spans="2:6">
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
       <c r="F96" s="13"/>
     </row>
-    <row r="97" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" s="3" customFormat="1" spans="2:6">
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
       <c r="E97" s="13"/>
       <c r="F97" s="13"/>
     </row>
-    <row r="98" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" s="3" customFormat="1" ht="18" customHeight="1" spans="2:6">
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
       <c r="E98" s="13"/>
       <c r="F98" s="13"/>
     </row>
-    <row r="99" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" s="3" customFormat="1" ht="18" customHeight="1" spans="2:6">
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
       <c r="E99" s="13"/>
       <c r="F99" s="13"/>
     </row>
-    <row r="100" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" s="3" customFormat="1" spans="1:6">
       <c r="A100" s="12"/>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
@@ -2876,7 +3100,7 @@
       <c r="E100" s="13"/>
       <c r="F100" s="13"/>
     </row>
-    <row r="101" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" s="3" customFormat="1" spans="1:6">
       <c r="A101" s="12"/>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
@@ -2884,7 +3108,7 @@
       <c r="E101" s="13"/>
       <c r="F101" s="13"/>
     </row>
-    <row r="102" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" s="3" customFormat="1" spans="1:6">
       <c r="A102" s="12"/>
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
@@ -2892,7 +3116,7 @@
       <c r="E102" s="13"/>
       <c r="F102" s="13"/>
     </row>
-    <row r="103" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" s="3" customFormat="1" spans="1:6">
       <c r="A103" s="12"/>
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
@@ -2900,7 +3124,7 @@
       <c r="E103" s="13"/>
       <c r="F103" s="13"/>
     </row>
-    <row r="104" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" s="3" customFormat="1" spans="1:6">
       <c r="A104" s="12"/>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
@@ -2908,7 +3132,7 @@
       <c r="E104" s="13"/>
       <c r="F104" s="13"/>
     </row>
-    <row r="105" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" s="3" customFormat="1" spans="1:6">
       <c r="A105" s="12"/>
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
@@ -2916,7 +3140,7 @@
       <c r="E105" s="13"/>
       <c r="F105" s="13"/>
     </row>
-    <row r="106" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" s="3" customFormat="1" spans="1:6">
       <c r="A106" s="12"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
@@ -2924,7 +3148,7 @@
       <c r="E106" s="13"/>
       <c r="F106" s="13"/>
     </row>
-    <row r="107" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" s="3" customFormat="1" spans="1:6">
       <c r="A107" s="12"/>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
@@ -2932,7 +3156,7 @@
       <c r="E107" s="13"/>
       <c r="F107" s="13"/>
     </row>
-    <row r="108" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" s="3" customFormat="1" spans="1:6">
       <c r="A108" s="12"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
@@ -2940,7 +3164,7 @@
       <c r="E108" s="13"/>
       <c r="F108" s="13"/>
     </row>
-    <row r="109" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" s="3" customFormat="1" spans="1:6">
       <c r="A109" s="12"/>
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
@@ -2948,7 +3172,7 @@
       <c r="E109" s="13"/>
       <c r="F109" s="13"/>
     </row>
-    <row r="110" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" s="3" customFormat="1" spans="1:6">
       <c r="A110" s="14"/>
       <c r="B110" s="15"/>
       <c r="C110" s="15"/>
@@ -2956,7 +3180,7 @@
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
     </row>
-    <row r="111" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" s="3" customFormat="1" spans="1:6">
       <c r="A111" s="12"/>
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
@@ -2964,133 +3188,133 @@
       <c r="E111" s="13"/>
       <c r="F111" s="13"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:6">
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
       <c r="D112" s="13"/>
       <c r="E112" s="13"/>
       <c r="F112" s="13"/>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:6">
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
       <c r="E113" s="13"/>
       <c r="F113" s="13"/>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:6">
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
       <c r="E114" s="13"/>
       <c r="F114" s="13"/>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:6">
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
       <c r="D115" s="13"/>
       <c r="E115" s="13"/>
       <c r="F115" s="13"/>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:6">
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
       <c r="D116" s="13"/>
       <c r="E116" s="13"/>
       <c r="F116" s="13"/>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:6">
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
       <c r="D117" s="13"/>
       <c r="E117" s="13"/>
       <c r="F117" s="13"/>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:6">
       <c r="B118" s="13"/>
       <c r="C118" s="13"/>
       <c r="D118" s="13"/>
       <c r="E118" s="13"/>
       <c r="F118" s="13"/>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:6">
       <c r="B119" s="13"/>
       <c r="C119" s="13"/>
       <c r="D119" s="13"/>
       <c r="E119" s="13"/>
       <c r="F119" s="13"/>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:6">
       <c r="B120" s="13"/>
       <c r="C120" s="13"/>
       <c r="D120" s="13"/>
       <c r="E120" s="13"/>
       <c r="F120" s="13"/>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:6">
       <c r="B121" s="13"/>
       <c r="C121" s="13"/>
       <c r="D121" s="13"/>
       <c r="E121" s="13"/>
       <c r="F121" s="13"/>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:6">
       <c r="B122" s="13"/>
       <c r="C122" s="13"/>
       <c r="D122" s="13"/>
       <c r="E122" s="13"/>
       <c r="F122" s="13"/>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:6">
       <c r="B123" s="13"/>
       <c r="C123" s="13"/>
       <c r="D123" s="13"/>
       <c r="E123" s="13"/>
       <c r="F123" s="13"/>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:6">
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
       <c r="D124" s="13"/>
       <c r="E124" s="13"/>
       <c r="F124" s="13"/>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:6">
       <c r="B125" s="13"/>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
       <c r="E125" s="13"/>
       <c r="F125" s="13"/>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:6">
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
       <c r="E126" s="13"/>
       <c r="F126" s="13"/>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:6">
       <c r="B127" s="13"/>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
       <c r="E127" s="13"/>
       <c r="F127" s="16"/>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:6">
       <c r="B128" s="13"/>
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
       <c r="E128" s="13"/>
       <c r="F128" s="13"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:6">
       <c r="B129" s="13"/>
       <c r="C129" s="13"/>
       <c r="D129" s="13"/>
       <c r="E129" s="13"/>
       <c r="F129" s="13"/>
     </row>
-    <row r="130" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" s="3" customFormat="1" spans="1:6">
       <c r="A130" s="12"/>
       <c r="B130" s="13"/>
       <c r="C130" s="13"/>
@@ -3098,7 +3322,7 @@
       <c r="E130" s="13"/>
       <c r="F130" s="13"/>
     </row>
-    <row r="131" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" s="3" customFormat="1" spans="1:6">
       <c r="A131" s="12"/>
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
@@ -3106,7 +3330,7 @@
       <c r="E131" s="13"/>
       <c r="F131" s="13"/>
     </row>
-    <row r="132" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" s="3" customFormat="1" spans="1:6">
       <c r="A132" s="4"/>
       <c r="B132" s="13"/>
       <c r="C132" s="13"/>
@@ -3114,7 +3338,7 @@
       <c r="E132" s="13"/>
       <c r="F132" s="5"/>
     </row>
-    <row r="133" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" s="3" customFormat="1" spans="1:6">
       <c r="A133" s="12"/>
       <c r="B133" s="13"/>
       <c r="C133" s="13"/>
@@ -3122,7 +3346,7 @@
       <c r="E133" s="13"/>
       <c r="F133" s="13"/>
     </row>
-    <row r="134" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" s="3" customFormat="1" spans="1:6">
       <c r="A134" s="12"/>
       <c r="B134" s="13"/>
       <c r="C134" s="13"/>
@@ -3130,7 +3354,7 @@
       <c r="E134" s="13"/>
       <c r="F134" s="13"/>
     </row>
-    <row r="135" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" s="3" customFormat="1" spans="1:6">
       <c r="A135" s="12"/>
       <c r="B135" s="13"/>
       <c r="C135" s="13"/>
@@ -3138,7 +3362,7 @@
       <c r="E135" s="13"/>
       <c r="F135" s="13"/>
     </row>
-    <row r="136" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" s="3" customFormat="1" spans="1:6">
       <c r="A136" s="12"/>
       <c r="B136" s="13"/>
       <c r="C136" s="13"/>
@@ -3146,7 +3370,7 @@
       <c r="E136" s="13"/>
       <c r="F136" s="13"/>
     </row>
-    <row r="137" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" s="3" customFormat="1" spans="1:6">
       <c r="A137" s="12"/>
       <c r="B137" s="13"/>
       <c r="C137" s="13"/>
@@ -3154,7 +3378,7 @@
       <c r="E137" s="13"/>
       <c r="F137" s="13"/>
     </row>
-    <row r="138" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" s="3" customFormat="1" spans="1:6">
       <c r="A138" s="12"/>
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
@@ -3162,7 +3386,7 @@
       <c r="E138" s="13"/>
       <c r="F138" s="13"/>
     </row>
-    <row r="139" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" s="3" customFormat="1" spans="1:6">
       <c r="A139" s="12"/>
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
@@ -3170,7 +3394,7 @@
       <c r="E139" s="17"/>
       <c r="F139" s="13"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6">
       <c r="A140" s="12"/>
       <c r="B140" s="13"/>
       <c r="C140" s="13"/>
@@ -3178,7 +3402,7 @@
       <c r="E140" s="13"/>
       <c r="F140" s="13"/>
     </row>
-    <row r="141" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" s="3" customFormat="1" spans="1:6">
       <c r="A141" s="12"/>
       <c r="B141" s="13"/>
       <c r="C141" s="13"/>
@@ -3186,7 +3410,7 @@
       <c r="E141" s="13"/>
       <c r="F141" s="13"/>
     </row>
-    <row r="142" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" s="3" customFormat="1" spans="1:6">
       <c r="A142" s="12"/>
       <c r="B142" s="13"/>
       <c r="C142" s="13"/>
@@ -3194,7 +3418,7 @@
       <c r="E142" s="13"/>
       <c r="F142" s="13"/>
     </row>
-    <row r="143" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" s="3" customFormat="1" spans="1:6">
       <c r="A143" s="12"/>
       <c r="B143" s="13"/>
       <c r="C143" s="13"/>
@@ -3202,7 +3426,7 @@
       <c r="E143" s="13"/>
       <c r="F143" s="13"/>
     </row>
-    <row r="144" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" s="3" customFormat="1" spans="1:6">
       <c r="A144" s="12"/>
       <c r="B144" s="13"/>
       <c r="C144" s="13"/>
@@ -3210,7 +3434,7 @@
       <c r="E144" s="13"/>
       <c r="F144" s="13"/>
     </row>
-    <row r="145" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" s="3" customFormat="1" spans="1:6">
       <c r="A145" s="12"/>
       <c r="B145" s="13"/>
       <c r="C145" s="13"/>
@@ -3218,7 +3442,7 @@
       <c r="E145" s="13"/>
       <c r="F145" s="13"/>
     </row>
-    <row r="146" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" s="3" customFormat="1" spans="1:6">
       <c r="A146" s="12"/>
       <c r="B146" s="13"/>
       <c r="C146" s="13"/>
@@ -3226,7 +3450,7 @@
       <c r="E146" s="13"/>
       <c r="F146" s="13"/>
     </row>
-    <row r="147" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" s="3" customFormat="1" spans="1:6">
       <c r="A147" s="12"/>
       <c r="B147" s="13"/>
       <c r="C147" s="13"/>
@@ -3234,7 +3458,7 @@
       <c r="E147" s="13"/>
       <c r="F147" s="13"/>
     </row>
-    <row r="148" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" s="3" customFormat="1" spans="1:6">
       <c r="A148" s="12"/>
       <c r="B148" s="13"/>
       <c r="C148" s="13"/>
@@ -3242,7 +3466,7 @@
       <c r="E148" s="13"/>
       <c r="F148" s="13"/>
     </row>
-    <row r="149" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" s="3" customFormat="1" spans="1:6">
       <c r="A149" s="12"/>
       <c r="B149" s="13"/>
       <c r="C149" s="13"/>
@@ -3250,7 +3474,7 @@
       <c r="E149" s="13"/>
       <c r="F149" s="13"/>
     </row>
-    <row r="150" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" s="3" customFormat="1" spans="1:6">
       <c r="A150" s="12"/>
       <c r="B150" s="13"/>
       <c r="C150" s="13"/>
@@ -3258,7 +3482,7 @@
       <c r="E150" s="13"/>
       <c r="F150" s="13"/>
     </row>
-    <row r="151" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" s="3" customFormat="1" spans="1:6">
       <c r="A151" s="12"/>
       <c r="B151" s="13"/>
       <c r="C151" s="13"/>
@@ -3266,7 +3490,7 @@
       <c r="E151" s="13"/>
       <c r="F151" s="13"/>
     </row>
-    <row r="152" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" s="3" customFormat="1" spans="1:6">
       <c r="A152" s="12"/>
       <c r="B152" s="13"/>
       <c r="C152" s="13"/>
@@ -3274,7 +3498,7 @@
       <c r="E152" s="13"/>
       <c r="F152" s="13"/>
     </row>
-    <row r="153" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" s="3" customFormat="1" spans="1:6">
       <c r="A153" s="12"/>
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
@@ -3282,7 +3506,7 @@
       <c r="E153" s="13"/>
       <c r="F153" s="13"/>
     </row>
-    <row r="154" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" s="3" customFormat="1" spans="1:6">
       <c r="A154" s="12"/>
       <c r="B154" s="13"/>
       <c r="C154" s="13"/>
@@ -3290,7 +3514,7 @@
       <c r="E154" s="13"/>
       <c r="F154" s="13"/>
     </row>
-    <row r="155" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" s="3" customFormat="1" spans="1:6">
       <c r="A155" s="12"/>
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
@@ -3298,7 +3522,7 @@
       <c r="E155" s="13"/>
       <c r="F155" s="13"/>
     </row>
-    <row r="156" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" s="3" customFormat="1" spans="1:6">
       <c r="A156" s="4"/>
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
@@ -3306,7 +3530,7 @@
       <c r="E156" s="13"/>
       <c r="F156" s="13"/>
     </row>
-    <row r="157" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" s="3" customFormat="1" spans="1:6">
       <c r="A157" s="4"/>
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
@@ -3314,7 +3538,7 @@
       <c r="E157" s="13"/>
       <c r="F157" s="13"/>
     </row>
-    <row r="158" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" s="3" customFormat="1" spans="1:6">
       <c r="A158" s="4"/>
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
@@ -3322,7 +3546,7 @@
       <c r="E158" s="13"/>
       <c r="F158" s="13"/>
     </row>
-    <row r="159" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" s="3" customFormat="1" spans="1:6">
       <c r="A159" s="4"/>
       <c r="B159" s="13"/>
       <c r="C159" s="13"/>
@@ -3330,7 +3554,7 @@
       <c r="E159" s="13"/>
       <c r="F159" s="13"/>
     </row>
-    <row r="160" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" s="3" customFormat="1" spans="1:6">
       <c r="A160" s="12"/>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
@@ -3338,7 +3562,7 @@
       <c r="E160" s="13"/>
       <c r="F160" s="5"/>
     </row>
-    <row r="161" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" s="3" customFormat="1" spans="1:6">
       <c r="A161" s="12"/>
       <c r="B161" s="13"/>
       <c r="C161" s="13"/>
@@ -3346,7 +3570,7 @@
       <c r="E161" s="13"/>
       <c r="F161" s="5"/>
     </row>
-    <row r="162" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" s="3" customFormat="1" spans="1:6">
       <c r="A162" s="12"/>
       <c r="B162" s="13"/>
       <c r="C162" s="13"/>
@@ -3354,7 +3578,7 @@
       <c r="E162" s="13"/>
       <c r="F162" s="5"/>
     </row>
-    <row r="163" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" s="3" customFormat="1" spans="1:6">
       <c r="A163" s="12"/>
       <c r="B163" s="13"/>
       <c r="C163" s="13"/>
@@ -3362,7 +3586,7 @@
       <c r="E163" s="13"/>
       <c r="F163" s="5"/>
     </row>
-    <row r="164" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="164" customFormat="1" spans="1:6">
       <c r="A164" s="4"/>
       <c r="B164" s="13"/>
       <c r="C164" s="13"/>
@@ -3370,490 +3594,490 @@
       <c r="E164" s="13"/>
       <c r="F164" s="5"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:5">
       <c r="B165" s="13"/>
       <c r="C165" s="13"/>
       <c r="D165" s="13"/>
       <c r="E165" s="13"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:5">
       <c r="B166" s="13"/>
       <c r="C166" s="13"/>
       <c r="D166" s="13"/>
       <c r="E166" s="13"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:5">
       <c r="B167" s="13"/>
       <c r="C167" s="13"/>
       <c r="D167" s="13"/>
       <c r="E167" s="13"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="168" spans="2:4">
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
       <c r="D168" s="13"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:5">
       <c r="A170" s="12"/>
       <c r="B170" s="13"/>
       <c r="C170" s="13"/>
       <c r="D170" s="13"/>
       <c r="E170" s="13"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:5">
       <c r="A172" s="12"/>
       <c r="B172" s="13"/>
       <c r="C172" s="13"/>
       <c r="D172" s="13"/>
       <c r="E172" s="13"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="174" spans="2:5">
       <c r="B174" s="13"/>
       <c r="C174" s="13"/>
       <c r="D174" s="13"/>
       <c r="E174" s="13"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="175" spans="2:5">
       <c r="B175" s="13"/>
       <c r="C175" s="13"/>
       <c r="D175" s="13"/>
       <c r="E175" s="13"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="176" spans="2:5">
       <c r="B176" s="13"/>
       <c r="C176" s="13"/>
       <c r="D176" s="13"/>
       <c r="E176" s="13"/>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:6">
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
       <c r="D178" s="13"/>
       <c r="E178" s="13"/>
       <c r="F178" s="13"/>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="180" spans="2:5">
       <c r="B180" s="13"/>
       <c r="C180" s="13"/>
       <c r="D180" s="13"/>
       <c r="E180" s="13"/>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="181" spans="2:5">
       <c r="B181" s="13"/>
       <c r="C181" s="13"/>
       <c r="D181" s="13"/>
       <c r="E181" s="13"/>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:5">
       <c r="B182" s="13"/>
       <c r="C182" s="13"/>
       <c r="D182" s="13"/>
       <c r="E182" s="13"/>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="183" spans="2:5">
       <c r="B183" s="13"/>
       <c r="C183" s="13"/>
       <c r="D183" s="13"/>
       <c r="E183" s="13"/>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:5">
       <c r="B184" s="13"/>
       <c r="C184" s="13"/>
       <c r="D184" s="13"/>
       <c r="E184" s="13"/>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="185" spans="2:5">
       <c r="B185" s="13"/>
       <c r="C185" s="13"/>
       <c r="D185" s="13"/>
       <c r="E185" s="13"/>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="187" spans="2:6">
       <c r="B187" s="13"/>
       <c r="C187" s="13"/>
       <c r="D187" s="13"/>
       <c r="E187" s="13"/>
       <c r="F187" s="13"/>
     </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="189" spans="2:6">
       <c r="B189" s="13"/>
       <c r="C189" s="13"/>
       <c r="D189" s="13"/>
       <c r="E189" s="13"/>
       <c r="F189" s="13"/>
     </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="190" spans="2:5">
       <c r="B190" s="13"/>
       <c r="C190" s="13"/>
       <c r="D190" s="13"/>
       <c r="E190" s="13"/>
     </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="191" spans="2:5">
       <c r="B191" s="13"/>
       <c r="C191" s="13"/>
       <c r="D191" s="13"/>
       <c r="E191" s="13"/>
     </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:5">
       <c r="B192" s="13"/>
       <c r="C192" s="13"/>
       <c r="D192" s="13"/>
       <c r="E192" s="13"/>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="194" spans="2:6">
       <c r="B194" s="13"/>
       <c r="C194" s="13"/>
       <c r="D194" s="13"/>
       <c r="E194" s="13"/>
       <c r="F194" s="13"/>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="196" spans="2:6">
       <c r="B196" s="13"/>
       <c r="C196" s="13"/>
       <c r="D196" s="13"/>
       <c r="E196" s="13"/>
       <c r="F196" s="13"/>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="197" spans="2:6">
       <c r="B197" s="13"/>
       <c r="C197" s="13"/>
       <c r="D197" s="13"/>
       <c r="E197" s="13"/>
       <c r="F197" s="13"/>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="199" spans="4:4">
       <c r="D199" s="13"/>
     </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="200" spans="4:4">
       <c r="D200" s="13"/>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="201" spans="4:5">
       <c r="D201" s="18"/>
       <c r="E201" s="19"/>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="202" spans="4:5">
       <c r="D202" s="19"/>
       <c r="E202" s="18"/>
     </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="203" spans="4:5">
       <c r="D203" s="19"/>
       <c r="E203" s="19"/>
     </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="204" spans="2:5">
       <c r="B204" s="13"/>
       <c r="C204" s="13"/>
       <c r="D204" s="13"/>
       <c r="E204" s="13"/>
     </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="205" spans="2:4">
       <c r="B205" s="13"/>
       <c r="C205" s="13"/>
       <c r="D205" s="13"/>
     </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="206" spans="2:5">
       <c r="B206" s="13"/>
       <c r="C206" s="13"/>
       <c r="D206" s="18"/>
       <c r="E206" s="19"/>
     </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="207" spans="2:5">
       <c r="B207" s="13"/>
       <c r="C207" s="13"/>
       <c r="D207" s="18"/>
       <c r="E207" s="19"/>
     </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="208" spans="2:5">
       <c r="B208" s="13"/>
       <c r="C208" s="13"/>
       <c r="D208" s="13"/>
       <c r="E208" s="13"/>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="209" spans="2:5">
       <c r="B209" s="13"/>
       <c r="C209" s="13"/>
       <c r="D209" s="13"/>
       <c r="E209" s="13"/>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="210" spans="2:6">
       <c r="B210" s="18"/>
       <c r="C210" s="18"/>
       <c r="D210" s="18"/>
       <c r="E210" s="18"/>
       <c r="F210" s="18"/>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="211" spans="2:6">
       <c r="B211" s="18"/>
       <c r="C211" s="18"/>
       <c r="D211" s="18"/>
       <c r="E211" s="18"/>
       <c r="F211" s="18"/>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="212" spans="2:6">
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
       <c r="D212" s="13"/>
       <c r="E212" s="13"/>
       <c r="F212" s="13"/>
     </row>
-    <row r="214" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" ht="16.5" customHeight="1" spans="2:6">
       <c r="B214" s="13"/>
       <c r="C214" s="13"/>
       <c r="D214" s="13"/>
       <c r="E214" s="13"/>
       <c r="F214" s="13"/>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="215" spans="2:6">
       <c r="B215" s="13"/>
       <c r="C215" s="13"/>
       <c r="D215" s="13"/>
       <c r="E215" s="13"/>
       <c r="F215" s="13"/>
     </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="216" spans="2:6">
       <c r="B216" s="13"/>
       <c r="C216" s="13"/>
       <c r="D216" s="13"/>
       <c r="E216" s="13"/>
       <c r="F216" s="13"/>
     </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="217" spans="2:6">
       <c r="B217" s="13"/>
       <c r="C217" s="13"/>
       <c r="D217" s="13"/>
       <c r="E217" s="13"/>
       <c r="F217" s="13"/>
     </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="218" spans="2:6">
       <c r="B218" s="13"/>
       <c r="C218" s="13"/>
       <c r="D218" s="13"/>
       <c r="E218" s="13"/>
       <c r="F218" s="13"/>
     </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="219" spans="2:6">
       <c r="B219" s="13"/>
       <c r="C219" s="13"/>
       <c r="D219" s="13"/>
       <c r="E219" s="13"/>
       <c r="F219" s="13"/>
     </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="220" spans="2:6">
       <c r="B220" s="13"/>
       <c r="C220" s="13"/>
       <c r="D220" s="13"/>
       <c r="E220" s="13"/>
       <c r="F220" s="13"/>
     </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="221" spans="2:6">
       <c r="B221" s="13"/>
       <c r="C221" s="13"/>
       <c r="D221" s="13"/>
       <c r="E221" s="13"/>
       <c r="F221" s="13"/>
     </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="222" spans="2:6">
       <c r="B222" s="13"/>
       <c r="C222" s="13"/>
       <c r="D222" s="13"/>
       <c r="E222" s="13"/>
       <c r="F222" s="13"/>
     </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="223" spans="2:6">
       <c r="B223" s="13"/>
       <c r="C223" s="13"/>
       <c r="D223" s="13"/>
       <c r="E223" s="13"/>
       <c r="F223" s="13"/>
     </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="224" spans="2:6">
       <c r="B224" s="13"/>
       <c r="C224" s="13"/>
       <c r="D224" s="13"/>
       <c r="E224" s="13"/>
       <c r="F224" s="13"/>
     </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="225" spans="2:6">
       <c r="B225" s="13"/>
       <c r="C225" s="13"/>
       <c r="D225" s="13"/>
       <c r="E225" s="13"/>
       <c r="F225" s="13"/>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="226" spans="2:6">
       <c r="B226" s="13"/>
       <c r="C226" s="13"/>
       <c r="D226" s="13"/>
       <c r="E226" s="13"/>
       <c r="F226" s="13"/>
     </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="228" spans="2:4">
       <c r="B228" s="13"/>
       <c r="C228" s="13"/>
       <c r="D228" s="13"/>
     </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="229" spans="2:4">
       <c r="B229" s="13"/>
       <c r="C229" s="13"/>
       <c r="D229" s="13"/>
     </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="230" spans="2:4">
       <c r="B230" s="13"/>
       <c r="C230" s="13"/>
       <c r="D230" s="13"/>
     </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="231" spans="2:4">
       <c r="B231" s="13"/>
       <c r="C231" s="13"/>
       <c r="D231" s="13"/>
     </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="232" spans="2:4">
       <c r="B232" s="13"/>
       <c r="C232" s="13"/>
       <c r="D232" s="13"/>
     </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="233" spans="2:4">
       <c r="B233" s="13"/>
       <c r="C233" s="13"/>
       <c r="D233" s="13"/>
     </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="234" spans="2:4">
       <c r="B234" s="13"/>
       <c r="C234" s="13"/>
       <c r="D234" s="13"/>
     </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="235" spans="2:4">
       <c r="B235" s="13"/>
       <c r="C235" s="13"/>
       <c r="D235" s="13"/>
     </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="236" spans="2:4">
       <c r="B236" s="13"/>
       <c r="C236" s="13"/>
       <c r="D236" s="13"/>
     </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="237" spans="2:4">
       <c r="B237" s="13"/>
       <c r="C237" s="13"/>
       <c r="D237" s="13"/>
     </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="241" spans="2:6">
       <c r="B241" s="13"/>
       <c r="C241" s="13"/>
       <c r="D241" s="13"/>
       <c r="E241" s="13"/>
       <c r="F241" s="13"/>
     </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="243" spans="2:2">
       <c r="B243"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="B63">
-    <cfRule type="duplicateValues" dxfId="36" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="35" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="duplicateValues" dxfId="34" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="duplicateValues" dxfId="33" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="duplicateValues" dxfId="32" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
-    <cfRule type="duplicateValues" dxfId="31" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B98">
-    <cfRule type="duplicateValues" dxfId="30" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="29" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103">
-    <cfRule type="duplicateValues" dxfId="28" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105">
-    <cfRule type="duplicateValues" dxfId="27" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107">
-    <cfRule type="duplicateValues" dxfId="25" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="24" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B192">
-    <cfRule type="duplicateValues" dxfId="23" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209">
-    <cfRule type="duplicateValues" dxfId="22" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B241">
-    <cfRule type="duplicateValues" dxfId="21" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80:B81">
-    <cfRule type="duplicateValues" dxfId="20" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88:B89">
-    <cfRule type="duplicateValues" dxfId="19" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B91">
-    <cfRule type="duplicateValues" dxfId="18" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108:B110">
-    <cfRule type="duplicateValues" dxfId="17" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:B126">
-    <cfRule type="duplicateValues" dxfId="15" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127:B128">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B205:B207">
-    <cfRule type="duplicateValues" dxfId="12" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B214:B226">
-    <cfRule type="duplicateValues" dxfId="11" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C84:C85">
-    <cfRule type="duplicateValues" dxfId="10" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C127:C128">
-    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B227 B212:B213 B208 B238:B240 B242 B193:B204 B130:B191 B65:B75 B244:B1048576 B1:B62">
-    <cfRule type="duplicateValues" dxfId="8" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B106:B107 B111:B126 B129:B1048576 B1:B104">
-    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B111 B100 B77:B79 B93:B97 B86">
-    <cfRule type="duplicateValues" dxfId="6" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87 B92">
-    <cfRule type="duplicateValues" dxfId="5" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B102 B106 B104">
-    <cfRule type="duplicateValues" dxfId="4" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112 B129">
-    <cfRule type="duplicateValues" dxfId="3" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B113:C118 C119:C126">
-    <cfRule type="duplicateValues" dxfId="2" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B228:C231 B235:C237">
-    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232:C234">
     <cfRule type="duplicateValues" dxfId="0" priority="11"/>
   </conditionalFormatting>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/_ConfigExcels/Datas/com_global_param.xlsx
+++ b/_ConfigExcels/Datas/com_global_param.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mine\Project\MiniGame_EarthDefender\_ConfigExcels\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="17775" tabRatio="736"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17775" tabRatio="736"/>
   </bookViews>
   <sheets>
     <sheet name="com_param" sheetId="11" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -130,18 +135,20 @@
   <si>
     <t>10,50</t>
   </si>
+  <si>
+    <t>每升5级给多少百分比的全局攻击</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon_global_bonus_atk_per_level</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,150 +192,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -341,8 +204,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,194 +242,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -583,744 +266,502 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="533">
+  <cellStyleXfs count="485">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1331,16 +772,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="375" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="327" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1352,10 +793,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1374,542 +815,854 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="533">
+  <cellStyles count="485">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 10" xfId="49"/>
-    <cellStyle name="常规 11" xfId="50"/>
-    <cellStyle name="常规 12" xfId="51"/>
-    <cellStyle name="常规 13" xfId="52"/>
-    <cellStyle name="常规 2" xfId="53"/>
-    <cellStyle name="常规 2 10" xfId="54"/>
-    <cellStyle name="常规 2 11" xfId="55"/>
-    <cellStyle name="常规 2 2" xfId="56"/>
-    <cellStyle name="常规 2 2 2" xfId="57"/>
-    <cellStyle name="常规 2 2 2 2" xfId="58"/>
-    <cellStyle name="常规 2 2 2 2 2" xfId="59"/>
-    <cellStyle name="常规 2 2 2 2 2 2" xfId="60"/>
-    <cellStyle name="常规 2 2 2 2 2 2 2" xfId="61"/>
-    <cellStyle name="常规 2 2 2 2 2 2 2 2" xfId="62"/>
-    <cellStyle name="常规 2 2 2 2 2 2 2 3" xfId="63"/>
-    <cellStyle name="常规 2 2 2 2 2 2 3" xfId="64"/>
-    <cellStyle name="常规 2 2 2 2 2 3" xfId="65"/>
-    <cellStyle name="常规 2 2 2 2 2 3 2" xfId="66"/>
-    <cellStyle name="常规 2 2 2 2 2 3 3" xfId="67"/>
-    <cellStyle name="常规 2 2 2 2 2 4" xfId="68"/>
-    <cellStyle name="常规 2 2 2 2 3" xfId="69"/>
-    <cellStyle name="常规 2 2 2 2 3 2" xfId="70"/>
-    <cellStyle name="常规 2 2 2 2 3 2 2" xfId="71"/>
-    <cellStyle name="常规 2 2 2 2 3 2 3" xfId="72"/>
-    <cellStyle name="常规 2 2 2 2 3 3" xfId="73"/>
-    <cellStyle name="常规 2 2 2 2 4" xfId="74"/>
-    <cellStyle name="常规 2 2 2 2 4 2" xfId="75"/>
-    <cellStyle name="常规 2 2 2 2 4 3" xfId="76"/>
-    <cellStyle name="常规 2 2 2 2 5" xfId="77"/>
-    <cellStyle name="常规 2 2 2 3" xfId="78"/>
-    <cellStyle name="常规 2 2 2 3 2" xfId="79"/>
-    <cellStyle name="常规 2 2 2 3 2 2" xfId="80"/>
-    <cellStyle name="常规 2 2 2 3 2 2 2" xfId="81"/>
-    <cellStyle name="常规 2 2 2 3 2 2 3" xfId="82"/>
-    <cellStyle name="常规 2 2 2 3 2 3" xfId="83"/>
-    <cellStyle name="常规 2 2 2 3 3" xfId="84"/>
-    <cellStyle name="常规 2 2 2 3 3 2" xfId="85"/>
-    <cellStyle name="常规 2 2 2 3 3 3" xfId="86"/>
-    <cellStyle name="常规 2 2 2 3 4" xfId="87"/>
-    <cellStyle name="常规 2 2 2 4" xfId="88"/>
-    <cellStyle name="常规 2 2 2 4 2" xfId="89"/>
-    <cellStyle name="常规 2 2 2 4 2 2" xfId="90"/>
-    <cellStyle name="常规 2 2 2 4 2 3" xfId="91"/>
-    <cellStyle name="常规 2 2 2 4 3" xfId="92"/>
-    <cellStyle name="常规 2 2 2 5" xfId="93"/>
-    <cellStyle name="常规 2 2 2 5 2" xfId="94"/>
-    <cellStyle name="常规 2 2 2 5 3" xfId="95"/>
-    <cellStyle name="常规 2 2 2 6" xfId="96"/>
-    <cellStyle name="常规 2 2 3" xfId="97"/>
-    <cellStyle name="常规 2 2 3 2" xfId="98"/>
-    <cellStyle name="常规 2 2 3 2 2" xfId="99"/>
-    <cellStyle name="常规 2 2 3 2 2 2" xfId="100"/>
-    <cellStyle name="常规 2 2 3 2 2 2 2" xfId="101"/>
-    <cellStyle name="常规 2 2 3 2 2 2 3" xfId="102"/>
-    <cellStyle name="常规 2 2 3 2 2 3" xfId="103"/>
-    <cellStyle name="常规 2 2 3 2 3" xfId="104"/>
-    <cellStyle name="常规 2 2 3 2 3 2" xfId="105"/>
-    <cellStyle name="常规 2 2 3 2 3 3" xfId="106"/>
-    <cellStyle name="常规 2 2 3 2 4" xfId="107"/>
-    <cellStyle name="常规 2 2 3 3" xfId="108"/>
-    <cellStyle name="常规 2 2 3 3 2" xfId="109"/>
-    <cellStyle name="常规 2 2 3 3 2 2" xfId="110"/>
-    <cellStyle name="常规 2 2 3 3 2 3" xfId="111"/>
-    <cellStyle name="常规 2 2 3 3 3" xfId="112"/>
-    <cellStyle name="常规 2 2 3 4" xfId="113"/>
-    <cellStyle name="常规 2 2 3 4 2" xfId="114"/>
-    <cellStyle name="常规 2 2 3 4 3" xfId="115"/>
-    <cellStyle name="常规 2 2 3 5" xfId="116"/>
-    <cellStyle name="常规 2 2 4" xfId="117"/>
-    <cellStyle name="常规 2 2 4 2" xfId="118"/>
-    <cellStyle name="常规 2 2 4 2 2" xfId="119"/>
-    <cellStyle name="常规 2 2 4 2 2 2" xfId="120"/>
-    <cellStyle name="常规 2 2 4 2 2 3" xfId="121"/>
-    <cellStyle name="常规 2 2 4 2 3" xfId="122"/>
-    <cellStyle name="常规 2 2 4 3" xfId="123"/>
-    <cellStyle name="常规 2 2 4 3 2" xfId="124"/>
-    <cellStyle name="常规 2 2 4 3 3" xfId="125"/>
-    <cellStyle name="常规 2 2 4 4" xfId="126"/>
-    <cellStyle name="常规 2 2 5" xfId="127"/>
-    <cellStyle name="常规 2 2 5 2" xfId="128"/>
-    <cellStyle name="常规 2 2 5 2 2" xfId="129"/>
-    <cellStyle name="常规 2 2 5 2 3" xfId="130"/>
-    <cellStyle name="常规 2 2 5 3" xfId="131"/>
-    <cellStyle name="常规 2 2 6" xfId="132"/>
-    <cellStyle name="常规 2 2 6 2" xfId="133"/>
-    <cellStyle name="常规 2 2 6 3" xfId="134"/>
-    <cellStyle name="常规 2 2 7" xfId="135"/>
-    <cellStyle name="常规 2 3" xfId="136"/>
-    <cellStyle name="常规 2 3 2" xfId="137"/>
-    <cellStyle name="常规 2 3 2 2" xfId="138"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="139"/>
-    <cellStyle name="常规 2 3 2 2 2 2" xfId="140"/>
-    <cellStyle name="常规 2 3 2 2 2 2 2" xfId="141"/>
-    <cellStyle name="常规 2 3 2 2 2 2 2 2" xfId="142"/>
-    <cellStyle name="常规 2 3 2 2 2 2 2 3" xfId="143"/>
-    <cellStyle name="常规 2 3 2 2 2 2 3" xfId="144"/>
-    <cellStyle name="常规 2 3 2 2 2 3" xfId="145"/>
-    <cellStyle name="常规 2 3 2 2 2 3 2" xfId="146"/>
-    <cellStyle name="常规 2 3 2 2 2 3 3" xfId="147"/>
-    <cellStyle name="常规 2 3 2 2 2 4" xfId="148"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="149"/>
-    <cellStyle name="常规 2 3 2 2 3 2" xfId="150"/>
-    <cellStyle name="常规 2 3 2 2 3 2 2" xfId="151"/>
-    <cellStyle name="常规 2 3 2 2 3 2 3" xfId="152"/>
-    <cellStyle name="常规 2 3 2 2 3 3" xfId="153"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="154"/>
-    <cellStyle name="常规 2 3 2 2 4 2" xfId="155"/>
-    <cellStyle name="常规 2 3 2 2 4 3" xfId="156"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="157"/>
-    <cellStyle name="常规 2 3 2 3" xfId="158"/>
-    <cellStyle name="常规 2 3 2 3 2" xfId="159"/>
-    <cellStyle name="常规 2 3 2 3 2 2" xfId="160"/>
-    <cellStyle name="常规 2 3 2 3 2 2 2" xfId="161"/>
-    <cellStyle name="常规 2 3 2 3 2 2 3" xfId="162"/>
-    <cellStyle name="常规 2 3 2 3 2 3" xfId="163"/>
-    <cellStyle name="常规 2 3 2 3 3" xfId="164"/>
-    <cellStyle name="常规 2 3 2 3 3 2" xfId="165"/>
-    <cellStyle name="常规 2 3 2 3 3 3" xfId="166"/>
-    <cellStyle name="常规 2 3 2 3 4" xfId="167"/>
-    <cellStyle name="常规 2 3 2 4" xfId="168"/>
-    <cellStyle name="常规 2 3 2 4 2" xfId="169"/>
-    <cellStyle name="常规 2 3 2 4 2 2" xfId="170"/>
-    <cellStyle name="常规 2 3 2 4 2 3" xfId="171"/>
-    <cellStyle name="常规 2 3 2 4 3" xfId="172"/>
-    <cellStyle name="常规 2 3 2 5" xfId="173"/>
-    <cellStyle name="常规 2 3 2 5 2" xfId="174"/>
-    <cellStyle name="常规 2 3 2 5 3" xfId="175"/>
-    <cellStyle name="常规 2 3 2 6" xfId="176"/>
-    <cellStyle name="常规 2 3 3" xfId="177"/>
-    <cellStyle name="常规 2 3 3 2" xfId="178"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="179"/>
-    <cellStyle name="常规 2 3 3 2 2 2" xfId="180"/>
-    <cellStyle name="常规 2 3 3 2 2 2 2" xfId="181"/>
-    <cellStyle name="常规 2 3 3 2 2 2 3" xfId="182"/>
-    <cellStyle name="常规 2 3 3 2 2 3" xfId="183"/>
-    <cellStyle name="常规 2 3 3 2 3" xfId="184"/>
-    <cellStyle name="常规 2 3 3 2 3 2" xfId="185"/>
-    <cellStyle name="常规 2 3 3 2 3 3" xfId="186"/>
-    <cellStyle name="常规 2 3 3 2 4" xfId="187"/>
-    <cellStyle name="常规 2 3 3 3" xfId="188"/>
-    <cellStyle name="常规 2 3 3 3 2" xfId="189"/>
-    <cellStyle name="常规 2 3 3 3 2 2" xfId="190"/>
-    <cellStyle name="常规 2 3 3 3 2 3" xfId="191"/>
-    <cellStyle name="常规 2 3 3 3 3" xfId="192"/>
-    <cellStyle name="常规 2 3 3 4" xfId="193"/>
-    <cellStyle name="常规 2 3 3 4 2" xfId="194"/>
-    <cellStyle name="常规 2 3 3 4 3" xfId="195"/>
-    <cellStyle name="常规 2 3 3 5" xfId="196"/>
-    <cellStyle name="常规 2 3 4" xfId="197"/>
-    <cellStyle name="常规 2 3 4 2" xfId="198"/>
-    <cellStyle name="常规 2 3 4 2 2" xfId="199"/>
-    <cellStyle name="常规 2 3 4 2 2 2" xfId="200"/>
-    <cellStyle name="常规 2 3 4 2 2 3" xfId="201"/>
-    <cellStyle name="常规 2 3 4 2 3" xfId="202"/>
-    <cellStyle name="常规 2 3 4 3" xfId="203"/>
-    <cellStyle name="常规 2 3 4 3 2" xfId="204"/>
-    <cellStyle name="常规 2 3 4 3 3" xfId="205"/>
-    <cellStyle name="常规 2 3 4 4" xfId="206"/>
-    <cellStyle name="常规 2 3 5" xfId="207"/>
-    <cellStyle name="常规 2 3 5 2" xfId="208"/>
-    <cellStyle name="常规 2 3 5 2 2" xfId="209"/>
-    <cellStyle name="常规 2 3 5 2 3" xfId="210"/>
-    <cellStyle name="常规 2 3 5 3" xfId="211"/>
-    <cellStyle name="常规 2 3 6" xfId="212"/>
-    <cellStyle name="常规 2 3 6 2" xfId="213"/>
-    <cellStyle name="常规 2 3 6 3" xfId="214"/>
-    <cellStyle name="常规 2 3 7" xfId="215"/>
-    <cellStyle name="常规 2 4" xfId="216"/>
-    <cellStyle name="常规 2 4 2" xfId="217"/>
-    <cellStyle name="常规 2 4 2 2" xfId="218"/>
-    <cellStyle name="常规 2 4 2 2 2" xfId="219"/>
-    <cellStyle name="常规 2 4 2 2 2 2" xfId="220"/>
-    <cellStyle name="常规 2 4 2 2 2 2 2" xfId="221"/>
-    <cellStyle name="常规 2 4 2 2 2 2 3" xfId="222"/>
-    <cellStyle name="常规 2 4 2 2 2 3" xfId="223"/>
-    <cellStyle name="常规 2 4 2 2 3" xfId="224"/>
-    <cellStyle name="常规 2 4 2 2 3 2" xfId="225"/>
-    <cellStyle name="常规 2 4 2 2 3 3" xfId="226"/>
-    <cellStyle name="常规 2 4 2 2 4" xfId="227"/>
-    <cellStyle name="常规 2 4 2 3" xfId="228"/>
-    <cellStyle name="常规 2 4 2 3 2" xfId="229"/>
-    <cellStyle name="常规 2 4 2 3 2 2" xfId="230"/>
-    <cellStyle name="常规 2 4 2 3 2 3" xfId="231"/>
-    <cellStyle name="常规 2 4 2 3 3" xfId="232"/>
-    <cellStyle name="常规 2 4 2 4" xfId="233"/>
-    <cellStyle name="常规 2 4 2 4 2" xfId="234"/>
-    <cellStyle name="常规 2 4 2 4 3" xfId="235"/>
-    <cellStyle name="常规 2 4 2 5" xfId="236"/>
-    <cellStyle name="常规 2 4 3" xfId="237"/>
-    <cellStyle name="常规 2 4 3 2" xfId="238"/>
-    <cellStyle name="常规 2 4 3 2 2" xfId="239"/>
-    <cellStyle name="常规 2 4 3 2 2 2" xfId="240"/>
-    <cellStyle name="常规 2 4 3 2 2 3" xfId="241"/>
-    <cellStyle name="常规 2 4 3 2 3" xfId="242"/>
-    <cellStyle name="常规 2 4 3 3" xfId="243"/>
-    <cellStyle name="常规 2 4 3 3 2" xfId="244"/>
-    <cellStyle name="常规 2 4 3 3 3" xfId="245"/>
-    <cellStyle name="常规 2 4 3 4" xfId="246"/>
-    <cellStyle name="常规 2 4 4" xfId="247"/>
-    <cellStyle name="常规 2 4 4 2" xfId="248"/>
-    <cellStyle name="常规 2 4 4 2 2" xfId="249"/>
-    <cellStyle name="常规 2 4 4 2 3" xfId="250"/>
-    <cellStyle name="常规 2 4 4 3" xfId="251"/>
-    <cellStyle name="常规 2 4 5" xfId="252"/>
-    <cellStyle name="常规 2 4 5 2" xfId="253"/>
-    <cellStyle name="常规 2 4 5 3" xfId="254"/>
-    <cellStyle name="常规 2 4 6" xfId="255"/>
-    <cellStyle name="常规 2 5" xfId="256"/>
-    <cellStyle name="常规 2 5 2" xfId="257"/>
-    <cellStyle name="常规 2 5 2 2" xfId="258"/>
-    <cellStyle name="常规 2 5 2 2 2" xfId="259"/>
-    <cellStyle name="常规 2 5 2 2 2 2" xfId="260"/>
-    <cellStyle name="常规 2 5 2 2 2 3" xfId="261"/>
-    <cellStyle name="常规 2 5 2 2 3" xfId="262"/>
-    <cellStyle name="常规 2 5 2 3" xfId="263"/>
-    <cellStyle name="常规 2 5 2 3 2" xfId="264"/>
-    <cellStyle name="常规 2 5 2 3 3" xfId="265"/>
-    <cellStyle name="常规 2 5 2 4" xfId="266"/>
-    <cellStyle name="常规 2 5 3" xfId="267"/>
-    <cellStyle name="常规 2 5 3 2" xfId="268"/>
-    <cellStyle name="常规 2 5 3 2 2" xfId="269"/>
-    <cellStyle name="常规 2 5 3 2 3" xfId="270"/>
-    <cellStyle name="常规 2 5 3 3" xfId="271"/>
-    <cellStyle name="常规 2 5 4" xfId="272"/>
-    <cellStyle name="常规 2 5 4 2" xfId="273"/>
-    <cellStyle name="常规 2 5 4 3" xfId="274"/>
-    <cellStyle name="常规 2 5 5" xfId="275"/>
-    <cellStyle name="常规 2 6" xfId="276"/>
-    <cellStyle name="常规 2 6 2" xfId="277"/>
-    <cellStyle name="常规 2 6 2 2" xfId="278"/>
-    <cellStyle name="常规 2 6 2 2 2" xfId="279"/>
-    <cellStyle name="常规 2 6 2 2 3" xfId="280"/>
-    <cellStyle name="常规 2 6 2 3" xfId="281"/>
-    <cellStyle name="常规 2 6 3" xfId="282"/>
-    <cellStyle name="常规 2 6 3 2" xfId="283"/>
-    <cellStyle name="常规 2 6 3 3" xfId="284"/>
-    <cellStyle name="常规 2 6 4" xfId="285"/>
-    <cellStyle name="常规 2 7" xfId="286"/>
-    <cellStyle name="常规 2 7 2" xfId="287"/>
-    <cellStyle name="常规 2 7 2 2" xfId="288"/>
-    <cellStyle name="常规 2 7 2 3" xfId="289"/>
-    <cellStyle name="常规 2 7 3" xfId="290"/>
-    <cellStyle name="常规 2 8" xfId="291"/>
-    <cellStyle name="常规 2 8 2" xfId="292"/>
-    <cellStyle name="常规 2 8 3" xfId="293"/>
-    <cellStyle name="常规 2 9" xfId="294"/>
-    <cellStyle name="常规 3" xfId="295"/>
-    <cellStyle name="常规 3 2" xfId="296"/>
-    <cellStyle name="常规 3 2 2" xfId="297"/>
-    <cellStyle name="常规 3 2 2 2" xfId="298"/>
-    <cellStyle name="常规 3 2 2 2 2" xfId="299"/>
-    <cellStyle name="常规 3 2 2 2 2 2" xfId="300"/>
-    <cellStyle name="常规 3 2 2 2 2 2 2" xfId="301"/>
-    <cellStyle name="常规 3 2 2 2 2 2 3" xfId="302"/>
-    <cellStyle name="常规 3 2 2 2 2 3" xfId="303"/>
-    <cellStyle name="常规 3 2 2 2 3" xfId="304"/>
-    <cellStyle name="常规 3 2 2 2 3 2" xfId="305"/>
-    <cellStyle name="常规 3 2 2 2 3 3" xfId="306"/>
-    <cellStyle name="常规 3 2 2 2 4" xfId="307"/>
-    <cellStyle name="常规 3 2 2 3" xfId="308"/>
-    <cellStyle name="常规 3 2 2 3 2" xfId="309"/>
-    <cellStyle name="常规 3 2 2 3 2 2" xfId="310"/>
-    <cellStyle name="常规 3 2 2 3 2 3" xfId="311"/>
-    <cellStyle name="常规 3 2 2 3 3" xfId="312"/>
-    <cellStyle name="常规 3 2 2 4" xfId="313"/>
-    <cellStyle name="常规 3 2 2 4 2" xfId="314"/>
-    <cellStyle name="常规 3 2 2 4 3" xfId="315"/>
-    <cellStyle name="常规 3 2 2 5" xfId="316"/>
-    <cellStyle name="常规 3 2 3" xfId="317"/>
-    <cellStyle name="常规 3 2 3 2" xfId="318"/>
-    <cellStyle name="常规 3 2 3 2 2" xfId="319"/>
-    <cellStyle name="常规 3 2 3 2 2 2" xfId="320"/>
-    <cellStyle name="常规 3 2 3 2 2 3" xfId="321"/>
-    <cellStyle name="常规 3 2 3 2 3" xfId="322"/>
-    <cellStyle name="常规 3 2 3 3" xfId="323"/>
-    <cellStyle name="常规 3 2 3 3 2" xfId="324"/>
-    <cellStyle name="常规 3 2 3 3 3" xfId="325"/>
-    <cellStyle name="常规 3 2 3 4" xfId="326"/>
-    <cellStyle name="常规 3 2 4" xfId="327"/>
-    <cellStyle name="常规 3 2 4 2" xfId="328"/>
-    <cellStyle name="常规 3 2 4 2 2" xfId="329"/>
-    <cellStyle name="常规 3 2 4 2 3" xfId="330"/>
-    <cellStyle name="常规 3 2 4 3" xfId="331"/>
-    <cellStyle name="常规 3 2 5" xfId="332"/>
-    <cellStyle name="常规 3 2 5 2" xfId="333"/>
-    <cellStyle name="常规 3 2 5 3" xfId="334"/>
-    <cellStyle name="常规 3 2 6" xfId="335"/>
-    <cellStyle name="常规 3 3" xfId="336"/>
-    <cellStyle name="常规 3 3 2" xfId="337"/>
-    <cellStyle name="常规 3 3 2 2" xfId="338"/>
-    <cellStyle name="常规 3 3 2 2 2" xfId="339"/>
-    <cellStyle name="常规 3 3 2 2 2 2" xfId="340"/>
-    <cellStyle name="常规 3 3 2 2 2 3" xfId="341"/>
-    <cellStyle name="常规 3 3 2 2 3" xfId="342"/>
-    <cellStyle name="常规 3 3 2 3" xfId="343"/>
-    <cellStyle name="常规 3 3 2 3 2" xfId="344"/>
-    <cellStyle name="常规 3 3 2 3 3" xfId="345"/>
-    <cellStyle name="常规 3 3 2 4" xfId="346"/>
-    <cellStyle name="常规 3 3 3" xfId="347"/>
-    <cellStyle name="常规 3 3 3 2" xfId="348"/>
-    <cellStyle name="常规 3 3 3 2 2" xfId="349"/>
-    <cellStyle name="常规 3 3 3 2 3" xfId="350"/>
-    <cellStyle name="常规 3 3 3 3" xfId="351"/>
-    <cellStyle name="常规 3 3 4" xfId="352"/>
-    <cellStyle name="常规 3 3 4 2" xfId="353"/>
-    <cellStyle name="常规 3 3 4 3" xfId="354"/>
-    <cellStyle name="常规 3 3 5" xfId="355"/>
-    <cellStyle name="常规 3 4" xfId="356"/>
-    <cellStyle name="常规 3 4 2" xfId="357"/>
-    <cellStyle name="常规 3 4 2 2" xfId="358"/>
-    <cellStyle name="常规 3 4 2 2 2" xfId="359"/>
-    <cellStyle name="常规 3 4 2 2 3" xfId="360"/>
-    <cellStyle name="常规 3 4 2 3" xfId="361"/>
-    <cellStyle name="常规 3 4 3" xfId="362"/>
-    <cellStyle name="常规 3 4 3 2" xfId="363"/>
-    <cellStyle name="常规 3 4 3 3" xfId="364"/>
-    <cellStyle name="常规 3 4 4" xfId="365"/>
-    <cellStyle name="常规 3 5" xfId="366"/>
-    <cellStyle name="常规 3 5 2" xfId="367"/>
-    <cellStyle name="常规 3 5 2 2" xfId="368"/>
-    <cellStyle name="常规 3 5 2 3" xfId="369"/>
-    <cellStyle name="常规 3 5 3" xfId="370"/>
-    <cellStyle name="常规 3 6" xfId="371"/>
-    <cellStyle name="常规 3 6 2" xfId="372"/>
-    <cellStyle name="常规 3 6 3" xfId="373"/>
-    <cellStyle name="常规 3 7" xfId="374"/>
-    <cellStyle name="常规 4" xfId="375"/>
-    <cellStyle name="常规 4 2" xfId="376"/>
-    <cellStyle name="常规 4 2 2" xfId="377"/>
-    <cellStyle name="常规 4 2 2 2" xfId="378"/>
-    <cellStyle name="常规 4 2 2 2 2" xfId="379"/>
-    <cellStyle name="常规 4 2 2 2 2 2" xfId="380"/>
-    <cellStyle name="常规 4 2 2 2 2 2 2" xfId="381"/>
-    <cellStyle name="常规 4 2 2 2 2 2 3" xfId="382"/>
-    <cellStyle name="常规 4 2 2 2 2 3" xfId="383"/>
-    <cellStyle name="常规 4 2 2 2 3" xfId="384"/>
-    <cellStyle name="常规 4 2 2 2 3 2" xfId="385"/>
-    <cellStyle name="常规 4 2 2 2 3 3" xfId="386"/>
-    <cellStyle name="常规 4 2 2 2 4" xfId="387"/>
-    <cellStyle name="常规 4 2 2 3" xfId="388"/>
-    <cellStyle name="常规 4 2 2 3 2" xfId="389"/>
-    <cellStyle name="常规 4 2 2 3 2 2" xfId="390"/>
-    <cellStyle name="常规 4 2 2 3 2 3" xfId="391"/>
-    <cellStyle name="常规 4 2 2 3 3" xfId="392"/>
-    <cellStyle name="常规 4 2 2 4" xfId="393"/>
-    <cellStyle name="常规 4 2 2 4 2" xfId="394"/>
-    <cellStyle name="常规 4 2 2 4 3" xfId="395"/>
-    <cellStyle name="常规 4 2 2 5" xfId="396"/>
-    <cellStyle name="常规 4 2 3" xfId="397"/>
-    <cellStyle name="常规 4 2 3 2" xfId="398"/>
-    <cellStyle name="常规 4 2 3 2 2" xfId="399"/>
-    <cellStyle name="常规 4 2 3 2 2 2" xfId="400"/>
-    <cellStyle name="常规 4 2 3 2 2 3" xfId="401"/>
-    <cellStyle name="常规 4 2 3 2 3" xfId="402"/>
-    <cellStyle name="常规 4 2 3 3" xfId="403"/>
-    <cellStyle name="常规 4 2 3 3 2" xfId="404"/>
-    <cellStyle name="常规 4 2 3 3 3" xfId="405"/>
-    <cellStyle name="常规 4 2 3 4" xfId="406"/>
-    <cellStyle name="常规 4 2 4" xfId="407"/>
-    <cellStyle name="常规 4 2 4 2" xfId="408"/>
-    <cellStyle name="常规 4 2 4 2 2" xfId="409"/>
-    <cellStyle name="常规 4 2 4 2 3" xfId="410"/>
-    <cellStyle name="常规 4 2 4 3" xfId="411"/>
-    <cellStyle name="常规 4 2 5" xfId="412"/>
-    <cellStyle name="常规 4 2 5 2" xfId="413"/>
-    <cellStyle name="常规 4 2 5 3" xfId="414"/>
-    <cellStyle name="常规 4 2 6" xfId="415"/>
-    <cellStyle name="常规 4 3" xfId="416"/>
-    <cellStyle name="常规 4 3 2" xfId="417"/>
-    <cellStyle name="常规 4 3 2 2" xfId="418"/>
-    <cellStyle name="常规 4 3 2 2 2" xfId="419"/>
-    <cellStyle name="常规 4 3 2 2 2 2" xfId="420"/>
-    <cellStyle name="常规 4 3 2 2 2 3" xfId="421"/>
-    <cellStyle name="常规 4 3 2 2 3" xfId="422"/>
-    <cellStyle name="常规 4 3 2 3" xfId="423"/>
-    <cellStyle name="常规 4 3 2 3 2" xfId="424"/>
-    <cellStyle name="常规 4 3 2 3 3" xfId="425"/>
-    <cellStyle name="常规 4 3 2 4" xfId="426"/>
-    <cellStyle name="常规 4 3 3" xfId="427"/>
-    <cellStyle name="常规 4 3 3 2" xfId="428"/>
-    <cellStyle name="常规 4 3 3 2 2" xfId="429"/>
-    <cellStyle name="常规 4 3 3 2 3" xfId="430"/>
-    <cellStyle name="常规 4 3 3 3" xfId="431"/>
-    <cellStyle name="常规 4 3 4" xfId="432"/>
-    <cellStyle name="常规 4 3 4 2" xfId="433"/>
-    <cellStyle name="常规 4 3 4 3" xfId="434"/>
-    <cellStyle name="常规 4 3 5" xfId="435"/>
-    <cellStyle name="常规 4 4" xfId="436"/>
-    <cellStyle name="常规 4 4 2" xfId="437"/>
-    <cellStyle name="常规 4 4 2 2" xfId="438"/>
-    <cellStyle name="常规 4 4 2 2 2" xfId="439"/>
-    <cellStyle name="常规 4 4 2 2 3" xfId="440"/>
-    <cellStyle name="常规 4 4 2 3" xfId="441"/>
-    <cellStyle name="常规 4 4 3" xfId="442"/>
-    <cellStyle name="常规 4 4 3 2" xfId="443"/>
-    <cellStyle name="常规 4 4 3 3" xfId="444"/>
-    <cellStyle name="常规 4 4 4" xfId="445"/>
-    <cellStyle name="常规 4 5" xfId="446"/>
-    <cellStyle name="常规 4 5 2" xfId="447"/>
-    <cellStyle name="常规 4 5 2 2" xfId="448"/>
-    <cellStyle name="常规 4 5 2 3" xfId="449"/>
-    <cellStyle name="常规 4 5 3" xfId="450"/>
-    <cellStyle name="常规 4 6" xfId="451"/>
-    <cellStyle name="常规 4 6 2" xfId="452"/>
-    <cellStyle name="常规 4 6 3" xfId="453"/>
-    <cellStyle name="常规 4 7" xfId="454"/>
-    <cellStyle name="常规 5" xfId="455"/>
-    <cellStyle name="常规 5 2" xfId="456"/>
-    <cellStyle name="常规 5 2 2" xfId="457"/>
-    <cellStyle name="常规 5 2 2 2" xfId="458"/>
-    <cellStyle name="常规 5 2 2 2 2" xfId="459"/>
-    <cellStyle name="常规 5 2 2 2 2 2" xfId="460"/>
-    <cellStyle name="常规 5 2 2 2 2 3" xfId="461"/>
-    <cellStyle name="常规 5 2 2 2 3" xfId="462"/>
-    <cellStyle name="常规 5 2 2 3" xfId="463"/>
-    <cellStyle name="常规 5 2 2 3 2" xfId="464"/>
-    <cellStyle name="常规 5 2 2 3 3" xfId="465"/>
-    <cellStyle name="常规 5 2 2 4" xfId="466"/>
-    <cellStyle name="常规 5 2 3" xfId="467"/>
-    <cellStyle name="常规 5 2 3 2" xfId="468"/>
-    <cellStyle name="常规 5 2 3 2 2" xfId="469"/>
-    <cellStyle name="常规 5 2 3 2 3" xfId="470"/>
-    <cellStyle name="常规 5 2 3 3" xfId="471"/>
-    <cellStyle name="常规 5 2 4" xfId="472"/>
-    <cellStyle name="常规 5 2 4 2" xfId="473"/>
-    <cellStyle name="常规 5 2 4 3" xfId="474"/>
-    <cellStyle name="常规 5 2 5" xfId="475"/>
-    <cellStyle name="常规 5 3" xfId="476"/>
-    <cellStyle name="常规 5 3 2" xfId="477"/>
-    <cellStyle name="常规 5 3 2 2" xfId="478"/>
-    <cellStyle name="常规 5 3 2 2 2" xfId="479"/>
-    <cellStyle name="常规 5 3 2 2 3" xfId="480"/>
-    <cellStyle name="常规 5 3 2 3" xfId="481"/>
-    <cellStyle name="常规 5 3 3" xfId="482"/>
-    <cellStyle name="常规 5 3 3 2" xfId="483"/>
-    <cellStyle name="常规 5 3 3 3" xfId="484"/>
-    <cellStyle name="常规 5 3 4" xfId="485"/>
-    <cellStyle name="常规 5 4" xfId="486"/>
-    <cellStyle name="常规 5 4 2" xfId="487"/>
-    <cellStyle name="常规 5 4 2 2" xfId="488"/>
-    <cellStyle name="常规 5 4 2 3" xfId="489"/>
-    <cellStyle name="常规 5 4 3" xfId="490"/>
-    <cellStyle name="常规 5 5" xfId="491"/>
-    <cellStyle name="常规 5 5 2" xfId="492"/>
-    <cellStyle name="常规 5 5 3" xfId="493"/>
-    <cellStyle name="常规 5 6" xfId="494"/>
-    <cellStyle name="常规 6" xfId="495"/>
-    <cellStyle name="常规 6 2" xfId="496"/>
-    <cellStyle name="常规 6 2 2" xfId="497"/>
-    <cellStyle name="常规 6 2 2 2" xfId="498"/>
-    <cellStyle name="常规 6 2 2 2 2" xfId="499"/>
-    <cellStyle name="常规 6 2 2 2 3" xfId="500"/>
-    <cellStyle name="常规 6 2 2 3" xfId="501"/>
-    <cellStyle name="常规 6 2 3" xfId="502"/>
-    <cellStyle name="常规 6 2 3 2" xfId="503"/>
-    <cellStyle name="常规 6 2 3 3" xfId="504"/>
-    <cellStyle name="常规 6 2 4" xfId="505"/>
-    <cellStyle name="常规 6 3" xfId="506"/>
-    <cellStyle name="常规 6 3 2" xfId="507"/>
-    <cellStyle name="常规 6 3 2 2" xfId="508"/>
-    <cellStyle name="常规 6 3 2 3" xfId="509"/>
-    <cellStyle name="常规 6 3 3" xfId="510"/>
-    <cellStyle name="常规 6 4" xfId="511"/>
-    <cellStyle name="常规 6 4 2" xfId="512"/>
-    <cellStyle name="常规 6 4 3" xfId="513"/>
-    <cellStyle name="常规 6 5" xfId="514"/>
-    <cellStyle name="常规 7" xfId="515"/>
-    <cellStyle name="常规 7 2" xfId="516"/>
-    <cellStyle name="常规 7 2 2" xfId="517"/>
-    <cellStyle name="常规 7 2 2 2" xfId="518"/>
-    <cellStyle name="常规 7 2 2 3" xfId="519"/>
-    <cellStyle name="常规 7 2 3" xfId="520"/>
-    <cellStyle name="常规 7 3" xfId="521"/>
-    <cellStyle name="常规 7 3 2" xfId="522"/>
-    <cellStyle name="常规 7 3 3" xfId="523"/>
-    <cellStyle name="常规 7 4" xfId="524"/>
-    <cellStyle name="常规 8" xfId="525"/>
-    <cellStyle name="常规 8 2" xfId="526"/>
-    <cellStyle name="常规 8 2 2" xfId="527"/>
-    <cellStyle name="常规 8 2 3" xfId="528"/>
-    <cellStyle name="常规 8 3" xfId="529"/>
-    <cellStyle name="常规 9" xfId="530"/>
-    <cellStyle name="常规 9 2" xfId="531"/>
-    <cellStyle name="常规 9 3" xfId="532"/>
+    <cellStyle name="常规 10" xfId="1"/>
+    <cellStyle name="常规 11" xfId="2"/>
+    <cellStyle name="常规 12" xfId="3"/>
+    <cellStyle name="常规 13" xfId="4"/>
+    <cellStyle name="常规 2" xfId="5"/>
+    <cellStyle name="常规 2 10" xfId="6"/>
+    <cellStyle name="常规 2 11" xfId="7"/>
+    <cellStyle name="常规 2 2" xfId="8"/>
+    <cellStyle name="常规 2 2 2" xfId="9"/>
+    <cellStyle name="常规 2 2 2 2" xfId="10"/>
+    <cellStyle name="常规 2 2 2 2 2" xfId="11"/>
+    <cellStyle name="常规 2 2 2 2 2 2" xfId="12"/>
+    <cellStyle name="常规 2 2 2 2 2 2 2" xfId="13"/>
+    <cellStyle name="常规 2 2 2 2 2 2 2 2" xfId="14"/>
+    <cellStyle name="常规 2 2 2 2 2 2 2 3" xfId="15"/>
+    <cellStyle name="常规 2 2 2 2 2 2 3" xfId="16"/>
+    <cellStyle name="常规 2 2 2 2 2 3" xfId="17"/>
+    <cellStyle name="常规 2 2 2 2 2 3 2" xfId="18"/>
+    <cellStyle name="常规 2 2 2 2 2 3 3" xfId="19"/>
+    <cellStyle name="常规 2 2 2 2 2 4" xfId="20"/>
+    <cellStyle name="常规 2 2 2 2 3" xfId="21"/>
+    <cellStyle name="常规 2 2 2 2 3 2" xfId="22"/>
+    <cellStyle name="常规 2 2 2 2 3 2 2" xfId="23"/>
+    <cellStyle name="常规 2 2 2 2 3 2 3" xfId="24"/>
+    <cellStyle name="常规 2 2 2 2 3 3" xfId="25"/>
+    <cellStyle name="常规 2 2 2 2 4" xfId="26"/>
+    <cellStyle name="常规 2 2 2 2 4 2" xfId="27"/>
+    <cellStyle name="常规 2 2 2 2 4 3" xfId="28"/>
+    <cellStyle name="常规 2 2 2 2 5" xfId="29"/>
+    <cellStyle name="常规 2 2 2 3" xfId="30"/>
+    <cellStyle name="常规 2 2 2 3 2" xfId="31"/>
+    <cellStyle name="常规 2 2 2 3 2 2" xfId="32"/>
+    <cellStyle name="常规 2 2 2 3 2 2 2" xfId="33"/>
+    <cellStyle name="常规 2 2 2 3 2 2 3" xfId="34"/>
+    <cellStyle name="常规 2 2 2 3 2 3" xfId="35"/>
+    <cellStyle name="常规 2 2 2 3 3" xfId="36"/>
+    <cellStyle name="常规 2 2 2 3 3 2" xfId="37"/>
+    <cellStyle name="常规 2 2 2 3 3 3" xfId="38"/>
+    <cellStyle name="常规 2 2 2 3 4" xfId="39"/>
+    <cellStyle name="常规 2 2 2 4" xfId="40"/>
+    <cellStyle name="常规 2 2 2 4 2" xfId="41"/>
+    <cellStyle name="常规 2 2 2 4 2 2" xfId="42"/>
+    <cellStyle name="常规 2 2 2 4 2 3" xfId="43"/>
+    <cellStyle name="常规 2 2 2 4 3" xfId="44"/>
+    <cellStyle name="常规 2 2 2 5" xfId="45"/>
+    <cellStyle name="常规 2 2 2 5 2" xfId="46"/>
+    <cellStyle name="常规 2 2 2 5 3" xfId="47"/>
+    <cellStyle name="常规 2 2 2 6" xfId="48"/>
+    <cellStyle name="常规 2 2 3" xfId="49"/>
+    <cellStyle name="常规 2 2 3 2" xfId="50"/>
+    <cellStyle name="常规 2 2 3 2 2" xfId="51"/>
+    <cellStyle name="常规 2 2 3 2 2 2" xfId="52"/>
+    <cellStyle name="常规 2 2 3 2 2 2 2" xfId="53"/>
+    <cellStyle name="常规 2 2 3 2 2 2 3" xfId="54"/>
+    <cellStyle name="常规 2 2 3 2 2 3" xfId="55"/>
+    <cellStyle name="常规 2 2 3 2 3" xfId="56"/>
+    <cellStyle name="常规 2 2 3 2 3 2" xfId="57"/>
+    <cellStyle name="常规 2 2 3 2 3 3" xfId="58"/>
+    <cellStyle name="常规 2 2 3 2 4" xfId="59"/>
+    <cellStyle name="常规 2 2 3 3" xfId="60"/>
+    <cellStyle name="常规 2 2 3 3 2" xfId="61"/>
+    <cellStyle name="常规 2 2 3 3 2 2" xfId="62"/>
+    <cellStyle name="常规 2 2 3 3 2 3" xfId="63"/>
+    <cellStyle name="常规 2 2 3 3 3" xfId="64"/>
+    <cellStyle name="常规 2 2 3 4" xfId="65"/>
+    <cellStyle name="常规 2 2 3 4 2" xfId="66"/>
+    <cellStyle name="常规 2 2 3 4 3" xfId="67"/>
+    <cellStyle name="常规 2 2 3 5" xfId="68"/>
+    <cellStyle name="常规 2 2 4" xfId="69"/>
+    <cellStyle name="常规 2 2 4 2" xfId="70"/>
+    <cellStyle name="常规 2 2 4 2 2" xfId="71"/>
+    <cellStyle name="常规 2 2 4 2 2 2" xfId="72"/>
+    <cellStyle name="常规 2 2 4 2 2 3" xfId="73"/>
+    <cellStyle name="常规 2 2 4 2 3" xfId="74"/>
+    <cellStyle name="常规 2 2 4 3" xfId="75"/>
+    <cellStyle name="常规 2 2 4 3 2" xfId="76"/>
+    <cellStyle name="常规 2 2 4 3 3" xfId="77"/>
+    <cellStyle name="常规 2 2 4 4" xfId="78"/>
+    <cellStyle name="常规 2 2 5" xfId="79"/>
+    <cellStyle name="常规 2 2 5 2" xfId="80"/>
+    <cellStyle name="常规 2 2 5 2 2" xfId="81"/>
+    <cellStyle name="常规 2 2 5 2 3" xfId="82"/>
+    <cellStyle name="常规 2 2 5 3" xfId="83"/>
+    <cellStyle name="常规 2 2 6" xfId="84"/>
+    <cellStyle name="常规 2 2 6 2" xfId="85"/>
+    <cellStyle name="常规 2 2 6 3" xfId="86"/>
+    <cellStyle name="常规 2 2 7" xfId="87"/>
+    <cellStyle name="常规 2 3" xfId="88"/>
+    <cellStyle name="常规 2 3 2" xfId="89"/>
+    <cellStyle name="常规 2 3 2 2" xfId="90"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="91"/>
+    <cellStyle name="常规 2 3 2 2 2 2" xfId="92"/>
+    <cellStyle name="常规 2 3 2 2 2 2 2" xfId="93"/>
+    <cellStyle name="常规 2 3 2 2 2 2 2 2" xfId="94"/>
+    <cellStyle name="常规 2 3 2 2 2 2 2 3" xfId="95"/>
+    <cellStyle name="常规 2 3 2 2 2 2 3" xfId="96"/>
+    <cellStyle name="常规 2 3 2 2 2 3" xfId="97"/>
+    <cellStyle name="常规 2 3 2 2 2 3 2" xfId="98"/>
+    <cellStyle name="常规 2 3 2 2 2 3 3" xfId="99"/>
+    <cellStyle name="常规 2 3 2 2 2 4" xfId="100"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="101"/>
+    <cellStyle name="常规 2 3 2 2 3 2" xfId="102"/>
+    <cellStyle name="常规 2 3 2 2 3 2 2" xfId="103"/>
+    <cellStyle name="常规 2 3 2 2 3 2 3" xfId="104"/>
+    <cellStyle name="常规 2 3 2 2 3 3" xfId="105"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="106"/>
+    <cellStyle name="常规 2 3 2 2 4 2" xfId="107"/>
+    <cellStyle name="常规 2 3 2 2 4 3" xfId="108"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="109"/>
+    <cellStyle name="常规 2 3 2 3" xfId="110"/>
+    <cellStyle name="常规 2 3 2 3 2" xfId="111"/>
+    <cellStyle name="常规 2 3 2 3 2 2" xfId="112"/>
+    <cellStyle name="常规 2 3 2 3 2 2 2" xfId="113"/>
+    <cellStyle name="常规 2 3 2 3 2 2 3" xfId="114"/>
+    <cellStyle name="常规 2 3 2 3 2 3" xfId="115"/>
+    <cellStyle name="常规 2 3 2 3 3" xfId="116"/>
+    <cellStyle name="常规 2 3 2 3 3 2" xfId="117"/>
+    <cellStyle name="常规 2 3 2 3 3 3" xfId="118"/>
+    <cellStyle name="常规 2 3 2 3 4" xfId="119"/>
+    <cellStyle name="常规 2 3 2 4" xfId="120"/>
+    <cellStyle name="常规 2 3 2 4 2" xfId="121"/>
+    <cellStyle name="常规 2 3 2 4 2 2" xfId="122"/>
+    <cellStyle name="常规 2 3 2 4 2 3" xfId="123"/>
+    <cellStyle name="常规 2 3 2 4 3" xfId="124"/>
+    <cellStyle name="常规 2 3 2 5" xfId="125"/>
+    <cellStyle name="常规 2 3 2 5 2" xfId="126"/>
+    <cellStyle name="常规 2 3 2 5 3" xfId="127"/>
+    <cellStyle name="常规 2 3 2 6" xfId="128"/>
+    <cellStyle name="常规 2 3 3" xfId="129"/>
+    <cellStyle name="常规 2 3 3 2" xfId="130"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="131"/>
+    <cellStyle name="常规 2 3 3 2 2 2" xfId="132"/>
+    <cellStyle name="常规 2 3 3 2 2 2 2" xfId="133"/>
+    <cellStyle name="常规 2 3 3 2 2 2 3" xfId="134"/>
+    <cellStyle name="常规 2 3 3 2 2 3" xfId="135"/>
+    <cellStyle name="常规 2 3 3 2 3" xfId="136"/>
+    <cellStyle name="常规 2 3 3 2 3 2" xfId="137"/>
+    <cellStyle name="常规 2 3 3 2 3 3" xfId="138"/>
+    <cellStyle name="常规 2 3 3 2 4" xfId="139"/>
+    <cellStyle name="常规 2 3 3 3" xfId="140"/>
+    <cellStyle name="常规 2 3 3 3 2" xfId="141"/>
+    <cellStyle name="常规 2 3 3 3 2 2" xfId="142"/>
+    <cellStyle name="常规 2 3 3 3 2 3" xfId="143"/>
+    <cellStyle name="常规 2 3 3 3 3" xfId="144"/>
+    <cellStyle name="常规 2 3 3 4" xfId="145"/>
+    <cellStyle name="常规 2 3 3 4 2" xfId="146"/>
+    <cellStyle name="常规 2 3 3 4 3" xfId="147"/>
+    <cellStyle name="常规 2 3 3 5" xfId="148"/>
+    <cellStyle name="常规 2 3 4" xfId="149"/>
+    <cellStyle name="常规 2 3 4 2" xfId="150"/>
+    <cellStyle name="常规 2 3 4 2 2" xfId="151"/>
+    <cellStyle name="常规 2 3 4 2 2 2" xfId="152"/>
+    <cellStyle name="常规 2 3 4 2 2 3" xfId="153"/>
+    <cellStyle name="常规 2 3 4 2 3" xfId="154"/>
+    <cellStyle name="常规 2 3 4 3" xfId="155"/>
+    <cellStyle name="常规 2 3 4 3 2" xfId="156"/>
+    <cellStyle name="常规 2 3 4 3 3" xfId="157"/>
+    <cellStyle name="常规 2 3 4 4" xfId="158"/>
+    <cellStyle name="常规 2 3 5" xfId="159"/>
+    <cellStyle name="常规 2 3 5 2" xfId="160"/>
+    <cellStyle name="常规 2 3 5 2 2" xfId="161"/>
+    <cellStyle name="常规 2 3 5 2 3" xfId="162"/>
+    <cellStyle name="常规 2 3 5 3" xfId="163"/>
+    <cellStyle name="常规 2 3 6" xfId="164"/>
+    <cellStyle name="常规 2 3 6 2" xfId="165"/>
+    <cellStyle name="常规 2 3 6 3" xfId="166"/>
+    <cellStyle name="常规 2 3 7" xfId="167"/>
+    <cellStyle name="常规 2 4" xfId="168"/>
+    <cellStyle name="常规 2 4 2" xfId="169"/>
+    <cellStyle name="常规 2 4 2 2" xfId="170"/>
+    <cellStyle name="常规 2 4 2 2 2" xfId="171"/>
+    <cellStyle name="常规 2 4 2 2 2 2" xfId="172"/>
+    <cellStyle name="常规 2 4 2 2 2 2 2" xfId="173"/>
+    <cellStyle name="常规 2 4 2 2 2 2 3" xfId="174"/>
+    <cellStyle name="常规 2 4 2 2 2 3" xfId="175"/>
+    <cellStyle name="常规 2 4 2 2 3" xfId="176"/>
+    <cellStyle name="常规 2 4 2 2 3 2" xfId="177"/>
+    <cellStyle name="常规 2 4 2 2 3 3" xfId="178"/>
+    <cellStyle name="常规 2 4 2 2 4" xfId="179"/>
+    <cellStyle name="常规 2 4 2 3" xfId="180"/>
+    <cellStyle name="常规 2 4 2 3 2" xfId="181"/>
+    <cellStyle name="常规 2 4 2 3 2 2" xfId="182"/>
+    <cellStyle name="常规 2 4 2 3 2 3" xfId="183"/>
+    <cellStyle name="常规 2 4 2 3 3" xfId="184"/>
+    <cellStyle name="常规 2 4 2 4" xfId="185"/>
+    <cellStyle name="常规 2 4 2 4 2" xfId="186"/>
+    <cellStyle name="常规 2 4 2 4 3" xfId="187"/>
+    <cellStyle name="常规 2 4 2 5" xfId="188"/>
+    <cellStyle name="常规 2 4 3" xfId="189"/>
+    <cellStyle name="常规 2 4 3 2" xfId="190"/>
+    <cellStyle name="常规 2 4 3 2 2" xfId="191"/>
+    <cellStyle name="常规 2 4 3 2 2 2" xfId="192"/>
+    <cellStyle name="常规 2 4 3 2 2 3" xfId="193"/>
+    <cellStyle name="常规 2 4 3 2 3" xfId="194"/>
+    <cellStyle name="常规 2 4 3 3" xfId="195"/>
+    <cellStyle name="常规 2 4 3 3 2" xfId="196"/>
+    <cellStyle name="常规 2 4 3 3 3" xfId="197"/>
+    <cellStyle name="常规 2 4 3 4" xfId="198"/>
+    <cellStyle name="常规 2 4 4" xfId="199"/>
+    <cellStyle name="常规 2 4 4 2" xfId="200"/>
+    <cellStyle name="常规 2 4 4 2 2" xfId="201"/>
+    <cellStyle name="常规 2 4 4 2 3" xfId="202"/>
+    <cellStyle name="常规 2 4 4 3" xfId="203"/>
+    <cellStyle name="常规 2 4 5" xfId="204"/>
+    <cellStyle name="常规 2 4 5 2" xfId="205"/>
+    <cellStyle name="常规 2 4 5 3" xfId="206"/>
+    <cellStyle name="常规 2 4 6" xfId="207"/>
+    <cellStyle name="常规 2 5" xfId="208"/>
+    <cellStyle name="常规 2 5 2" xfId="209"/>
+    <cellStyle name="常规 2 5 2 2" xfId="210"/>
+    <cellStyle name="常规 2 5 2 2 2" xfId="211"/>
+    <cellStyle name="常规 2 5 2 2 2 2" xfId="212"/>
+    <cellStyle name="常规 2 5 2 2 2 3" xfId="213"/>
+    <cellStyle name="常规 2 5 2 2 3" xfId="214"/>
+    <cellStyle name="常规 2 5 2 3" xfId="215"/>
+    <cellStyle name="常规 2 5 2 3 2" xfId="216"/>
+    <cellStyle name="常规 2 5 2 3 3" xfId="217"/>
+    <cellStyle name="常规 2 5 2 4" xfId="218"/>
+    <cellStyle name="常规 2 5 3" xfId="219"/>
+    <cellStyle name="常规 2 5 3 2" xfId="220"/>
+    <cellStyle name="常规 2 5 3 2 2" xfId="221"/>
+    <cellStyle name="常规 2 5 3 2 3" xfId="222"/>
+    <cellStyle name="常规 2 5 3 3" xfId="223"/>
+    <cellStyle name="常规 2 5 4" xfId="224"/>
+    <cellStyle name="常规 2 5 4 2" xfId="225"/>
+    <cellStyle name="常规 2 5 4 3" xfId="226"/>
+    <cellStyle name="常规 2 5 5" xfId="227"/>
+    <cellStyle name="常规 2 6" xfId="228"/>
+    <cellStyle name="常规 2 6 2" xfId="229"/>
+    <cellStyle name="常规 2 6 2 2" xfId="230"/>
+    <cellStyle name="常规 2 6 2 2 2" xfId="231"/>
+    <cellStyle name="常规 2 6 2 2 3" xfId="232"/>
+    <cellStyle name="常规 2 6 2 3" xfId="233"/>
+    <cellStyle name="常规 2 6 3" xfId="234"/>
+    <cellStyle name="常规 2 6 3 2" xfId="235"/>
+    <cellStyle name="常规 2 6 3 3" xfId="236"/>
+    <cellStyle name="常规 2 6 4" xfId="237"/>
+    <cellStyle name="常规 2 7" xfId="238"/>
+    <cellStyle name="常规 2 7 2" xfId="239"/>
+    <cellStyle name="常规 2 7 2 2" xfId="240"/>
+    <cellStyle name="常规 2 7 2 3" xfId="241"/>
+    <cellStyle name="常规 2 7 3" xfId="242"/>
+    <cellStyle name="常规 2 8" xfId="243"/>
+    <cellStyle name="常规 2 8 2" xfId="244"/>
+    <cellStyle name="常规 2 8 3" xfId="245"/>
+    <cellStyle name="常规 2 9" xfId="246"/>
+    <cellStyle name="常规 3" xfId="247"/>
+    <cellStyle name="常规 3 2" xfId="248"/>
+    <cellStyle name="常规 3 2 2" xfId="249"/>
+    <cellStyle name="常规 3 2 2 2" xfId="250"/>
+    <cellStyle name="常规 3 2 2 2 2" xfId="251"/>
+    <cellStyle name="常规 3 2 2 2 2 2" xfId="252"/>
+    <cellStyle name="常规 3 2 2 2 2 2 2" xfId="253"/>
+    <cellStyle name="常规 3 2 2 2 2 2 3" xfId="254"/>
+    <cellStyle name="常规 3 2 2 2 2 3" xfId="255"/>
+    <cellStyle name="常规 3 2 2 2 3" xfId="256"/>
+    <cellStyle name="常规 3 2 2 2 3 2" xfId="257"/>
+    <cellStyle name="常规 3 2 2 2 3 3" xfId="258"/>
+    <cellStyle name="常规 3 2 2 2 4" xfId="259"/>
+    <cellStyle name="常规 3 2 2 3" xfId="260"/>
+    <cellStyle name="常规 3 2 2 3 2" xfId="261"/>
+    <cellStyle name="常规 3 2 2 3 2 2" xfId="262"/>
+    <cellStyle name="常规 3 2 2 3 2 3" xfId="263"/>
+    <cellStyle name="常规 3 2 2 3 3" xfId="264"/>
+    <cellStyle name="常规 3 2 2 4" xfId="265"/>
+    <cellStyle name="常规 3 2 2 4 2" xfId="266"/>
+    <cellStyle name="常规 3 2 2 4 3" xfId="267"/>
+    <cellStyle name="常规 3 2 2 5" xfId="268"/>
+    <cellStyle name="常规 3 2 3" xfId="269"/>
+    <cellStyle name="常规 3 2 3 2" xfId="270"/>
+    <cellStyle name="常规 3 2 3 2 2" xfId="271"/>
+    <cellStyle name="常规 3 2 3 2 2 2" xfId="272"/>
+    <cellStyle name="常规 3 2 3 2 2 3" xfId="273"/>
+    <cellStyle name="常规 3 2 3 2 3" xfId="274"/>
+    <cellStyle name="常规 3 2 3 3" xfId="275"/>
+    <cellStyle name="常规 3 2 3 3 2" xfId="276"/>
+    <cellStyle name="常规 3 2 3 3 3" xfId="277"/>
+    <cellStyle name="常规 3 2 3 4" xfId="278"/>
+    <cellStyle name="常规 3 2 4" xfId="279"/>
+    <cellStyle name="常规 3 2 4 2" xfId="280"/>
+    <cellStyle name="常规 3 2 4 2 2" xfId="281"/>
+    <cellStyle name="常规 3 2 4 2 3" xfId="282"/>
+    <cellStyle name="常规 3 2 4 3" xfId="283"/>
+    <cellStyle name="常规 3 2 5" xfId="284"/>
+    <cellStyle name="常规 3 2 5 2" xfId="285"/>
+    <cellStyle name="常规 3 2 5 3" xfId="286"/>
+    <cellStyle name="常规 3 2 6" xfId="287"/>
+    <cellStyle name="常规 3 3" xfId="288"/>
+    <cellStyle name="常规 3 3 2" xfId="289"/>
+    <cellStyle name="常规 3 3 2 2" xfId="290"/>
+    <cellStyle name="常规 3 3 2 2 2" xfId="291"/>
+    <cellStyle name="常规 3 3 2 2 2 2" xfId="292"/>
+    <cellStyle name="常规 3 3 2 2 2 3" xfId="293"/>
+    <cellStyle name="常规 3 3 2 2 3" xfId="294"/>
+    <cellStyle name="常规 3 3 2 3" xfId="295"/>
+    <cellStyle name="常规 3 3 2 3 2" xfId="296"/>
+    <cellStyle name="常规 3 3 2 3 3" xfId="297"/>
+    <cellStyle name="常规 3 3 2 4" xfId="298"/>
+    <cellStyle name="常规 3 3 3" xfId="299"/>
+    <cellStyle name="常规 3 3 3 2" xfId="300"/>
+    <cellStyle name="常规 3 3 3 2 2" xfId="301"/>
+    <cellStyle name="常规 3 3 3 2 3" xfId="302"/>
+    <cellStyle name="常规 3 3 3 3" xfId="303"/>
+    <cellStyle name="常规 3 3 4" xfId="304"/>
+    <cellStyle name="常规 3 3 4 2" xfId="305"/>
+    <cellStyle name="常规 3 3 4 3" xfId="306"/>
+    <cellStyle name="常规 3 3 5" xfId="307"/>
+    <cellStyle name="常规 3 4" xfId="308"/>
+    <cellStyle name="常规 3 4 2" xfId="309"/>
+    <cellStyle name="常规 3 4 2 2" xfId="310"/>
+    <cellStyle name="常规 3 4 2 2 2" xfId="311"/>
+    <cellStyle name="常规 3 4 2 2 3" xfId="312"/>
+    <cellStyle name="常规 3 4 2 3" xfId="313"/>
+    <cellStyle name="常规 3 4 3" xfId="314"/>
+    <cellStyle name="常规 3 4 3 2" xfId="315"/>
+    <cellStyle name="常规 3 4 3 3" xfId="316"/>
+    <cellStyle name="常规 3 4 4" xfId="317"/>
+    <cellStyle name="常规 3 5" xfId="318"/>
+    <cellStyle name="常规 3 5 2" xfId="319"/>
+    <cellStyle name="常规 3 5 2 2" xfId="320"/>
+    <cellStyle name="常规 3 5 2 3" xfId="321"/>
+    <cellStyle name="常规 3 5 3" xfId="322"/>
+    <cellStyle name="常规 3 6" xfId="323"/>
+    <cellStyle name="常规 3 6 2" xfId="324"/>
+    <cellStyle name="常规 3 6 3" xfId="325"/>
+    <cellStyle name="常规 3 7" xfId="326"/>
+    <cellStyle name="常规 4" xfId="327"/>
+    <cellStyle name="常规 4 2" xfId="328"/>
+    <cellStyle name="常规 4 2 2" xfId="329"/>
+    <cellStyle name="常规 4 2 2 2" xfId="330"/>
+    <cellStyle name="常规 4 2 2 2 2" xfId="331"/>
+    <cellStyle name="常规 4 2 2 2 2 2" xfId="332"/>
+    <cellStyle name="常规 4 2 2 2 2 2 2" xfId="333"/>
+    <cellStyle name="常规 4 2 2 2 2 2 3" xfId="334"/>
+    <cellStyle name="常规 4 2 2 2 2 3" xfId="335"/>
+    <cellStyle name="常规 4 2 2 2 3" xfId="336"/>
+    <cellStyle name="常规 4 2 2 2 3 2" xfId="337"/>
+    <cellStyle name="常规 4 2 2 2 3 3" xfId="338"/>
+    <cellStyle name="常规 4 2 2 2 4" xfId="339"/>
+    <cellStyle name="常规 4 2 2 3" xfId="340"/>
+    <cellStyle name="常规 4 2 2 3 2" xfId="341"/>
+    <cellStyle name="常规 4 2 2 3 2 2" xfId="342"/>
+    <cellStyle name="常规 4 2 2 3 2 3" xfId="343"/>
+    <cellStyle name="常规 4 2 2 3 3" xfId="344"/>
+    <cellStyle name="常规 4 2 2 4" xfId="345"/>
+    <cellStyle name="常规 4 2 2 4 2" xfId="346"/>
+    <cellStyle name="常规 4 2 2 4 3" xfId="347"/>
+    <cellStyle name="常规 4 2 2 5" xfId="348"/>
+    <cellStyle name="常规 4 2 3" xfId="349"/>
+    <cellStyle name="常规 4 2 3 2" xfId="350"/>
+    <cellStyle name="常规 4 2 3 2 2" xfId="351"/>
+    <cellStyle name="常规 4 2 3 2 2 2" xfId="352"/>
+    <cellStyle name="常规 4 2 3 2 2 3" xfId="353"/>
+    <cellStyle name="常规 4 2 3 2 3" xfId="354"/>
+    <cellStyle name="常规 4 2 3 3" xfId="355"/>
+    <cellStyle name="常规 4 2 3 3 2" xfId="356"/>
+    <cellStyle name="常规 4 2 3 3 3" xfId="357"/>
+    <cellStyle name="常规 4 2 3 4" xfId="358"/>
+    <cellStyle name="常规 4 2 4" xfId="359"/>
+    <cellStyle name="常规 4 2 4 2" xfId="360"/>
+    <cellStyle name="常规 4 2 4 2 2" xfId="361"/>
+    <cellStyle name="常规 4 2 4 2 3" xfId="362"/>
+    <cellStyle name="常规 4 2 4 3" xfId="363"/>
+    <cellStyle name="常规 4 2 5" xfId="364"/>
+    <cellStyle name="常规 4 2 5 2" xfId="365"/>
+    <cellStyle name="常规 4 2 5 3" xfId="366"/>
+    <cellStyle name="常规 4 2 6" xfId="367"/>
+    <cellStyle name="常规 4 3" xfId="368"/>
+    <cellStyle name="常规 4 3 2" xfId="369"/>
+    <cellStyle name="常规 4 3 2 2" xfId="370"/>
+    <cellStyle name="常规 4 3 2 2 2" xfId="371"/>
+    <cellStyle name="常规 4 3 2 2 2 2" xfId="372"/>
+    <cellStyle name="常规 4 3 2 2 2 3" xfId="373"/>
+    <cellStyle name="常规 4 3 2 2 3" xfId="374"/>
+    <cellStyle name="常规 4 3 2 3" xfId="375"/>
+    <cellStyle name="常规 4 3 2 3 2" xfId="376"/>
+    <cellStyle name="常规 4 3 2 3 3" xfId="377"/>
+    <cellStyle name="常规 4 3 2 4" xfId="378"/>
+    <cellStyle name="常规 4 3 3" xfId="379"/>
+    <cellStyle name="常规 4 3 3 2" xfId="380"/>
+    <cellStyle name="常规 4 3 3 2 2" xfId="381"/>
+    <cellStyle name="常规 4 3 3 2 3" xfId="382"/>
+    <cellStyle name="常规 4 3 3 3" xfId="383"/>
+    <cellStyle name="常规 4 3 4" xfId="384"/>
+    <cellStyle name="常规 4 3 4 2" xfId="385"/>
+    <cellStyle name="常规 4 3 4 3" xfId="386"/>
+    <cellStyle name="常规 4 3 5" xfId="387"/>
+    <cellStyle name="常规 4 4" xfId="388"/>
+    <cellStyle name="常规 4 4 2" xfId="389"/>
+    <cellStyle name="常规 4 4 2 2" xfId="390"/>
+    <cellStyle name="常规 4 4 2 2 2" xfId="391"/>
+    <cellStyle name="常规 4 4 2 2 3" xfId="392"/>
+    <cellStyle name="常规 4 4 2 3" xfId="393"/>
+    <cellStyle name="常规 4 4 3" xfId="394"/>
+    <cellStyle name="常规 4 4 3 2" xfId="395"/>
+    <cellStyle name="常规 4 4 3 3" xfId="396"/>
+    <cellStyle name="常规 4 4 4" xfId="397"/>
+    <cellStyle name="常规 4 5" xfId="398"/>
+    <cellStyle name="常规 4 5 2" xfId="399"/>
+    <cellStyle name="常规 4 5 2 2" xfId="400"/>
+    <cellStyle name="常规 4 5 2 3" xfId="401"/>
+    <cellStyle name="常规 4 5 3" xfId="402"/>
+    <cellStyle name="常规 4 6" xfId="403"/>
+    <cellStyle name="常规 4 6 2" xfId="404"/>
+    <cellStyle name="常规 4 6 3" xfId="405"/>
+    <cellStyle name="常规 4 7" xfId="406"/>
+    <cellStyle name="常规 5" xfId="407"/>
+    <cellStyle name="常规 5 2" xfId="408"/>
+    <cellStyle name="常规 5 2 2" xfId="409"/>
+    <cellStyle name="常规 5 2 2 2" xfId="410"/>
+    <cellStyle name="常规 5 2 2 2 2" xfId="411"/>
+    <cellStyle name="常规 5 2 2 2 2 2" xfId="412"/>
+    <cellStyle name="常规 5 2 2 2 2 3" xfId="413"/>
+    <cellStyle name="常规 5 2 2 2 3" xfId="414"/>
+    <cellStyle name="常规 5 2 2 3" xfId="415"/>
+    <cellStyle name="常规 5 2 2 3 2" xfId="416"/>
+    <cellStyle name="常规 5 2 2 3 3" xfId="417"/>
+    <cellStyle name="常规 5 2 2 4" xfId="418"/>
+    <cellStyle name="常规 5 2 3" xfId="419"/>
+    <cellStyle name="常规 5 2 3 2" xfId="420"/>
+    <cellStyle name="常规 5 2 3 2 2" xfId="421"/>
+    <cellStyle name="常规 5 2 3 2 3" xfId="422"/>
+    <cellStyle name="常规 5 2 3 3" xfId="423"/>
+    <cellStyle name="常规 5 2 4" xfId="424"/>
+    <cellStyle name="常规 5 2 4 2" xfId="425"/>
+    <cellStyle name="常规 5 2 4 3" xfId="426"/>
+    <cellStyle name="常规 5 2 5" xfId="427"/>
+    <cellStyle name="常规 5 3" xfId="428"/>
+    <cellStyle name="常规 5 3 2" xfId="429"/>
+    <cellStyle name="常规 5 3 2 2" xfId="430"/>
+    <cellStyle name="常规 5 3 2 2 2" xfId="431"/>
+    <cellStyle name="常规 5 3 2 2 3" xfId="432"/>
+    <cellStyle name="常规 5 3 2 3" xfId="433"/>
+    <cellStyle name="常规 5 3 3" xfId="434"/>
+    <cellStyle name="常规 5 3 3 2" xfId="435"/>
+    <cellStyle name="常规 5 3 3 3" xfId="436"/>
+    <cellStyle name="常规 5 3 4" xfId="437"/>
+    <cellStyle name="常规 5 4" xfId="438"/>
+    <cellStyle name="常规 5 4 2" xfId="439"/>
+    <cellStyle name="常规 5 4 2 2" xfId="440"/>
+    <cellStyle name="常规 5 4 2 3" xfId="441"/>
+    <cellStyle name="常规 5 4 3" xfId="442"/>
+    <cellStyle name="常规 5 5" xfId="443"/>
+    <cellStyle name="常规 5 5 2" xfId="444"/>
+    <cellStyle name="常规 5 5 3" xfId="445"/>
+    <cellStyle name="常规 5 6" xfId="446"/>
+    <cellStyle name="常规 6" xfId="447"/>
+    <cellStyle name="常规 6 2" xfId="448"/>
+    <cellStyle name="常规 6 2 2" xfId="449"/>
+    <cellStyle name="常规 6 2 2 2" xfId="450"/>
+    <cellStyle name="常规 6 2 2 2 2" xfId="451"/>
+    <cellStyle name="常规 6 2 2 2 3" xfId="452"/>
+    <cellStyle name="常规 6 2 2 3" xfId="453"/>
+    <cellStyle name="常规 6 2 3" xfId="454"/>
+    <cellStyle name="常规 6 2 3 2" xfId="455"/>
+    <cellStyle name="常规 6 2 3 3" xfId="456"/>
+    <cellStyle name="常规 6 2 4" xfId="457"/>
+    <cellStyle name="常规 6 3" xfId="458"/>
+    <cellStyle name="常规 6 3 2" xfId="459"/>
+    <cellStyle name="常规 6 3 2 2" xfId="460"/>
+    <cellStyle name="常规 6 3 2 3" xfId="461"/>
+    <cellStyle name="常规 6 3 3" xfId="462"/>
+    <cellStyle name="常规 6 4" xfId="463"/>
+    <cellStyle name="常规 6 4 2" xfId="464"/>
+    <cellStyle name="常规 6 4 3" xfId="465"/>
+    <cellStyle name="常规 6 5" xfId="466"/>
+    <cellStyle name="常规 7" xfId="467"/>
+    <cellStyle name="常规 7 2" xfId="468"/>
+    <cellStyle name="常规 7 2 2" xfId="469"/>
+    <cellStyle name="常规 7 2 2 2" xfId="470"/>
+    <cellStyle name="常规 7 2 2 3" xfId="471"/>
+    <cellStyle name="常规 7 2 3" xfId="472"/>
+    <cellStyle name="常规 7 3" xfId="473"/>
+    <cellStyle name="常规 7 3 2" xfId="474"/>
+    <cellStyle name="常规 7 3 3" xfId="475"/>
+    <cellStyle name="常规 7 4" xfId="476"/>
+    <cellStyle name="常规 8" xfId="477"/>
+    <cellStyle name="常规 8 2" xfId="478"/>
+    <cellStyle name="常规 8 2 2" xfId="479"/>
+    <cellStyle name="常规 8 2 3" xfId="480"/>
+    <cellStyle name="常规 8 3" xfId="481"/>
+    <cellStyle name="常规 9" xfId="482"/>
+    <cellStyle name="常规 9 2" xfId="483"/>
+    <cellStyle name="常规 9 3" xfId="484"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="37">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1925,6 +1678,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2211,23 +1967,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G243"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="56.875" style="5" customWidth="1"/>
@@ -2239,7 +1994,7 @@
     <col min="8" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2262,7 +2017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -2285,7 +2040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:7">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
@@ -2308,7 +2063,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:6">
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="13" t="s">
         <v>20</v>
@@ -2324,7 +2079,7 @@
       </c>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:6">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
       <c r="B5" s="13" t="s">
         <v>23</v>
@@ -2340,7 +2095,7 @@
       </c>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:6">
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
@@ -2358,7 +2113,7 @@
       </c>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:7">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>13</v>
       </c>
@@ -2377,7 +2132,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:7">
+    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="13" t="s">
         <v>31</v>
@@ -2394,15 +2149,23 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:6">
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="13">
+        <v>3</v>
+      </c>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:6">
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -2410,7 +2173,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" s="3" customFormat="1" spans="1:6">
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -2418,7 +2181,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" s="3" customFormat="1" spans="1:6">
+    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -2426,7 +2189,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" s="3" customFormat="1" spans="1:6">
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -2434,7 +2197,7 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" s="3" customFormat="1" spans="1:6">
+    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -2442,7 +2205,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" s="3" customFormat="1" spans="1:6">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -2450,7 +2213,7 @@
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" s="3" customFormat="1" spans="1:6">
+    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -2458,7 +2221,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" s="3" customFormat="1" spans="1:6">
+    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -2466,7 +2229,7 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" s="3" customFormat="1" spans="1:6">
+    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -2474,7 +2237,7 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" s="3" customFormat="1" spans="1:6">
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -2482,7 +2245,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" s="3" customFormat="1" spans="1:6">
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -2490,7 +2253,7 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
     </row>
-    <row r="21" s="3" customFormat="1" spans="1:6">
+    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -2498,7 +2261,7 @@
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" s="3" customFormat="1" spans="1:6">
+    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -2506,7 +2269,7 @@
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" s="3" customFormat="1" spans="1:6">
+    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -2514,7 +2277,7 @@
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" s="3" customFormat="1" spans="1:6">
+    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -2522,7 +2285,7 @@
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
     </row>
-    <row r="25" s="3" customFormat="1" spans="1:6">
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -2530,7 +2293,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
     </row>
-    <row r="26" s="3" customFormat="1" spans="1:6">
+    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -2538,7 +2301,7 @@
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
     </row>
-    <row r="27" s="3" customFormat="1" spans="1:6">
+    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -2546,7 +2309,7 @@
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
     </row>
-    <row r="28" s="3" customFormat="1" spans="1:6">
+    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -2554,7 +2317,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
     </row>
-    <row r="29" s="3" customFormat="1" spans="1:6">
+    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -2562,7 +2325,7 @@
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
     </row>
-    <row r="30" s="3" customFormat="1" spans="1:6">
+    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -2570,7 +2333,7 @@
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
     </row>
-    <row r="31" s="3" customFormat="1" spans="1:6">
+    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -2578,7 +2341,7 @@
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" s="3" customFormat="1" spans="1:6">
+    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -2586,7 +2349,7 @@
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
     </row>
-    <row r="33" s="3" customFormat="1" spans="1:6">
+    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -2594,7 +2357,7 @@
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
     </row>
-    <row r="34" s="3" customFormat="1" spans="1:6">
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -2602,7 +2365,7 @@
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
     </row>
-    <row r="35" s="3" customFormat="1" spans="1:6">
+    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -2610,7 +2373,7 @@
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
     </row>
-    <row r="36" s="3" customFormat="1" spans="1:6">
+    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -2618,7 +2381,7 @@
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
     </row>
-    <row r="37" s="3" customFormat="1" spans="1:6">
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -2626,7 +2389,7 @@
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
     </row>
-    <row r="38" s="3" customFormat="1" spans="1:6">
+    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -2634,7 +2397,7 @@
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
     </row>
-    <row r="39" s="3" customFormat="1" spans="1:6">
+    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -2642,7 +2405,7 @@
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
     </row>
-    <row r="40" s="3" customFormat="1" spans="1:6">
+    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -2650,7 +2413,7 @@
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
     </row>
-    <row r="41" s="3" customFormat="1" spans="1:6">
+    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -2658,7 +2421,7 @@
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
     </row>
-    <row r="42" s="3" customFormat="1" spans="1:6">
+    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -2666,7 +2429,7 @@
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
     </row>
-    <row r="43" s="3" customFormat="1" spans="1:6">
+    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -2674,7 +2437,7 @@
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
     </row>
-    <row r="44" s="3" customFormat="1" spans="1:6">
+    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -2682,7 +2445,7 @@
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
     </row>
-    <row r="45" s="3" customFormat="1" spans="1:6">
+    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -2690,7 +2453,7 @@
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
     </row>
-    <row r="46" s="3" customFormat="1" spans="1:6">
+    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -2698,7 +2461,7 @@
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
     </row>
-    <row r="47" s="3" customFormat="1" spans="1:6">
+    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -2706,7 +2469,7 @@
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
     </row>
-    <row r="48" s="3" customFormat="1" spans="1:6">
+    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -2714,7 +2477,7 @@
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
     </row>
-    <row r="49" s="3" customFormat="1" spans="1:6">
+    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -2722,7 +2485,7 @@
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
     </row>
-    <row r="50" s="3" customFormat="1" spans="1:6">
+    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -2730,7 +2493,7 @@
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
     </row>
-    <row r="51" s="3" customFormat="1" spans="1:6">
+    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -2738,7 +2501,7 @@
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
     </row>
-    <row r="52" s="3" customFormat="1" spans="1:6">
+    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -2746,7 +2509,7 @@
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
     </row>
-    <row r="53" s="3" customFormat="1" spans="1:6">
+    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -2754,7 +2517,7 @@
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
     </row>
-    <row r="54" s="3" customFormat="1" spans="1:6">
+    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -2762,7 +2525,7 @@
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
     </row>
-    <row r="55" s="3" customFormat="1" spans="1:6">
+    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
@@ -2770,7 +2533,7 @@
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
     </row>
-    <row r="56" s="3" customFormat="1" spans="1:6">
+    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -2778,7 +2541,7 @@
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
     </row>
-    <row r="57" s="3" customFormat="1" spans="1:6">
+    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="12"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -2786,7 +2549,7 @@
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
     </row>
-    <row r="58" s="3" customFormat="1" spans="1:6">
+    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="12"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
@@ -2794,7 +2557,7 @@
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
     </row>
-    <row r="59" s="3" customFormat="1" spans="1:6">
+    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="12"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -2802,7 +2565,7 @@
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
     </row>
-    <row r="60" s="3" customFormat="1" spans="1:6">
+    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -2810,7 +2573,7 @@
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
     </row>
-    <row r="61" s="3" customFormat="1" spans="1:6">
+    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -2818,7 +2581,7 @@
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
     </row>
-    <row r="62" s="3" customFormat="1" spans="1:6">
+    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
@@ -2826,7 +2589,7 @@
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
     </row>
-    <row r="63" s="3" customFormat="1" spans="1:6">
+    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -2834,7 +2597,7 @@
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
     </row>
-    <row r="64" s="3" customFormat="1" spans="1:6">
+    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="12"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
@@ -2842,7 +2605,7 @@
       <c r="E64" s="13"/>
       <c r="F64" s="13"/>
     </row>
-    <row r="65" s="3" customFormat="1" spans="1:6">
+    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="12"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -2850,7 +2613,7 @@
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
     </row>
-    <row r="66" s="3" customFormat="1" spans="1:6">
+    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="12"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -2858,7 +2621,7 @@
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
     </row>
-    <row r="67" s="3" customFormat="1" spans="1:6">
+    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="12"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -2866,7 +2629,7 @@
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
     </row>
-    <row r="68" s="3" customFormat="1" spans="1:6">
+    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="12"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -2874,7 +2637,7 @@
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
     </row>
-    <row r="69" s="3" customFormat="1" spans="1:6">
+    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="12"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -2882,7 +2645,7 @@
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
     </row>
-    <row r="70" s="3" customFormat="1" spans="1:6">
+    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="12"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -2890,7 +2653,7 @@
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
     </row>
-    <row r="71" s="3" customFormat="1" spans="1:6">
+    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="12"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -2898,7 +2661,7 @@
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
     </row>
-    <row r="72" s="3" customFormat="1" spans="1:6">
+    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12"/>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
@@ -2906,7 +2669,7 @@
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
     </row>
-    <row r="73" s="3" customFormat="1" spans="1:6">
+    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
@@ -2914,7 +2677,7 @@
       <c r="E73" s="13"/>
       <c r="F73" s="13"/>
     </row>
-    <row r="74" s="3" customFormat="1" spans="1:6">
+    <row r="74" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
@@ -2922,7 +2685,7 @@
       <c r="E74" s="13"/>
       <c r="F74" s="13"/>
     </row>
-    <row r="75" s="3" customFormat="1" spans="1:6">
+    <row r="75" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="12"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
@@ -2930,169 +2693,169 @@
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
     </row>
-    <row r="76" s="3" customFormat="1"/>
-    <row r="77" s="3" customFormat="1" spans="2:6">
+    <row r="76" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
     </row>
-    <row r="78" s="3" customFormat="1" spans="2:6">
+    <row r="78" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
     </row>
-    <row r="79" s="3" customFormat="1" spans="2:6">
+    <row r="79" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
     </row>
-    <row r="80" s="3" customFormat="1" spans="2:6">
+    <row r="80" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
     </row>
-    <row r="81" s="3" customFormat="1" spans="2:6">
+    <row r="81" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
       <c r="F81" s="13"/>
     </row>
-    <row r="82" s="3" customFormat="1" spans="2:6">
+    <row r="82" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
       <c r="F82" s="13"/>
     </row>
-    <row r="83" s="3" customFormat="1" spans="2:6">
+    <row r="83" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
       <c r="F83" s="13"/>
     </row>
-    <row r="84" s="3" customFormat="1" spans="2:6">
+    <row r="84" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
       <c r="F84" s="13"/>
     </row>
-    <row r="85" s="3" customFormat="1" spans="2:6">
+    <row r="85" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
       <c r="F85" s="13"/>
     </row>
-    <row r="86" s="3" customFormat="1" spans="2:6">
+    <row r="86" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13"/>
       <c r="F86" s="13"/>
     </row>
-    <row r="87" s="3" customFormat="1" spans="2:6">
+    <row r="87" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
       <c r="E87" s="13"/>
       <c r="F87" s="13"/>
     </row>
-    <row r="88" s="3" customFormat="1" spans="2:6">
+    <row r="88" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
       <c r="F88" s="13"/>
     </row>
-    <row r="89" s="3" customFormat="1" spans="2:6">
+    <row r="89" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13"/>
       <c r="F89" s="13"/>
     </row>
-    <row r="90" s="3" customFormat="1" spans="2:6">
+    <row r="90" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
       <c r="F90" s="13"/>
     </row>
-    <row r="91" s="3" customFormat="1" spans="2:6">
+    <row r="91" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
       <c r="E91" s="13"/>
       <c r="F91" s="13"/>
     </row>
-    <row r="92" s="3" customFormat="1" spans="2:6">
+    <row r="92" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
       <c r="E92" s="13"/>
       <c r="F92" s="13"/>
     </row>
-    <row r="93" s="3" customFormat="1" spans="2:6">
+    <row r="93" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
       <c r="E93" s="13"/>
       <c r="F93" s="13"/>
     </row>
-    <row r="94" s="3" customFormat="1" spans="2:6">
+    <row r="94" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
       <c r="E94" s="13"/>
       <c r="F94" s="13"/>
     </row>
-    <row r="95" s="3" customFormat="1" spans="2:6">
+    <row r="95" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
       <c r="F95" s="13"/>
     </row>
-    <row r="96" s="3" customFormat="1" spans="2:6">
+    <row r="96" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
       <c r="F96" s="13"/>
     </row>
-    <row r="97" s="3" customFormat="1" spans="2:6">
+    <row r="97" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
       <c r="E97" s="13"/>
       <c r="F97" s="13"/>
     </row>
-    <row r="98" s="3" customFormat="1" ht="18" customHeight="1" spans="2:6">
+    <row r="98" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
       <c r="E98" s="13"/>
       <c r="F98" s="13"/>
     </row>
-    <row r="99" s="3" customFormat="1" ht="18" customHeight="1" spans="2:6">
+    <row r="99" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
       <c r="E99" s="13"/>
       <c r="F99" s="13"/>
     </row>
-    <row r="100" s="3" customFormat="1" spans="1:6">
+    <row r="100" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="12"/>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
@@ -3100,7 +2863,7 @@
       <c r="E100" s="13"/>
       <c r="F100" s="13"/>
     </row>
-    <row r="101" s="3" customFormat="1" spans="1:6">
+    <row r="101" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="12"/>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
@@ -3108,7 +2871,7 @@
       <c r="E101" s="13"/>
       <c r="F101" s="13"/>
     </row>
-    <row r="102" s="3" customFormat="1" spans="1:6">
+    <row r="102" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="12"/>
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
@@ -3116,7 +2879,7 @@
       <c r="E102" s="13"/>
       <c r="F102" s="13"/>
     </row>
-    <row r="103" s="3" customFormat="1" spans="1:6">
+    <row r="103" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="12"/>
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
@@ -3124,7 +2887,7 @@
       <c r="E103" s="13"/>
       <c r="F103" s="13"/>
     </row>
-    <row r="104" s="3" customFormat="1" spans="1:6">
+    <row r="104" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="12"/>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
@@ -3132,7 +2895,7 @@
       <c r="E104" s="13"/>
       <c r="F104" s="13"/>
     </row>
-    <row r="105" s="3" customFormat="1" spans="1:6">
+    <row r="105" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="12"/>
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
@@ -3140,7 +2903,7 @@
       <c r="E105" s="13"/>
       <c r="F105" s="13"/>
     </row>
-    <row r="106" s="3" customFormat="1" spans="1:6">
+    <row r="106" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="12"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
@@ -3148,7 +2911,7 @@
       <c r="E106" s="13"/>
       <c r="F106" s="13"/>
     </row>
-    <row r="107" s="3" customFormat="1" spans="1:6">
+    <row r="107" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="12"/>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
@@ -3156,7 +2919,7 @@
       <c r="E107" s="13"/>
       <c r="F107" s="13"/>
     </row>
-    <row r="108" s="3" customFormat="1" spans="1:6">
+    <row r="108" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="12"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
@@ -3164,7 +2927,7 @@
       <c r="E108" s="13"/>
       <c r="F108" s="13"/>
     </row>
-    <row r="109" s="3" customFormat="1" spans="1:6">
+    <row r="109" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="12"/>
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
@@ -3172,7 +2935,7 @@
       <c r="E109" s="13"/>
       <c r="F109" s="13"/>
     </row>
-    <row r="110" s="3" customFormat="1" spans="1:6">
+    <row r="110" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="14"/>
       <c r="B110" s="15"/>
       <c r="C110" s="15"/>
@@ -3180,7 +2943,7 @@
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
     </row>
-    <row r="111" s="3" customFormat="1" spans="1:6">
+    <row r="111" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="12"/>
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
@@ -3188,133 +2951,133 @@
       <c r="E111" s="13"/>
       <c r="F111" s="13"/>
     </row>
-    <row r="112" spans="2:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
       <c r="D112" s="13"/>
       <c r="E112" s="13"/>
       <c r="F112" s="13"/>
     </row>
-    <row r="113" spans="2:6">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
       <c r="E113" s="13"/>
       <c r="F113" s="13"/>
     </row>
-    <row r="114" spans="2:6">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
       <c r="E114" s="13"/>
       <c r="F114" s="13"/>
     </row>
-    <row r="115" spans="2:6">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
       <c r="D115" s="13"/>
       <c r="E115" s="13"/>
       <c r="F115" s="13"/>
     </row>
-    <row r="116" spans="2:6">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
       <c r="D116" s="13"/>
       <c r="E116" s="13"/>
       <c r="F116" s="13"/>
     </row>
-    <row r="117" spans="2:6">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
       <c r="D117" s="13"/>
       <c r="E117" s="13"/>
       <c r="F117" s="13"/>
     </row>
-    <row r="118" spans="2:6">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B118" s="13"/>
       <c r="C118" s="13"/>
       <c r="D118" s="13"/>
       <c r="E118" s="13"/>
       <c r="F118" s="13"/>
     </row>
-    <row r="119" spans="2:6">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B119" s="13"/>
       <c r="C119" s="13"/>
       <c r="D119" s="13"/>
       <c r="E119" s="13"/>
       <c r="F119" s="13"/>
     </row>
-    <row r="120" spans="2:6">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B120" s="13"/>
       <c r="C120" s="13"/>
       <c r="D120" s="13"/>
       <c r="E120" s="13"/>
       <c r="F120" s="13"/>
     </row>
-    <row r="121" spans="2:6">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B121" s="13"/>
       <c r="C121" s="13"/>
       <c r="D121" s="13"/>
       <c r="E121" s="13"/>
       <c r="F121" s="13"/>
     </row>
-    <row r="122" spans="2:6">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B122" s="13"/>
       <c r="C122" s="13"/>
       <c r="D122" s="13"/>
       <c r="E122" s="13"/>
       <c r="F122" s="13"/>
     </row>
-    <row r="123" spans="2:6">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B123" s="13"/>
       <c r="C123" s="13"/>
       <c r="D123" s="13"/>
       <c r="E123" s="13"/>
       <c r="F123" s="13"/>
     </row>
-    <row r="124" spans="2:6">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
       <c r="D124" s="13"/>
       <c r="E124" s="13"/>
       <c r="F124" s="13"/>
     </row>
-    <row r="125" spans="2:6">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B125" s="13"/>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
       <c r="E125" s="13"/>
       <c r="F125" s="13"/>
     </row>
-    <row r="126" spans="2:6">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
       <c r="E126" s="13"/>
       <c r="F126" s="13"/>
     </row>
-    <row r="127" spans="2:6">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B127" s="13"/>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
       <c r="E127" s="13"/>
       <c r="F127" s="16"/>
     </row>
-    <row r="128" spans="2:6">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B128" s="13"/>
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
       <c r="E128" s="13"/>
       <c r="F128" s="13"/>
     </row>
-    <row r="129" spans="2:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B129" s="13"/>
       <c r="C129" s="13"/>
       <c r="D129" s="13"/>
       <c r="E129" s="13"/>
       <c r="F129" s="13"/>
     </row>
-    <row r="130" s="3" customFormat="1" spans="1:6">
+    <row r="130" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="12"/>
       <c r="B130" s="13"/>
       <c r="C130" s="13"/>
@@ -3322,7 +3085,7 @@
       <c r="E130" s="13"/>
       <c r="F130" s="13"/>
     </row>
-    <row r="131" s="3" customFormat="1" spans="1:6">
+    <row r="131" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="12"/>
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
@@ -3330,7 +3093,7 @@
       <c r="E131" s="13"/>
       <c r="F131" s="13"/>
     </row>
-    <row r="132" s="3" customFormat="1" spans="1:6">
+    <row r="132" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4"/>
       <c r="B132" s="13"/>
       <c r="C132" s="13"/>
@@ -3338,7 +3101,7 @@
       <c r="E132" s="13"/>
       <c r="F132" s="5"/>
     </row>
-    <row r="133" s="3" customFormat="1" spans="1:6">
+    <row r="133" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="12"/>
       <c r="B133" s="13"/>
       <c r="C133" s="13"/>
@@ -3346,7 +3109,7 @@
       <c r="E133" s="13"/>
       <c r="F133" s="13"/>
     </row>
-    <row r="134" s="3" customFormat="1" spans="1:6">
+    <row r="134" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="12"/>
       <c r="B134" s="13"/>
       <c r="C134" s="13"/>
@@ -3354,7 +3117,7 @@
       <c r="E134" s="13"/>
       <c r="F134" s="13"/>
     </row>
-    <row r="135" s="3" customFormat="1" spans="1:6">
+    <row r="135" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="12"/>
       <c r="B135" s="13"/>
       <c r="C135" s="13"/>
@@ -3362,7 +3125,7 @@
       <c r="E135" s="13"/>
       <c r="F135" s="13"/>
     </row>
-    <row r="136" s="3" customFormat="1" spans="1:6">
+    <row r="136" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="12"/>
       <c r="B136" s="13"/>
       <c r="C136" s="13"/>
@@ -3370,7 +3133,7 @@
       <c r="E136" s="13"/>
       <c r="F136" s="13"/>
     </row>
-    <row r="137" s="3" customFormat="1" spans="1:6">
+    <row r="137" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="12"/>
       <c r="B137" s="13"/>
       <c r="C137" s="13"/>
@@ -3378,7 +3141,7 @@
       <c r="E137" s="13"/>
       <c r="F137" s="13"/>
     </row>
-    <row r="138" s="3" customFormat="1" spans="1:6">
+    <row r="138" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="12"/>
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
@@ -3386,7 +3149,7 @@
       <c r="E138" s="13"/>
       <c r="F138" s="13"/>
     </row>
-    <row r="139" s="3" customFormat="1" spans="1:6">
+    <row r="139" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="12"/>
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
@@ -3394,7 +3157,7 @@
       <c r="E139" s="17"/>
       <c r="F139" s="13"/>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" s="12"/>
       <c r="B140" s="13"/>
       <c r="C140" s="13"/>
@@ -3402,7 +3165,7 @@
       <c r="E140" s="13"/>
       <c r="F140" s="13"/>
     </row>
-    <row r="141" s="3" customFormat="1" spans="1:6">
+    <row r="141" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="12"/>
       <c r="B141" s="13"/>
       <c r="C141" s="13"/>
@@ -3410,7 +3173,7 @@
       <c r="E141" s="13"/>
       <c r="F141" s="13"/>
     </row>
-    <row r="142" s="3" customFormat="1" spans="1:6">
+    <row r="142" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="12"/>
       <c r="B142" s="13"/>
       <c r="C142" s="13"/>
@@ -3418,7 +3181,7 @@
       <c r="E142" s="13"/>
       <c r="F142" s="13"/>
     </row>
-    <row r="143" s="3" customFormat="1" spans="1:6">
+    <row r="143" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="12"/>
       <c r="B143" s="13"/>
       <c r="C143" s="13"/>
@@ -3426,7 +3189,7 @@
       <c r="E143" s="13"/>
       <c r="F143" s="13"/>
     </row>
-    <row r="144" s="3" customFormat="1" spans="1:6">
+    <row r="144" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="12"/>
       <c r="B144" s="13"/>
       <c r="C144" s="13"/>
@@ -3434,7 +3197,7 @@
       <c r="E144" s="13"/>
       <c r="F144" s="13"/>
     </row>
-    <row r="145" s="3" customFormat="1" spans="1:6">
+    <row r="145" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="12"/>
       <c r="B145" s="13"/>
       <c r="C145" s="13"/>
@@ -3442,7 +3205,7 @@
       <c r="E145" s="13"/>
       <c r="F145" s="13"/>
     </row>
-    <row r="146" s="3" customFormat="1" spans="1:6">
+    <row r="146" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="12"/>
       <c r="B146" s="13"/>
       <c r="C146" s="13"/>
@@ -3450,7 +3213,7 @@
       <c r="E146" s="13"/>
       <c r="F146" s="13"/>
     </row>
-    <row r="147" s="3" customFormat="1" spans="1:6">
+    <row r="147" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="12"/>
       <c r="B147" s="13"/>
       <c r="C147" s="13"/>
@@ -3458,7 +3221,7 @@
       <c r="E147" s="13"/>
       <c r="F147" s="13"/>
     </row>
-    <row r="148" s="3" customFormat="1" spans="1:6">
+    <row r="148" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="12"/>
       <c r="B148" s="13"/>
       <c r="C148" s="13"/>
@@ -3466,7 +3229,7 @@
       <c r="E148" s="13"/>
       <c r="F148" s="13"/>
     </row>
-    <row r="149" s="3" customFormat="1" spans="1:6">
+    <row r="149" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="12"/>
       <c r="B149" s="13"/>
       <c r="C149" s="13"/>
@@ -3474,7 +3237,7 @@
       <c r="E149" s="13"/>
       <c r="F149" s="13"/>
     </row>
-    <row r="150" s="3" customFormat="1" spans="1:6">
+    <row r="150" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="12"/>
       <c r="B150" s="13"/>
       <c r="C150" s="13"/>
@@ -3482,7 +3245,7 @@
       <c r="E150" s="13"/>
       <c r="F150" s="13"/>
     </row>
-    <row r="151" s="3" customFormat="1" spans="1:6">
+    <row r="151" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="12"/>
       <c r="B151" s="13"/>
       <c r="C151" s="13"/>
@@ -3490,7 +3253,7 @@
       <c r="E151" s="13"/>
       <c r="F151" s="13"/>
     </row>
-    <row r="152" s="3" customFormat="1" spans="1:6">
+    <row r="152" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="12"/>
       <c r="B152" s="13"/>
       <c r="C152" s="13"/>
@@ -3498,7 +3261,7 @@
       <c r="E152" s="13"/>
       <c r="F152" s="13"/>
     </row>
-    <row r="153" s="3" customFormat="1" spans="1:6">
+    <row r="153" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="12"/>
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
@@ -3506,7 +3269,7 @@
       <c r="E153" s="13"/>
       <c r="F153" s="13"/>
     </row>
-    <row r="154" s="3" customFormat="1" spans="1:6">
+    <row r="154" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="12"/>
       <c r="B154" s="13"/>
       <c r="C154" s="13"/>
@@ -3514,7 +3277,7 @@
       <c r="E154" s="13"/>
       <c r="F154" s="13"/>
     </row>
-    <row r="155" s="3" customFormat="1" spans="1:6">
+    <row r="155" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="12"/>
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
@@ -3522,7 +3285,7 @@
       <c r="E155" s="13"/>
       <c r="F155" s="13"/>
     </row>
-    <row r="156" s="3" customFormat="1" spans="1:6">
+    <row r="156" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4"/>
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
@@ -3530,7 +3293,7 @@
       <c r="E156" s="13"/>
       <c r="F156" s="13"/>
     </row>
-    <row r="157" s="3" customFormat="1" spans="1:6">
+    <row r="157" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4"/>
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
@@ -3538,7 +3301,7 @@
       <c r="E157" s="13"/>
       <c r="F157" s="13"/>
     </row>
-    <row r="158" s="3" customFormat="1" spans="1:6">
+    <row r="158" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4"/>
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
@@ -3546,7 +3309,7 @@
       <c r="E158" s="13"/>
       <c r="F158" s="13"/>
     </row>
-    <row r="159" s="3" customFormat="1" spans="1:6">
+    <row r="159" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4"/>
       <c r="B159" s="13"/>
       <c r="C159" s="13"/>
@@ -3554,7 +3317,7 @@
       <c r="E159" s="13"/>
       <c r="F159" s="13"/>
     </row>
-    <row r="160" s="3" customFormat="1" spans="1:6">
+    <row r="160" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="12"/>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
@@ -3562,7 +3325,7 @@
       <c r="E160" s="13"/>
       <c r="F160" s="5"/>
     </row>
-    <row r="161" s="3" customFormat="1" spans="1:6">
+    <row r="161" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="12"/>
       <c r="B161" s="13"/>
       <c r="C161" s="13"/>
@@ -3570,7 +3333,7 @@
       <c r="E161" s="13"/>
       <c r="F161" s="5"/>
     </row>
-    <row r="162" s="3" customFormat="1" spans="1:6">
+    <row r="162" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="12"/>
       <c r="B162" s="13"/>
       <c r="C162" s="13"/>
@@ -3578,7 +3341,7 @@
       <c r="E162" s="13"/>
       <c r="F162" s="5"/>
     </row>
-    <row r="163" s="3" customFormat="1" spans="1:6">
+    <row r="163" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="12"/>
       <c r="B163" s="13"/>
       <c r="C163" s="13"/>
@@ -3586,7 +3349,7 @@
       <c r="E163" s="13"/>
       <c r="F163" s="5"/>
     </row>
-    <row r="164" customFormat="1" spans="1:6">
+    <row r="164" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
       <c r="B164" s="13"/>
       <c r="C164" s="13"/>
@@ -3594,490 +3357,490 @@
       <c r="E164" s="13"/>
       <c r="F164" s="5"/>
     </row>
-    <row r="165" spans="2:5">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B165" s="13"/>
       <c r="C165" s="13"/>
       <c r="D165" s="13"/>
       <c r="E165" s="13"/>
     </row>
-    <row r="166" spans="2:5">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B166" s="13"/>
       <c r="C166" s="13"/>
       <c r="D166" s="13"/>
       <c r="E166" s="13"/>
     </row>
-    <row r="167" spans="2:5">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B167" s="13"/>
       <c r="C167" s="13"/>
       <c r="D167" s="13"/>
       <c r="E167" s="13"/>
     </row>
-    <row r="168" spans="2:4">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
       <c r="D168" s="13"/>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A170" s="12"/>
       <c r="B170" s="13"/>
       <c r="C170" s="13"/>
       <c r="D170" s="13"/>
       <c r="E170" s="13"/>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A172" s="12"/>
       <c r="B172" s="13"/>
       <c r="C172" s="13"/>
       <c r="D172" s="13"/>
       <c r="E172" s="13"/>
     </row>
-    <row r="174" spans="2:5">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B174" s="13"/>
       <c r="C174" s="13"/>
       <c r="D174" s="13"/>
       <c r="E174" s="13"/>
     </row>
-    <row r="175" spans="2:5">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B175" s="13"/>
       <c r="C175" s="13"/>
       <c r="D175" s="13"/>
       <c r="E175" s="13"/>
     </row>
-    <row r="176" spans="2:5">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B176" s="13"/>
       <c r="C176" s="13"/>
       <c r="D176" s="13"/>
       <c r="E176" s="13"/>
     </row>
-    <row r="178" spans="2:6">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
       <c r="D178" s="13"/>
       <c r="E178" s="13"/>
       <c r="F178" s="13"/>
     </row>
-    <row r="180" spans="2:5">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B180" s="13"/>
       <c r="C180" s="13"/>
       <c r="D180" s="13"/>
       <c r="E180" s="13"/>
     </row>
-    <row r="181" spans="2:5">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B181" s="13"/>
       <c r="C181" s="13"/>
       <c r="D181" s="13"/>
       <c r="E181" s="13"/>
     </row>
-    <row r="182" spans="2:5">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B182" s="13"/>
       <c r="C182" s="13"/>
       <c r="D182" s="13"/>
       <c r="E182" s="13"/>
     </row>
-    <row r="183" spans="2:5">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B183" s="13"/>
       <c r="C183" s="13"/>
       <c r="D183" s="13"/>
       <c r="E183" s="13"/>
     </row>
-    <row r="184" spans="2:5">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B184" s="13"/>
       <c r="C184" s="13"/>
       <c r="D184" s="13"/>
       <c r="E184" s="13"/>
     </row>
-    <row r="185" spans="2:5">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B185" s="13"/>
       <c r="C185" s="13"/>
       <c r="D185" s="13"/>
       <c r="E185" s="13"/>
     </row>
-    <row r="187" spans="2:6">
+    <row r="187" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B187" s="13"/>
       <c r="C187" s="13"/>
       <c r="D187" s="13"/>
       <c r="E187" s="13"/>
       <c r="F187" s="13"/>
     </row>
-    <row r="189" spans="2:6">
+    <row r="189" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B189" s="13"/>
       <c r="C189" s="13"/>
       <c r="D189" s="13"/>
       <c r="E189" s="13"/>
       <c r="F189" s="13"/>
     </row>
-    <row r="190" spans="2:5">
+    <row r="190" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B190" s="13"/>
       <c r="C190" s="13"/>
       <c r="D190" s="13"/>
       <c r="E190" s="13"/>
     </row>
-    <row r="191" spans="2:5">
+    <row r="191" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B191" s="13"/>
       <c r="C191" s="13"/>
       <c r="D191" s="13"/>
       <c r="E191" s="13"/>
     </row>
-    <row r="192" spans="2:5">
+    <row r="192" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B192" s="13"/>
       <c r="C192" s="13"/>
       <c r="D192" s="13"/>
       <c r="E192" s="13"/>
     </row>
-    <row r="194" spans="2:6">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B194" s="13"/>
       <c r="C194" s="13"/>
       <c r="D194" s="13"/>
       <c r="E194" s="13"/>
       <c r="F194" s="13"/>
     </row>
-    <row r="196" spans="2:6">
+    <row r="196" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B196" s="13"/>
       <c r="C196" s="13"/>
       <c r="D196" s="13"/>
       <c r="E196" s="13"/>
       <c r="F196" s="13"/>
     </row>
-    <row r="197" spans="2:6">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B197" s="13"/>
       <c r="C197" s="13"/>
       <c r="D197" s="13"/>
       <c r="E197" s="13"/>
       <c r="F197" s="13"/>
     </row>
-    <row r="199" spans="4:4">
+    <row r="199" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D199" s="13"/>
     </row>
-    <row r="200" spans="4:4">
+    <row r="200" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D200" s="13"/>
     </row>
-    <row r="201" spans="4:5">
+    <row r="201" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D201" s="18"/>
       <c r="E201" s="19"/>
     </row>
-    <row r="202" spans="4:5">
+    <row r="202" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D202" s="19"/>
       <c r="E202" s="18"/>
     </row>
-    <row r="203" spans="4:5">
+    <row r="203" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D203" s="19"/>
       <c r="E203" s="19"/>
     </row>
-    <row r="204" spans="2:5">
+    <row r="204" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B204" s="13"/>
       <c r="C204" s="13"/>
       <c r="D204" s="13"/>
       <c r="E204" s="13"/>
     </row>
-    <row r="205" spans="2:4">
+    <row r="205" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B205" s="13"/>
       <c r="C205" s="13"/>
       <c r="D205" s="13"/>
     </row>
-    <row r="206" spans="2:5">
+    <row r="206" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B206" s="13"/>
       <c r="C206" s="13"/>
       <c r="D206" s="18"/>
       <c r="E206" s="19"/>
     </row>
-    <row r="207" spans="2:5">
+    <row r="207" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B207" s="13"/>
       <c r="C207" s="13"/>
       <c r="D207" s="18"/>
       <c r="E207" s="19"/>
     </row>
-    <row r="208" spans="2:5">
+    <row r="208" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B208" s="13"/>
       <c r="C208" s="13"/>
       <c r="D208" s="13"/>
       <c r="E208" s="13"/>
     </row>
-    <row r="209" spans="2:5">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B209" s="13"/>
       <c r="C209" s="13"/>
       <c r="D209" s="13"/>
       <c r="E209" s="13"/>
     </row>
-    <row r="210" spans="2:6">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B210" s="18"/>
       <c r="C210" s="18"/>
       <c r="D210" s="18"/>
       <c r="E210" s="18"/>
       <c r="F210" s="18"/>
     </row>
-    <row r="211" spans="2:6">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B211" s="18"/>
       <c r="C211" s="18"/>
       <c r="D211" s="18"/>
       <c r="E211" s="18"/>
       <c r="F211" s="18"/>
     </row>
-    <row r="212" spans="2:6">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
       <c r="D212" s="13"/>
       <c r="E212" s="13"/>
       <c r="F212" s="13"/>
     </row>
-    <row r="214" ht="16.5" customHeight="1" spans="2:6">
+    <row r="214" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B214" s="13"/>
       <c r="C214" s="13"/>
       <c r="D214" s="13"/>
       <c r="E214" s="13"/>
       <c r="F214" s="13"/>
     </row>
-    <row r="215" spans="2:6">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B215" s="13"/>
       <c r="C215" s="13"/>
       <c r="D215" s="13"/>
       <c r="E215" s="13"/>
       <c r="F215" s="13"/>
     </row>
-    <row r="216" spans="2:6">
+    <row r="216" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B216" s="13"/>
       <c r="C216" s="13"/>
       <c r="D216" s="13"/>
       <c r="E216" s="13"/>
       <c r="F216" s="13"/>
     </row>
-    <row r="217" spans="2:6">
+    <row r="217" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B217" s="13"/>
       <c r="C217" s="13"/>
       <c r="D217" s="13"/>
       <c r="E217" s="13"/>
       <c r="F217" s="13"/>
     </row>
-    <row r="218" spans="2:6">
+    <row r="218" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B218" s="13"/>
       <c r="C218" s="13"/>
       <c r="D218" s="13"/>
       <c r="E218" s="13"/>
       <c r="F218" s="13"/>
     </row>
-    <row r="219" spans="2:6">
+    <row r="219" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B219" s="13"/>
       <c r="C219" s="13"/>
       <c r="D219" s="13"/>
       <c r="E219" s="13"/>
       <c r="F219" s="13"/>
     </row>
-    <row r="220" spans="2:6">
+    <row r="220" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B220" s="13"/>
       <c r="C220" s="13"/>
       <c r="D220" s="13"/>
       <c r="E220" s="13"/>
       <c r="F220" s="13"/>
     </row>
-    <row r="221" spans="2:6">
+    <row r="221" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B221" s="13"/>
       <c r="C221" s="13"/>
       <c r="D221" s="13"/>
       <c r="E221" s="13"/>
       <c r="F221" s="13"/>
     </row>
-    <row r="222" spans="2:6">
+    <row r="222" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B222" s="13"/>
       <c r="C222" s="13"/>
       <c r="D222" s="13"/>
       <c r="E222" s="13"/>
       <c r="F222" s="13"/>
     </row>
-    <row r="223" spans="2:6">
+    <row r="223" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B223" s="13"/>
       <c r="C223" s="13"/>
       <c r="D223" s="13"/>
       <c r="E223" s="13"/>
       <c r="F223" s="13"/>
     </row>
-    <row r="224" spans="2:6">
+    <row r="224" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B224" s="13"/>
       <c r="C224" s="13"/>
       <c r="D224" s="13"/>
       <c r="E224" s="13"/>
       <c r="F224" s="13"/>
     </row>
-    <row r="225" spans="2:6">
+    <row r="225" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B225" s="13"/>
       <c r="C225" s="13"/>
       <c r="D225" s="13"/>
       <c r="E225" s="13"/>
       <c r="F225" s="13"/>
     </row>
-    <row r="226" spans="2:6">
+    <row r="226" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B226" s="13"/>
       <c r="C226" s="13"/>
       <c r="D226" s="13"/>
       <c r="E226" s="13"/>
       <c r="F226" s="13"/>
     </row>
-    <row r="228" spans="2:4">
+    <row r="228" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B228" s="13"/>
       <c r="C228" s="13"/>
       <c r="D228" s="13"/>
     </row>
-    <row r="229" spans="2:4">
+    <row r="229" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B229" s="13"/>
       <c r="C229" s="13"/>
       <c r="D229" s="13"/>
     </row>
-    <row r="230" spans="2:4">
+    <row r="230" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B230" s="13"/>
       <c r="C230" s="13"/>
       <c r="D230" s="13"/>
     </row>
-    <row r="231" spans="2:4">
+    <row r="231" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B231" s="13"/>
       <c r="C231" s="13"/>
       <c r="D231" s="13"/>
     </row>
-    <row r="232" spans="2:4">
+    <row r="232" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B232" s="13"/>
       <c r="C232" s="13"/>
       <c r="D232" s="13"/>
     </row>
-    <row r="233" spans="2:4">
+    <row r="233" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B233" s="13"/>
       <c r="C233" s="13"/>
       <c r="D233" s="13"/>
     </row>
-    <row r="234" spans="2:4">
+    <row r="234" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B234" s="13"/>
       <c r="C234" s="13"/>
       <c r="D234" s="13"/>
     </row>
-    <row r="235" spans="2:4">
+    <row r="235" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B235" s="13"/>
       <c r="C235" s="13"/>
       <c r="D235" s="13"/>
     </row>
-    <row r="236" spans="2:4">
+    <row r="236" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B236" s="13"/>
       <c r="C236" s="13"/>
       <c r="D236" s="13"/>
     </row>
-    <row r="237" spans="2:4">
+    <row r="237" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B237" s="13"/>
       <c r="C237" s="13"/>
       <c r="D237" s="13"/>
     </row>
-    <row r="241" spans="2:6">
+    <row r="241" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B241" s="13"/>
       <c r="C241" s="13"/>
       <c r="D241" s="13"/>
       <c r="E241" s="13"/>
       <c r="F241" s="13"/>
     </row>
-    <row r="243" spans="2:2">
+    <row r="243" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B243"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="B63">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="duplicateValues" dxfId="0" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
-    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B98">
-    <cfRule type="duplicateValues" dxfId="0" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103">
-    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107">
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B192">
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209">
-    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B241">
-    <cfRule type="duplicateValues" dxfId="0" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80:B81">
-    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88:B89">
-    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B91">
-    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108:B110">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:B126">
-    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127:B128">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B205:B207">
-    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B214:B226">
-    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C84:C85">
-    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C127:C128">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B227 B212:B213 B208 B238:B240 B242 B193:B204 B130:B191 B65:B75 B244:B1048576 B1:B62">
-    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B106:B107 B111:B126 B129:B1048576 B1:B104">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B111 B100 B77:B79 B93:B97 B86">
-    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87 B92">
-    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B102 B106 B104">
-    <cfRule type="duplicateValues" dxfId="0" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112 B129">
-    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B113:C118 C119:C126">
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B228:C231 B235:C237">
-    <cfRule type="duplicateValues" dxfId="0" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232:C234">
     <cfRule type="duplicateValues" dxfId="0" priority="11"/>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/_ConfigExcels/Datas/com_global_param.xlsx
+++ b/_ConfigExcels/Datas/com_global_param.xlsx
@@ -136,11 +136,11 @@
     <t>10,50</t>
   </si>
   <si>
-    <t>每升5级给多少百分比的全局攻击</t>
+    <t>weapon_global_bonus_atk_per_level</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>weapon_global_bonus_atk_per_level</t>
+    <t>每升5级给多少百分比的全局攻击（万分数）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -148,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +210,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -756,7 +762,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -813,6 +819,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="485">
@@ -1979,7 +1988,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -2152,16 +2161,16 @@
     <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>35</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="13">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="F9" s="13"/>
     </row>

--- a/_ConfigExcels/Datas/com_global_param.xlsx
+++ b/_ConfigExcels/Datas/com_global_param.xlsx
@@ -136,11 +136,11 @@
     <t>10,50</t>
   </si>
   <si>
-    <t>weapon_global_bonus_atk_per_level</t>
+    <t>每升5级给多少百分比的全局攻击（万分数）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>每升5级给多少百分比的全局攻击（万分数）</t>
+    <t>weapon_global_bonus_atk_per_level</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -159,42 +159,49 @@
     <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑 Light"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="微软雅黑 Light"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑 Light"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -202,11 +209,13 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1738,7 +1747,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1773,7 +1782,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1988,7 +1997,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -2161,10 +2170,10 @@
     <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>34</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>35</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>22</v>

--- a/_ConfigExcels/Datas/com_global_param.xlsx
+++ b/_ConfigExcels/Datas/com_global_param.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -141,6 +141,34 @@
   </si>
   <si>
     <t>weapon_global_bonus_atk_per_level</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg_while_quit_in_dungeon_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一关放弃时的特殊剧情</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg_while_total_damage_is_0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊剧情</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果总伤害是0</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -226,7 +254,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,6 +285,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -771,7 +805,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -832,6 +866,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="485">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1991,13 +2032,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G243"/>
+  <dimension ref="A1:G244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -2191,29 +2232,51 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+    <row r="11" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
+      <c r="G12" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="B13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
+      <c r="G13" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
@@ -2711,14 +2774,15 @@
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
     </row>
-    <row r="76" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-    </row>
+    <row r="76" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="12"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+    </row>
+    <row r="77" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="78" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
@@ -2859,7 +2923,7 @@
       <c r="E97" s="13"/>
       <c r="F97" s="13"/>
     </row>
-    <row r="98" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
@@ -2873,8 +2937,7 @@
       <c r="E99" s="13"/>
       <c r="F99" s="13"/>
     </row>
-    <row r="100" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="12"/>
+    <row r="100" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
@@ -2954,22 +3017,23 @@
       <c r="F109" s="13"/>
     </row>
     <row r="110" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="14"/>
-      <c r="B110" s="15"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
-      <c r="E110" s="15"/>
-      <c r="F110" s="15"/>
+      <c r="A110" s="12"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
     </row>
     <row r="111" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="12"/>
-      <c r="B111" s="13"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A111" s="14"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+    </row>
+    <row r="112" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="12"/>
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
       <c r="D112" s="13"/>
@@ -3079,14 +3143,14 @@
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
       <c r="E127" s="13"/>
-      <c r="F127" s="16"/>
+      <c r="F127" s="13"/>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B128" s="13"/>
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
       <c r="E128" s="13"/>
-      <c r="F128" s="13"/>
+      <c r="F128" s="16"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B129" s="13"/>
@@ -3095,8 +3159,7 @@
       <c r="E129" s="13"/>
       <c r="F129" s="13"/>
     </row>
-    <row r="130" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="12"/>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B130" s="13"/>
       <c r="C130" s="13"/>
       <c r="D130" s="13"/>
@@ -3112,20 +3175,20 @@
       <c r="F131" s="13"/>
     </row>
     <row r="132" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="4"/>
+      <c r="A132" s="12"/>
       <c r="B132" s="13"/>
       <c r="C132" s="13"/>
       <c r="D132" s="13"/>
       <c r="E132" s="13"/>
-      <c r="F132" s="5"/>
+      <c r="F132" s="13"/>
     </row>
     <row r="133" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="12"/>
+      <c r="A133" s="4"/>
       <c r="B133" s="13"/>
       <c r="C133" s="13"/>
       <c r="D133" s="13"/>
       <c r="E133" s="13"/>
-      <c r="F133" s="13"/>
+      <c r="F133" s="5"/>
     </row>
     <row r="134" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="12"/>
@@ -3172,18 +3235,18 @@
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
       <c r="D139" s="13"/>
-      <c r="E139" s="17"/>
+      <c r="E139" s="13"/>
       <c r="F139" s="13"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="12"/>
       <c r="B140" s="13"/>
       <c r="C140" s="13"/>
       <c r="D140" s="13"/>
-      <c r="E140" s="13"/>
+      <c r="E140" s="17"/>
       <c r="F140" s="13"/>
     </row>
-    <row r="141" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" s="12"/>
       <c r="B141" s="13"/>
       <c r="C141" s="13"/>
@@ -3304,7 +3367,7 @@
       <c r="F155" s="13"/>
     </row>
     <row r="156" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="4"/>
+      <c r="A156" s="12"/>
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
       <c r="D156" s="13"/>
@@ -3336,12 +3399,12 @@
       <c r="F159" s="13"/>
     </row>
     <row r="160" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="12"/>
+      <c r="A160" s="4"/>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
       <c r="D160" s="13"/>
       <c r="E160" s="13"/>
-      <c r="F160" s="5"/>
+      <c r="F160" s="13"/>
     </row>
     <row r="161" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="12"/>
@@ -3367,19 +3430,21 @@
       <c r="E163" s="13"/>
       <c r="F163" s="5"/>
     </row>
-    <row r="164" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="4"/>
+    <row r="164" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="12"/>
       <c r="B164" s="13"/>
       <c r="C164" s="13"/>
       <c r="D164" s="13"/>
       <c r="E164" s="13"/>
       <c r="F164" s="5"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="4"/>
       <c r="B165" s="13"/>
       <c r="C165" s="13"/>
       <c r="D165" s="13"/>
       <c r="E165" s="13"/>
+      <c r="F165" s="5"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B166" s="13"/>
@@ -3397,26 +3462,26 @@
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
       <c r="D168" s="13"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A170" s="12"/>
-      <c r="B170" s="13"/>
-      <c r="C170" s="13"/>
-      <c r="D170" s="13"/>
-      <c r="E170" s="13"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A172" s="12"/>
-      <c r="B172" s="13"/>
-      <c r="C172" s="13"/>
-      <c r="D172" s="13"/>
-      <c r="E172" s="13"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B174" s="13"/>
-      <c r="C174" s="13"/>
-      <c r="D174" s="13"/>
-      <c r="E174" s="13"/>
+      <c r="E168" s="13"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B169" s="13"/>
+      <c r="C169" s="13"/>
+      <c r="D169" s="13"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A171" s="12"/>
+      <c r="B171" s="13"/>
+      <c r="C171" s="13"/>
+      <c r="D171" s="13"/>
+      <c r="E171" s="13"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A173" s="12"/>
+      <c r="B173" s="13"/>
+      <c r="C173" s="13"/>
+      <c r="D173" s="13"/>
+      <c r="E173" s="13"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B175" s="13"/>
@@ -3430,18 +3495,18 @@
       <c r="D176" s="13"/>
       <c r="E176" s="13"/>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B178" s="13"/>
-      <c r="C178" s="13"/>
-      <c r="D178" s="13"/>
-      <c r="E178" s="13"/>
-      <c r="F178" s="13"/>
-    </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B180" s="13"/>
-      <c r="C180" s="13"/>
-      <c r="D180" s="13"/>
-      <c r="E180" s="13"/>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B177" s="13"/>
+      <c r="C177" s="13"/>
+      <c r="D177" s="13"/>
+      <c r="E177" s="13"/>
+    </row>
+    <row r="179" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B179" s="13"/>
+      <c r="C179" s="13"/>
+      <c r="D179" s="13"/>
+      <c r="E179" s="13"/>
+      <c r="F179" s="13"/>
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B181" s="13"/>
@@ -3473,25 +3538,25 @@
       <c r="D185" s="13"/>
       <c r="E185" s="13"/>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B187" s="13"/>
-      <c r="C187" s="13"/>
-      <c r="D187" s="13"/>
-      <c r="E187" s="13"/>
-      <c r="F187" s="13"/>
-    </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B189" s="13"/>
-      <c r="C189" s="13"/>
-      <c r="D189" s="13"/>
-      <c r="E189" s="13"/>
-      <c r="F189" s="13"/>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B186" s="13"/>
+      <c r="C186" s="13"/>
+      <c r="D186" s="13"/>
+      <c r="E186" s="13"/>
+    </row>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B188" s="13"/>
+      <c r="C188" s="13"/>
+      <c r="D188" s="13"/>
+      <c r="E188" s="13"/>
+      <c r="F188" s="13"/>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B190" s="13"/>
       <c r="C190" s="13"/>
       <c r="D190" s="13"/>
       <c r="E190" s="13"/>
+      <c r="F190" s="13"/>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B191" s="13"/>
@@ -3505,19 +3570,18 @@
       <c r="D192" s="13"/>
       <c r="E192" s="13"/>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B194" s="13"/>
-      <c r="C194" s="13"/>
-      <c r="D194" s="13"/>
-      <c r="E194" s="13"/>
-      <c r="F194" s="13"/>
-    </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B196" s="13"/>
-      <c r="C196" s="13"/>
-      <c r="D196" s="13"/>
-      <c r="E196" s="13"/>
-      <c r="F196" s="13"/>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B193" s="13"/>
+      <c r="C193" s="13"/>
+      <c r="D193" s="13"/>
+      <c r="E193" s="13"/>
+    </row>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B195" s="13"/>
+      <c r="C195" s="13"/>
+      <c r="D195" s="13"/>
+      <c r="E195" s="13"/>
+      <c r="F195" s="13"/>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B197" s="13"/>
@@ -3526,40 +3590,41 @@
       <c r="E197" s="13"/>
       <c r="F197" s="13"/>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D199" s="13"/>
+    <row r="198" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B198" s="13"/>
+      <c r="C198" s="13"/>
+      <c r="D198" s="13"/>
+      <c r="E198" s="13"/>
+      <c r="F198" s="13"/>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D200" s="13"/>
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D201" s="18"/>
-      <c r="E201" s="19"/>
+      <c r="D201" s="13"/>
     </row>
     <row r="202" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D202" s="19"/>
-      <c r="E202" s="18"/>
+      <c r="D202" s="18"/>
+      <c r="E202" s="19"/>
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D203" s="19"/>
-      <c r="E203" s="19"/>
+      <c r="E203" s="18"/>
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B204" s="13"/>
-      <c r="C204" s="13"/>
-      <c r="D204" s="13"/>
-      <c r="E204" s="13"/>
+      <c r="D204" s="19"/>
+      <c r="E204" s="19"/>
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B205" s="13"/>
       <c r="C205" s="13"/>
       <c r="D205" s="13"/>
+      <c r="E205" s="13"/>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B206" s="13"/>
       <c r="C206" s="13"/>
-      <c r="D206" s="18"/>
-      <c r="E206" s="19"/>
+      <c r="D206" s="13"/>
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B207" s="13"/>
@@ -3570,8 +3635,8 @@
     <row r="208" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B208" s="13"/>
       <c r="C208" s="13"/>
-      <c r="D208" s="13"/>
-      <c r="E208" s="13"/>
+      <c r="D208" s="18"/>
+      <c r="E208" s="19"/>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B209" s="13"/>
@@ -3580,11 +3645,10 @@
       <c r="E209" s="13"/>
     </row>
     <row r="210" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B210" s="18"/>
-      <c r="C210" s="18"/>
-      <c r="D210" s="18"/>
-      <c r="E210" s="18"/>
-      <c r="F210" s="18"/>
+      <c r="B210" s="13"/>
+      <c r="C210" s="13"/>
+      <c r="D210" s="13"/>
+      <c r="E210" s="13"/>
     </row>
     <row r="211" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B211" s="18"/>
@@ -3594,20 +3658,20 @@
       <c r="F211" s="18"/>
     </row>
     <row r="212" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B212" s="20"/>
-      <c r="C212" s="13"/>
-      <c r="D212" s="13"/>
-      <c r="E212" s="13"/>
-      <c r="F212" s="13"/>
-    </row>
-    <row r="214" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B214" s="13"/>
-      <c r="C214" s="13"/>
-      <c r="D214" s="13"/>
-      <c r="E214" s="13"/>
-      <c r="F214" s="13"/>
-    </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B212" s="18"/>
+      <c r="C212" s="18"/>
+      <c r="D212" s="18"/>
+      <c r="E212" s="18"/>
+      <c r="F212" s="18"/>
+    </row>
+    <row r="213" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B213" s="20"/>
+      <c r="C213" s="13"/>
+      <c r="D213" s="13"/>
+      <c r="E213" s="13"/>
+      <c r="F213" s="13"/>
+    </row>
+    <row r="215" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B215" s="13"/>
       <c r="C215" s="13"/>
       <c r="D215" s="13"/>
@@ -3691,10 +3755,12 @@
       <c r="E226" s="13"/>
       <c r="F226" s="13"/>
     </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B228" s="13"/>
-      <c r="C228" s="13"/>
-      <c r="D228" s="13"/>
+    <row r="227" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B227" s="13"/>
+      <c r="C227" s="13"/>
+      <c r="D227" s="13"/>
+      <c r="E227" s="13"/>
+      <c r="F227" s="13"/>
     </row>
     <row r="229" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B229" s="13"/>
@@ -3741,121 +3807,126 @@
       <c r="C237" s="13"/>
       <c r="D237" s="13"/>
     </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B241" s="13"/>
-      <c r="C241" s="13"/>
-      <c r="D241" s="13"/>
-      <c r="E241" s="13"/>
-      <c r="F241" s="13"/>
-    </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B243"/>
+    <row r="238" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B238" s="13"/>
+      <c r="C238" s="13"/>
+      <c r="D238" s="13"/>
+    </row>
+    <row r="242" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B242" s="13"/>
+      <c r="C242" s="13"/>
+      <c r="D242" s="13"/>
+      <c r="E242" s="13"/>
+      <c r="F242" s="13"/>
+    </row>
+    <row r="244" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B244"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="B63">
+  <conditionalFormatting sqref="B64">
     <cfRule type="duplicateValues" dxfId="36" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B64">
+  <conditionalFormatting sqref="B65">
     <cfRule type="duplicateValues" dxfId="35" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
+  <conditionalFormatting sqref="B83">
     <cfRule type="duplicateValues" dxfId="34" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83">
+  <conditionalFormatting sqref="B84">
     <cfRule type="duplicateValues" dxfId="33" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B84">
+  <conditionalFormatting sqref="B85">
     <cfRule type="duplicateValues" dxfId="32" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B85">
+  <conditionalFormatting sqref="B86">
     <cfRule type="duplicateValues" dxfId="31" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B98">
+  <conditionalFormatting sqref="B99">
     <cfRule type="duplicateValues" dxfId="30" priority="40"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B99">
+  <conditionalFormatting sqref="B100">
     <cfRule type="duplicateValues" dxfId="29" priority="39"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B103">
+  <conditionalFormatting sqref="B104">
     <cfRule type="duplicateValues" dxfId="28" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B105">
+  <conditionalFormatting sqref="B106">
     <cfRule type="duplicateValues" dxfId="27" priority="7"/>
     <cfRule type="duplicateValues" dxfId="26" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B107">
+  <conditionalFormatting sqref="B108">
     <cfRule type="duplicateValues" dxfId="25" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B119">
+  <conditionalFormatting sqref="B120">
     <cfRule type="duplicateValues" dxfId="24" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B192">
+  <conditionalFormatting sqref="B193">
     <cfRule type="duplicateValues" dxfId="23" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B209">
+  <conditionalFormatting sqref="B210">
     <cfRule type="duplicateValues" dxfId="22" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B241">
+  <conditionalFormatting sqref="B242">
     <cfRule type="duplicateValues" dxfId="21" priority="48"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B80:B81">
+  <conditionalFormatting sqref="B81:B82">
     <cfRule type="duplicateValues" dxfId="20" priority="37"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B88:B89">
+  <conditionalFormatting sqref="B89:B90">
     <cfRule type="duplicateValues" dxfId="19" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B90:B91">
+  <conditionalFormatting sqref="B91:B92">
     <cfRule type="duplicateValues" dxfId="18" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B108:B110">
+  <conditionalFormatting sqref="B109:B111">
     <cfRule type="duplicateValues" dxfId="17" priority="5"/>
     <cfRule type="duplicateValues" dxfId="16" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B120:B126">
+  <conditionalFormatting sqref="B121:B127">
     <cfRule type="duplicateValues" dxfId="15" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B127:B128">
+  <conditionalFormatting sqref="B128:B129">
     <cfRule type="duplicateValues" dxfId="14" priority="1"/>
     <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B205:B207">
+  <conditionalFormatting sqref="B206:B208">
     <cfRule type="duplicateValues" dxfId="12" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B214:B226">
+  <conditionalFormatting sqref="B215:B227">
     <cfRule type="duplicateValues" dxfId="11" priority="47"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C84:C85">
+  <conditionalFormatting sqref="C85:C86">
     <cfRule type="duplicateValues" dxfId="10" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C127:C128">
+  <conditionalFormatting sqref="C128:C129">
     <cfRule type="duplicateValues" dxfId="9" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B227 B212:B213 B208 B238:B240 B242 B193:B204 B130:B191 B65:B75 B244:B1048576 B1:B62">
+  <conditionalFormatting sqref="B228 B213:B214 B209 B239:B241 B243 B194:B205 B131:B192 B66:B76 B245:B1048576 B1:B63">
     <cfRule type="duplicateValues" dxfId="8" priority="43"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B106:B107 B111:B126 B129:B1048576 B1:B104">
+  <conditionalFormatting sqref="B107:B108 B112:B127 B130:B1048576 B1:B105">
     <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B111 B100 B77:B79 B93:B97 B86">
+  <conditionalFormatting sqref="B112 B101 B78:B80 B94:B98 B87">
     <cfRule type="duplicateValues" dxfId="6" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B87 B92">
+  <conditionalFormatting sqref="B88 B93">
     <cfRule type="duplicateValues" dxfId="5" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B101:B102 B106 B104">
+  <conditionalFormatting sqref="B102:B103 B107 B105">
     <cfRule type="duplicateValues" dxfId="4" priority="44"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B112 B129">
+  <conditionalFormatting sqref="B113 B130">
     <cfRule type="duplicateValues" dxfId="3" priority="45"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B113:C118 C119:C126">
+  <conditionalFormatting sqref="B114:C119 C120:C127">
     <cfRule type="duplicateValues" dxfId="2" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B228:C231 B235:C237">
+  <conditionalFormatting sqref="B229:C232 B236:C238">
     <cfRule type="duplicateValues" dxfId="1" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B232:C234">
+  <conditionalFormatting sqref="B233:C235">
     <cfRule type="duplicateValues" dxfId="0" priority="11"/>
   </conditionalFormatting>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_ConfigExcels/Datas/com_global_param.xlsx
+++ b/_ConfigExcels/Datas/com_global_param.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -156,10 +156,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>avg_while_total_damage_is_0</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>##</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -169,6 +165,10 @@
   </si>
   <si>
     <t>如果总伤害是0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg_while_total_damage_is_0</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2038,7 +2038,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -2234,10 +2234,10 @@
     </row>
     <row r="11" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>40</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>41</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
@@ -2262,12 +2262,14 @@
       </c>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="B13" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>29</v>

--- a/_ConfigExcels/Datas/com_global_param.xlsx
+++ b/_ConfigExcels/Datas/com_global_param.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -169,6 +169,22 @@
   </si>
   <si>
     <t>avg_while_total_damage_is_0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock_shop</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店解锁关卡数值</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1361,7 +1377,27 @@
     <cellStyle name="常规 9 2" xfId="483"/>
     <cellStyle name="常规 9 3" xfId="484"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2038,7 +2074,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -2288,21 +2324,34 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+    <row r="15" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="B16" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
+      <c r="G16" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
@@ -3827,109 +3876,115 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="36" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="duplicateValues" dxfId="35" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="duplicateValues" dxfId="34" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="duplicateValues" dxfId="33" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
-    <cfRule type="duplicateValues" dxfId="32" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86">
-    <cfRule type="duplicateValues" dxfId="31" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="30" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100">
-    <cfRule type="duplicateValues" dxfId="29" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104">
-    <cfRule type="duplicateValues" dxfId="28" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B106">
-    <cfRule type="duplicateValues" dxfId="27" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108">
-    <cfRule type="duplicateValues" dxfId="25" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120">
-    <cfRule type="duplicateValues" dxfId="24" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B193">
-    <cfRule type="duplicateValues" dxfId="23" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="duplicateValues" dxfId="22" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B242">
-    <cfRule type="duplicateValues" dxfId="21" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81:B82">
-    <cfRule type="duplicateValues" dxfId="20" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89:B90">
-    <cfRule type="duplicateValues" dxfId="19" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91:B92">
-    <cfRule type="duplicateValues" dxfId="18" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B109:B111">
-    <cfRule type="duplicateValues" dxfId="17" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:B127">
-    <cfRule type="duplicateValues" dxfId="15" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128:B129">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B206:B208">
-    <cfRule type="duplicateValues" dxfId="12" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B215:B227">
-    <cfRule type="duplicateValues" dxfId="11" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C85:C86">
-    <cfRule type="duplicateValues" dxfId="10" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C128:C129">
-    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B228 B213:B214 B209 B239:B241 B243 B194:B205 B131:B192 B66:B76 B245:B1048576 B1:B63">
-    <cfRule type="duplicateValues" dxfId="8" priority="43"/>
+  <conditionalFormatting sqref="B228 B213:B214 B209 B239:B241 B243 B194:B205 B131:B192 B66:B76 B245:B1048576 B1:B14 B16:B63">
+    <cfRule type="duplicateValues" dxfId="10" priority="45"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B107:B108 B112:B127 B130:B1048576 B1:B105">
-    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+  <conditionalFormatting sqref="B107:B108 B112:B127 B130:B1048576 B1:B14 B16:B105">
+    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112 B101 B78:B80 B94:B98 B87">
-    <cfRule type="duplicateValues" dxfId="6" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88 B93">
-    <cfRule type="duplicateValues" dxfId="5" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102:B103 B107 B105">
-    <cfRule type="duplicateValues" dxfId="4" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B113 B130">
-    <cfRule type="duplicateValues" dxfId="3" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B114:C119 C120:C127">
-    <cfRule type="duplicateValues" dxfId="2" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B229:C232 B236:C238">
-    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233:C235">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>

--- a/_ConfigExcels/Datas/com_global_param.xlsx
+++ b/_ConfigExcels/Datas/com_global_param.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -89,19 +89,13 @@
     <t>整型列表值</t>
   </si>
   <si>
-    <t>maincharacter_idle_count</t>
-  </si>
-  <si>
-    <t>主角idle待机数量</t>
+    <t>enemy_stop_distance</t>
+  </si>
+  <si>
+    <t>敌人会在距离地球X距离时停止移动并播放攻击动作</t>
   </si>
   <si>
     <t>INT</t>
-  </si>
-  <si>
-    <t>enemy_stop_distance</t>
-  </si>
-  <si>
-    <t>敌人会在距离地球X距离时停止移动并播放攻击动作</t>
   </si>
   <si>
     <t>final_dungeon</t>
@@ -174,7 +168,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,13 +353,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -867,492 +854,492 @@
     <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2263,14 +2250,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G244"/>
+  <dimension ref="A1:G243"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
@@ -2366,12 +2353,14 @@
         <v>22</v>
       </c>
       <c r="E4" s="14">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F4" s="14"/>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:6">
-      <c r="A5" s="13"/>
+      <c r="A5" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="B5" s="14" t="s">
         <v>23</v>
       </c>
@@ -2382,11 +2371,11 @@
         <v>22</v>
       </c>
       <c r="E5" s="14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:6">
+    <row r="6" s="3" customFormat="1" spans="1:7">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -2397,155 +2386,145 @@
         <v>26</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="14">
-        <v>3</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E6" s="14"/>
       <c r="F6" s="14"/>
+      <c r="G6" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:7">
-      <c r="A7" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="A7" s="13"/>
       <c r="B7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="1:7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:6">
       <c r="A8" s="13"/>
       <c r="B8" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="14"/>
+        <v>22</v>
+      </c>
+      <c r="E8" s="14">
+        <v>300</v>
+      </c>
       <c r="F8" s="14"/>
-      <c r="G8" s="3" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="9" s="3" customFormat="1" spans="1:6">
       <c r="A9" s="13"/>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" s="4" customFormat="1" spans="1:6">
+      <c r="A10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="1:7">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="14">
-        <v>300</v>
-      </c>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="1:6">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" s="4" customFormat="1" spans="1:6">
-      <c r="A11" s="15" t="s">
+      <c r="C11" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:7">
+      <c r="A12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:7">
-      <c r="A12" s="13"/>
       <c r="B12" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="1:7">
-      <c r="A13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="G12" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:6">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="3">
+    </row>
+    <row r="14" s="4" customFormat="1" spans="1:6">
+      <c r="A14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="1:6">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="1:6">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" s="4" customFormat="1" spans="1:6">
-      <c r="A15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" s="3" customFormat="1" spans="1:6">
       <c r="A16" s="13"/>
-      <c r="B16" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="3">
-        <v>5</v>
-      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="14"/>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:6">
@@ -3020,15 +2999,14 @@
       <c r="E75" s="14"/>
       <c r="F75" s="14"/>
     </row>
-    <row r="76" s="3" customFormat="1" spans="1:6">
-      <c r="A76" s="13"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-    </row>
-    <row r="77" s="3" customFormat="1"/>
+    <row r="76" s="3" customFormat="1"/>
+    <row r="77" s="3" customFormat="1" spans="2:6">
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+    </row>
     <row r="78" s="3" customFormat="1" spans="2:6">
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -3169,7 +3147,7 @@
       <c r="E97" s="14"/>
       <c r="F97" s="14"/>
     </row>
-    <row r="98" s="3" customFormat="1" spans="2:6">
+    <row r="98" s="3" customFormat="1" ht="18" customHeight="1" spans="2:6">
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
       <c r="D98" s="14"/>
@@ -3183,7 +3161,8 @@
       <c r="E99" s="14"/>
       <c r="F99" s="14"/>
     </row>
-    <row r="100" s="3" customFormat="1" ht="18" customHeight="1" spans="2:6">
+    <row r="100" s="3" customFormat="1" spans="1:6">
+      <c r="A100" s="13"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
       <c r="D100" s="14"/>
@@ -3263,23 +3242,22 @@
       <c r="F109" s="14"/>
     </row>
     <row r="110" s="3" customFormat="1" spans="1:6">
-      <c r="A110" s="13"/>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
+      <c r="A110" s="17"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
     </row>
     <row r="111" s="3" customFormat="1" spans="1:6">
-      <c r="A111" s="17"/>
-      <c r="B111" s="18"/>
-      <c r="C111" s="18"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="18"/>
-      <c r="F111" s="18"/>
-    </row>
-    <row r="112" s="3" customFormat="1" spans="1:6">
-      <c r="A112" s="13"/>
+      <c r="A111" s="13"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+    </row>
+    <row r="112" spans="2:6">
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
       <c r="D112" s="14"/>
@@ -3389,14 +3367,14 @@
       <c r="C127" s="14"/>
       <c r="D127" s="14"/>
       <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
+      <c r="F127" s="19"/>
     </row>
     <row r="128" spans="2:6">
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
       <c r="D128" s="14"/>
       <c r="E128" s="14"/>
-      <c r="F128" s="19"/>
+      <c r="F128" s="14"/>
     </row>
     <row r="129" spans="2:6">
       <c r="B129" s="14"/>
@@ -3405,7 +3383,8 @@
       <c r="E129" s="14"/>
       <c r="F129" s="14"/>
     </row>
-    <row r="130" spans="2:6">
+    <row r="130" s="3" customFormat="1" spans="1:6">
+      <c r="A130" s="13"/>
       <c r="B130" s="14"/>
       <c r="C130" s="14"/>
       <c r="D130" s="14"/>
@@ -3421,20 +3400,20 @@
       <c r="F131" s="14"/>
     </row>
     <row r="132" s="3" customFormat="1" spans="1:6">
-      <c r="A132" s="13"/>
+      <c r="A132" s="5"/>
       <c r="B132" s="14"/>
       <c r="C132" s="14"/>
       <c r="D132" s="14"/>
       <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
+      <c r="F132" s="6"/>
     </row>
     <row r="133" s="3" customFormat="1" spans="1:6">
-      <c r="A133" s="5"/>
+      <c r="A133" s="13"/>
       <c r="B133" s="14"/>
       <c r="C133" s="14"/>
       <c r="D133" s="14"/>
       <c r="E133" s="14"/>
-      <c r="F133" s="6"/>
+      <c r="F133" s="14"/>
     </row>
     <row r="134" s="3" customFormat="1" spans="1:6">
       <c r="A134" s="13"/>
@@ -3481,18 +3460,18 @@
       <c r="B139" s="14"/>
       <c r="C139" s="14"/>
       <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
+      <c r="E139" s="20"/>
       <c r="F139" s="14"/>
     </row>
-    <row r="140" s="3" customFormat="1" spans="1:6">
+    <row r="140" spans="1:6">
       <c r="A140" s="13"/>
       <c r="B140" s="14"/>
       <c r="C140" s="14"/>
       <c r="D140" s="14"/>
-      <c r="E140" s="20"/>
+      <c r="E140" s="14"/>
       <c r="F140" s="14"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" s="3" customFormat="1" spans="1:6">
       <c r="A141" s="13"/>
       <c r="B141" s="14"/>
       <c r="C141" s="14"/>
@@ -3613,7 +3592,7 @@
       <c r="F155" s="14"/>
     </row>
     <row r="156" s="3" customFormat="1" spans="1:6">
-      <c r="A156" s="13"/>
+      <c r="A156" s="5"/>
       <c r="B156" s="14"/>
       <c r="C156" s="14"/>
       <c r="D156" s="14"/>
@@ -3645,12 +3624,12 @@
       <c r="F159" s="14"/>
     </row>
     <row r="160" s="3" customFormat="1" spans="1:6">
-      <c r="A160" s="5"/>
+      <c r="A160" s="13"/>
       <c r="B160" s="14"/>
       <c r="C160" s="14"/>
       <c r="D160" s="14"/>
       <c r="E160" s="14"/>
-      <c r="F160" s="14"/>
+      <c r="F160" s="6"/>
     </row>
     <row r="161" s="3" customFormat="1" spans="1:6">
       <c r="A161" s="13"/>
@@ -3676,21 +3655,19 @@
       <c r="E163" s="14"/>
       <c r="F163" s="6"/>
     </row>
-    <row r="164" s="3" customFormat="1" spans="1:6">
-      <c r="A164" s="13"/>
+    <row r="164" customFormat="1" spans="1:6">
+      <c r="A164" s="5"/>
       <c r="B164" s="14"/>
       <c r="C164" s="14"/>
       <c r="D164" s="14"/>
       <c r="E164" s="14"/>
       <c r="F164" s="6"/>
     </row>
-    <row r="165" customFormat="1" spans="1:6">
-      <c r="A165" s="5"/>
+    <row r="165" spans="2:5">
       <c r="B165" s="14"/>
       <c r="C165" s="14"/>
       <c r="D165" s="14"/>
       <c r="E165" s="14"/>
-      <c r="F165" s="6"/>
     </row>
     <row r="166" spans="2:5">
       <c r="B166" s="14"/>
@@ -3704,30 +3681,30 @@
       <c r="D167" s="14"/>
       <c r="E167" s="14"/>
     </row>
-    <row r="168" spans="2:5">
+    <row r="168" spans="2:4">
       <c r="B168" s="14"/>
       <c r="C168" s="14"/>
       <c r="D168" s="14"/>
-      <c r="E168" s="14"/>
-    </row>
-    <row r="169" spans="2:4">
-      <c r="B169" s="14"/>
-      <c r="C169" s="14"/>
-      <c r="D169" s="14"/>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="A171" s="13"/>
-      <c r="B171" s="14"/>
-      <c r="C171" s="14"/>
-      <c r="D171" s="14"/>
-      <c r="E171" s="14"/>
-    </row>
-    <row r="173" spans="1:5">
-      <c r="A173" s="13"/>
-      <c r="B173" s="14"/>
-      <c r="C173" s="14"/>
-      <c r="D173" s="14"/>
-      <c r="E173" s="14"/>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="13"/>
+      <c r="B170" s="14"/>
+      <c r="C170" s="14"/>
+      <c r="D170" s="14"/>
+      <c r="E170" s="14"/>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="13"/>
+      <c r="B172" s="14"/>
+      <c r="C172" s="14"/>
+      <c r="D172" s="14"/>
+      <c r="E172" s="14"/>
+    </row>
+    <row r="174" spans="2:5">
+      <c r="B174" s="14"/>
+      <c r="C174" s="14"/>
+      <c r="D174" s="14"/>
+      <c r="E174" s="14"/>
     </row>
     <row r="175" spans="2:5">
       <c r="B175" s="14"/>
@@ -3741,18 +3718,18 @@
       <c r="D176" s="14"/>
       <c r="E176" s="14"/>
     </row>
-    <row r="177" spans="2:5">
-      <c r="B177" s="14"/>
-      <c r="C177" s="14"/>
-      <c r="D177" s="14"/>
-      <c r="E177" s="14"/>
-    </row>
-    <row r="179" spans="2:6">
-      <c r="B179" s="14"/>
-      <c r="C179" s="14"/>
-      <c r="D179" s="14"/>
-      <c r="E179" s="14"/>
-      <c r="F179" s="14"/>
+    <row r="178" spans="2:6">
+      <c r="B178" s="14"/>
+      <c r="C178" s="14"/>
+      <c r="D178" s="14"/>
+      <c r="E178" s="14"/>
+      <c r="F178" s="14"/>
+    </row>
+    <row r="180" spans="2:5">
+      <c r="B180" s="14"/>
+      <c r="C180" s="14"/>
+      <c r="D180" s="14"/>
+      <c r="E180" s="14"/>
     </row>
     <row r="181" spans="2:5">
       <c r="B181" s="14"/>
@@ -3784,25 +3761,25 @@
       <c r="D185" s="14"/>
       <c r="E185" s="14"/>
     </row>
-    <row r="186" spans="2:5">
-      <c r="B186" s="14"/>
-      <c r="C186" s="14"/>
-      <c r="D186" s="14"/>
-      <c r="E186" s="14"/>
-    </row>
-    <row r="188" spans="2:6">
-      <c r="B188" s="14"/>
-      <c r="C188" s="14"/>
-      <c r="D188" s="14"/>
-      <c r="E188" s="14"/>
-      <c r="F188" s="14"/>
-    </row>
-    <row r="190" spans="2:6">
+    <row r="187" spans="2:6">
+      <c r="B187" s="14"/>
+      <c r="C187" s="14"/>
+      <c r="D187" s="14"/>
+      <c r="E187" s="14"/>
+      <c r="F187" s="14"/>
+    </row>
+    <row r="189" spans="2:6">
+      <c r="B189" s="14"/>
+      <c r="C189" s="14"/>
+      <c r="D189" s="14"/>
+      <c r="E189" s="14"/>
+      <c r="F189" s="14"/>
+    </row>
+    <row r="190" spans="2:5">
       <c r="B190" s="14"/>
       <c r="C190" s="14"/>
       <c r="D190" s="14"/>
       <c r="E190" s="14"/>
-      <c r="F190" s="14"/>
     </row>
     <row r="191" spans="2:5">
       <c r="B191" s="14"/>
@@ -3816,18 +3793,19 @@
       <c r="D192" s="14"/>
       <c r="E192" s="14"/>
     </row>
-    <row r="193" spans="2:5">
-      <c r="B193" s="14"/>
-      <c r="C193" s="14"/>
-      <c r="D193" s="14"/>
-      <c r="E193" s="14"/>
-    </row>
-    <row r="195" spans="2:6">
-      <c r="B195" s="14"/>
-      <c r="C195" s="14"/>
-      <c r="D195" s="14"/>
-      <c r="E195" s="14"/>
-      <c r="F195" s="14"/>
+    <row r="194" spans="2:6">
+      <c r="B194" s="14"/>
+      <c r="C194" s="14"/>
+      <c r="D194" s="14"/>
+      <c r="E194" s="14"/>
+      <c r="F194" s="14"/>
+    </row>
+    <row r="196" spans="2:6">
+      <c r="B196" s="14"/>
+      <c r="C196" s="14"/>
+      <c r="D196" s="14"/>
+      <c r="E196" s="14"/>
+      <c r="F196" s="14"/>
     </row>
     <row r="197" spans="2:6">
       <c r="B197" s="14"/>
@@ -3836,41 +3814,40 @@
       <c r="E197" s="14"/>
       <c r="F197" s="14"/>
     </row>
-    <row r="198" spans="2:6">
-      <c r="B198" s="14"/>
-      <c r="C198" s="14"/>
-      <c r="D198" s="14"/>
-      <c r="E198" s="14"/>
-      <c r="F198" s="14"/>
+    <row r="199" spans="4:4">
+      <c r="D199" s="14"/>
     </row>
     <row r="200" spans="4:4">
       <c r="D200" s="14"/>
     </row>
-    <row r="201" spans="4:4">
-      <c r="D201" s="14"/>
+    <row r="201" spans="4:5">
+      <c r="D201" s="21"/>
+      <c r="E201" s="22"/>
     </row>
     <row r="202" spans="4:5">
-      <c r="D202" s="21"/>
-      <c r="E202" s="22"/>
+      <c r="D202" s="22"/>
+      <c r="E202" s="21"/>
     </row>
     <row r="203" spans="4:5">
       <c r="D203" s="22"/>
-      <c r="E203" s="21"/>
-    </row>
-    <row r="204" spans="4:5">
-      <c r="D204" s="22"/>
-      <c r="E204" s="22"/>
-    </row>
-    <row r="205" spans="2:5">
+      <c r="E203" s="22"/>
+    </row>
+    <row r="204" spans="2:5">
+      <c r="B204" s="14"/>
+      <c r="C204" s="14"/>
+      <c r="D204" s="14"/>
+      <c r="E204" s="14"/>
+    </row>
+    <row r="205" spans="2:4">
       <c r="B205" s="14"/>
       <c r="C205" s="14"/>
       <c r="D205" s="14"/>
-      <c r="E205" s="14"/>
-    </row>
-    <row r="206" spans="2:4">
+    </row>
+    <row r="206" spans="2:5">
       <c r="B206" s="14"/>
       <c r="C206" s="14"/>
-      <c r="D206" s="14"/>
+      <c r="D206" s="21"/>
+      <c r="E206" s="22"/>
     </row>
     <row r="207" spans="2:5">
       <c r="B207" s="14"/>
@@ -3881,8 +3858,8 @@
     <row r="208" spans="2:5">
       <c r="B208" s="14"/>
       <c r="C208" s="14"/>
-      <c r="D208" s="21"/>
-      <c r="E208" s="22"/>
+      <c r="D208" s="14"/>
+      <c r="E208" s="14"/>
     </row>
     <row r="209" spans="2:5">
       <c r="B209" s="14"/>
@@ -3890,11 +3867,12 @@
       <c r="D209" s="14"/>
       <c r="E209" s="14"/>
     </row>
-    <row r="210" spans="2:5">
-      <c r="B210" s="14"/>
-      <c r="C210" s="14"/>
-      <c r="D210" s="14"/>
-      <c r="E210" s="14"/>
+    <row r="210" spans="2:6">
+      <c r="B210" s="21"/>
+      <c r="C210" s="21"/>
+      <c r="D210" s="21"/>
+      <c r="E210" s="21"/>
+      <c r="F210" s="21"/>
     </row>
     <row r="211" spans="2:6">
       <c r="B211" s="21"/>
@@ -3904,20 +3882,20 @@
       <c r="F211" s="21"/>
     </row>
     <row r="212" spans="2:6">
-      <c r="B212" s="21"/>
-      <c r="C212" s="21"/>
-      <c r="D212" s="21"/>
-      <c r="E212" s="21"/>
-      <c r="F212" s="21"/>
-    </row>
-    <row r="213" spans="2:6">
-      <c r="B213" s="23"/>
-      <c r="C213" s="14"/>
-      <c r="D213" s="14"/>
-      <c r="E213" s="14"/>
-      <c r="F213" s="14"/>
-    </row>
-    <row r="215" ht="16.5" customHeight="1" spans="2:6">
+      <c r="B212" s="23"/>
+      <c r="C212" s="14"/>
+      <c r="D212" s="14"/>
+      <c r="E212" s="14"/>
+      <c r="F212" s="14"/>
+    </row>
+    <row r="214" ht="16.5" customHeight="1" spans="2:6">
+      <c r="B214" s="14"/>
+      <c r="C214" s="14"/>
+      <c r="D214" s="14"/>
+      <c r="E214" s="14"/>
+      <c r="F214" s="14"/>
+    </row>
+    <row r="215" spans="2:6">
       <c r="B215" s="14"/>
       <c r="C215" s="14"/>
       <c r="D215" s="14"/>
@@ -4001,12 +3979,10 @@
       <c r="E226" s="14"/>
       <c r="F226" s="14"/>
     </row>
-    <row r="227" spans="2:6">
-      <c r="B227" s="14"/>
-      <c r="C227" s="14"/>
-      <c r="D227" s="14"/>
-      <c r="E227" s="14"/>
-      <c r="F227" s="14"/>
+    <row r="228" spans="2:4">
+      <c r="B228" s="14"/>
+      <c r="C228" s="14"/>
+      <c r="D228" s="14"/>
     </row>
     <row r="229" spans="2:4">
       <c r="B229" s="14"/>
@@ -4053,129 +4029,124 @@
       <c r="C237" s="14"/>
       <c r="D237" s="14"/>
     </row>
-    <row r="238" spans="2:4">
-      <c r="B238" s="14"/>
-      <c r="C238" s="14"/>
-      <c r="D238" s="14"/>
-    </row>
-    <row r="242" spans="2:6">
-      <c r="B242" s="14"/>
-      <c r="C242" s="14"/>
-      <c r="D242" s="14"/>
-      <c r="E242" s="14"/>
-      <c r="F242" s="14"/>
-    </row>
-    <row r="244" spans="2:2">
-      <c r="B244"/>
+    <row r="241" spans="2:6">
+      <c r="B241" s="14"/>
+      <c r="C241" s="14"/>
+      <c r="D241" s="14"/>
+      <c r="E241" s="14"/>
+      <c r="F241" s="14"/>
+    </row>
+    <row r="243" spans="2:2">
+      <c r="B243"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B15">
+  <conditionalFormatting sqref="B14">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B65">
     <cfRule type="duplicateValues" dxfId="0" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83">
+  <conditionalFormatting sqref="B82">
     <cfRule type="duplicateValues" dxfId="0" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B84">
+  <conditionalFormatting sqref="B83">
     <cfRule type="duplicateValues" dxfId="0" priority="37"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B85">
+  <conditionalFormatting sqref="B84">
     <cfRule type="duplicateValues" dxfId="0" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B86">
+  <conditionalFormatting sqref="B85">
     <cfRule type="duplicateValues" dxfId="0" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B99">
+  <conditionalFormatting sqref="B98">
     <cfRule type="duplicateValues" dxfId="0" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B100">
+  <conditionalFormatting sqref="B99">
     <cfRule type="duplicateValues" dxfId="0" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B104">
+  <conditionalFormatting sqref="B103">
     <cfRule type="duplicateValues" dxfId="0" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B106">
+  <conditionalFormatting sqref="B105">
     <cfRule type="duplicateValues" dxfId="0" priority="9"/>
     <cfRule type="duplicateValues" dxfId="0" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B108">
+  <conditionalFormatting sqref="B107">
     <cfRule type="duplicateValues" dxfId="0" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B120">
+  <conditionalFormatting sqref="B119">
     <cfRule type="duplicateValues" dxfId="0" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B193">
+  <conditionalFormatting sqref="B192">
     <cfRule type="duplicateValues" dxfId="0" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B210">
+  <conditionalFormatting sqref="B209">
     <cfRule type="duplicateValues" dxfId="0" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B242">
+  <conditionalFormatting sqref="B241">
     <cfRule type="duplicateValues" dxfId="0" priority="50"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B81:B82">
+  <conditionalFormatting sqref="B80:B81">
     <cfRule type="duplicateValues" dxfId="0" priority="39"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B89:B90">
+  <conditionalFormatting sqref="B88:B89">
     <cfRule type="duplicateValues" dxfId="0" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B91:B92">
+  <conditionalFormatting sqref="B90:B91">
     <cfRule type="duplicateValues" dxfId="0" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B109:B111">
+  <conditionalFormatting sqref="B108:B110">
     <cfRule type="duplicateValues" dxfId="0" priority="7"/>
     <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B121:B127">
+  <conditionalFormatting sqref="B120:B126">
     <cfRule type="duplicateValues" dxfId="0" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B128:B129">
+  <conditionalFormatting sqref="B127:B128">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B206:B208">
+  <conditionalFormatting sqref="B205:B207">
     <cfRule type="duplicateValues" dxfId="0" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B215:B227">
+  <conditionalFormatting sqref="B214:B226">
     <cfRule type="duplicateValues" dxfId="0" priority="49"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C85:C86">
+  <conditionalFormatting sqref="C84:C85">
     <cfRule type="duplicateValues" dxfId="0" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C128:C129">
+  <conditionalFormatting sqref="C127:C128">
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B228 B213:B214 B209 B239:B241 B243 B194:B205 B131:B192 B66:B76 B245:B1048576 B1:B14 B16:B63">
+  <conditionalFormatting sqref="B1:B13 B227 B15:B62 B212:B213 B244:B1048576 B65:B75 B130:B191 B193:B204 B242 B238:B240 B208">
     <cfRule type="duplicateValues" dxfId="0" priority="45"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B107:B108 B112:B127 B130:B1048576 B1:B14 B16:B105">
+  <conditionalFormatting sqref="B1:B13 B106:B107 B15:B104 B111:B126 B129:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B112 B101 B78:B80 B94:B98 B87">
+  <conditionalFormatting sqref="B111 B86 B93:B97 B77:B79 B100">
     <cfRule type="duplicateValues" dxfId="0" priority="44"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B88 B93">
+  <conditionalFormatting sqref="B87 B92">
     <cfRule type="duplicateValues" dxfId="0" priority="43"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B102:B103 B107 B105">
+  <conditionalFormatting sqref="B101:B102 B104 B106">
     <cfRule type="duplicateValues" dxfId="0" priority="46"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B113 B130">
+  <conditionalFormatting sqref="B112 B129">
     <cfRule type="duplicateValues" dxfId="0" priority="47"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B114:C119 C120:C127">
+  <conditionalFormatting sqref="B113:C118 C119:C126">
     <cfRule type="duplicateValues" dxfId="0" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B229:C232 B236:C238">
+  <conditionalFormatting sqref="B228:C231 B235:C237">
     <cfRule type="duplicateValues" dxfId="0" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B233:C235">
+  <conditionalFormatting sqref="B232:C234">
     <cfRule type="duplicateValues" dxfId="0" priority="13"/>
   </conditionalFormatting>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_ConfigExcels/Datas/com_global_param.xlsx
+++ b/_ConfigExcels/Datas/com_global_param.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mine\Project\MiniGame_EarthDefender\_ConfigExcels\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="17775" tabRatio="736"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17775" tabRatio="736"/>
   </bookViews>
   <sheets>
     <sheet name="com_param" sheetId="11" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -138,9 +143,6 @@
   </si>
   <si>
     <t>第一关放弃时的特殊剧情</t>
-  </si>
-  <si>
-    <t>2,3,4</t>
   </si>
   <si>
     <t>avg_while_total_damage_is_0</t>
@@ -161,14 +163,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,147 +208,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -361,8 +220,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,194 +264,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -609,744 +288,502 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="533">
+  <cellStyleXfs count="485">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1358,16 +795,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="375" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="327" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1385,10 +822,10 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1406,543 +843,876 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="533">
+  <cellStyles count="485">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 10" xfId="49"/>
-    <cellStyle name="常规 11" xfId="50"/>
-    <cellStyle name="常规 12" xfId="51"/>
-    <cellStyle name="常规 13" xfId="52"/>
-    <cellStyle name="常规 2" xfId="53"/>
-    <cellStyle name="常规 2 10" xfId="54"/>
-    <cellStyle name="常规 2 11" xfId="55"/>
-    <cellStyle name="常规 2 2" xfId="56"/>
-    <cellStyle name="常规 2 2 2" xfId="57"/>
-    <cellStyle name="常规 2 2 2 2" xfId="58"/>
-    <cellStyle name="常规 2 2 2 2 2" xfId="59"/>
-    <cellStyle name="常规 2 2 2 2 2 2" xfId="60"/>
-    <cellStyle name="常规 2 2 2 2 2 2 2" xfId="61"/>
-    <cellStyle name="常规 2 2 2 2 2 2 2 2" xfId="62"/>
-    <cellStyle name="常规 2 2 2 2 2 2 2 3" xfId="63"/>
-    <cellStyle name="常规 2 2 2 2 2 2 3" xfId="64"/>
-    <cellStyle name="常规 2 2 2 2 2 3" xfId="65"/>
-    <cellStyle name="常规 2 2 2 2 2 3 2" xfId="66"/>
-    <cellStyle name="常规 2 2 2 2 2 3 3" xfId="67"/>
-    <cellStyle name="常规 2 2 2 2 2 4" xfId="68"/>
-    <cellStyle name="常规 2 2 2 2 3" xfId="69"/>
-    <cellStyle name="常规 2 2 2 2 3 2" xfId="70"/>
-    <cellStyle name="常规 2 2 2 2 3 2 2" xfId="71"/>
-    <cellStyle name="常规 2 2 2 2 3 2 3" xfId="72"/>
-    <cellStyle name="常规 2 2 2 2 3 3" xfId="73"/>
-    <cellStyle name="常规 2 2 2 2 4" xfId="74"/>
-    <cellStyle name="常规 2 2 2 2 4 2" xfId="75"/>
-    <cellStyle name="常规 2 2 2 2 4 3" xfId="76"/>
-    <cellStyle name="常规 2 2 2 2 5" xfId="77"/>
-    <cellStyle name="常规 2 2 2 3" xfId="78"/>
-    <cellStyle name="常规 2 2 2 3 2" xfId="79"/>
-    <cellStyle name="常规 2 2 2 3 2 2" xfId="80"/>
-    <cellStyle name="常规 2 2 2 3 2 2 2" xfId="81"/>
-    <cellStyle name="常规 2 2 2 3 2 2 3" xfId="82"/>
-    <cellStyle name="常规 2 2 2 3 2 3" xfId="83"/>
-    <cellStyle name="常规 2 2 2 3 3" xfId="84"/>
-    <cellStyle name="常规 2 2 2 3 3 2" xfId="85"/>
-    <cellStyle name="常规 2 2 2 3 3 3" xfId="86"/>
-    <cellStyle name="常规 2 2 2 3 4" xfId="87"/>
-    <cellStyle name="常规 2 2 2 4" xfId="88"/>
-    <cellStyle name="常规 2 2 2 4 2" xfId="89"/>
-    <cellStyle name="常规 2 2 2 4 2 2" xfId="90"/>
-    <cellStyle name="常规 2 2 2 4 2 3" xfId="91"/>
-    <cellStyle name="常规 2 2 2 4 3" xfId="92"/>
-    <cellStyle name="常规 2 2 2 5" xfId="93"/>
-    <cellStyle name="常规 2 2 2 5 2" xfId="94"/>
-    <cellStyle name="常规 2 2 2 5 3" xfId="95"/>
-    <cellStyle name="常规 2 2 2 6" xfId="96"/>
-    <cellStyle name="常规 2 2 3" xfId="97"/>
-    <cellStyle name="常规 2 2 3 2" xfId="98"/>
-    <cellStyle name="常规 2 2 3 2 2" xfId="99"/>
-    <cellStyle name="常规 2 2 3 2 2 2" xfId="100"/>
-    <cellStyle name="常规 2 2 3 2 2 2 2" xfId="101"/>
-    <cellStyle name="常规 2 2 3 2 2 2 3" xfId="102"/>
-    <cellStyle name="常规 2 2 3 2 2 3" xfId="103"/>
-    <cellStyle name="常规 2 2 3 2 3" xfId="104"/>
-    <cellStyle name="常规 2 2 3 2 3 2" xfId="105"/>
-    <cellStyle name="常规 2 2 3 2 3 3" xfId="106"/>
-    <cellStyle name="常规 2 2 3 2 4" xfId="107"/>
-    <cellStyle name="常规 2 2 3 3" xfId="108"/>
-    <cellStyle name="常规 2 2 3 3 2" xfId="109"/>
-    <cellStyle name="常规 2 2 3 3 2 2" xfId="110"/>
-    <cellStyle name="常规 2 2 3 3 2 3" xfId="111"/>
-    <cellStyle name="常规 2 2 3 3 3" xfId="112"/>
-    <cellStyle name="常规 2 2 3 4" xfId="113"/>
-    <cellStyle name="常规 2 2 3 4 2" xfId="114"/>
-    <cellStyle name="常规 2 2 3 4 3" xfId="115"/>
-    <cellStyle name="常规 2 2 3 5" xfId="116"/>
-    <cellStyle name="常规 2 2 4" xfId="117"/>
-    <cellStyle name="常规 2 2 4 2" xfId="118"/>
-    <cellStyle name="常规 2 2 4 2 2" xfId="119"/>
-    <cellStyle name="常规 2 2 4 2 2 2" xfId="120"/>
-    <cellStyle name="常规 2 2 4 2 2 3" xfId="121"/>
-    <cellStyle name="常规 2 2 4 2 3" xfId="122"/>
-    <cellStyle name="常规 2 2 4 3" xfId="123"/>
-    <cellStyle name="常规 2 2 4 3 2" xfId="124"/>
-    <cellStyle name="常规 2 2 4 3 3" xfId="125"/>
-    <cellStyle name="常规 2 2 4 4" xfId="126"/>
-    <cellStyle name="常规 2 2 5" xfId="127"/>
-    <cellStyle name="常规 2 2 5 2" xfId="128"/>
-    <cellStyle name="常规 2 2 5 2 2" xfId="129"/>
-    <cellStyle name="常规 2 2 5 2 3" xfId="130"/>
-    <cellStyle name="常规 2 2 5 3" xfId="131"/>
-    <cellStyle name="常规 2 2 6" xfId="132"/>
-    <cellStyle name="常规 2 2 6 2" xfId="133"/>
-    <cellStyle name="常规 2 2 6 3" xfId="134"/>
-    <cellStyle name="常规 2 2 7" xfId="135"/>
-    <cellStyle name="常规 2 3" xfId="136"/>
-    <cellStyle name="常规 2 3 2" xfId="137"/>
-    <cellStyle name="常规 2 3 2 2" xfId="138"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="139"/>
-    <cellStyle name="常规 2 3 2 2 2 2" xfId="140"/>
-    <cellStyle name="常规 2 3 2 2 2 2 2" xfId="141"/>
-    <cellStyle name="常规 2 3 2 2 2 2 2 2" xfId="142"/>
-    <cellStyle name="常规 2 3 2 2 2 2 2 3" xfId="143"/>
-    <cellStyle name="常规 2 3 2 2 2 2 3" xfId="144"/>
-    <cellStyle name="常规 2 3 2 2 2 3" xfId="145"/>
-    <cellStyle name="常规 2 3 2 2 2 3 2" xfId="146"/>
-    <cellStyle name="常规 2 3 2 2 2 3 3" xfId="147"/>
-    <cellStyle name="常规 2 3 2 2 2 4" xfId="148"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="149"/>
-    <cellStyle name="常规 2 3 2 2 3 2" xfId="150"/>
-    <cellStyle name="常规 2 3 2 2 3 2 2" xfId="151"/>
-    <cellStyle name="常规 2 3 2 2 3 2 3" xfId="152"/>
-    <cellStyle name="常规 2 3 2 2 3 3" xfId="153"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="154"/>
-    <cellStyle name="常规 2 3 2 2 4 2" xfId="155"/>
-    <cellStyle name="常规 2 3 2 2 4 3" xfId="156"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="157"/>
-    <cellStyle name="常规 2 3 2 3" xfId="158"/>
-    <cellStyle name="常规 2 3 2 3 2" xfId="159"/>
-    <cellStyle name="常规 2 3 2 3 2 2" xfId="160"/>
-    <cellStyle name="常规 2 3 2 3 2 2 2" xfId="161"/>
-    <cellStyle name="常规 2 3 2 3 2 2 3" xfId="162"/>
-    <cellStyle name="常规 2 3 2 3 2 3" xfId="163"/>
-    <cellStyle name="常规 2 3 2 3 3" xfId="164"/>
-    <cellStyle name="常规 2 3 2 3 3 2" xfId="165"/>
-    <cellStyle name="常规 2 3 2 3 3 3" xfId="166"/>
-    <cellStyle name="常规 2 3 2 3 4" xfId="167"/>
-    <cellStyle name="常规 2 3 2 4" xfId="168"/>
-    <cellStyle name="常规 2 3 2 4 2" xfId="169"/>
-    <cellStyle name="常规 2 3 2 4 2 2" xfId="170"/>
-    <cellStyle name="常规 2 3 2 4 2 3" xfId="171"/>
-    <cellStyle name="常规 2 3 2 4 3" xfId="172"/>
-    <cellStyle name="常规 2 3 2 5" xfId="173"/>
-    <cellStyle name="常规 2 3 2 5 2" xfId="174"/>
-    <cellStyle name="常规 2 3 2 5 3" xfId="175"/>
-    <cellStyle name="常规 2 3 2 6" xfId="176"/>
-    <cellStyle name="常规 2 3 3" xfId="177"/>
-    <cellStyle name="常规 2 3 3 2" xfId="178"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="179"/>
-    <cellStyle name="常规 2 3 3 2 2 2" xfId="180"/>
-    <cellStyle name="常规 2 3 3 2 2 2 2" xfId="181"/>
-    <cellStyle name="常规 2 3 3 2 2 2 3" xfId="182"/>
-    <cellStyle name="常规 2 3 3 2 2 3" xfId="183"/>
-    <cellStyle name="常规 2 3 3 2 3" xfId="184"/>
-    <cellStyle name="常规 2 3 3 2 3 2" xfId="185"/>
-    <cellStyle name="常规 2 3 3 2 3 3" xfId="186"/>
-    <cellStyle name="常规 2 3 3 2 4" xfId="187"/>
-    <cellStyle name="常规 2 3 3 3" xfId="188"/>
-    <cellStyle name="常规 2 3 3 3 2" xfId="189"/>
-    <cellStyle name="常规 2 3 3 3 2 2" xfId="190"/>
-    <cellStyle name="常规 2 3 3 3 2 3" xfId="191"/>
-    <cellStyle name="常规 2 3 3 3 3" xfId="192"/>
-    <cellStyle name="常规 2 3 3 4" xfId="193"/>
-    <cellStyle name="常规 2 3 3 4 2" xfId="194"/>
-    <cellStyle name="常规 2 3 3 4 3" xfId="195"/>
-    <cellStyle name="常规 2 3 3 5" xfId="196"/>
-    <cellStyle name="常规 2 3 4" xfId="197"/>
-    <cellStyle name="常规 2 3 4 2" xfId="198"/>
-    <cellStyle name="常规 2 3 4 2 2" xfId="199"/>
-    <cellStyle name="常规 2 3 4 2 2 2" xfId="200"/>
-    <cellStyle name="常规 2 3 4 2 2 3" xfId="201"/>
-    <cellStyle name="常规 2 3 4 2 3" xfId="202"/>
-    <cellStyle name="常规 2 3 4 3" xfId="203"/>
-    <cellStyle name="常规 2 3 4 3 2" xfId="204"/>
-    <cellStyle name="常规 2 3 4 3 3" xfId="205"/>
-    <cellStyle name="常规 2 3 4 4" xfId="206"/>
-    <cellStyle name="常规 2 3 5" xfId="207"/>
-    <cellStyle name="常规 2 3 5 2" xfId="208"/>
-    <cellStyle name="常规 2 3 5 2 2" xfId="209"/>
-    <cellStyle name="常规 2 3 5 2 3" xfId="210"/>
-    <cellStyle name="常规 2 3 5 3" xfId="211"/>
-    <cellStyle name="常规 2 3 6" xfId="212"/>
-    <cellStyle name="常规 2 3 6 2" xfId="213"/>
-    <cellStyle name="常规 2 3 6 3" xfId="214"/>
-    <cellStyle name="常规 2 3 7" xfId="215"/>
-    <cellStyle name="常规 2 4" xfId="216"/>
-    <cellStyle name="常规 2 4 2" xfId="217"/>
-    <cellStyle name="常规 2 4 2 2" xfId="218"/>
-    <cellStyle name="常规 2 4 2 2 2" xfId="219"/>
-    <cellStyle name="常规 2 4 2 2 2 2" xfId="220"/>
-    <cellStyle name="常规 2 4 2 2 2 2 2" xfId="221"/>
-    <cellStyle name="常规 2 4 2 2 2 2 3" xfId="222"/>
-    <cellStyle name="常规 2 4 2 2 2 3" xfId="223"/>
-    <cellStyle name="常规 2 4 2 2 3" xfId="224"/>
-    <cellStyle name="常规 2 4 2 2 3 2" xfId="225"/>
-    <cellStyle name="常规 2 4 2 2 3 3" xfId="226"/>
-    <cellStyle name="常规 2 4 2 2 4" xfId="227"/>
-    <cellStyle name="常规 2 4 2 3" xfId="228"/>
-    <cellStyle name="常规 2 4 2 3 2" xfId="229"/>
-    <cellStyle name="常规 2 4 2 3 2 2" xfId="230"/>
-    <cellStyle name="常规 2 4 2 3 2 3" xfId="231"/>
-    <cellStyle name="常规 2 4 2 3 3" xfId="232"/>
-    <cellStyle name="常规 2 4 2 4" xfId="233"/>
-    <cellStyle name="常规 2 4 2 4 2" xfId="234"/>
-    <cellStyle name="常规 2 4 2 4 3" xfId="235"/>
-    <cellStyle name="常规 2 4 2 5" xfId="236"/>
-    <cellStyle name="常规 2 4 3" xfId="237"/>
-    <cellStyle name="常规 2 4 3 2" xfId="238"/>
-    <cellStyle name="常规 2 4 3 2 2" xfId="239"/>
-    <cellStyle name="常规 2 4 3 2 2 2" xfId="240"/>
-    <cellStyle name="常规 2 4 3 2 2 3" xfId="241"/>
-    <cellStyle name="常规 2 4 3 2 3" xfId="242"/>
-    <cellStyle name="常规 2 4 3 3" xfId="243"/>
-    <cellStyle name="常规 2 4 3 3 2" xfId="244"/>
-    <cellStyle name="常规 2 4 3 3 3" xfId="245"/>
-    <cellStyle name="常规 2 4 3 4" xfId="246"/>
-    <cellStyle name="常规 2 4 4" xfId="247"/>
-    <cellStyle name="常规 2 4 4 2" xfId="248"/>
-    <cellStyle name="常规 2 4 4 2 2" xfId="249"/>
-    <cellStyle name="常规 2 4 4 2 3" xfId="250"/>
-    <cellStyle name="常规 2 4 4 3" xfId="251"/>
-    <cellStyle name="常规 2 4 5" xfId="252"/>
-    <cellStyle name="常规 2 4 5 2" xfId="253"/>
-    <cellStyle name="常规 2 4 5 3" xfId="254"/>
-    <cellStyle name="常规 2 4 6" xfId="255"/>
-    <cellStyle name="常规 2 5" xfId="256"/>
-    <cellStyle name="常规 2 5 2" xfId="257"/>
-    <cellStyle name="常规 2 5 2 2" xfId="258"/>
-    <cellStyle name="常规 2 5 2 2 2" xfId="259"/>
-    <cellStyle name="常规 2 5 2 2 2 2" xfId="260"/>
-    <cellStyle name="常规 2 5 2 2 2 3" xfId="261"/>
-    <cellStyle name="常规 2 5 2 2 3" xfId="262"/>
-    <cellStyle name="常规 2 5 2 3" xfId="263"/>
-    <cellStyle name="常规 2 5 2 3 2" xfId="264"/>
-    <cellStyle name="常规 2 5 2 3 3" xfId="265"/>
-    <cellStyle name="常规 2 5 2 4" xfId="266"/>
-    <cellStyle name="常规 2 5 3" xfId="267"/>
-    <cellStyle name="常规 2 5 3 2" xfId="268"/>
-    <cellStyle name="常规 2 5 3 2 2" xfId="269"/>
-    <cellStyle name="常规 2 5 3 2 3" xfId="270"/>
-    <cellStyle name="常规 2 5 3 3" xfId="271"/>
-    <cellStyle name="常规 2 5 4" xfId="272"/>
-    <cellStyle name="常规 2 5 4 2" xfId="273"/>
-    <cellStyle name="常规 2 5 4 3" xfId="274"/>
-    <cellStyle name="常规 2 5 5" xfId="275"/>
-    <cellStyle name="常规 2 6" xfId="276"/>
-    <cellStyle name="常规 2 6 2" xfId="277"/>
-    <cellStyle name="常规 2 6 2 2" xfId="278"/>
-    <cellStyle name="常规 2 6 2 2 2" xfId="279"/>
-    <cellStyle name="常规 2 6 2 2 3" xfId="280"/>
-    <cellStyle name="常规 2 6 2 3" xfId="281"/>
-    <cellStyle name="常规 2 6 3" xfId="282"/>
-    <cellStyle name="常规 2 6 3 2" xfId="283"/>
-    <cellStyle name="常规 2 6 3 3" xfId="284"/>
-    <cellStyle name="常规 2 6 4" xfId="285"/>
-    <cellStyle name="常规 2 7" xfId="286"/>
-    <cellStyle name="常规 2 7 2" xfId="287"/>
-    <cellStyle name="常规 2 7 2 2" xfId="288"/>
-    <cellStyle name="常规 2 7 2 3" xfId="289"/>
-    <cellStyle name="常规 2 7 3" xfId="290"/>
-    <cellStyle name="常规 2 8" xfId="291"/>
-    <cellStyle name="常规 2 8 2" xfId="292"/>
-    <cellStyle name="常规 2 8 3" xfId="293"/>
-    <cellStyle name="常规 2 9" xfId="294"/>
-    <cellStyle name="常规 3" xfId="295"/>
-    <cellStyle name="常规 3 2" xfId="296"/>
-    <cellStyle name="常规 3 2 2" xfId="297"/>
-    <cellStyle name="常规 3 2 2 2" xfId="298"/>
-    <cellStyle name="常规 3 2 2 2 2" xfId="299"/>
-    <cellStyle name="常规 3 2 2 2 2 2" xfId="300"/>
-    <cellStyle name="常规 3 2 2 2 2 2 2" xfId="301"/>
-    <cellStyle name="常规 3 2 2 2 2 2 3" xfId="302"/>
-    <cellStyle name="常规 3 2 2 2 2 3" xfId="303"/>
-    <cellStyle name="常规 3 2 2 2 3" xfId="304"/>
-    <cellStyle name="常规 3 2 2 2 3 2" xfId="305"/>
-    <cellStyle name="常规 3 2 2 2 3 3" xfId="306"/>
-    <cellStyle name="常规 3 2 2 2 4" xfId="307"/>
-    <cellStyle name="常规 3 2 2 3" xfId="308"/>
-    <cellStyle name="常规 3 2 2 3 2" xfId="309"/>
-    <cellStyle name="常规 3 2 2 3 2 2" xfId="310"/>
-    <cellStyle name="常规 3 2 2 3 2 3" xfId="311"/>
-    <cellStyle name="常规 3 2 2 3 3" xfId="312"/>
-    <cellStyle name="常规 3 2 2 4" xfId="313"/>
-    <cellStyle name="常规 3 2 2 4 2" xfId="314"/>
-    <cellStyle name="常规 3 2 2 4 3" xfId="315"/>
-    <cellStyle name="常规 3 2 2 5" xfId="316"/>
-    <cellStyle name="常规 3 2 3" xfId="317"/>
-    <cellStyle name="常规 3 2 3 2" xfId="318"/>
-    <cellStyle name="常规 3 2 3 2 2" xfId="319"/>
-    <cellStyle name="常规 3 2 3 2 2 2" xfId="320"/>
-    <cellStyle name="常规 3 2 3 2 2 3" xfId="321"/>
-    <cellStyle name="常规 3 2 3 2 3" xfId="322"/>
-    <cellStyle name="常规 3 2 3 3" xfId="323"/>
-    <cellStyle name="常规 3 2 3 3 2" xfId="324"/>
-    <cellStyle name="常规 3 2 3 3 3" xfId="325"/>
-    <cellStyle name="常规 3 2 3 4" xfId="326"/>
-    <cellStyle name="常规 3 2 4" xfId="327"/>
-    <cellStyle name="常规 3 2 4 2" xfId="328"/>
-    <cellStyle name="常规 3 2 4 2 2" xfId="329"/>
-    <cellStyle name="常规 3 2 4 2 3" xfId="330"/>
-    <cellStyle name="常规 3 2 4 3" xfId="331"/>
-    <cellStyle name="常规 3 2 5" xfId="332"/>
-    <cellStyle name="常规 3 2 5 2" xfId="333"/>
-    <cellStyle name="常规 3 2 5 3" xfId="334"/>
-    <cellStyle name="常规 3 2 6" xfId="335"/>
-    <cellStyle name="常规 3 3" xfId="336"/>
-    <cellStyle name="常规 3 3 2" xfId="337"/>
-    <cellStyle name="常规 3 3 2 2" xfId="338"/>
-    <cellStyle name="常规 3 3 2 2 2" xfId="339"/>
-    <cellStyle name="常规 3 3 2 2 2 2" xfId="340"/>
-    <cellStyle name="常规 3 3 2 2 2 3" xfId="341"/>
-    <cellStyle name="常规 3 3 2 2 3" xfId="342"/>
-    <cellStyle name="常规 3 3 2 3" xfId="343"/>
-    <cellStyle name="常规 3 3 2 3 2" xfId="344"/>
-    <cellStyle name="常规 3 3 2 3 3" xfId="345"/>
-    <cellStyle name="常规 3 3 2 4" xfId="346"/>
-    <cellStyle name="常规 3 3 3" xfId="347"/>
-    <cellStyle name="常规 3 3 3 2" xfId="348"/>
-    <cellStyle name="常规 3 3 3 2 2" xfId="349"/>
-    <cellStyle name="常规 3 3 3 2 3" xfId="350"/>
-    <cellStyle name="常规 3 3 3 3" xfId="351"/>
-    <cellStyle name="常规 3 3 4" xfId="352"/>
-    <cellStyle name="常规 3 3 4 2" xfId="353"/>
-    <cellStyle name="常规 3 3 4 3" xfId="354"/>
-    <cellStyle name="常规 3 3 5" xfId="355"/>
-    <cellStyle name="常规 3 4" xfId="356"/>
-    <cellStyle name="常规 3 4 2" xfId="357"/>
-    <cellStyle name="常规 3 4 2 2" xfId="358"/>
-    <cellStyle name="常规 3 4 2 2 2" xfId="359"/>
-    <cellStyle name="常规 3 4 2 2 3" xfId="360"/>
-    <cellStyle name="常规 3 4 2 3" xfId="361"/>
-    <cellStyle name="常规 3 4 3" xfId="362"/>
-    <cellStyle name="常规 3 4 3 2" xfId="363"/>
-    <cellStyle name="常规 3 4 3 3" xfId="364"/>
-    <cellStyle name="常规 3 4 4" xfId="365"/>
-    <cellStyle name="常规 3 5" xfId="366"/>
-    <cellStyle name="常规 3 5 2" xfId="367"/>
-    <cellStyle name="常规 3 5 2 2" xfId="368"/>
-    <cellStyle name="常规 3 5 2 3" xfId="369"/>
-    <cellStyle name="常规 3 5 3" xfId="370"/>
-    <cellStyle name="常规 3 6" xfId="371"/>
-    <cellStyle name="常规 3 6 2" xfId="372"/>
-    <cellStyle name="常规 3 6 3" xfId="373"/>
-    <cellStyle name="常规 3 7" xfId="374"/>
-    <cellStyle name="常规 4" xfId="375"/>
-    <cellStyle name="常规 4 2" xfId="376"/>
-    <cellStyle name="常规 4 2 2" xfId="377"/>
-    <cellStyle name="常规 4 2 2 2" xfId="378"/>
-    <cellStyle name="常规 4 2 2 2 2" xfId="379"/>
-    <cellStyle name="常规 4 2 2 2 2 2" xfId="380"/>
-    <cellStyle name="常规 4 2 2 2 2 2 2" xfId="381"/>
-    <cellStyle name="常规 4 2 2 2 2 2 3" xfId="382"/>
-    <cellStyle name="常规 4 2 2 2 2 3" xfId="383"/>
-    <cellStyle name="常规 4 2 2 2 3" xfId="384"/>
-    <cellStyle name="常规 4 2 2 2 3 2" xfId="385"/>
-    <cellStyle name="常规 4 2 2 2 3 3" xfId="386"/>
-    <cellStyle name="常规 4 2 2 2 4" xfId="387"/>
-    <cellStyle name="常规 4 2 2 3" xfId="388"/>
-    <cellStyle name="常规 4 2 2 3 2" xfId="389"/>
-    <cellStyle name="常规 4 2 2 3 2 2" xfId="390"/>
-    <cellStyle name="常规 4 2 2 3 2 3" xfId="391"/>
-    <cellStyle name="常规 4 2 2 3 3" xfId="392"/>
-    <cellStyle name="常规 4 2 2 4" xfId="393"/>
-    <cellStyle name="常规 4 2 2 4 2" xfId="394"/>
-    <cellStyle name="常规 4 2 2 4 3" xfId="395"/>
-    <cellStyle name="常规 4 2 2 5" xfId="396"/>
-    <cellStyle name="常规 4 2 3" xfId="397"/>
-    <cellStyle name="常规 4 2 3 2" xfId="398"/>
-    <cellStyle name="常规 4 2 3 2 2" xfId="399"/>
-    <cellStyle name="常规 4 2 3 2 2 2" xfId="400"/>
-    <cellStyle name="常规 4 2 3 2 2 3" xfId="401"/>
-    <cellStyle name="常规 4 2 3 2 3" xfId="402"/>
-    <cellStyle name="常规 4 2 3 3" xfId="403"/>
-    <cellStyle name="常规 4 2 3 3 2" xfId="404"/>
-    <cellStyle name="常规 4 2 3 3 3" xfId="405"/>
-    <cellStyle name="常规 4 2 3 4" xfId="406"/>
-    <cellStyle name="常规 4 2 4" xfId="407"/>
-    <cellStyle name="常规 4 2 4 2" xfId="408"/>
-    <cellStyle name="常规 4 2 4 2 2" xfId="409"/>
-    <cellStyle name="常规 4 2 4 2 3" xfId="410"/>
-    <cellStyle name="常规 4 2 4 3" xfId="411"/>
-    <cellStyle name="常规 4 2 5" xfId="412"/>
-    <cellStyle name="常规 4 2 5 2" xfId="413"/>
-    <cellStyle name="常规 4 2 5 3" xfId="414"/>
-    <cellStyle name="常规 4 2 6" xfId="415"/>
-    <cellStyle name="常规 4 3" xfId="416"/>
-    <cellStyle name="常规 4 3 2" xfId="417"/>
-    <cellStyle name="常规 4 3 2 2" xfId="418"/>
-    <cellStyle name="常规 4 3 2 2 2" xfId="419"/>
-    <cellStyle name="常规 4 3 2 2 2 2" xfId="420"/>
-    <cellStyle name="常规 4 3 2 2 2 3" xfId="421"/>
-    <cellStyle name="常规 4 3 2 2 3" xfId="422"/>
-    <cellStyle name="常规 4 3 2 3" xfId="423"/>
-    <cellStyle name="常规 4 3 2 3 2" xfId="424"/>
-    <cellStyle name="常规 4 3 2 3 3" xfId="425"/>
-    <cellStyle name="常规 4 3 2 4" xfId="426"/>
-    <cellStyle name="常规 4 3 3" xfId="427"/>
-    <cellStyle name="常规 4 3 3 2" xfId="428"/>
-    <cellStyle name="常规 4 3 3 2 2" xfId="429"/>
-    <cellStyle name="常规 4 3 3 2 3" xfId="430"/>
-    <cellStyle name="常规 4 3 3 3" xfId="431"/>
-    <cellStyle name="常规 4 3 4" xfId="432"/>
-    <cellStyle name="常规 4 3 4 2" xfId="433"/>
-    <cellStyle name="常规 4 3 4 3" xfId="434"/>
-    <cellStyle name="常规 4 3 5" xfId="435"/>
-    <cellStyle name="常规 4 4" xfId="436"/>
-    <cellStyle name="常规 4 4 2" xfId="437"/>
-    <cellStyle name="常规 4 4 2 2" xfId="438"/>
-    <cellStyle name="常规 4 4 2 2 2" xfId="439"/>
-    <cellStyle name="常规 4 4 2 2 3" xfId="440"/>
-    <cellStyle name="常规 4 4 2 3" xfId="441"/>
-    <cellStyle name="常规 4 4 3" xfId="442"/>
-    <cellStyle name="常规 4 4 3 2" xfId="443"/>
-    <cellStyle name="常规 4 4 3 3" xfId="444"/>
-    <cellStyle name="常规 4 4 4" xfId="445"/>
-    <cellStyle name="常规 4 5" xfId="446"/>
-    <cellStyle name="常规 4 5 2" xfId="447"/>
-    <cellStyle name="常规 4 5 2 2" xfId="448"/>
-    <cellStyle name="常规 4 5 2 3" xfId="449"/>
-    <cellStyle name="常规 4 5 3" xfId="450"/>
-    <cellStyle name="常规 4 6" xfId="451"/>
-    <cellStyle name="常规 4 6 2" xfId="452"/>
-    <cellStyle name="常规 4 6 3" xfId="453"/>
-    <cellStyle name="常规 4 7" xfId="454"/>
-    <cellStyle name="常规 5" xfId="455"/>
-    <cellStyle name="常规 5 2" xfId="456"/>
-    <cellStyle name="常规 5 2 2" xfId="457"/>
-    <cellStyle name="常规 5 2 2 2" xfId="458"/>
-    <cellStyle name="常规 5 2 2 2 2" xfId="459"/>
-    <cellStyle name="常规 5 2 2 2 2 2" xfId="460"/>
-    <cellStyle name="常规 5 2 2 2 2 3" xfId="461"/>
-    <cellStyle name="常规 5 2 2 2 3" xfId="462"/>
-    <cellStyle name="常规 5 2 2 3" xfId="463"/>
-    <cellStyle name="常规 5 2 2 3 2" xfId="464"/>
-    <cellStyle name="常规 5 2 2 3 3" xfId="465"/>
-    <cellStyle name="常规 5 2 2 4" xfId="466"/>
-    <cellStyle name="常规 5 2 3" xfId="467"/>
-    <cellStyle name="常规 5 2 3 2" xfId="468"/>
-    <cellStyle name="常规 5 2 3 2 2" xfId="469"/>
-    <cellStyle name="常规 5 2 3 2 3" xfId="470"/>
-    <cellStyle name="常规 5 2 3 3" xfId="471"/>
-    <cellStyle name="常规 5 2 4" xfId="472"/>
-    <cellStyle name="常规 5 2 4 2" xfId="473"/>
-    <cellStyle name="常规 5 2 4 3" xfId="474"/>
-    <cellStyle name="常规 5 2 5" xfId="475"/>
-    <cellStyle name="常规 5 3" xfId="476"/>
-    <cellStyle name="常规 5 3 2" xfId="477"/>
-    <cellStyle name="常规 5 3 2 2" xfId="478"/>
-    <cellStyle name="常规 5 3 2 2 2" xfId="479"/>
-    <cellStyle name="常规 5 3 2 2 3" xfId="480"/>
-    <cellStyle name="常规 5 3 2 3" xfId="481"/>
-    <cellStyle name="常规 5 3 3" xfId="482"/>
-    <cellStyle name="常规 5 3 3 2" xfId="483"/>
-    <cellStyle name="常规 5 3 3 3" xfId="484"/>
-    <cellStyle name="常规 5 3 4" xfId="485"/>
-    <cellStyle name="常规 5 4" xfId="486"/>
-    <cellStyle name="常规 5 4 2" xfId="487"/>
-    <cellStyle name="常规 5 4 2 2" xfId="488"/>
-    <cellStyle name="常规 5 4 2 3" xfId="489"/>
-    <cellStyle name="常规 5 4 3" xfId="490"/>
-    <cellStyle name="常规 5 5" xfId="491"/>
-    <cellStyle name="常规 5 5 2" xfId="492"/>
-    <cellStyle name="常规 5 5 3" xfId="493"/>
-    <cellStyle name="常规 5 6" xfId="494"/>
-    <cellStyle name="常规 6" xfId="495"/>
-    <cellStyle name="常规 6 2" xfId="496"/>
-    <cellStyle name="常规 6 2 2" xfId="497"/>
-    <cellStyle name="常规 6 2 2 2" xfId="498"/>
-    <cellStyle name="常规 6 2 2 2 2" xfId="499"/>
-    <cellStyle name="常规 6 2 2 2 3" xfId="500"/>
-    <cellStyle name="常规 6 2 2 3" xfId="501"/>
-    <cellStyle name="常规 6 2 3" xfId="502"/>
-    <cellStyle name="常规 6 2 3 2" xfId="503"/>
-    <cellStyle name="常规 6 2 3 3" xfId="504"/>
-    <cellStyle name="常规 6 2 4" xfId="505"/>
-    <cellStyle name="常规 6 3" xfId="506"/>
-    <cellStyle name="常规 6 3 2" xfId="507"/>
-    <cellStyle name="常规 6 3 2 2" xfId="508"/>
-    <cellStyle name="常规 6 3 2 3" xfId="509"/>
-    <cellStyle name="常规 6 3 3" xfId="510"/>
-    <cellStyle name="常规 6 4" xfId="511"/>
-    <cellStyle name="常规 6 4 2" xfId="512"/>
-    <cellStyle name="常规 6 4 3" xfId="513"/>
-    <cellStyle name="常规 6 5" xfId="514"/>
-    <cellStyle name="常规 7" xfId="515"/>
-    <cellStyle name="常规 7 2" xfId="516"/>
-    <cellStyle name="常规 7 2 2" xfId="517"/>
-    <cellStyle name="常规 7 2 2 2" xfId="518"/>
-    <cellStyle name="常规 7 2 2 3" xfId="519"/>
-    <cellStyle name="常规 7 2 3" xfId="520"/>
-    <cellStyle name="常规 7 3" xfId="521"/>
-    <cellStyle name="常规 7 3 2" xfId="522"/>
-    <cellStyle name="常规 7 3 3" xfId="523"/>
-    <cellStyle name="常规 7 4" xfId="524"/>
-    <cellStyle name="常规 8" xfId="525"/>
-    <cellStyle name="常规 8 2" xfId="526"/>
-    <cellStyle name="常规 8 2 2" xfId="527"/>
-    <cellStyle name="常规 8 2 3" xfId="528"/>
-    <cellStyle name="常规 8 3" xfId="529"/>
-    <cellStyle name="常规 9" xfId="530"/>
-    <cellStyle name="常规 9 2" xfId="531"/>
-    <cellStyle name="常规 9 3" xfId="532"/>
+    <cellStyle name="常规 10" xfId="1"/>
+    <cellStyle name="常规 11" xfId="2"/>
+    <cellStyle name="常规 12" xfId="3"/>
+    <cellStyle name="常规 13" xfId="4"/>
+    <cellStyle name="常规 2" xfId="5"/>
+    <cellStyle name="常规 2 10" xfId="6"/>
+    <cellStyle name="常规 2 11" xfId="7"/>
+    <cellStyle name="常规 2 2" xfId="8"/>
+    <cellStyle name="常规 2 2 2" xfId="9"/>
+    <cellStyle name="常规 2 2 2 2" xfId="10"/>
+    <cellStyle name="常规 2 2 2 2 2" xfId="11"/>
+    <cellStyle name="常规 2 2 2 2 2 2" xfId="12"/>
+    <cellStyle name="常规 2 2 2 2 2 2 2" xfId="13"/>
+    <cellStyle name="常规 2 2 2 2 2 2 2 2" xfId="14"/>
+    <cellStyle name="常规 2 2 2 2 2 2 2 3" xfId="15"/>
+    <cellStyle name="常规 2 2 2 2 2 2 3" xfId="16"/>
+    <cellStyle name="常规 2 2 2 2 2 3" xfId="17"/>
+    <cellStyle name="常规 2 2 2 2 2 3 2" xfId="18"/>
+    <cellStyle name="常规 2 2 2 2 2 3 3" xfId="19"/>
+    <cellStyle name="常规 2 2 2 2 2 4" xfId="20"/>
+    <cellStyle name="常规 2 2 2 2 3" xfId="21"/>
+    <cellStyle name="常规 2 2 2 2 3 2" xfId="22"/>
+    <cellStyle name="常规 2 2 2 2 3 2 2" xfId="23"/>
+    <cellStyle name="常规 2 2 2 2 3 2 3" xfId="24"/>
+    <cellStyle name="常规 2 2 2 2 3 3" xfId="25"/>
+    <cellStyle name="常规 2 2 2 2 4" xfId="26"/>
+    <cellStyle name="常规 2 2 2 2 4 2" xfId="27"/>
+    <cellStyle name="常规 2 2 2 2 4 3" xfId="28"/>
+    <cellStyle name="常规 2 2 2 2 5" xfId="29"/>
+    <cellStyle name="常规 2 2 2 3" xfId="30"/>
+    <cellStyle name="常规 2 2 2 3 2" xfId="31"/>
+    <cellStyle name="常规 2 2 2 3 2 2" xfId="32"/>
+    <cellStyle name="常规 2 2 2 3 2 2 2" xfId="33"/>
+    <cellStyle name="常规 2 2 2 3 2 2 3" xfId="34"/>
+    <cellStyle name="常规 2 2 2 3 2 3" xfId="35"/>
+    <cellStyle name="常规 2 2 2 3 3" xfId="36"/>
+    <cellStyle name="常规 2 2 2 3 3 2" xfId="37"/>
+    <cellStyle name="常规 2 2 2 3 3 3" xfId="38"/>
+    <cellStyle name="常规 2 2 2 3 4" xfId="39"/>
+    <cellStyle name="常规 2 2 2 4" xfId="40"/>
+    <cellStyle name="常规 2 2 2 4 2" xfId="41"/>
+    <cellStyle name="常规 2 2 2 4 2 2" xfId="42"/>
+    <cellStyle name="常规 2 2 2 4 2 3" xfId="43"/>
+    <cellStyle name="常规 2 2 2 4 3" xfId="44"/>
+    <cellStyle name="常规 2 2 2 5" xfId="45"/>
+    <cellStyle name="常规 2 2 2 5 2" xfId="46"/>
+    <cellStyle name="常规 2 2 2 5 3" xfId="47"/>
+    <cellStyle name="常规 2 2 2 6" xfId="48"/>
+    <cellStyle name="常规 2 2 3" xfId="49"/>
+    <cellStyle name="常规 2 2 3 2" xfId="50"/>
+    <cellStyle name="常规 2 2 3 2 2" xfId="51"/>
+    <cellStyle name="常规 2 2 3 2 2 2" xfId="52"/>
+    <cellStyle name="常规 2 2 3 2 2 2 2" xfId="53"/>
+    <cellStyle name="常规 2 2 3 2 2 2 3" xfId="54"/>
+    <cellStyle name="常规 2 2 3 2 2 3" xfId="55"/>
+    <cellStyle name="常规 2 2 3 2 3" xfId="56"/>
+    <cellStyle name="常规 2 2 3 2 3 2" xfId="57"/>
+    <cellStyle name="常规 2 2 3 2 3 3" xfId="58"/>
+    <cellStyle name="常规 2 2 3 2 4" xfId="59"/>
+    <cellStyle name="常规 2 2 3 3" xfId="60"/>
+    <cellStyle name="常规 2 2 3 3 2" xfId="61"/>
+    <cellStyle name="常规 2 2 3 3 2 2" xfId="62"/>
+    <cellStyle name="常规 2 2 3 3 2 3" xfId="63"/>
+    <cellStyle name="常规 2 2 3 3 3" xfId="64"/>
+    <cellStyle name="常规 2 2 3 4" xfId="65"/>
+    <cellStyle name="常规 2 2 3 4 2" xfId="66"/>
+    <cellStyle name="常规 2 2 3 4 3" xfId="67"/>
+    <cellStyle name="常规 2 2 3 5" xfId="68"/>
+    <cellStyle name="常规 2 2 4" xfId="69"/>
+    <cellStyle name="常规 2 2 4 2" xfId="70"/>
+    <cellStyle name="常规 2 2 4 2 2" xfId="71"/>
+    <cellStyle name="常规 2 2 4 2 2 2" xfId="72"/>
+    <cellStyle name="常规 2 2 4 2 2 3" xfId="73"/>
+    <cellStyle name="常规 2 2 4 2 3" xfId="74"/>
+    <cellStyle name="常规 2 2 4 3" xfId="75"/>
+    <cellStyle name="常规 2 2 4 3 2" xfId="76"/>
+    <cellStyle name="常规 2 2 4 3 3" xfId="77"/>
+    <cellStyle name="常规 2 2 4 4" xfId="78"/>
+    <cellStyle name="常规 2 2 5" xfId="79"/>
+    <cellStyle name="常规 2 2 5 2" xfId="80"/>
+    <cellStyle name="常规 2 2 5 2 2" xfId="81"/>
+    <cellStyle name="常规 2 2 5 2 3" xfId="82"/>
+    <cellStyle name="常规 2 2 5 3" xfId="83"/>
+    <cellStyle name="常规 2 2 6" xfId="84"/>
+    <cellStyle name="常规 2 2 6 2" xfId="85"/>
+    <cellStyle name="常规 2 2 6 3" xfId="86"/>
+    <cellStyle name="常规 2 2 7" xfId="87"/>
+    <cellStyle name="常规 2 3" xfId="88"/>
+    <cellStyle name="常规 2 3 2" xfId="89"/>
+    <cellStyle name="常规 2 3 2 2" xfId="90"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="91"/>
+    <cellStyle name="常规 2 3 2 2 2 2" xfId="92"/>
+    <cellStyle name="常规 2 3 2 2 2 2 2" xfId="93"/>
+    <cellStyle name="常规 2 3 2 2 2 2 2 2" xfId="94"/>
+    <cellStyle name="常规 2 3 2 2 2 2 2 3" xfId="95"/>
+    <cellStyle name="常规 2 3 2 2 2 2 3" xfId="96"/>
+    <cellStyle name="常规 2 3 2 2 2 3" xfId="97"/>
+    <cellStyle name="常规 2 3 2 2 2 3 2" xfId="98"/>
+    <cellStyle name="常规 2 3 2 2 2 3 3" xfId="99"/>
+    <cellStyle name="常规 2 3 2 2 2 4" xfId="100"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="101"/>
+    <cellStyle name="常规 2 3 2 2 3 2" xfId="102"/>
+    <cellStyle name="常规 2 3 2 2 3 2 2" xfId="103"/>
+    <cellStyle name="常规 2 3 2 2 3 2 3" xfId="104"/>
+    <cellStyle name="常规 2 3 2 2 3 3" xfId="105"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="106"/>
+    <cellStyle name="常规 2 3 2 2 4 2" xfId="107"/>
+    <cellStyle name="常规 2 3 2 2 4 3" xfId="108"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="109"/>
+    <cellStyle name="常规 2 3 2 3" xfId="110"/>
+    <cellStyle name="常规 2 3 2 3 2" xfId="111"/>
+    <cellStyle name="常规 2 3 2 3 2 2" xfId="112"/>
+    <cellStyle name="常规 2 3 2 3 2 2 2" xfId="113"/>
+    <cellStyle name="常规 2 3 2 3 2 2 3" xfId="114"/>
+    <cellStyle name="常规 2 3 2 3 2 3" xfId="115"/>
+    <cellStyle name="常规 2 3 2 3 3" xfId="116"/>
+    <cellStyle name="常规 2 3 2 3 3 2" xfId="117"/>
+    <cellStyle name="常规 2 3 2 3 3 3" xfId="118"/>
+    <cellStyle name="常规 2 3 2 3 4" xfId="119"/>
+    <cellStyle name="常规 2 3 2 4" xfId="120"/>
+    <cellStyle name="常规 2 3 2 4 2" xfId="121"/>
+    <cellStyle name="常规 2 3 2 4 2 2" xfId="122"/>
+    <cellStyle name="常规 2 3 2 4 2 3" xfId="123"/>
+    <cellStyle name="常规 2 3 2 4 3" xfId="124"/>
+    <cellStyle name="常规 2 3 2 5" xfId="125"/>
+    <cellStyle name="常规 2 3 2 5 2" xfId="126"/>
+    <cellStyle name="常规 2 3 2 5 3" xfId="127"/>
+    <cellStyle name="常规 2 3 2 6" xfId="128"/>
+    <cellStyle name="常规 2 3 3" xfId="129"/>
+    <cellStyle name="常规 2 3 3 2" xfId="130"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="131"/>
+    <cellStyle name="常规 2 3 3 2 2 2" xfId="132"/>
+    <cellStyle name="常规 2 3 3 2 2 2 2" xfId="133"/>
+    <cellStyle name="常规 2 3 3 2 2 2 3" xfId="134"/>
+    <cellStyle name="常规 2 3 3 2 2 3" xfId="135"/>
+    <cellStyle name="常规 2 3 3 2 3" xfId="136"/>
+    <cellStyle name="常规 2 3 3 2 3 2" xfId="137"/>
+    <cellStyle name="常规 2 3 3 2 3 3" xfId="138"/>
+    <cellStyle name="常规 2 3 3 2 4" xfId="139"/>
+    <cellStyle name="常规 2 3 3 3" xfId="140"/>
+    <cellStyle name="常规 2 3 3 3 2" xfId="141"/>
+    <cellStyle name="常规 2 3 3 3 2 2" xfId="142"/>
+    <cellStyle name="常规 2 3 3 3 2 3" xfId="143"/>
+    <cellStyle name="常规 2 3 3 3 3" xfId="144"/>
+    <cellStyle name="常规 2 3 3 4" xfId="145"/>
+    <cellStyle name="常规 2 3 3 4 2" xfId="146"/>
+    <cellStyle name="常规 2 3 3 4 3" xfId="147"/>
+    <cellStyle name="常规 2 3 3 5" xfId="148"/>
+    <cellStyle name="常规 2 3 4" xfId="149"/>
+    <cellStyle name="常规 2 3 4 2" xfId="150"/>
+    <cellStyle name="常规 2 3 4 2 2" xfId="151"/>
+    <cellStyle name="常规 2 3 4 2 2 2" xfId="152"/>
+    <cellStyle name="常规 2 3 4 2 2 3" xfId="153"/>
+    <cellStyle name="常规 2 3 4 2 3" xfId="154"/>
+    <cellStyle name="常规 2 3 4 3" xfId="155"/>
+    <cellStyle name="常规 2 3 4 3 2" xfId="156"/>
+    <cellStyle name="常规 2 3 4 3 3" xfId="157"/>
+    <cellStyle name="常规 2 3 4 4" xfId="158"/>
+    <cellStyle name="常规 2 3 5" xfId="159"/>
+    <cellStyle name="常规 2 3 5 2" xfId="160"/>
+    <cellStyle name="常规 2 3 5 2 2" xfId="161"/>
+    <cellStyle name="常规 2 3 5 2 3" xfId="162"/>
+    <cellStyle name="常规 2 3 5 3" xfId="163"/>
+    <cellStyle name="常规 2 3 6" xfId="164"/>
+    <cellStyle name="常规 2 3 6 2" xfId="165"/>
+    <cellStyle name="常规 2 3 6 3" xfId="166"/>
+    <cellStyle name="常规 2 3 7" xfId="167"/>
+    <cellStyle name="常规 2 4" xfId="168"/>
+    <cellStyle name="常规 2 4 2" xfId="169"/>
+    <cellStyle name="常规 2 4 2 2" xfId="170"/>
+    <cellStyle name="常规 2 4 2 2 2" xfId="171"/>
+    <cellStyle name="常规 2 4 2 2 2 2" xfId="172"/>
+    <cellStyle name="常规 2 4 2 2 2 2 2" xfId="173"/>
+    <cellStyle name="常规 2 4 2 2 2 2 3" xfId="174"/>
+    <cellStyle name="常规 2 4 2 2 2 3" xfId="175"/>
+    <cellStyle name="常规 2 4 2 2 3" xfId="176"/>
+    <cellStyle name="常规 2 4 2 2 3 2" xfId="177"/>
+    <cellStyle name="常规 2 4 2 2 3 3" xfId="178"/>
+    <cellStyle name="常规 2 4 2 2 4" xfId="179"/>
+    <cellStyle name="常规 2 4 2 3" xfId="180"/>
+    <cellStyle name="常规 2 4 2 3 2" xfId="181"/>
+    <cellStyle name="常规 2 4 2 3 2 2" xfId="182"/>
+    <cellStyle name="常规 2 4 2 3 2 3" xfId="183"/>
+    <cellStyle name="常规 2 4 2 3 3" xfId="184"/>
+    <cellStyle name="常规 2 4 2 4" xfId="185"/>
+    <cellStyle name="常规 2 4 2 4 2" xfId="186"/>
+    <cellStyle name="常规 2 4 2 4 3" xfId="187"/>
+    <cellStyle name="常规 2 4 2 5" xfId="188"/>
+    <cellStyle name="常规 2 4 3" xfId="189"/>
+    <cellStyle name="常规 2 4 3 2" xfId="190"/>
+    <cellStyle name="常规 2 4 3 2 2" xfId="191"/>
+    <cellStyle name="常规 2 4 3 2 2 2" xfId="192"/>
+    <cellStyle name="常规 2 4 3 2 2 3" xfId="193"/>
+    <cellStyle name="常规 2 4 3 2 3" xfId="194"/>
+    <cellStyle name="常规 2 4 3 3" xfId="195"/>
+    <cellStyle name="常规 2 4 3 3 2" xfId="196"/>
+    <cellStyle name="常规 2 4 3 3 3" xfId="197"/>
+    <cellStyle name="常规 2 4 3 4" xfId="198"/>
+    <cellStyle name="常规 2 4 4" xfId="199"/>
+    <cellStyle name="常规 2 4 4 2" xfId="200"/>
+    <cellStyle name="常规 2 4 4 2 2" xfId="201"/>
+    <cellStyle name="常规 2 4 4 2 3" xfId="202"/>
+    <cellStyle name="常规 2 4 4 3" xfId="203"/>
+    <cellStyle name="常规 2 4 5" xfId="204"/>
+    <cellStyle name="常规 2 4 5 2" xfId="205"/>
+    <cellStyle name="常规 2 4 5 3" xfId="206"/>
+    <cellStyle name="常规 2 4 6" xfId="207"/>
+    <cellStyle name="常规 2 5" xfId="208"/>
+    <cellStyle name="常规 2 5 2" xfId="209"/>
+    <cellStyle name="常规 2 5 2 2" xfId="210"/>
+    <cellStyle name="常规 2 5 2 2 2" xfId="211"/>
+    <cellStyle name="常规 2 5 2 2 2 2" xfId="212"/>
+    <cellStyle name="常规 2 5 2 2 2 3" xfId="213"/>
+    <cellStyle name="常规 2 5 2 2 3" xfId="214"/>
+    <cellStyle name="常规 2 5 2 3" xfId="215"/>
+    <cellStyle name="常规 2 5 2 3 2" xfId="216"/>
+    <cellStyle name="常规 2 5 2 3 3" xfId="217"/>
+    <cellStyle name="常规 2 5 2 4" xfId="218"/>
+    <cellStyle name="常规 2 5 3" xfId="219"/>
+    <cellStyle name="常规 2 5 3 2" xfId="220"/>
+    <cellStyle name="常规 2 5 3 2 2" xfId="221"/>
+    <cellStyle name="常规 2 5 3 2 3" xfId="222"/>
+    <cellStyle name="常规 2 5 3 3" xfId="223"/>
+    <cellStyle name="常规 2 5 4" xfId="224"/>
+    <cellStyle name="常规 2 5 4 2" xfId="225"/>
+    <cellStyle name="常规 2 5 4 3" xfId="226"/>
+    <cellStyle name="常规 2 5 5" xfId="227"/>
+    <cellStyle name="常规 2 6" xfId="228"/>
+    <cellStyle name="常规 2 6 2" xfId="229"/>
+    <cellStyle name="常规 2 6 2 2" xfId="230"/>
+    <cellStyle name="常规 2 6 2 2 2" xfId="231"/>
+    <cellStyle name="常规 2 6 2 2 3" xfId="232"/>
+    <cellStyle name="常规 2 6 2 3" xfId="233"/>
+    <cellStyle name="常规 2 6 3" xfId="234"/>
+    <cellStyle name="常规 2 6 3 2" xfId="235"/>
+    <cellStyle name="常规 2 6 3 3" xfId="236"/>
+    <cellStyle name="常规 2 6 4" xfId="237"/>
+    <cellStyle name="常规 2 7" xfId="238"/>
+    <cellStyle name="常规 2 7 2" xfId="239"/>
+    <cellStyle name="常规 2 7 2 2" xfId="240"/>
+    <cellStyle name="常规 2 7 2 3" xfId="241"/>
+    <cellStyle name="常规 2 7 3" xfId="242"/>
+    <cellStyle name="常规 2 8" xfId="243"/>
+    <cellStyle name="常规 2 8 2" xfId="244"/>
+    <cellStyle name="常规 2 8 3" xfId="245"/>
+    <cellStyle name="常规 2 9" xfId="246"/>
+    <cellStyle name="常规 3" xfId="247"/>
+    <cellStyle name="常规 3 2" xfId="248"/>
+    <cellStyle name="常规 3 2 2" xfId="249"/>
+    <cellStyle name="常规 3 2 2 2" xfId="250"/>
+    <cellStyle name="常规 3 2 2 2 2" xfId="251"/>
+    <cellStyle name="常规 3 2 2 2 2 2" xfId="252"/>
+    <cellStyle name="常规 3 2 2 2 2 2 2" xfId="253"/>
+    <cellStyle name="常规 3 2 2 2 2 2 3" xfId="254"/>
+    <cellStyle name="常规 3 2 2 2 2 3" xfId="255"/>
+    <cellStyle name="常规 3 2 2 2 3" xfId="256"/>
+    <cellStyle name="常规 3 2 2 2 3 2" xfId="257"/>
+    <cellStyle name="常规 3 2 2 2 3 3" xfId="258"/>
+    <cellStyle name="常规 3 2 2 2 4" xfId="259"/>
+    <cellStyle name="常规 3 2 2 3" xfId="260"/>
+    <cellStyle name="常规 3 2 2 3 2" xfId="261"/>
+    <cellStyle name="常规 3 2 2 3 2 2" xfId="262"/>
+    <cellStyle name="常规 3 2 2 3 2 3" xfId="263"/>
+    <cellStyle name="常规 3 2 2 3 3" xfId="264"/>
+    <cellStyle name="常规 3 2 2 4" xfId="265"/>
+    <cellStyle name="常规 3 2 2 4 2" xfId="266"/>
+    <cellStyle name="常规 3 2 2 4 3" xfId="267"/>
+    <cellStyle name="常规 3 2 2 5" xfId="268"/>
+    <cellStyle name="常规 3 2 3" xfId="269"/>
+    <cellStyle name="常规 3 2 3 2" xfId="270"/>
+    <cellStyle name="常规 3 2 3 2 2" xfId="271"/>
+    <cellStyle name="常规 3 2 3 2 2 2" xfId="272"/>
+    <cellStyle name="常规 3 2 3 2 2 3" xfId="273"/>
+    <cellStyle name="常规 3 2 3 2 3" xfId="274"/>
+    <cellStyle name="常规 3 2 3 3" xfId="275"/>
+    <cellStyle name="常规 3 2 3 3 2" xfId="276"/>
+    <cellStyle name="常规 3 2 3 3 3" xfId="277"/>
+    <cellStyle name="常规 3 2 3 4" xfId="278"/>
+    <cellStyle name="常规 3 2 4" xfId="279"/>
+    <cellStyle name="常规 3 2 4 2" xfId="280"/>
+    <cellStyle name="常规 3 2 4 2 2" xfId="281"/>
+    <cellStyle name="常规 3 2 4 2 3" xfId="282"/>
+    <cellStyle name="常规 3 2 4 3" xfId="283"/>
+    <cellStyle name="常规 3 2 5" xfId="284"/>
+    <cellStyle name="常规 3 2 5 2" xfId="285"/>
+    <cellStyle name="常规 3 2 5 3" xfId="286"/>
+    <cellStyle name="常规 3 2 6" xfId="287"/>
+    <cellStyle name="常规 3 3" xfId="288"/>
+    <cellStyle name="常规 3 3 2" xfId="289"/>
+    <cellStyle name="常规 3 3 2 2" xfId="290"/>
+    <cellStyle name="常规 3 3 2 2 2" xfId="291"/>
+    <cellStyle name="常规 3 3 2 2 2 2" xfId="292"/>
+    <cellStyle name="常规 3 3 2 2 2 3" xfId="293"/>
+    <cellStyle name="常规 3 3 2 2 3" xfId="294"/>
+    <cellStyle name="常规 3 3 2 3" xfId="295"/>
+    <cellStyle name="常规 3 3 2 3 2" xfId="296"/>
+    <cellStyle name="常规 3 3 2 3 3" xfId="297"/>
+    <cellStyle name="常规 3 3 2 4" xfId="298"/>
+    <cellStyle name="常规 3 3 3" xfId="299"/>
+    <cellStyle name="常规 3 3 3 2" xfId="300"/>
+    <cellStyle name="常规 3 3 3 2 2" xfId="301"/>
+    <cellStyle name="常规 3 3 3 2 3" xfId="302"/>
+    <cellStyle name="常规 3 3 3 3" xfId="303"/>
+    <cellStyle name="常规 3 3 4" xfId="304"/>
+    <cellStyle name="常规 3 3 4 2" xfId="305"/>
+    <cellStyle name="常规 3 3 4 3" xfId="306"/>
+    <cellStyle name="常规 3 3 5" xfId="307"/>
+    <cellStyle name="常规 3 4" xfId="308"/>
+    <cellStyle name="常规 3 4 2" xfId="309"/>
+    <cellStyle name="常规 3 4 2 2" xfId="310"/>
+    <cellStyle name="常规 3 4 2 2 2" xfId="311"/>
+    <cellStyle name="常规 3 4 2 2 3" xfId="312"/>
+    <cellStyle name="常规 3 4 2 3" xfId="313"/>
+    <cellStyle name="常规 3 4 3" xfId="314"/>
+    <cellStyle name="常规 3 4 3 2" xfId="315"/>
+    <cellStyle name="常规 3 4 3 3" xfId="316"/>
+    <cellStyle name="常规 3 4 4" xfId="317"/>
+    <cellStyle name="常规 3 5" xfId="318"/>
+    <cellStyle name="常规 3 5 2" xfId="319"/>
+    <cellStyle name="常规 3 5 2 2" xfId="320"/>
+    <cellStyle name="常规 3 5 2 3" xfId="321"/>
+    <cellStyle name="常规 3 5 3" xfId="322"/>
+    <cellStyle name="常规 3 6" xfId="323"/>
+    <cellStyle name="常规 3 6 2" xfId="324"/>
+    <cellStyle name="常规 3 6 3" xfId="325"/>
+    <cellStyle name="常规 3 7" xfId="326"/>
+    <cellStyle name="常规 4" xfId="327"/>
+    <cellStyle name="常规 4 2" xfId="328"/>
+    <cellStyle name="常规 4 2 2" xfId="329"/>
+    <cellStyle name="常规 4 2 2 2" xfId="330"/>
+    <cellStyle name="常规 4 2 2 2 2" xfId="331"/>
+    <cellStyle name="常规 4 2 2 2 2 2" xfId="332"/>
+    <cellStyle name="常规 4 2 2 2 2 2 2" xfId="333"/>
+    <cellStyle name="常规 4 2 2 2 2 2 3" xfId="334"/>
+    <cellStyle name="常规 4 2 2 2 2 3" xfId="335"/>
+    <cellStyle name="常规 4 2 2 2 3" xfId="336"/>
+    <cellStyle name="常规 4 2 2 2 3 2" xfId="337"/>
+    <cellStyle name="常规 4 2 2 2 3 3" xfId="338"/>
+    <cellStyle name="常规 4 2 2 2 4" xfId="339"/>
+    <cellStyle name="常规 4 2 2 3" xfId="340"/>
+    <cellStyle name="常规 4 2 2 3 2" xfId="341"/>
+    <cellStyle name="常规 4 2 2 3 2 2" xfId="342"/>
+    <cellStyle name="常规 4 2 2 3 2 3" xfId="343"/>
+    <cellStyle name="常规 4 2 2 3 3" xfId="344"/>
+    <cellStyle name="常规 4 2 2 4" xfId="345"/>
+    <cellStyle name="常规 4 2 2 4 2" xfId="346"/>
+    <cellStyle name="常规 4 2 2 4 3" xfId="347"/>
+    <cellStyle name="常规 4 2 2 5" xfId="348"/>
+    <cellStyle name="常规 4 2 3" xfId="349"/>
+    <cellStyle name="常规 4 2 3 2" xfId="350"/>
+    <cellStyle name="常规 4 2 3 2 2" xfId="351"/>
+    <cellStyle name="常规 4 2 3 2 2 2" xfId="352"/>
+    <cellStyle name="常规 4 2 3 2 2 3" xfId="353"/>
+    <cellStyle name="常规 4 2 3 2 3" xfId="354"/>
+    <cellStyle name="常规 4 2 3 3" xfId="355"/>
+    <cellStyle name="常规 4 2 3 3 2" xfId="356"/>
+    <cellStyle name="常规 4 2 3 3 3" xfId="357"/>
+    <cellStyle name="常规 4 2 3 4" xfId="358"/>
+    <cellStyle name="常规 4 2 4" xfId="359"/>
+    <cellStyle name="常规 4 2 4 2" xfId="360"/>
+    <cellStyle name="常规 4 2 4 2 2" xfId="361"/>
+    <cellStyle name="常规 4 2 4 2 3" xfId="362"/>
+    <cellStyle name="常规 4 2 4 3" xfId="363"/>
+    <cellStyle name="常规 4 2 5" xfId="364"/>
+    <cellStyle name="常规 4 2 5 2" xfId="365"/>
+    <cellStyle name="常规 4 2 5 3" xfId="366"/>
+    <cellStyle name="常规 4 2 6" xfId="367"/>
+    <cellStyle name="常规 4 3" xfId="368"/>
+    <cellStyle name="常规 4 3 2" xfId="369"/>
+    <cellStyle name="常规 4 3 2 2" xfId="370"/>
+    <cellStyle name="常规 4 3 2 2 2" xfId="371"/>
+    <cellStyle name="常规 4 3 2 2 2 2" xfId="372"/>
+    <cellStyle name="常规 4 3 2 2 2 3" xfId="373"/>
+    <cellStyle name="常规 4 3 2 2 3" xfId="374"/>
+    <cellStyle name="常规 4 3 2 3" xfId="375"/>
+    <cellStyle name="常规 4 3 2 3 2" xfId="376"/>
+    <cellStyle name="常规 4 3 2 3 3" xfId="377"/>
+    <cellStyle name="常规 4 3 2 4" xfId="378"/>
+    <cellStyle name="常规 4 3 3" xfId="379"/>
+    <cellStyle name="常规 4 3 3 2" xfId="380"/>
+    <cellStyle name="常规 4 3 3 2 2" xfId="381"/>
+    <cellStyle name="常规 4 3 3 2 3" xfId="382"/>
+    <cellStyle name="常规 4 3 3 3" xfId="383"/>
+    <cellStyle name="常规 4 3 4" xfId="384"/>
+    <cellStyle name="常规 4 3 4 2" xfId="385"/>
+    <cellStyle name="常规 4 3 4 3" xfId="386"/>
+    <cellStyle name="常规 4 3 5" xfId="387"/>
+    <cellStyle name="常规 4 4" xfId="388"/>
+    <cellStyle name="常规 4 4 2" xfId="389"/>
+    <cellStyle name="常规 4 4 2 2" xfId="390"/>
+    <cellStyle name="常规 4 4 2 2 2" xfId="391"/>
+    <cellStyle name="常规 4 4 2 2 3" xfId="392"/>
+    <cellStyle name="常规 4 4 2 3" xfId="393"/>
+    <cellStyle name="常规 4 4 3" xfId="394"/>
+    <cellStyle name="常规 4 4 3 2" xfId="395"/>
+    <cellStyle name="常规 4 4 3 3" xfId="396"/>
+    <cellStyle name="常规 4 4 4" xfId="397"/>
+    <cellStyle name="常规 4 5" xfId="398"/>
+    <cellStyle name="常规 4 5 2" xfId="399"/>
+    <cellStyle name="常规 4 5 2 2" xfId="400"/>
+    <cellStyle name="常规 4 5 2 3" xfId="401"/>
+    <cellStyle name="常规 4 5 3" xfId="402"/>
+    <cellStyle name="常规 4 6" xfId="403"/>
+    <cellStyle name="常规 4 6 2" xfId="404"/>
+    <cellStyle name="常规 4 6 3" xfId="405"/>
+    <cellStyle name="常规 4 7" xfId="406"/>
+    <cellStyle name="常规 5" xfId="407"/>
+    <cellStyle name="常规 5 2" xfId="408"/>
+    <cellStyle name="常规 5 2 2" xfId="409"/>
+    <cellStyle name="常规 5 2 2 2" xfId="410"/>
+    <cellStyle name="常规 5 2 2 2 2" xfId="411"/>
+    <cellStyle name="常规 5 2 2 2 2 2" xfId="412"/>
+    <cellStyle name="常规 5 2 2 2 2 3" xfId="413"/>
+    <cellStyle name="常规 5 2 2 2 3" xfId="414"/>
+    <cellStyle name="常规 5 2 2 3" xfId="415"/>
+    <cellStyle name="常规 5 2 2 3 2" xfId="416"/>
+    <cellStyle name="常规 5 2 2 3 3" xfId="417"/>
+    <cellStyle name="常规 5 2 2 4" xfId="418"/>
+    <cellStyle name="常规 5 2 3" xfId="419"/>
+    <cellStyle name="常规 5 2 3 2" xfId="420"/>
+    <cellStyle name="常规 5 2 3 2 2" xfId="421"/>
+    <cellStyle name="常规 5 2 3 2 3" xfId="422"/>
+    <cellStyle name="常规 5 2 3 3" xfId="423"/>
+    <cellStyle name="常规 5 2 4" xfId="424"/>
+    <cellStyle name="常规 5 2 4 2" xfId="425"/>
+    <cellStyle name="常规 5 2 4 3" xfId="426"/>
+    <cellStyle name="常规 5 2 5" xfId="427"/>
+    <cellStyle name="常规 5 3" xfId="428"/>
+    <cellStyle name="常规 5 3 2" xfId="429"/>
+    <cellStyle name="常规 5 3 2 2" xfId="430"/>
+    <cellStyle name="常规 5 3 2 2 2" xfId="431"/>
+    <cellStyle name="常规 5 3 2 2 3" xfId="432"/>
+    <cellStyle name="常规 5 3 2 3" xfId="433"/>
+    <cellStyle name="常规 5 3 3" xfId="434"/>
+    <cellStyle name="常规 5 3 3 2" xfId="435"/>
+    <cellStyle name="常规 5 3 3 3" xfId="436"/>
+    <cellStyle name="常规 5 3 4" xfId="437"/>
+    <cellStyle name="常规 5 4" xfId="438"/>
+    <cellStyle name="常规 5 4 2" xfId="439"/>
+    <cellStyle name="常规 5 4 2 2" xfId="440"/>
+    <cellStyle name="常规 5 4 2 3" xfId="441"/>
+    <cellStyle name="常规 5 4 3" xfId="442"/>
+    <cellStyle name="常规 5 5" xfId="443"/>
+    <cellStyle name="常规 5 5 2" xfId="444"/>
+    <cellStyle name="常规 5 5 3" xfId="445"/>
+    <cellStyle name="常规 5 6" xfId="446"/>
+    <cellStyle name="常规 6" xfId="447"/>
+    <cellStyle name="常规 6 2" xfId="448"/>
+    <cellStyle name="常规 6 2 2" xfId="449"/>
+    <cellStyle name="常规 6 2 2 2" xfId="450"/>
+    <cellStyle name="常规 6 2 2 2 2" xfId="451"/>
+    <cellStyle name="常规 6 2 2 2 3" xfId="452"/>
+    <cellStyle name="常规 6 2 2 3" xfId="453"/>
+    <cellStyle name="常规 6 2 3" xfId="454"/>
+    <cellStyle name="常规 6 2 3 2" xfId="455"/>
+    <cellStyle name="常规 6 2 3 3" xfId="456"/>
+    <cellStyle name="常规 6 2 4" xfId="457"/>
+    <cellStyle name="常规 6 3" xfId="458"/>
+    <cellStyle name="常规 6 3 2" xfId="459"/>
+    <cellStyle name="常规 6 3 2 2" xfId="460"/>
+    <cellStyle name="常规 6 3 2 3" xfId="461"/>
+    <cellStyle name="常规 6 3 3" xfId="462"/>
+    <cellStyle name="常规 6 4" xfId="463"/>
+    <cellStyle name="常规 6 4 2" xfId="464"/>
+    <cellStyle name="常规 6 4 3" xfId="465"/>
+    <cellStyle name="常规 6 5" xfId="466"/>
+    <cellStyle name="常规 7" xfId="467"/>
+    <cellStyle name="常规 7 2" xfId="468"/>
+    <cellStyle name="常规 7 2 2" xfId="469"/>
+    <cellStyle name="常规 7 2 2 2" xfId="470"/>
+    <cellStyle name="常规 7 2 2 3" xfId="471"/>
+    <cellStyle name="常规 7 2 3" xfId="472"/>
+    <cellStyle name="常规 7 3" xfId="473"/>
+    <cellStyle name="常规 7 3 2" xfId="474"/>
+    <cellStyle name="常规 7 3 3" xfId="475"/>
+    <cellStyle name="常规 7 4" xfId="476"/>
+    <cellStyle name="常规 8" xfId="477"/>
+    <cellStyle name="常规 8 2" xfId="478"/>
+    <cellStyle name="常规 8 2 2" xfId="479"/>
+    <cellStyle name="常规 8 2 3" xfId="480"/>
+    <cellStyle name="常规 8 3" xfId="481"/>
+    <cellStyle name="常规 9" xfId="482"/>
+    <cellStyle name="常规 9 2" xfId="483"/>
+    <cellStyle name="常规 9 3" xfId="484"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1958,6 +1728,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2244,23 +2017,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G243"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.125" style="5" customWidth="1"/>
     <col min="2" max="2" width="56.875" style="6" customWidth="1"/>
@@ -2272,7 +2044,7 @@
     <col min="8" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2295,7 +2067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -2318,7 +2090,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:7">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
@@ -2341,7 +2113,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:6">
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
       <c r="B4" s="14" t="s">
         <v>20</v>
@@ -2357,7 +2129,7 @@
       </c>
       <c r="F4" s="14"/>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:6">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
@@ -2375,7 +2147,7 @@
       </c>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:7">
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -2394,7 +2166,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:7">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="14" t="s">
         <v>29</v>
@@ -2411,7 +2183,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:6">
+    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="14" t="s">
         <v>32</v>
@@ -2427,7 +2199,7 @@
       </c>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:6">
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -2435,7 +2207,7 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" s="4" customFormat="1" spans="1:6">
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>13</v>
       </c>
@@ -2447,7 +2219,7 @@
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" s="3" customFormat="1" spans="1:7">
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="14" t="s">
         <v>35</v>
@@ -2460,19 +2232,19 @@
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:7">
+      <c r="G11" s="24">
+        <v>200201202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>38</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>39</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>27</v>
@@ -2483,7 +2255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" spans="1:6">
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -2491,25 +2263,25 @@
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" s="4" customFormat="1" spans="1:6">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" s="3" customFormat="1" spans="1:6">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>22</v>
@@ -2519,7 +2291,7 @@
       </c>
       <c r="F15" s="14"/>
     </row>
-    <row r="16" s="3" customFormat="1" spans="1:6">
+    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -2527,7 +2299,7 @@
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
     </row>
-    <row r="17" s="3" customFormat="1" spans="1:6">
+    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -2535,7 +2307,7 @@
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
     </row>
-    <row r="18" s="3" customFormat="1" spans="1:6">
+    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -2543,7 +2315,7 @@
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
     </row>
-    <row r="19" s="3" customFormat="1" spans="1:6">
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -2551,7 +2323,7 @@
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
     </row>
-    <row r="20" s="3" customFormat="1" spans="1:6">
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -2559,7 +2331,7 @@
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
     </row>
-    <row r="21" s="3" customFormat="1" spans="1:6">
+    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -2567,7 +2339,7 @@
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
     </row>
-    <row r="22" s="3" customFormat="1" spans="1:6">
+    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -2575,7 +2347,7 @@
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
     </row>
-    <row r="23" s="3" customFormat="1" spans="1:6">
+    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -2583,7 +2355,7 @@
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
     </row>
-    <row r="24" s="3" customFormat="1" spans="1:6">
+    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -2591,7 +2363,7 @@
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
     </row>
-    <row r="25" s="3" customFormat="1" spans="1:6">
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -2599,7 +2371,7 @@
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
     </row>
-    <row r="26" s="3" customFormat="1" spans="1:6">
+    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -2607,7 +2379,7 @@
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
     </row>
-    <row r="27" s="3" customFormat="1" spans="1:6">
+    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -2615,7 +2387,7 @@
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
     </row>
-    <row r="28" s="3" customFormat="1" spans="1:6">
+    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -2623,7 +2395,7 @@
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
     </row>
-    <row r="29" s="3" customFormat="1" spans="1:6">
+    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -2631,7 +2403,7 @@
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
     </row>
-    <row r="30" s="3" customFormat="1" spans="1:6">
+    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -2639,7 +2411,7 @@
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
     </row>
-    <row r="31" s="3" customFormat="1" spans="1:6">
+    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -2647,7 +2419,7 @@
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
     </row>
-    <row r="32" s="3" customFormat="1" spans="1:6">
+    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -2655,7 +2427,7 @@
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
     </row>
-    <row r="33" s="3" customFormat="1" spans="1:6">
+    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -2663,7 +2435,7 @@
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
     </row>
-    <row r="34" s="3" customFormat="1" spans="1:6">
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -2671,7 +2443,7 @@
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
     </row>
-    <row r="35" s="3" customFormat="1" spans="1:6">
+    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -2679,7 +2451,7 @@
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
     </row>
-    <row r="36" s="3" customFormat="1" spans="1:6">
+    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -2687,7 +2459,7 @@
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
     </row>
-    <row r="37" s="3" customFormat="1" spans="1:6">
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -2695,7 +2467,7 @@
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
     </row>
-    <row r="38" s="3" customFormat="1" spans="1:6">
+    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -2703,7 +2475,7 @@
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
     </row>
-    <row r="39" s="3" customFormat="1" spans="1:6">
+    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -2711,7 +2483,7 @@
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
     </row>
-    <row r="40" s="3" customFormat="1" spans="1:6">
+    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -2719,7 +2491,7 @@
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
     </row>
-    <row r="41" s="3" customFormat="1" spans="1:6">
+    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -2727,7 +2499,7 @@
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
     </row>
-    <row r="42" s="3" customFormat="1" spans="1:6">
+    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -2735,7 +2507,7 @@
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
     </row>
-    <row r="43" s="3" customFormat="1" spans="1:6">
+    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -2743,7 +2515,7 @@
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
     </row>
-    <row r="44" s="3" customFormat="1" spans="1:6">
+    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -2751,7 +2523,7 @@
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
     </row>
-    <row r="45" s="3" customFormat="1" spans="1:6">
+    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -2759,7 +2531,7 @@
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
     </row>
-    <row r="46" s="3" customFormat="1" spans="1:6">
+    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -2767,7 +2539,7 @@
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
     </row>
-    <row r="47" s="3" customFormat="1" spans="1:6">
+    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -2775,7 +2547,7 @@
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
     </row>
-    <row r="48" s="3" customFormat="1" spans="1:6">
+    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -2783,7 +2555,7 @@
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
     </row>
-    <row r="49" s="3" customFormat="1" spans="1:6">
+    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -2791,7 +2563,7 @@
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
     </row>
-    <row r="50" s="3" customFormat="1" spans="1:6">
+    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -2799,7 +2571,7 @@
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
     </row>
-    <row r="51" s="3" customFormat="1" spans="1:6">
+    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -2807,7 +2579,7 @@
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
     </row>
-    <row r="52" s="3" customFormat="1" spans="1:6">
+    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -2815,7 +2587,7 @@
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
     </row>
-    <row r="53" s="3" customFormat="1" spans="1:6">
+    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -2823,7 +2595,7 @@
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
     </row>
-    <row r="54" s="3" customFormat="1" spans="1:6">
+    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -2831,7 +2603,7 @@
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
     </row>
-    <row r="55" s="3" customFormat="1" spans="1:6">
+    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -2839,7 +2611,7 @@
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
     </row>
-    <row r="56" s="3" customFormat="1" spans="1:6">
+    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -2847,7 +2619,7 @@
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
     </row>
-    <row r="57" s="3" customFormat="1" spans="1:6">
+    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -2855,7 +2627,7 @@
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
     </row>
-    <row r="58" s="3" customFormat="1" spans="1:6">
+    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -2863,7 +2635,7 @@
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
     </row>
-    <row r="59" s="3" customFormat="1" spans="1:6">
+    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -2871,7 +2643,7 @@
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
     </row>
-    <row r="60" s="3" customFormat="1" spans="1:6">
+    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -2879,7 +2651,7 @@
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
     </row>
-    <row r="61" s="3" customFormat="1" spans="1:6">
+    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -2887,7 +2659,7 @@
       <c r="E61" s="14"/>
       <c r="F61" s="14"/>
     </row>
-    <row r="62" s="3" customFormat="1" spans="1:6">
+    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -2895,7 +2667,7 @@
       <c r="E62" s="14"/>
       <c r="F62" s="14"/>
     </row>
-    <row r="63" s="3" customFormat="1" spans="1:6">
+    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -2903,7 +2675,7 @@
       <c r="E63" s="14"/>
       <c r="F63" s="14"/>
     </row>
-    <row r="64" s="3" customFormat="1" spans="1:6">
+    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -2911,7 +2683,7 @@
       <c r="E64" s="14"/>
       <c r="F64" s="14"/>
     </row>
-    <row r="65" s="3" customFormat="1" spans="1:6">
+    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -2919,7 +2691,7 @@
       <c r="E65" s="14"/>
       <c r="F65" s="14"/>
     </row>
-    <row r="66" s="3" customFormat="1" spans="1:6">
+    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="13"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -2927,7 +2699,7 @@
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
     </row>
-    <row r="67" s="3" customFormat="1" spans="1:6">
+    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="13"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -2935,7 +2707,7 @@
       <c r="E67" s="14"/>
       <c r="F67" s="14"/>
     </row>
-    <row r="68" s="3" customFormat="1" spans="1:6">
+    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="13"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -2943,7 +2715,7 @@
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
     </row>
-    <row r="69" s="3" customFormat="1" spans="1:6">
+    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="13"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -2951,7 +2723,7 @@
       <c r="E69" s="14"/>
       <c r="F69" s="14"/>
     </row>
-    <row r="70" s="3" customFormat="1" spans="1:6">
+    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="13"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -2959,7 +2731,7 @@
       <c r="E70" s="14"/>
       <c r="F70" s="14"/>
     </row>
-    <row r="71" s="3" customFormat="1" spans="1:6">
+    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="13"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -2967,7 +2739,7 @@
       <c r="E71" s="14"/>
       <c r="F71" s="14"/>
     </row>
-    <row r="72" s="3" customFormat="1" spans="1:6">
+    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="13"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -2975,7 +2747,7 @@
       <c r="E72" s="14"/>
       <c r="F72" s="14"/>
     </row>
-    <row r="73" s="3" customFormat="1" spans="1:6">
+    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="13"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -2983,7 +2755,7 @@
       <c r="E73" s="14"/>
       <c r="F73" s="14"/>
     </row>
-    <row r="74" s="3" customFormat="1" spans="1:6">
+    <row r="74" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="13"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -2991,7 +2763,7 @@
       <c r="E74" s="14"/>
       <c r="F74" s="14"/>
     </row>
-    <row r="75" s="3" customFormat="1" spans="1:6">
+    <row r="75" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="13"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -2999,169 +2771,169 @@
       <c r="E75" s="14"/>
       <c r="F75" s="14"/>
     </row>
-    <row r="76" s="3" customFormat="1"/>
-    <row r="77" s="3" customFormat="1" spans="2:6">
+    <row r="76" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
       <c r="D77" s="14"/>
       <c r="E77" s="14"/>
       <c r="F77" s="14"/>
     </row>
-    <row r="78" s="3" customFormat="1" spans="2:6">
+    <row r="78" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
       <c r="D78" s="14"/>
       <c r="E78" s="14"/>
       <c r="F78" s="14"/>
     </row>
-    <row r="79" s="3" customFormat="1" spans="2:6">
+    <row r="79" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
       <c r="D79" s="14"/>
       <c r="E79" s="14"/>
       <c r="F79" s="14"/>
     </row>
-    <row r="80" s="3" customFormat="1" spans="2:6">
+    <row r="80" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
       <c r="F80" s="14"/>
     </row>
-    <row r="81" s="3" customFormat="1" spans="2:6">
+    <row r="81" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
     </row>
-    <row r="82" s="3" customFormat="1" spans="2:6">
+    <row r="82" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
       <c r="F82" s="14"/>
     </row>
-    <row r="83" s="3" customFormat="1" spans="2:6">
+    <row r="83" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
       <c r="D83" s="14"/>
       <c r="E83" s="14"/>
       <c r="F83" s="14"/>
     </row>
-    <row r="84" s="3" customFormat="1" spans="2:6">
+    <row r="84" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
       <c r="D84" s="14"/>
       <c r="E84" s="14"/>
       <c r="F84" s="14"/>
     </row>
-    <row r="85" s="3" customFormat="1" spans="2:6">
+    <row r="85" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
       <c r="D85" s="14"/>
       <c r="E85" s="14"/>
       <c r="F85" s="14"/>
     </row>
-    <row r="86" s="3" customFormat="1" spans="2:6">
+    <row r="86" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
       <c r="D86" s="14"/>
       <c r="E86" s="14"/>
       <c r="F86" s="14"/>
     </row>
-    <row r="87" s="3" customFormat="1" spans="2:6">
+    <row r="87" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
       <c r="D87" s="14"/>
       <c r="E87" s="14"/>
       <c r="F87" s="14"/>
     </row>
-    <row r="88" s="3" customFormat="1" spans="2:6">
+    <row r="88" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
       <c r="D88" s="14"/>
       <c r="E88" s="14"/>
       <c r="F88" s="14"/>
     </row>
-    <row r="89" s="3" customFormat="1" spans="2:6">
+    <row r="89" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
       <c r="D89" s="14"/>
       <c r="E89" s="14"/>
       <c r="F89" s="14"/>
     </row>
-    <row r="90" s="3" customFormat="1" spans="2:6">
+    <row r="90" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
       <c r="D90" s="14"/>
       <c r="E90" s="14"/>
       <c r="F90" s="14"/>
     </row>
-    <row r="91" s="3" customFormat="1" spans="2:6">
+    <row r="91" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
       <c r="F91" s="14"/>
     </row>
-    <row r="92" s="3" customFormat="1" spans="2:6">
+    <row r="92" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
       <c r="D92" s="14"/>
       <c r="E92" s="14"/>
       <c r="F92" s="14"/>
     </row>
-    <row r="93" s="3" customFormat="1" spans="2:6">
+    <row r="93" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
       <c r="D93" s="14"/>
       <c r="E93" s="14"/>
       <c r="F93" s="14"/>
     </row>
-    <row r="94" s="3" customFormat="1" spans="2:6">
+    <row r="94" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
       <c r="D94" s="14"/>
       <c r="E94" s="14"/>
       <c r="F94" s="14"/>
     </row>
-    <row r="95" s="3" customFormat="1" spans="2:6">
+    <row r="95" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
       <c r="F95" s="14"/>
     </row>
-    <row r="96" s="3" customFormat="1" spans="2:6">
+    <row r="96" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
       <c r="F96" s="14"/>
     </row>
-    <row r="97" s="3" customFormat="1" spans="2:6">
+    <row r="97" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
       <c r="D97" s="14"/>
       <c r="E97" s="14"/>
       <c r="F97" s="14"/>
     </row>
-    <row r="98" s="3" customFormat="1" ht="18" customHeight="1" spans="2:6">
+    <row r="98" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
       <c r="D98" s="14"/>
       <c r="E98" s="14"/>
       <c r="F98" s="14"/>
     </row>
-    <row r="99" s="3" customFormat="1" ht="18" customHeight="1" spans="2:6">
+    <row r="99" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
       <c r="F99" s="14"/>
     </row>
-    <row r="100" s="3" customFormat="1" spans="1:6">
+    <row r="100" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="13"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -3169,7 +2941,7 @@
       <c r="E100" s="14"/>
       <c r="F100" s="14"/>
     </row>
-    <row r="101" s="3" customFormat="1" spans="1:6">
+    <row r="101" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="13"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -3177,7 +2949,7 @@
       <c r="E101" s="14"/>
       <c r="F101" s="14"/>
     </row>
-    <row r="102" s="3" customFormat="1" spans="1:6">
+    <row r="102" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="13"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -3185,7 +2957,7 @@
       <c r="E102" s="14"/>
       <c r="F102" s="14"/>
     </row>
-    <row r="103" s="3" customFormat="1" spans="1:6">
+    <row r="103" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="13"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -3193,7 +2965,7 @@
       <c r="E103" s="14"/>
       <c r="F103" s="14"/>
     </row>
-    <row r="104" s="3" customFormat="1" spans="1:6">
+    <row r="104" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="13"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -3201,7 +2973,7 @@
       <c r="E104" s="14"/>
       <c r="F104" s="14"/>
     </row>
-    <row r="105" s="3" customFormat="1" spans="1:6">
+    <row r="105" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="13"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -3209,7 +2981,7 @@
       <c r="E105" s="14"/>
       <c r="F105" s="14"/>
     </row>
-    <row r="106" s="3" customFormat="1" spans="1:6">
+    <row r="106" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="13"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -3217,7 +2989,7 @@
       <c r="E106" s="14"/>
       <c r="F106" s="14"/>
     </row>
-    <row r="107" s="3" customFormat="1" spans="1:6">
+    <row r="107" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="13"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -3225,7 +2997,7 @@
       <c r="E107" s="14"/>
       <c r="F107" s="14"/>
     </row>
-    <row r="108" s="3" customFormat="1" spans="1:6">
+    <row r="108" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="13"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -3233,7 +3005,7 @@
       <c r="E108" s="14"/>
       <c r="F108" s="14"/>
     </row>
-    <row r="109" s="3" customFormat="1" spans="1:6">
+    <row r="109" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="13"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -3241,7 +3013,7 @@
       <c r="E109" s="14"/>
       <c r="F109" s="14"/>
     </row>
-    <row r="110" s="3" customFormat="1" spans="1:6">
+    <row r="110" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="17"/>
       <c r="B110" s="18"/>
       <c r="C110" s="18"/>
@@ -3249,7 +3021,7 @@
       <c r="E110" s="18"/>
       <c r="F110" s="18"/>
     </row>
-    <row r="111" s="3" customFormat="1" spans="1:6">
+    <row r="111" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="13"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -3257,133 +3029,133 @@
       <c r="E111" s="14"/>
       <c r="F111" s="14"/>
     </row>
-    <row r="112" spans="2:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
       <c r="D112" s="14"/>
       <c r="E112" s="14"/>
       <c r="F112" s="14"/>
     </row>
-    <row r="113" spans="2:6">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
       <c r="D113" s="14"/>
       <c r="E113" s="14"/>
       <c r="F113" s="14"/>
     </row>
-    <row r="114" spans="2:6">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
       <c r="D114" s="14"/>
       <c r="E114" s="14"/>
       <c r="F114" s="14"/>
     </row>
-    <row r="115" spans="2:6">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
       <c r="D115" s="14"/>
       <c r="E115" s="14"/>
       <c r="F115" s="14"/>
     </row>
-    <row r="116" spans="2:6">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
       <c r="D116" s="14"/>
       <c r="E116" s="14"/>
       <c r="F116" s="14"/>
     </row>
-    <row r="117" spans="2:6">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
       <c r="D117" s="14"/>
       <c r="E117" s="14"/>
       <c r="F117" s="14"/>
     </row>
-    <row r="118" spans="2:6">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
       <c r="D118" s="14"/>
       <c r="E118" s="14"/>
       <c r="F118" s="14"/>
     </row>
-    <row r="119" spans="2:6">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B119" s="14"/>
       <c r="C119" s="14"/>
       <c r="D119" s="14"/>
       <c r="E119" s="14"/>
       <c r="F119" s="14"/>
     </row>
-    <row r="120" spans="2:6">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
       <c r="D120" s="14"/>
       <c r="E120" s="14"/>
       <c r="F120" s="14"/>
     </row>
-    <row r="121" spans="2:6">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B121" s="14"/>
       <c r="C121" s="14"/>
       <c r="D121" s="14"/>
       <c r="E121" s="14"/>
       <c r="F121" s="14"/>
     </row>
-    <row r="122" spans="2:6">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B122" s="14"/>
       <c r="C122" s="14"/>
       <c r="D122" s="14"/>
       <c r="E122" s="14"/>
       <c r="F122" s="14"/>
     </row>
-    <row r="123" spans="2:6">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
       <c r="D123" s="14"/>
       <c r="E123" s="14"/>
       <c r="F123" s="14"/>
     </row>
-    <row r="124" spans="2:6">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
       <c r="D124" s="14"/>
       <c r="E124" s="14"/>
       <c r="F124" s="14"/>
     </row>
-    <row r="125" spans="2:6">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
       <c r="D125" s="14"/>
       <c r="E125" s="14"/>
       <c r="F125" s="14"/>
     </row>
-    <row r="126" spans="2:6">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
       <c r="D126" s="14"/>
       <c r="E126" s="14"/>
       <c r="F126" s="14"/>
     </row>
-    <row r="127" spans="2:6">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
       <c r="D127" s="14"/>
       <c r="E127" s="14"/>
       <c r="F127" s="19"/>
     </row>
-    <row r="128" spans="2:6">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
       <c r="D128" s="14"/>
       <c r="E128" s="14"/>
       <c r="F128" s="14"/>
     </row>
-    <row r="129" spans="2:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B129" s="14"/>
       <c r="C129" s="14"/>
       <c r="D129" s="14"/>
       <c r="E129" s="14"/>
       <c r="F129" s="14"/>
     </row>
-    <row r="130" s="3" customFormat="1" spans="1:6">
+    <row r="130" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="13"/>
       <c r="B130" s="14"/>
       <c r="C130" s="14"/>
@@ -3391,7 +3163,7 @@
       <c r="E130" s="14"/>
       <c r="F130" s="14"/>
     </row>
-    <row r="131" s="3" customFormat="1" spans="1:6">
+    <row r="131" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="13"/>
       <c r="B131" s="14"/>
       <c r="C131" s="14"/>
@@ -3399,7 +3171,7 @@
       <c r="E131" s="14"/>
       <c r="F131" s="14"/>
     </row>
-    <row r="132" s="3" customFormat="1" spans="1:6">
+    <row r="132" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5"/>
       <c r="B132" s="14"/>
       <c r="C132" s="14"/>
@@ -3407,7 +3179,7 @@
       <c r="E132" s="14"/>
       <c r="F132" s="6"/>
     </row>
-    <row r="133" s="3" customFormat="1" spans="1:6">
+    <row r="133" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="13"/>
       <c r="B133" s="14"/>
       <c r="C133" s="14"/>
@@ -3415,7 +3187,7 @@
       <c r="E133" s="14"/>
       <c r="F133" s="14"/>
     </row>
-    <row r="134" s="3" customFormat="1" spans="1:6">
+    <row r="134" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="13"/>
       <c r="B134" s="14"/>
       <c r="C134" s="14"/>
@@ -3423,7 +3195,7 @@
       <c r="E134" s="14"/>
       <c r="F134" s="14"/>
     </row>
-    <row r="135" s="3" customFormat="1" spans="1:6">
+    <row r="135" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="13"/>
       <c r="B135" s="14"/>
       <c r="C135" s="14"/>
@@ -3431,7 +3203,7 @@
       <c r="E135" s="14"/>
       <c r="F135" s="14"/>
     </row>
-    <row r="136" s="3" customFormat="1" spans="1:6">
+    <row r="136" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="13"/>
       <c r="B136" s="14"/>
       <c r="C136" s="14"/>
@@ -3439,7 +3211,7 @@
       <c r="E136" s="14"/>
       <c r="F136" s="14"/>
     </row>
-    <row r="137" s="3" customFormat="1" spans="1:6">
+    <row r="137" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="13"/>
       <c r="B137" s="14"/>
       <c r="C137" s="14"/>
@@ -3447,7 +3219,7 @@
       <c r="E137" s="14"/>
       <c r="F137" s="14"/>
     </row>
-    <row r="138" s="3" customFormat="1" spans="1:6">
+    <row r="138" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="13"/>
       <c r="B138" s="14"/>
       <c r="C138" s="14"/>
@@ -3455,7 +3227,7 @@
       <c r="E138" s="14"/>
       <c r="F138" s="14"/>
     </row>
-    <row r="139" s="3" customFormat="1" spans="1:6">
+    <row r="139" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="13"/>
       <c r="B139" s="14"/>
       <c r="C139" s="14"/>
@@ -3463,7 +3235,7 @@
       <c r="E139" s="20"/>
       <c r="F139" s="14"/>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" s="13"/>
       <c r="B140" s="14"/>
       <c r="C140" s="14"/>
@@ -3471,7 +3243,7 @@
       <c r="E140" s="14"/>
       <c r="F140" s="14"/>
     </row>
-    <row r="141" s="3" customFormat="1" spans="1:6">
+    <row r="141" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="13"/>
       <c r="B141" s="14"/>
       <c r="C141" s="14"/>
@@ -3479,7 +3251,7 @@
       <c r="E141" s="14"/>
       <c r="F141" s="14"/>
     </row>
-    <row r="142" s="3" customFormat="1" spans="1:6">
+    <row r="142" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="13"/>
       <c r="B142" s="14"/>
       <c r="C142" s="14"/>
@@ -3487,7 +3259,7 @@
       <c r="E142" s="14"/>
       <c r="F142" s="14"/>
     </row>
-    <row r="143" s="3" customFormat="1" spans="1:6">
+    <row r="143" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="13"/>
       <c r="B143" s="14"/>
       <c r="C143" s="14"/>
@@ -3495,7 +3267,7 @@
       <c r="E143" s="14"/>
       <c r="F143" s="14"/>
     </row>
-    <row r="144" s="3" customFormat="1" spans="1:6">
+    <row r="144" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="13"/>
       <c r="B144" s="14"/>
       <c r="C144" s="14"/>
@@ -3503,7 +3275,7 @@
       <c r="E144" s="14"/>
       <c r="F144" s="14"/>
     </row>
-    <row r="145" s="3" customFormat="1" spans="1:6">
+    <row r="145" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="13"/>
       <c r="B145" s="14"/>
       <c r="C145" s="14"/>
@@ -3511,7 +3283,7 @@
       <c r="E145" s="14"/>
       <c r="F145" s="14"/>
     </row>
-    <row r="146" s="3" customFormat="1" spans="1:6">
+    <row r="146" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="13"/>
       <c r="B146" s="14"/>
       <c r="C146" s="14"/>
@@ -3519,7 +3291,7 @@
       <c r="E146" s="14"/>
       <c r="F146" s="14"/>
     </row>
-    <row r="147" s="3" customFormat="1" spans="1:6">
+    <row r="147" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="13"/>
       <c r="B147" s="14"/>
       <c r="C147" s="14"/>
@@ -3527,7 +3299,7 @@
       <c r="E147" s="14"/>
       <c r="F147" s="14"/>
     </row>
-    <row r="148" s="3" customFormat="1" spans="1:6">
+    <row r="148" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="13"/>
       <c r="B148" s="14"/>
       <c r="C148" s="14"/>
@@ -3535,7 +3307,7 @@
       <c r="E148" s="14"/>
       <c r="F148" s="14"/>
     </row>
-    <row r="149" s="3" customFormat="1" spans="1:6">
+    <row r="149" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="13"/>
       <c r="B149" s="14"/>
       <c r="C149" s="14"/>
@@ -3543,7 +3315,7 @@
       <c r="E149" s="14"/>
       <c r="F149" s="14"/>
     </row>
-    <row r="150" s="3" customFormat="1" spans="1:6">
+    <row r="150" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="13"/>
       <c r="B150" s="14"/>
       <c r="C150" s="14"/>
@@ -3551,7 +3323,7 @@
       <c r="E150" s="14"/>
       <c r="F150" s="14"/>
     </row>
-    <row r="151" s="3" customFormat="1" spans="1:6">
+    <row r="151" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="13"/>
       <c r="B151" s="14"/>
       <c r="C151" s="14"/>
@@ -3559,7 +3331,7 @@
       <c r="E151" s="14"/>
       <c r="F151" s="14"/>
     </row>
-    <row r="152" s="3" customFormat="1" spans="1:6">
+    <row r="152" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="13"/>
       <c r="B152" s="14"/>
       <c r="C152" s="14"/>
@@ -3567,7 +3339,7 @@
       <c r="E152" s="14"/>
       <c r="F152" s="14"/>
     </row>
-    <row r="153" s="3" customFormat="1" spans="1:6">
+    <row r="153" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="13"/>
       <c r="B153" s="14"/>
       <c r="C153" s="14"/>
@@ -3575,7 +3347,7 @@
       <c r="E153" s="14"/>
       <c r="F153" s="14"/>
     </row>
-    <row r="154" s="3" customFormat="1" spans="1:6">
+    <row r="154" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="13"/>
       <c r="B154" s="14"/>
       <c r="C154" s="14"/>
@@ -3583,7 +3355,7 @@
       <c r="E154" s="14"/>
       <c r="F154" s="14"/>
     </row>
-    <row r="155" s="3" customFormat="1" spans="1:6">
+    <row r="155" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="13"/>
       <c r="B155" s="14"/>
       <c r="C155" s="14"/>
@@ -3591,7 +3363,7 @@
       <c r="E155" s="14"/>
       <c r="F155" s="14"/>
     </row>
-    <row r="156" s="3" customFormat="1" spans="1:6">
+    <row r="156" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
       <c r="B156" s="14"/>
       <c r="C156" s="14"/>
@@ -3599,7 +3371,7 @@
       <c r="E156" s="14"/>
       <c r="F156" s="14"/>
     </row>
-    <row r="157" s="3" customFormat="1" spans="1:6">
+    <row r="157" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="5"/>
       <c r="B157" s="14"/>
       <c r="C157" s="14"/>
@@ -3607,7 +3379,7 @@
       <c r="E157" s="14"/>
       <c r="F157" s="14"/>
     </row>
-    <row r="158" s="3" customFormat="1" spans="1:6">
+    <row r="158" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="5"/>
       <c r="B158" s="14"/>
       <c r="C158" s="14"/>
@@ -3615,7 +3387,7 @@
       <c r="E158" s="14"/>
       <c r="F158" s="14"/>
     </row>
-    <row r="159" s="3" customFormat="1" spans="1:6">
+    <row r="159" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="5"/>
       <c r="B159" s="14"/>
       <c r="C159" s="14"/>
@@ -3623,7 +3395,7 @@
       <c r="E159" s="14"/>
       <c r="F159" s="14"/>
     </row>
-    <row r="160" s="3" customFormat="1" spans="1:6">
+    <row r="160" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="13"/>
       <c r="B160" s="14"/>
       <c r="C160" s="14"/>
@@ -3631,7 +3403,7 @@
       <c r="E160" s="14"/>
       <c r="F160" s="6"/>
     </row>
-    <row r="161" s="3" customFormat="1" spans="1:6">
+    <row r="161" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="13"/>
       <c r="B161" s="14"/>
       <c r="C161" s="14"/>
@@ -3639,7 +3411,7 @@
       <c r="E161" s="14"/>
       <c r="F161" s="6"/>
     </row>
-    <row r="162" s="3" customFormat="1" spans="1:6">
+    <row r="162" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="13"/>
       <c r="B162" s="14"/>
       <c r="C162" s="14"/>
@@ -3647,7 +3419,7 @@
       <c r="E162" s="14"/>
       <c r="F162" s="6"/>
     </row>
-    <row r="163" s="3" customFormat="1" spans="1:6">
+    <row r="163" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="13"/>
       <c r="B163" s="14"/>
       <c r="C163" s="14"/>
@@ -3655,7 +3427,7 @@
       <c r="E163" s="14"/>
       <c r="F163" s="6"/>
     </row>
-    <row r="164" customFormat="1" spans="1:6">
+    <row r="164" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A164" s="5"/>
       <c r="B164" s="14"/>
       <c r="C164" s="14"/>
@@ -3663,494 +3435,494 @@
       <c r="E164" s="14"/>
       <c r="F164" s="6"/>
     </row>
-    <row r="165" spans="2:5">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B165" s="14"/>
       <c r="C165" s="14"/>
       <c r="D165" s="14"/>
       <c r="E165" s="14"/>
     </row>
-    <row r="166" spans="2:5">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B166" s="14"/>
       <c r="C166" s="14"/>
       <c r="D166" s="14"/>
       <c r="E166" s="14"/>
     </row>
-    <row r="167" spans="2:5">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B167" s="14"/>
       <c r="C167" s="14"/>
       <c r="D167" s="14"/>
       <c r="E167" s="14"/>
     </row>
-    <row r="168" spans="2:4">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B168" s="14"/>
       <c r="C168" s="14"/>
       <c r="D168" s="14"/>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A170" s="13"/>
       <c r="B170" s="14"/>
       <c r="C170" s="14"/>
       <c r="D170" s="14"/>
       <c r="E170" s="14"/>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A172" s="13"/>
       <c r="B172" s="14"/>
       <c r="C172" s="14"/>
       <c r="D172" s="14"/>
       <c r="E172" s="14"/>
     </row>
-    <row r="174" spans="2:5">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B174" s="14"/>
       <c r="C174" s="14"/>
       <c r="D174" s="14"/>
       <c r="E174" s="14"/>
     </row>
-    <row r="175" spans="2:5">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B175" s="14"/>
       <c r="C175" s="14"/>
       <c r="D175" s="14"/>
       <c r="E175" s="14"/>
     </row>
-    <row r="176" spans="2:5">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B176" s="14"/>
       <c r="C176" s="14"/>
       <c r="D176" s="14"/>
       <c r="E176" s="14"/>
     </row>
-    <row r="178" spans="2:6">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B178" s="14"/>
       <c r="C178" s="14"/>
       <c r="D178" s="14"/>
       <c r="E178" s="14"/>
       <c r="F178" s="14"/>
     </row>
-    <row r="180" spans="2:5">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B180" s="14"/>
       <c r="C180" s="14"/>
       <c r="D180" s="14"/>
       <c r="E180" s="14"/>
     </row>
-    <row r="181" spans="2:5">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B181" s="14"/>
       <c r="C181" s="14"/>
       <c r="D181" s="14"/>
       <c r="E181" s="14"/>
     </row>
-    <row r="182" spans="2:5">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B182" s="14"/>
       <c r="C182" s="14"/>
       <c r="D182" s="14"/>
       <c r="E182" s="14"/>
     </row>
-    <row r="183" spans="2:5">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B183" s="14"/>
       <c r="C183" s="14"/>
       <c r="D183" s="14"/>
       <c r="E183" s="14"/>
     </row>
-    <row r="184" spans="2:5">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B184" s="14"/>
       <c r="C184" s="14"/>
       <c r="D184" s="14"/>
       <c r="E184" s="14"/>
     </row>
-    <row r="185" spans="2:5">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B185" s="14"/>
       <c r="C185" s="14"/>
       <c r="D185" s="14"/>
       <c r="E185" s="14"/>
     </row>
-    <row r="187" spans="2:6">
+    <row r="187" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B187" s="14"/>
       <c r="C187" s="14"/>
       <c r="D187" s="14"/>
       <c r="E187" s="14"/>
       <c r="F187" s="14"/>
     </row>
-    <row r="189" spans="2:6">
+    <row r="189" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B189" s="14"/>
       <c r="C189" s="14"/>
       <c r="D189" s="14"/>
       <c r="E189" s="14"/>
       <c r="F189" s="14"/>
     </row>
-    <row r="190" spans="2:5">
+    <row r="190" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B190" s="14"/>
       <c r="C190" s="14"/>
       <c r="D190" s="14"/>
       <c r="E190" s="14"/>
     </row>
-    <row r="191" spans="2:5">
+    <row r="191" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B191" s="14"/>
       <c r="C191" s="14"/>
       <c r="D191" s="14"/>
       <c r="E191" s="14"/>
     </row>
-    <row r="192" spans="2:5">
+    <row r="192" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B192" s="14"/>
       <c r="C192" s="14"/>
       <c r="D192" s="14"/>
       <c r="E192" s="14"/>
     </row>
-    <row r="194" spans="2:6">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B194" s="14"/>
       <c r="C194" s="14"/>
       <c r="D194" s="14"/>
       <c r="E194" s="14"/>
       <c r="F194" s="14"/>
     </row>
-    <row r="196" spans="2:6">
+    <row r="196" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B196" s="14"/>
       <c r="C196" s="14"/>
       <c r="D196" s="14"/>
       <c r="E196" s="14"/>
       <c r="F196" s="14"/>
     </row>
-    <row r="197" spans="2:6">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B197" s="14"/>
       <c r="C197" s="14"/>
       <c r="D197" s="14"/>
       <c r="E197" s="14"/>
       <c r="F197" s="14"/>
     </row>
-    <row r="199" spans="4:4">
+    <row r="199" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D199" s="14"/>
     </row>
-    <row r="200" spans="4:4">
+    <row r="200" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D200" s="14"/>
     </row>
-    <row r="201" spans="4:5">
+    <row r="201" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D201" s="21"/>
       <c r="E201" s="22"/>
     </row>
-    <row r="202" spans="4:5">
+    <row r="202" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D202" s="22"/>
       <c r="E202" s="21"/>
     </row>
-    <row r="203" spans="4:5">
+    <row r="203" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D203" s="22"/>
       <c r="E203" s="22"/>
     </row>
-    <row r="204" spans="2:5">
+    <row r="204" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B204" s="14"/>
       <c r="C204" s="14"/>
       <c r="D204" s="14"/>
       <c r="E204" s="14"/>
     </row>
-    <row r="205" spans="2:4">
+    <row r="205" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B205" s="14"/>
       <c r="C205" s="14"/>
       <c r="D205" s="14"/>
     </row>
-    <row r="206" spans="2:5">
+    <row r="206" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B206" s="14"/>
       <c r="C206" s="14"/>
       <c r="D206" s="21"/>
       <c r="E206" s="22"/>
     </row>
-    <row r="207" spans="2:5">
+    <row r="207" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B207" s="14"/>
       <c r="C207" s="14"/>
       <c r="D207" s="21"/>
       <c r="E207" s="22"/>
     </row>
-    <row r="208" spans="2:5">
+    <row r="208" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B208" s="14"/>
       <c r="C208" s="14"/>
       <c r="D208" s="14"/>
       <c r="E208" s="14"/>
     </row>
-    <row r="209" spans="2:5">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B209" s="14"/>
       <c r="C209" s="14"/>
       <c r="D209" s="14"/>
       <c r="E209" s="14"/>
     </row>
-    <row r="210" spans="2:6">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B210" s="21"/>
       <c r="C210" s="21"/>
       <c r="D210" s="21"/>
       <c r="E210" s="21"/>
       <c r="F210" s="21"/>
     </row>
-    <row r="211" spans="2:6">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B211" s="21"/>
       <c r="C211" s="21"/>
       <c r="D211" s="21"/>
       <c r="E211" s="21"/>
       <c r="F211" s="21"/>
     </row>
-    <row r="212" spans="2:6">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B212" s="23"/>
       <c r="C212" s="14"/>
       <c r="D212" s="14"/>
       <c r="E212" s="14"/>
       <c r="F212" s="14"/>
     </row>
-    <row r="214" ht="16.5" customHeight="1" spans="2:6">
+    <row r="214" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B214" s="14"/>
       <c r="C214" s="14"/>
       <c r="D214" s="14"/>
       <c r="E214" s="14"/>
       <c r="F214" s="14"/>
     </row>
-    <row r="215" spans="2:6">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B215" s="14"/>
       <c r="C215" s="14"/>
       <c r="D215" s="14"/>
       <c r="E215" s="14"/>
       <c r="F215" s="14"/>
     </row>
-    <row r="216" spans="2:6">
+    <row r="216" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B216" s="14"/>
       <c r="C216" s="14"/>
       <c r="D216" s="14"/>
       <c r="E216" s="14"/>
       <c r="F216" s="14"/>
     </row>
-    <row r="217" spans="2:6">
+    <row r="217" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B217" s="14"/>
       <c r="C217" s="14"/>
       <c r="D217" s="14"/>
       <c r="E217" s="14"/>
       <c r="F217" s="14"/>
     </row>
-    <row r="218" spans="2:6">
+    <row r="218" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B218" s="14"/>
       <c r="C218" s="14"/>
       <c r="D218" s="14"/>
       <c r="E218" s="14"/>
       <c r="F218" s="14"/>
     </row>
-    <row r="219" spans="2:6">
+    <row r="219" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B219" s="14"/>
       <c r="C219" s="14"/>
       <c r="D219" s="14"/>
       <c r="E219" s="14"/>
       <c r="F219" s="14"/>
     </row>
-    <row r="220" spans="2:6">
+    <row r="220" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B220" s="14"/>
       <c r="C220" s="14"/>
       <c r="D220" s="14"/>
       <c r="E220" s="14"/>
       <c r="F220" s="14"/>
     </row>
-    <row r="221" spans="2:6">
+    <row r="221" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B221" s="14"/>
       <c r="C221" s="14"/>
       <c r="D221" s="14"/>
       <c r="E221" s="14"/>
       <c r="F221" s="14"/>
     </row>
-    <row r="222" spans="2:6">
+    <row r="222" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B222" s="14"/>
       <c r="C222" s="14"/>
       <c r="D222" s="14"/>
       <c r="E222" s="14"/>
       <c r="F222" s="14"/>
     </row>
-    <row r="223" spans="2:6">
+    <row r="223" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B223" s="14"/>
       <c r="C223" s="14"/>
       <c r="D223" s="14"/>
       <c r="E223" s="14"/>
       <c r="F223" s="14"/>
     </row>
-    <row r="224" spans="2:6">
+    <row r="224" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B224" s="14"/>
       <c r="C224" s="14"/>
       <c r="D224" s="14"/>
       <c r="E224" s="14"/>
       <c r="F224" s="14"/>
     </row>
-    <row r="225" spans="2:6">
+    <row r="225" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B225" s="14"/>
       <c r="C225" s="14"/>
       <c r="D225" s="14"/>
       <c r="E225" s="14"/>
       <c r="F225" s="14"/>
     </row>
-    <row r="226" spans="2:6">
+    <row r="226" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B226" s="14"/>
       <c r="C226" s="14"/>
       <c r="D226" s="14"/>
       <c r="E226" s="14"/>
       <c r="F226" s="14"/>
     </row>
-    <row r="228" spans="2:4">
+    <row r="228" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B228" s="14"/>
       <c r="C228" s="14"/>
       <c r="D228" s="14"/>
     </row>
-    <row r="229" spans="2:4">
+    <row r="229" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B229" s="14"/>
       <c r="C229" s="14"/>
       <c r="D229" s="14"/>
     </row>
-    <row r="230" spans="2:4">
+    <row r="230" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B230" s="14"/>
       <c r="C230" s="14"/>
       <c r="D230" s="14"/>
     </row>
-    <row r="231" spans="2:4">
+    <row r="231" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B231" s="14"/>
       <c r="C231" s="14"/>
       <c r="D231" s="14"/>
     </row>
-    <row r="232" spans="2:4">
+    <row r="232" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B232" s="14"/>
       <c r="C232" s="14"/>
       <c r="D232" s="14"/>
     </row>
-    <row r="233" spans="2:4">
+    <row r="233" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B233" s="14"/>
       <c r="C233" s="14"/>
       <c r="D233" s="14"/>
     </row>
-    <row r="234" spans="2:4">
+    <row r="234" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B234" s="14"/>
       <c r="C234" s="14"/>
       <c r="D234" s="14"/>
     </row>
-    <row r="235" spans="2:4">
+    <row r="235" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B235" s="14"/>
       <c r="C235" s="14"/>
       <c r="D235" s="14"/>
     </row>
-    <row r="236" spans="2:4">
+    <row r="236" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B236" s="14"/>
       <c r="C236" s="14"/>
       <c r="D236" s="14"/>
     </row>
-    <row r="237" spans="2:4">
+    <row r="237" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B237" s="14"/>
       <c r="C237" s="14"/>
       <c r="D237" s="14"/>
     </row>
-    <row r="241" spans="2:6">
+    <row r="241" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B241" s="14"/>
       <c r="C241" s="14"/>
       <c r="D241" s="14"/>
       <c r="E241" s="14"/>
       <c r="F241" s="14"/>
     </row>
-    <row r="243" spans="2:2">
+    <row r="243" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B243"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="duplicateValues" dxfId="0" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
-    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B98">
-    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103">
-    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107">
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B192">
-    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209">
-    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B241">
-    <cfRule type="duplicateValues" dxfId="0" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80:B81">
-    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88:B89">
-    <cfRule type="duplicateValues" dxfId="0" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B91">
-    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108:B110">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:B126">
-    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127:B128">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B205:B207">
-    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B214:B226">
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C84:C85">
-    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C127:C128">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B13 B227 B15:B62 B212:B213 B244:B1048576 B65:B75 B130:B191 B193:B204 B242 B238:B240 B208">
-    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B13 B106:B107 B15:B104 B111:B126 B129:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B111 B86 B93:B97 B77:B79 B100">
-    <cfRule type="duplicateValues" dxfId="0" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87 B92">
-    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B102 B104 B106">
-    <cfRule type="duplicateValues" dxfId="0" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112 B129">
-    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B113:C118 C119:C126">
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B228:C231 B235:C237">
-    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232:C234">
     <cfRule type="duplicateValues" dxfId="0" priority="13"/>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/_ConfigExcels/Datas/com_global_param.xlsx
+++ b/_ConfigExcels/Datas/com_global_param.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mine\Project\MiniGame_EarthDefender\_ConfigExcels\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17775" tabRatio="736"/>
+    <workbookView windowHeight="17775" tabRatio="736"/>
   </bookViews>
   <sheets>
     <sheet name="com_param" sheetId="11" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -143,6 +138,9 @@
   </si>
   <si>
     <t>第一关放弃时的特殊剧情</t>
+  </si>
+  <si>
+    <t>200,201,202</t>
   </si>
   <si>
     <t>avg_while_total_damage_is_0</t>
@@ -163,8 +161,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,10 +212,147 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,14 +361,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,8 +399,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -288,502 +609,744 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="485">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+  <cellStyleXfs count="533">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -795,16 +1358,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="327" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="375" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -822,10 +1385,11 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -843,876 +1407,544 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="485">
+  <cellStyles count="533">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 10" xfId="1"/>
-    <cellStyle name="常规 11" xfId="2"/>
-    <cellStyle name="常规 12" xfId="3"/>
-    <cellStyle name="常规 13" xfId="4"/>
-    <cellStyle name="常规 2" xfId="5"/>
-    <cellStyle name="常规 2 10" xfId="6"/>
-    <cellStyle name="常规 2 11" xfId="7"/>
-    <cellStyle name="常规 2 2" xfId="8"/>
-    <cellStyle name="常规 2 2 2" xfId="9"/>
-    <cellStyle name="常规 2 2 2 2" xfId="10"/>
-    <cellStyle name="常规 2 2 2 2 2" xfId="11"/>
-    <cellStyle name="常规 2 2 2 2 2 2" xfId="12"/>
-    <cellStyle name="常规 2 2 2 2 2 2 2" xfId="13"/>
-    <cellStyle name="常规 2 2 2 2 2 2 2 2" xfId="14"/>
-    <cellStyle name="常规 2 2 2 2 2 2 2 3" xfId="15"/>
-    <cellStyle name="常规 2 2 2 2 2 2 3" xfId="16"/>
-    <cellStyle name="常规 2 2 2 2 2 3" xfId="17"/>
-    <cellStyle name="常规 2 2 2 2 2 3 2" xfId="18"/>
-    <cellStyle name="常规 2 2 2 2 2 3 3" xfId="19"/>
-    <cellStyle name="常规 2 2 2 2 2 4" xfId="20"/>
-    <cellStyle name="常规 2 2 2 2 3" xfId="21"/>
-    <cellStyle name="常规 2 2 2 2 3 2" xfId="22"/>
-    <cellStyle name="常规 2 2 2 2 3 2 2" xfId="23"/>
-    <cellStyle name="常规 2 2 2 2 3 2 3" xfId="24"/>
-    <cellStyle name="常规 2 2 2 2 3 3" xfId="25"/>
-    <cellStyle name="常规 2 2 2 2 4" xfId="26"/>
-    <cellStyle name="常规 2 2 2 2 4 2" xfId="27"/>
-    <cellStyle name="常规 2 2 2 2 4 3" xfId="28"/>
-    <cellStyle name="常规 2 2 2 2 5" xfId="29"/>
-    <cellStyle name="常规 2 2 2 3" xfId="30"/>
-    <cellStyle name="常规 2 2 2 3 2" xfId="31"/>
-    <cellStyle name="常规 2 2 2 3 2 2" xfId="32"/>
-    <cellStyle name="常规 2 2 2 3 2 2 2" xfId="33"/>
-    <cellStyle name="常规 2 2 2 3 2 2 3" xfId="34"/>
-    <cellStyle name="常规 2 2 2 3 2 3" xfId="35"/>
-    <cellStyle name="常规 2 2 2 3 3" xfId="36"/>
-    <cellStyle name="常规 2 2 2 3 3 2" xfId="37"/>
-    <cellStyle name="常规 2 2 2 3 3 3" xfId="38"/>
-    <cellStyle name="常规 2 2 2 3 4" xfId="39"/>
-    <cellStyle name="常规 2 2 2 4" xfId="40"/>
-    <cellStyle name="常规 2 2 2 4 2" xfId="41"/>
-    <cellStyle name="常规 2 2 2 4 2 2" xfId="42"/>
-    <cellStyle name="常规 2 2 2 4 2 3" xfId="43"/>
-    <cellStyle name="常规 2 2 2 4 3" xfId="44"/>
-    <cellStyle name="常规 2 2 2 5" xfId="45"/>
-    <cellStyle name="常规 2 2 2 5 2" xfId="46"/>
-    <cellStyle name="常规 2 2 2 5 3" xfId="47"/>
-    <cellStyle name="常规 2 2 2 6" xfId="48"/>
-    <cellStyle name="常规 2 2 3" xfId="49"/>
-    <cellStyle name="常规 2 2 3 2" xfId="50"/>
-    <cellStyle name="常规 2 2 3 2 2" xfId="51"/>
-    <cellStyle name="常规 2 2 3 2 2 2" xfId="52"/>
-    <cellStyle name="常规 2 2 3 2 2 2 2" xfId="53"/>
-    <cellStyle name="常规 2 2 3 2 2 2 3" xfId="54"/>
-    <cellStyle name="常规 2 2 3 2 2 3" xfId="55"/>
-    <cellStyle name="常规 2 2 3 2 3" xfId="56"/>
-    <cellStyle name="常规 2 2 3 2 3 2" xfId="57"/>
-    <cellStyle name="常规 2 2 3 2 3 3" xfId="58"/>
-    <cellStyle name="常规 2 2 3 2 4" xfId="59"/>
-    <cellStyle name="常规 2 2 3 3" xfId="60"/>
-    <cellStyle name="常规 2 2 3 3 2" xfId="61"/>
-    <cellStyle name="常规 2 2 3 3 2 2" xfId="62"/>
-    <cellStyle name="常规 2 2 3 3 2 3" xfId="63"/>
-    <cellStyle name="常规 2 2 3 3 3" xfId="64"/>
-    <cellStyle name="常规 2 2 3 4" xfId="65"/>
-    <cellStyle name="常规 2 2 3 4 2" xfId="66"/>
-    <cellStyle name="常规 2 2 3 4 3" xfId="67"/>
-    <cellStyle name="常规 2 2 3 5" xfId="68"/>
-    <cellStyle name="常规 2 2 4" xfId="69"/>
-    <cellStyle name="常规 2 2 4 2" xfId="70"/>
-    <cellStyle name="常规 2 2 4 2 2" xfId="71"/>
-    <cellStyle name="常规 2 2 4 2 2 2" xfId="72"/>
-    <cellStyle name="常规 2 2 4 2 2 3" xfId="73"/>
-    <cellStyle name="常规 2 2 4 2 3" xfId="74"/>
-    <cellStyle name="常规 2 2 4 3" xfId="75"/>
-    <cellStyle name="常规 2 2 4 3 2" xfId="76"/>
-    <cellStyle name="常规 2 2 4 3 3" xfId="77"/>
-    <cellStyle name="常规 2 2 4 4" xfId="78"/>
-    <cellStyle name="常规 2 2 5" xfId="79"/>
-    <cellStyle name="常规 2 2 5 2" xfId="80"/>
-    <cellStyle name="常规 2 2 5 2 2" xfId="81"/>
-    <cellStyle name="常规 2 2 5 2 3" xfId="82"/>
-    <cellStyle name="常规 2 2 5 3" xfId="83"/>
-    <cellStyle name="常规 2 2 6" xfId="84"/>
-    <cellStyle name="常规 2 2 6 2" xfId="85"/>
-    <cellStyle name="常规 2 2 6 3" xfId="86"/>
-    <cellStyle name="常规 2 2 7" xfId="87"/>
-    <cellStyle name="常规 2 3" xfId="88"/>
-    <cellStyle name="常规 2 3 2" xfId="89"/>
-    <cellStyle name="常规 2 3 2 2" xfId="90"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="91"/>
-    <cellStyle name="常规 2 3 2 2 2 2" xfId="92"/>
-    <cellStyle name="常规 2 3 2 2 2 2 2" xfId="93"/>
-    <cellStyle name="常规 2 3 2 2 2 2 2 2" xfId="94"/>
-    <cellStyle name="常规 2 3 2 2 2 2 2 3" xfId="95"/>
-    <cellStyle name="常规 2 3 2 2 2 2 3" xfId="96"/>
-    <cellStyle name="常规 2 3 2 2 2 3" xfId="97"/>
-    <cellStyle name="常规 2 3 2 2 2 3 2" xfId="98"/>
-    <cellStyle name="常规 2 3 2 2 2 3 3" xfId="99"/>
-    <cellStyle name="常规 2 3 2 2 2 4" xfId="100"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="101"/>
-    <cellStyle name="常规 2 3 2 2 3 2" xfId="102"/>
-    <cellStyle name="常规 2 3 2 2 3 2 2" xfId="103"/>
-    <cellStyle name="常规 2 3 2 2 3 2 3" xfId="104"/>
-    <cellStyle name="常规 2 3 2 2 3 3" xfId="105"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="106"/>
-    <cellStyle name="常规 2 3 2 2 4 2" xfId="107"/>
-    <cellStyle name="常规 2 3 2 2 4 3" xfId="108"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="109"/>
-    <cellStyle name="常规 2 3 2 3" xfId="110"/>
-    <cellStyle name="常规 2 3 2 3 2" xfId="111"/>
-    <cellStyle name="常规 2 3 2 3 2 2" xfId="112"/>
-    <cellStyle name="常规 2 3 2 3 2 2 2" xfId="113"/>
-    <cellStyle name="常规 2 3 2 3 2 2 3" xfId="114"/>
-    <cellStyle name="常规 2 3 2 3 2 3" xfId="115"/>
-    <cellStyle name="常规 2 3 2 3 3" xfId="116"/>
-    <cellStyle name="常规 2 3 2 3 3 2" xfId="117"/>
-    <cellStyle name="常规 2 3 2 3 3 3" xfId="118"/>
-    <cellStyle name="常规 2 3 2 3 4" xfId="119"/>
-    <cellStyle name="常规 2 3 2 4" xfId="120"/>
-    <cellStyle name="常规 2 3 2 4 2" xfId="121"/>
-    <cellStyle name="常规 2 3 2 4 2 2" xfId="122"/>
-    <cellStyle name="常规 2 3 2 4 2 3" xfId="123"/>
-    <cellStyle name="常规 2 3 2 4 3" xfId="124"/>
-    <cellStyle name="常规 2 3 2 5" xfId="125"/>
-    <cellStyle name="常规 2 3 2 5 2" xfId="126"/>
-    <cellStyle name="常规 2 3 2 5 3" xfId="127"/>
-    <cellStyle name="常规 2 3 2 6" xfId="128"/>
-    <cellStyle name="常规 2 3 3" xfId="129"/>
-    <cellStyle name="常规 2 3 3 2" xfId="130"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="131"/>
-    <cellStyle name="常规 2 3 3 2 2 2" xfId="132"/>
-    <cellStyle name="常规 2 3 3 2 2 2 2" xfId="133"/>
-    <cellStyle name="常规 2 3 3 2 2 2 3" xfId="134"/>
-    <cellStyle name="常规 2 3 3 2 2 3" xfId="135"/>
-    <cellStyle name="常规 2 3 3 2 3" xfId="136"/>
-    <cellStyle name="常规 2 3 3 2 3 2" xfId="137"/>
-    <cellStyle name="常规 2 3 3 2 3 3" xfId="138"/>
-    <cellStyle name="常规 2 3 3 2 4" xfId="139"/>
-    <cellStyle name="常规 2 3 3 3" xfId="140"/>
-    <cellStyle name="常规 2 3 3 3 2" xfId="141"/>
-    <cellStyle name="常规 2 3 3 3 2 2" xfId="142"/>
-    <cellStyle name="常规 2 3 3 3 2 3" xfId="143"/>
-    <cellStyle name="常规 2 3 3 3 3" xfId="144"/>
-    <cellStyle name="常规 2 3 3 4" xfId="145"/>
-    <cellStyle name="常规 2 3 3 4 2" xfId="146"/>
-    <cellStyle name="常规 2 3 3 4 3" xfId="147"/>
-    <cellStyle name="常规 2 3 3 5" xfId="148"/>
-    <cellStyle name="常规 2 3 4" xfId="149"/>
-    <cellStyle name="常规 2 3 4 2" xfId="150"/>
-    <cellStyle name="常规 2 3 4 2 2" xfId="151"/>
-    <cellStyle name="常规 2 3 4 2 2 2" xfId="152"/>
-    <cellStyle name="常规 2 3 4 2 2 3" xfId="153"/>
-    <cellStyle name="常规 2 3 4 2 3" xfId="154"/>
-    <cellStyle name="常规 2 3 4 3" xfId="155"/>
-    <cellStyle name="常规 2 3 4 3 2" xfId="156"/>
-    <cellStyle name="常规 2 3 4 3 3" xfId="157"/>
-    <cellStyle name="常规 2 3 4 4" xfId="158"/>
-    <cellStyle name="常规 2 3 5" xfId="159"/>
-    <cellStyle name="常规 2 3 5 2" xfId="160"/>
-    <cellStyle name="常规 2 3 5 2 2" xfId="161"/>
-    <cellStyle name="常规 2 3 5 2 3" xfId="162"/>
-    <cellStyle name="常规 2 3 5 3" xfId="163"/>
-    <cellStyle name="常规 2 3 6" xfId="164"/>
-    <cellStyle name="常规 2 3 6 2" xfId="165"/>
-    <cellStyle name="常规 2 3 6 3" xfId="166"/>
-    <cellStyle name="常规 2 3 7" xfId="167"/>
-    <cellStyle name="常规 2 4" xfId="168"/>
-    <cellStyle name="常规 2 4 2" xfId="169"/>
-    <cellStyle name="常规 2 4 2 2" xfId="170"/>
-    <cellStyle name="常规 2 4 2 2 2" xfId="171"/>
-    <cellStyle name="常规 2 4 2 2 2 2" xfId="172"/>
-    <cellStyle name="常规 2 4 2 2 2 2 2" xfId="173"/>
-    <cellStyle name="常规 2 4 2 2 2 2 3" xfId="174"/>
-    <cellStyle name="常规 2 4 2 2 2 3" xfId="175"/>
-    <cellStyle name="常规 2 4 2 2 3" xfId="176"/>
-    <cellStyle name="常规 2 4 2 2 3 2" xfId="177"/>
-    <cellStyle name="常规 2 4 2 2 3 3" xfId="178"/>
-    <cellStyle name="常规 2 4 2 2 4" xfId="179"/>
-    <cellStyle name="常规 2 4 2 3" xfId="180"/>
-    <cellStyle name="常规 2 4 2 3 2" xfId="181"/>
-    <cellStyle name="常规 2 4 2 3 2 2" xfId="182"/>
-    <cellStyle name="常规 2 4 2 3 2 3" xfId="183"/>
-    <cellStyle name="常规 2 4 2 3 3" xfId="184"/>
-    <cellStyle name="常规 2 4 2 4" xfId="185"/>
-    <cellStyle name="常规 2 4 2 4 2" xfId="186"/>
-    <cellStyle name="常规 2 4 2 4 3" xfId="187"/>
-    <cellStyle name="常规 2 4 2 5" xfId="188"/>
-    <cellStyle name="常规 2 4 3" xfId="189"/>
-    <cellStyle name="常规 2 4 3 2" xfId="190"/>
-    <cellStyle name="常规 2 4 3 2 2" xfId="191"/>
-    <cellStyle name="常规 2 4 3 2 2 2" xfId="192"/>
-    <cellStyle name="常规 2 4 3 2 2 3" xfId="193"/>
-    <cellStyle name="常规 2 4 3 2 3" xfId="194"/>
-    <cellStyle name="常规 2 4 3 3" xfId="195"/>
-    <cellStyle name="常规 2 4 3 3 2" xfId="196"/>
-    <cellStyle name="常规 2 4 3 3 3" xfId="197"/>
-    <cellStyle name="常规 2 4 3 4" xfId="198"/>
-    <cellStyle name="常规 2 4 4" xfId="199"/>
-    <cellStyle name="常规 2 4 4 2" xfId="200"/>
-    <cellStyle name="常规 2 4 4 2 2" xfId="201"/>
-    <cellStyle name="常规 2 4 4 2 3" xfId="202"/>
-    <cellStyle name="常规 2 4 4 3" xfId="203"/>
-    <cellStyle name="常规 2 4 5" xfId="204"/>
-    <cellStyle name="常规 2 4 5 2" xfId="205"/>
-    <cellStyle name="常规 2 4 5 3" xfId="206"/>
-    <cellStyle name="常规 2 4 6" xfId="207"/>
-    <cellStyle name="常规 2 5" xfId="208"/>
-    <cellStyle name="常规 2 5 2" xfId="209"/>
-    <cellStyle name="常规 2 5 2 2" xfId="210"/>
-    <cellStyle name="常规 2 5 2 2 2" xfId="211"/>
-    <cellStyle name="常规 2 5 2 2 2 2" xfId="212"/>
-    <cellStyle name="常规 2 5 2 2 2 3" xfId="213"/>
-    <cellStyle name="常规 2 5 2 2 3" xfId="214"/>
-    <cellStyle name="常规 2 5 2 3" xfId="215"/>
-    <cellStyle name="常规 2 5 2 3 2" xfId="216"/>
-    <cellStyle name="常规 2 5 2 3 3" xfId="217"/>
-    <cellStyle name="常规 2 5 2 4" xfId="218"/>
-    <cellStyle name="常规 2 5 3" xfId="219"/>
-    <cellStyle name="常规 2 5 3 2" xfId="220"/>
-    <cellStyle name="常规 2 5 3 2 2" xfId="221"/>
-    <cellStyle name="常规 2 5 3 2 3" xfId="222"/>
-    <cellStyle name="常规 2 5 3 3" xfId="223"/>
-    <cellStyle name="常规 2 5 4" xfId="224"/>
-    <cellStyle name="常规 2 5 4 2" xfId="225"/>
-    <cellStyle name="常规 2 5 4 3" xfId="226"/>
-    <cellStyle name="常规 2 5 5" xfId="227"/>
-    <cellStyle name="常规 2 6" xfId="228"/>
-    <cellStyle name="常规 2 6 2" xfId="229"/>
-    <cellStyle name="常规 2 6 2 2" xfId="230"/>
-    <cellStyle name="常规 2 6 2 2 2" xfId="231"/>
-    <cellStyle name="常规 2 6 2 2 3" xfId="232"/>
-    <cellStyle name="常规 2 6 2 3" xfId="233"/>
-    <cellStyle name="常规 2 6 3" xfId="234"/>
-    <cellStyle name="常规 2 6 3 2" xfId="235"/>
-    <cellStyle name="常规 2 6 3 3" xfId="236"/>
-    <cellStyle name="常规 2 6 4" xfId="237"/>
-    <cellStyle name="常规 2 7" xfId="238"/>
-    <cellStyle name="常规 2 7 2" xfId="239"/>
-    <cellStyle name="常规 2 7 2 2" xfId="240"/>
-    <cellStyle name="常规 2 7 2 3" xfId="241"/>
-    <cellStyle name="常规 2 7 3" xfId="242"/>
-    <cellStyle name="常规 2 8" xfId="243"/>
-    <cellStyle name="常规 2 8 2" xfId="244"/>
-    <cellStyle name="常规 2 8 3" xfId="245"/>
-    <cellStyle name="常规 2 9" xfId="246"/>
-    <cellStyle name="常规 3" xfId="247"/>
-    <cellStyle name="常规 3 2" xfId="248"/>
-    <cellStyle name="常规 3 2 2" xfId="249"/>
-    <cellStyle name="常规 3 2 2 2" xfId="250"/>
-    <cellStyle name="常规 3 2 2 2 2" xfId="251"/>
-    <cellStyle name="常规 3 2 2 2 2 2" xfId="252"/>
-    <cellStyle name="常规 3 2 2 2 2 2 2" xfId="253"/>
-    <cellStyle name="常规 3 2 2 2 2 2 3" xfId="254"/>
-    <cellStyle name="常规 3 2 2 2 2 3" xfId="255"/>
-    <cellStyle name="常规 3 2 2 2 3" xfId="256"/>
-    <cellStyle name="常规 3 2 2 2 3 2" xfId="257"/>
-    <cellStyle name="常规 3 2 2 2 3 3" xfId="258"/>
-    <cellStyle name="常规 3 2 2 2 4" xfId="259"/>
-    <cellStyle name="常规 3 2 2 3" xfId="260"/>
-    <cellStyle name="常规 3 2 2 3 2" xfId="261"/>
-    <cellStyle name="常规 3 2 2 3 2 2" xfId="262"/>
-    <cellStyle name="常规 3 2 2 3 2 3" xfId="263"/>
-    <cellStyle name="常规 3 2 2 3 3" xfId="264"/>
-    <cellStyle name="常规 3 2 2 4" xfId="265"/>
-    <cellStyle name="常规 3 2 2 4 2" xfId="266"/>
-    <cellStyle name="常规 3 2 2 4 3" xfId="267"/>
-    <cellStyle name="常规 3 2 2 5" xfId="268"/>
-    <cellStyle name="常规 3 2 3" xfId="269"/>
-    <cellStyle name="常规 3 2 3 2" xfId="270"/>
-    <cellStyle name="常规 3 2 3 2 2" xfId="271"/>
-    <cellStyle name="常规 3 2 3 2 2 2" xfId="272"/>
-    <cellStyle name="常规 3 2 3 2 2 3" xfId="273"/>
-    <cellStyle name="常规 3 2 3 2 3" xfId="274"/>
-    <cellStyle name="常规 3 2 3 3" xfId="275"/>
-    <cellStyle name="常规 3 2 3 3 2" xfId="276"/>
-    <cellStyle name="常规 3 2 3 3 3" xfId="277"/>
-    <cellStyle name="常规 3 2 3 4" xfId="278"/>
-    <cellStyle name="常规 3 2 4" xfId="279"/>
-    <cellStyle name="常规 3 2 4 2" xfId="280"/>
-    <cellStyle name="常规 3 2 4 2 2" xfId="281"/>
-    <cellStyle name="常规 3 2 4 2 3" xfId="282"/>
-    <cellStyle name="常规 3 2 4 3" xfId="283"/>
-    <cellStyle name="常规 3 2 5" xfId="284"/>
-    <cellStyle name="常规 3 2 5 2" xfId="285"/>
-    <cellStyle name="常规 3 2 5 3" xfId="286"/>
-    <cellStyle name="常规 3 2 6" xfId="287"/>
-    <cellStyle name="常规 3 3" xfId="288"/>
-    <cellStyle name="常规 3 3 2" xfId="289"/>
-    <cellStyle name="常规 3 3 2 2" xfId="290"/>
-    <cellStyle name="常规 3 3 2 2 2" xfId="291"/>
-    <cellStyle name="常规 3 3 2 2 2 2" xfId="292"/>
-    <cellStyle name="常规 3 3 2 2 2 3" xfId="293"/>
-    <cellStyle name="常规 3 3 2 2 3" xfId="294"/>
-    <cellStyle name="常规 3 3 2 3" xfId="295"/>
-    <cellStyle name="常规 3 3 2 3 2" xfId="296"/>
-    <cellStyle name="常规 3 3 2 3 3" xfId="297"/>
-    <cellStyle name="常规 3 3 2 4" xfId="298"/>
-    <cellStyle name="常规 3 3 3" xfId="299"/>
-    <cellStyle name="常规 3 3 3 2" xfId="300"/>
-    <cellStyle name="常规 3 3 3 2 2" xfId="301"/>
-    <cellStyle name="常规 3 3 3 2 3" xfId="302"/>
-    <cellStyle name="常规 3 3 3 3" xfId="303"/>
-    <cellStyle name="常规 3 3 4" xfId="304"/>
-    <cellStyle name="常规 3 3 4 2" xfId="305"/>
-    <cellStyle name="常规 3 3 4 3" xfId="306"/>
-    <cellStyle name="常规 3 3 5" xfId="307"/>
-    <cellStyle name="常规 3 4" xfId="308"/>
-    <cellStyle name="常规 3 4 2" xfId="309"/>
-    <cellStyle name="常规 3 4 2 2" xfId="310"/>
-    <cellStyle name="常规 3 4 2 2 2" xfId="311"/>
-    <cellStyle name="常规 3 4 2 2 3" xfId="312"/>
-    <cellStyle name="常规 3 4 2 3" xfId="313"/>
-    <cellStyle name="常规 3 4 3" xfId="314"/>
-    <cellStyle name="常规 3 4 3 2" xfId="315"/>
-    <cellStyle name="常规 3 4 3 3" xfId="316"/>
-    <cellStyle name="常规 3 4 4" xfId="317"/>
-    <cellStyle name="常规 3 5" xfId="318"/>
-    <cellStyle name="常规 3 5 2" xfId="319"/>
-    <cellStyle name="常规 3 5 2 2" xfId="320"/>
-    <cellStyle name="常规 3 5 2 3" xfId="321"/>
-    <cellStyle name="常规 3 5 3" xfId="322"/>
-    <cellStyle name="常规 3 6" xfId="323"/>
-    <cellStyle name="常规 3 6 2" xfId="324"/>
-    <cellStyle name="常规 3 6 3" xfId="325"/>
-    <cellStyle name="常规 3 7" xfId="326"/>
-    <cellStyle name="常规 4" xfId="327"/>
-    <cellStyle name="常规 4 2" xfId="328"/>
-    <cellStyle name="常规 4 2 2" xfId="329"/>
-    <cellStyle name="常规 4 2 2 2" xfId="330"/>
-    <cellStyle name="常规 4 2 2 2 2" xfId="331"/>
-    <cellStyle name="常规 4 2 2 2 2 2" xfId="332"/>
-    <cellStyle name="常规 4 2 2 2 2 2 2" xfId="333"/>
-    <cellStyle name="常规 4 2 2 2 2 2 3" xfId="334"/>
-    <cellStyle name="常规 4 2 2 2 2 3" xfId="335"/>
-    <cellStyle name="常规 4 2 2 2 3" xfId="336"/>
-    <cellStyle name="常规 4 2 2 2 3 2" xfId="337"/>
-    <cellStyle name="常规 4 2 2 2 3 3" xfId="338"/>
-    <cellStyle name="常规 4 2 2 2 4" xfId="339"/>
-    <cellStyle name="常规 4 2 2 3" xfId="340"/>
-    <cellStyle name="常规 4 2 2 3 2" xfId="341"/>
-    <cellStyle name="常规 4 2 2 3 2 2" xfId="342"/>
-    <cellStyle name="常规 4 2 2 3 2 3" xfId="343"/>
-    <cellStyle name="常规 4 2 2 3 3" xfId="344"/>
-    <cellStyle name="常规 4 2 2 4" xfId="345"/>
-    <cellStyle name="常规 4 2 2 4 2" xfId="346"/>
-    <cellStyle name="常规 4 2 2 4 3" xfId="347"/>
-    <cellStyle name="常规 4 2 2 5" xfId="348"/>
-    <cellStyle name="常规 4 2 3" xfId="349"/>
-    <cellStyle name="常规 4 2 3 2" xfId="350"/>
-    <cellStyle name="常规 4 2 3 2 2" xfId="351"/>
-    <cellStyle name="常规 4 2 3 2 2 2" xfId="352"/>
-    <cellStyle name="常规 4 2 3 2 2 3" xfId="353"/>
-    <cellStyle name="常规 4 2 3 2 3" xfId="354"/>
-    <cellStyle name="常规 4 2 3 3" xfId="355"/>
-    <cellStyle name="常规 4 2 3 3 2" xfId="356"/>
-    <cellStyle name="常规 4 2 3 3 3" xfId="357"/>
-    <cellStyle name="常规 4 2 3 4" xfId="358"/>
-    <cellStyle name="常规 4 2 4" xfId="359"/>
-    <cellStyle name="常规 4 2 4 2" xfId="360"/>
-    <cellStyle name="常规 4 2 4 2 2" xfId="361"/>
-    <cellStyle name="常规 4 2 4 2 3" xfId="362"/>
-    <cellStyle name="常规 4 2 4 3" xfId="363"/>
-    <cellStyle name="常规 4 2 5" xfId="364"/>
-    <cellStyle name="常规 4 2 5 2" xfId="365"/>
-    <cellStyle name="常规 4 2 5 3" xfId="366"/>
-    <cellStyle name="常规 4 2 6" xfId="367"/>
-    <cellStyle name="常规 4 3" xfId="368"/>
-    <cellStyle name="常规 4 3 2" xfId="369"/>
-    <cellStyle name="常规 4 3 2 2" xfId="370"/>
-    <cellStyle name="常规 4 3 2 2 2" xfId="371"/>
-    <cellStyle name="常规 4 3 2 2 2 2" xfId="372"/>
-    <cellStyle name="常规 4 3 2 2 2 3" xfId="373"/>
-    <cellStyle name="常规 4 3 2 2 3" xfId="374"/>
-    <cellStyle name="常规 4 3 2 3" xfId="375"/>
-    <cellStyle name="常规 4 3 2 3 2" xfId="376"/>
-    <cellStyle name="常规 4 3 2 3 3" xfId="377"/>
-    <cellStyle name="常规 4 3 2 4" xfId="378"/>
-    <cellStyle name="常规 4 3 3" xfId="379"/>
-    <cellStyle name="常规 4 3 3 2" xfId="380"/>
-    <cellStyle name="常规 4 3 3 2 2" xfId="381"/>
-    <cellStyle name="常规 4 3 3 2 3" xfId="382"/>
-    <cellStyle name="常规 4 3 3 3" xfId="383"/>
-    <cellStyle name="常规 4 3 4" xfId="384"/>
-    <cellStyle name="常规 4 3 4 2" xfId="385"/>
-    <cellStyle name="常规 4 3 4 3" xfId="386"/>
-    <cellStyle name="常规 4 3 5" xfId="387"/>
-    <cellStyle name="常规 4 4" xfId="388"/>
-    <cellStyle name="常规 4 4 2" xfId="389"/>
-    <cellStyle name="常规 4 4 2 2" xfId="390"/>
-    <cellStyle name="常规 4 4 2 2 2" xfId="391"/>
-    <cellStyle name="常规 4 4 2 2 3" xfId="392"/>
-    <cellStyle name="常规 4 4 2 3" xfId="393"/>
-    <cellStyle name="常规 4 4 3" xfId="394"/>
-    <cellStyle name="常规 4 4 3 2" xfId="395"/>
-    <cellStyle name="常规 4 4 3 3" xfId="396"/>
-    <cellStyle name="常规 4 4 4" xfId="397"/>
-    <cellStyle name="常规 4 5" xfId="398"/>
-    <cellStyle name="常规 4 5 2" xfId="399"/>
-    <cellStyle name="常规 4 5 2 2" xfId="400"/>
-    <cellStyle name="常规 4 5 2 3" xfId="401"/>
-    <cellStyle name="常规 4 5 3" xfId="402"/>
-    <cellStyle name="常规 4 6" xfId="403"/>
-    <cellStyle name="常规 4 6 2" xfId="404"/>
-    <cellStyle name="常规 4 6 3" xfId="405"/>
-    <cellStyle name="常规 4 7" xfId="406"/>
-    <cellStyle name="常规 5" xfId="407"/>
-    <cellStyle name="常规 5 2" xfId="408"/>
-    <cellStyle name="常规 5 2 2" xfId="409"/>
-    <cellStyle name="常规 5 2 2 2" xfId="410"/>
-    <cellStyle name="常规 5 2 2 2 2" xfId="411"/>
-    <cellStyle name="常规 5 2 2 2 2 2" xfId="412"/>
-    <cellStyle name="常规 5 2 2 2 2 3" xfId="413"/>
-    <cellStyle name="常规 5 2 2 2 3" xfId="414"/>
-    <cellStyle name="常规 5 2 2 3" xfId="415"/>
-    <cellStyle name="常规 5 2 2 3 2" xfId="416"/>
-    <cellStyle name="常规 5 2 2 3 3" xfId="417"/>
-    <cellStyle name="常规 5 2 2 4" xfId="418"/>
-    <cellStyle name="常规 5 2 3" xfId="419"/>
-    <cellStyle name="常规 5 2 3 2" xfId="420"/>
-    <cellStyle name="常规 5 2 3 2 2" xfId="421"/>
-    <cellStyle name="常规 5 2 3 2 3" xfId="422"/>
-    <cellStyle name="常规 5 2 3 3" xfId="423"/>
-    <cellStyle name="常规 5 2 4" xfId="424"/>
-    <cellStyle name="常规 5 2 4 2" xfId="425"/>
-    <cellStyle name="常规 5 2 4 3" xfId="426"/>
-    <cellStyle name="常规 5 2 5" xfId="427"/>
-    <cellStyle name="常规 5 3" xfId="428"/>
-    <cellStyle name="常规 5 3 2" xfId="429"/>
-    <cellStyle name="常规 5 3 2 2" xfId="430"/>
-    <cellStyle name="常规 5 3 2 2 2" xfId="431"/>
-    <cellStyle name="常规 5 3 2 2 3" xfId="432"/>
-    <cellStyle name="常规 5 3 2 3" xfId="433"/>
-    <cellStyle name="常规 5 3 3" xfId="434"/>
-    <cellStyle name="常规 5 3 3 2" xfId="435"/>
-    <cellStyle name="常规 5 3 3 3" xfId="436"/>
-    <cellStyle name="常规 5 3 4" xfId="437"/>
-    <cellStyle name="常规 5 4" xfId="438"/>
-    <cellStyle name="常规 5 4 2" xfId="439"/>
-    <cellStyle name="常规 5 4 2 2" xfId="440"/>
-    <cellStyle name="常规 5 4 2 3" xfId="441"/>
-    <cellStyle name="常规 5 4 3" xfId="442"/>
-    <cellStyle name="常规 5 5" xfId="443"/>
-    <cellStyle name="常规 5 5 2" xfId="444"/>
-    <cellStyle name="常规 5 5 3" xfId="445"/>
-    <cellStyle name="常规 5 6" xfId="446"/>
-    <cellStyle name="常规 6" xfId="447"/>
-    <cellStyle name="常规 6 2" xfId="448"/>
-    <cellStyle name="常规 6 2 2" xfId="449"/>
-    <cellStyle name="常规 6 2 2 2" xfId="450"/>
-    <cellStyle name="常规 6 2 2 2 2" xfId="451"/>
-    <cellStyle name="常规 6 2 2 2 3" xfId="452"/>
-    <cellStyle name="常规 6 2 2 3" xfId="453"/>
-    <cellStyle name="常规 6 2 3" xfId="454"/>
-    <cellStyle name="常规 6 2 3 2" xfId="455"/>
-    <cellStyle name="常规 6 2 3 3" xfId="456"/>
-    <cellStyle name="常规 6 2 4" xfId="457"/>
-    <cellStyle name="常规 6 3" xfId="458"/>
-    <cellStyle name="常规 6 3 2" xfId="459"/>
-    <cellStyle name="常规 6 3 2 2" xfId="460"/>
-    <cellStyle name="常规 6 3 2 3" xfId="461"/>
-    <cellStyle name="常规 6 3 3" xfId="462"/>
-    <cellStyle name="常规 6 4" xfId="463"/>
-    <cellStyle name="常规 6 4 2" xfId="464"/>
-    <cellStyle name="常规 6 4 3" xfId="465"/>
-    <cellStyle name="常规 6 5" xfId="466"/>
-    <cellStyle name="常规 7" xfId="467"/>
-    <cellStyle name="常规 7 2" xfId="468"/>
-    <cellStyle name="常规 7 2 2" xfId="469"/>
-    <cellStyle name="常规 7 2 2 2" xfId="470"/>
-    <cellStyle name="常规 7 2 2 3" xfId="471"/>
-    <cellStyle name="常规 7 2 3" xfId="472"/>
-    <cellStyle name="常规 7 3" xfId="473"/>
-    <cellStyle name="常规 7 3 2" xfId="474"/>
-    <cellStyle name="常规 7 3 3" xfId="475"/>
-    <cellStyle name="常规 7 4" xfId="476"/>
-    <cellStyle name="常规 8" xfId="477"/>
-    <cellStyle name="常规 8 2" xfId="478"/>
-    <cellStyle name="常规 8 2 2" xfId="479"/>
-    <cellStyle name="常规 8 2 3" xfId="480"/>
-    <cellStyle name="常规 8 3" xfId="481"/>
-    <cellStyle name="常规 9" xfId="482"/>
-    <cellStyle name="常规 9 2" xfId="483"/>
-    <cellStyle name="常规 9 3" xfId="484"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 10" xfId="49"/>
+    <cellStyle name="常规 11" xfId="50"/>
+    <cellStyle name="常规 12" xfId="51"/>
+    <cellStyle name="常规 13" xfId="52"/>
+    <cellStyle name="常规 2" xfId="53"/>
+    <cellStyle name="常规 2 10" xfId="54"/>
+    <cellStyle name="常规 2 11" xfId="55"/>
+    <cellStyle name="常规 2 2" xfId="56"/>
+    <cellStyle name="常规 2 2 2" xfId="57"/>
+    <cellStyle name="常规 2 2 2 2" xfId="58"/>
+    <cellStyle name="常规 2 2 2 2 2" xfId="59"/>
+    <cellStyle name="常规 2 2 2 2 2 2" xfId="60"/>
+    <cellStyle name="常规 2 2 2 2 2 2 2" xfId="61"/>
+    <cellStyle name="常规 2 2 2 2 2 2 2 2" xfId="62"/>
+    <cellStyle name="常规 2 2 2 2 2 2 2 3" xfId="63"/>
+    <cellStyle name="常规 2 2 2 2 2 2 3" xfId="64"/>
+    <cellStyle name="常规 2 2 2 2 2 3" xfId="65"/>
+    <cellStyle name="常规 2 2 2 2 2 3 2" xfId="66"/>
+    <cellStyle name="常规 2 2 2 2 2 3 3" xfId="67"/>
+    <cellStyle name="常规 2 2 2 2 2 4" xfId="68"/>
+    <cellStyle name="常规 2 2 2 2 3" xfId="69"/>
+    <cellStyle name="常规 2 2 2 2 3 2" xfId="70"/>
+    <cellStyle name="常规 2 2 2 2 3 2 2" xfId="71"/>
+    <cellStyle name="常规 2 2 2 2 3 2 3" xfId="72"/>
+    <cellStyle name="常规 2 2 2 2 3 3" xfId="73"/>
+    <cellStyle name="常规 2 2 2 2 4" xfId="74"/>
+    <cellStyle name="常规 2 2 2 2 4 2" xfId="75"/>
+    <cellStyle name="常规 2 2 2 2 4 3" xfId="76"/>
+    <cellStyle name="常规 2 2 2 2 5" xfId="77"/>
+    <cellStyle name="常规 2 2 2 3" xfId="78"/>
+    <cellStyle name="常规 2 2 2 3 2" xfId="79"/>
+    <cellStyle name="常规 2 2 2 3 2 2" xfId="80"/>
+    <cellStyle name="常规 2 2 2 3 2 2 2" xfId="81"/>
+    <cellStyle name="常规 2 2 2 3 2 2 3" xfId="82"/>
+    <cellStyle name="常规 2 2 2 3 2 3" xfId="83"/>
+    <cellStyle name="常规 2 2 2 3 3" xfId="84"/>
+    <cellStyle name="常规 2 2 2 3 3 2" xfId="85"/>
+    <cellStyle name="常规 2 2 2 3 3 3" xfId="86"/>
+    <cellStyle name="常规 2 2 2 3 4" xfId="87"/>
+    <cellStyle name="常规 2 2 2 4" xfId="88"/>
+    <cellStyle name="常规 2 2 2 4 2" xfId="89"/>
+    <cellStyle name="常规 2 2 2 4 2 2" xfId="90"/>
+    <cellStyle name="常规 2 2 2 4 2 3" xfId="91"/>
+    <cellStyle name="常规 2 2 2 4 3" xfId="92"/>
+    <cellStyle name="常规 2 2 2 5" xfId="93"/>
+    <cellStyle name="常规 2 2 2 5 2" xfId="94"/>
+    <cellStyle name="常规 2 2 2 5 3" xfId="95"/>
+    <cellStyle name="常规 2 2 2 6" xfId="96"/>
+    <cellStyle name="常规 2 2 3" xfId="97"/>
+    <cellStyle name="常规 2 2 3 2" xfId="98"/>
+    <cellStyle name="常规 2 2 3 2 2" xfId="99"/>
+    <cellStyle name="常规 2 2 3 2 2 2" xfId="100"/>
+    <cellStyle name="常规 2 2 3 2 2 2 2" xfId="101"/>
+    <cellStyle name="常规 2 2 3 2 2 2 3" xfId="102"/>
+    <cellStyle name="常规 2 2 3 2 2 3" xfId="103"/>
+    <cellStyle name="常规 2 2 3 2 3" xfId="104"/>
+    <cellStyle name="常规 2 2 3 2 3 2" xfId="105"/>
+    <cellStyle name="常规 2 2 3 2 3 3" xfId="106"/>
+    <cellStyle name="常规 2 2 3 2 4" xfId="107"/>
+    <cellStyle name="常规 2 2 3 3" xfId="108"/>
+    <cellStyle name="常规 2 2 3 3 2" xfId="109"/>
+    <cellStyle name="常规 2 2 3 3 2 2" xfId="110"/>
+    <cellStyle name="常规 2 2 3 3 2 3" xfId="111"/>
+    <cellStyle name="常规 2 2 3 3 3" xfId="112"/>
+    <cellStyle name="常规 2 2 3 4" xfId="113"/>
+    <cellStyle name="常规 2 2 3 4 2" xfId="114"/>
+    <cellStyle name="常规 2 2 3 4 3" xfId="115"/>
+    <cellStyle name="常规 2 2 3 5" xfId="116"/>
+    <cellStyle name="常规 2 2 4" xfId="117"/>
+    <cellStyle name="常规 2 2 4 2" xfId="118"/>
+    <cellStyle name="常规 2 2 4 2 2" xfId="119"/>
+    <cellStyle name="常规 2 2 4 2 2 2" xfId="120"/>
+    <cellStyle name="常规 2 2 4 2 2 3" xfId="121"/>
+    <cellStyle name="常规 2 2 4 2 3" xfId="122"/>
+    <cellStyle name="常规 2 2 4 3" xfId="123"/>
+    <cellStyle name="常规 2 2 4 3 2" xfId="124"/>
+    <cellStyle name="常规 2 2 4 3 3" xfId="125"/>
+    <cellStyle name="常规 2 2 4 4" xfId="126"/>
+    <cellStyle name="常规 2 2 5" xfId="127"/>
+    <cellStyle name="常规 2 2 5 2" xfId="128"/>
+    <cellStyle name="常规 2 2 5 2 2" xfId="129"/>
+    <cellStyle name="常规 2 2 5 2 3" xfId="130"/>
+    <cellStyle name="常规 2 2 5 3" xfId="131"/>
+    <cellStyle name="常规 2 2 6" xfId="132"/>
+    <cellStyle name="常规 2 2 6 2" xfId="133"/>
+    <cellStyle name="常规 2 2 6 3" xfId="134"/>
+    <cellStyle name="常规 2 2 7" xfId="135"/>
+    <cellStyle name="常规 2 3" xfId="136"/>
+    <cellStyle name="常规 2 3 2" xfId="137"/>
+    <cellStyle name="常规 2 3 2 2" xfId="138"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="139"/>
+    <cellStyle name="常规 2 3 2 2 2 2" xfId="140"/>
+    <cellStyle name="常规 2 3 2 2 2 2 2" xfId="141"/>
+    <cellStyle name="常规 2 3 2 2 2 2 2 2" xfId="142"/>
+    <cellStyle name="常规 2 3 2 2 2 2 2 3" xfId="143"/>
+    <cellStyle name="常规 2 3 2 2 2 2 3" xfId="144"/>
+    <cellStyle name="常规 2 3 2 2 2 3" xfId="145"/>
+    <cellStyle name="常规 2 3 2 2 2 3 2" xfId="146"/>
+    <cellStyle name="常规 2 3 2 2 2 3 3" xfId="147"/>
+    <cellStyle name="常规 2 3 2 2 2 4" xfId="148"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="149"/>
+    <cellStyle name="常规 2 3 2 2 3 2" xfId="150"/>
+    <cellStyle name="常规 2 3 2 2 3 2 2" xfId="151"/>
+    <cellStyle name="常规 2 3 2 2 3 2 3" xfId="152"/>
+    <cellStyle name="常规 2 3 2 2 3 3" xfId="153"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="154"/>
+    <cellStyle name="常规 2 3 2 2 4 2" xfId="155"/>
+    <cellStyle name="常规 2 3 2 2 4 3" xfId="156"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="157"/>
+    <cellStyle name="常规 2 3 2 3" xfId="158"/>
+    <cellStyle name="常规 2 3 2 3 2" xfId="159"/>
+    <cellStyle name="常规 2 3 2 3 2 2" xfId="160"/>
+    <cellStyle name="常规 2 3 2 3 2 2 2" xfId="161"/>
+    <cellStyle name="常规 2 3 2 3 2 2 3" xfId="162"/>
+    <cellStyle name="常规 2 3 2 3 2 3" xfId="163"/>
+    <cellStyle name="常规 2 3 2 3 3" xfId="164"/>
+    <cellStyle name="常规 2 3 2 3 3 2" xfId="165"/>
+    <cellStyle name="常规 2 3 2 3 3 3" xfId="166"/>
+    <cellStyle name="常规 2 3 2 3 4" xfId="167"/>
+    <cellStyle name="常规 2 3 2 4" xfId="168"/>
+    <cellStyle name="常规 2 3 2 4 2" xfId="169"/>
+    <cellStyle name="常规 2 3 2 4 2 2" xfId="170"/>
+    <cellStyle name="常规 2 3 2 4 2 3" xfId="171"/>
+    <cellStyle name="常规 2 3 2 4 3" xfId="172"/>
+    <cellStyle name="常规 2 3 2 5" xfId="173"/>
+    <cellStyle name="常规 2 3 2 5 2" xfId="174"/>
+    <cellStyle name="常规 2 3 2 5 3" xfId="175"/>
+    <cellStyle name="常规 2 3 2 6" xfId="176"/>
+    <cellStyle name="常规 2 3 3" xfId="177"/>
+    <cellStyle name="常规 2 3 3 2" xfId="178"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="179"/>
+    <cellStyle name="常规 2 3 3 2 2 2" xfId="180"/>
+    <cellStyle name="常规 2 3 3 2 2 2 2" xfId="181"/>
+    <cellStyle name="常规 2 3 3 2 2 2 3" xfId="182"/>
+    <cellStyle name="常规 2 3 3 2 2 3" xfId="183"/>
+    <cellStyle name="常规 2 3 3 2 3" xfId="184"/>
+    <cellStyle name="常规 2 3 3 2 3 2" xfId="185"/>
+    <cellStyle name="常规 2 3 3 2 3 3" xfId="186"/>
+    <cellStyle name="常规 2 3 3 2 4" xfId="187"/>
+    <cellStyle name="常规 2 3 3 3" xfId="188"/>
+    <cellStyle name="常规 2 3 3 3 2" xfId="189"/>
+    <cellStyle name="常规 2 3 3 3 2 2" xfId="190"/>
+    <cellStyle name="常规 2 3 3 3 2 3" xfId="191"/>
+    <cellStyle name="常规 2 3 3 3 3" xfId="192"/>
+    <cellStyle name="常规 2 3 3 4" xfId="193"/>
+    <cellStyle name="常规 2 3 3 4 2" xfId="194"/>
+    <cellStyle name="常规 2 3 3 4 3" xfId="195"/>
+    <cellStyle name="常规 2 3 3 5" xfId="196"/>
+    <cellStyle name="常规 2 3 4" xfId="197"/>
+    <cellStyle name="常规 2 3 4 2" xfId="198"/>
+    <cellStyle name="常规 2 3 4 2 2" xfId="199"/>
+    <cellStyle name="常规 2 3 4 2 2 2" xfId="200"/>
+    <cellStyle name="常规 2 3 4 2 2 3" xfId="201"/>
+    <cellStyle name="常规 2 3 4 2 3" xfId="202"/>
+    <cellStyle name="常规 2 3 4 3" xfId="203"/>
+    <cellStyle name="常规 2 3 4 3 2" xfId="204"/>
+    <cellStyle name="常规 2 3 4 3 3" xfId="205"/>
+    <cellStyle name="常规 2 3 4 4" xfId="206"/>
+    <cellStyle name="常规 2 3 5" xfId="207"/>
+    <cellStyle name="常规 2 3 5 2" xfId="208"/>
+    <cellStyle name="常规 2 3 5 2 2" xfId="209"/>
+    <cellStyle name="常规 2 3 5 2 3" xfId="210"/>
+    <cellStyle name="常规 2 3 5 3" xfId="211"/>
+    <cellStyle name="常规 2 3 6" xfId="212"/>
+    <cellStyle name="常规 2 3 6 2" xfId="213"/>
+    <cellStyle name="常规 2 3 6 3" xfId="214"/>
+    <cellStyle name="常规 2 3 7" xfId="215"/>
+    <cellStyle name="常规 2 4" xfId="216"/>
+    <cellStyle name="常规 2 4 2" xfId="217"/>
+    <cellStyle name="常规 2 4 2 2" xfId="218"/>
+    <cellStyle name="常规 2 4 2 2 2" xfId="219"/>
+    <cellStyle name="常规 2 4 2 2 2 2" xfId="220"/>
+    <cellStyle name="常规 2 4 2 2 2 2 2" xfId="221"/>
+    <cellStyle name="常规 2 4 2 2 2 2 3" xfId="222"/>
+    <cellStyle name="常规 2 4 2 2 2 3" xfId="223"/>
+    <cellStyle name="常规 2 4 2 2 3" xfId="224"/>
+    <cellStyle name="常规 2 4 2 2 3 2" xfId="225"/>
+    <cellStyle name="常规 2 4 2 2 3 3" xfId="226"/>
+    <cellStyle name="常规 2 4 2 2 4" xfId="227"/>
+    <cellStyle name="常规 2 4 2 3" xfId="228"/>
+    <cellStyle name="常规 2 4 2 3 2" xfId="229"/>
+    <cellStyle name="常规 2 4 2 3 2 2" xfId="230"/>
+    <cellStyle name="常规 2 4 2 3 2 3" xfId="231"/>
+    <cellStyle name="常规 2 4 2 3 3" xfId="232"/>
+    <cellStyle name="常规 2 4 2 4" xfId="233"/>
+    <cellStyle name="常规 2 4 2 4 2" xfId="234"/>
+    <cellStyle name="常规 2 4 2 4 3" xfId="235"/>
+    <cellStyle name="常规 2 4 2 5" xfId="236"/>
+    <cellStyle name="常规 2 4 3" xfId="237"/>
+    <cellStyle name="常规 2 4 3 2" xfId="238"/>
+    <cellStyle name="常规 2 4 3 2 2" xfId="239"/>
+    <cellStyle name="常规 2 4 3 2 2 2" xfId="240"/>
+    <cellStyle name="常规 2 4 3 2 2 3" xfId="241"/>
+    <cellStyle name="常规 2 4 3 2 3" xfId="242"/>
+    <cellStyle name="常规 2 4 3 3" xfId="243"/>
+    <cellStyle name="常规 2 4 3 3 2" xfId="244"/>
+    <cellStyle name="常规 2 4 3 3 3" xfId="245"/>
+    <cellStyle name="常规 2 4 3 4" xfId="246"/>
+    <cellStyle name="常规 2 4 4" xfId="247"/>
+    <cellStyle name="常规 2 4 4 2" xfId="248"/>
+    <cellStyle name="常规 2 4 4 2 2" xfId="249"/>
+    <cellStyle name="常规 2 4 4 2 3" xfId="250"/>
+    <cellStyle name="常规 2 4 4 3" xfId="251"/>
+    <cellStyle name="常规 2 4 5" xfId="252"/>
+    <cellStyle name="常规 2 4 5 2" xfId="253"/>
+    <cellStyle name="常规 2 4 5 3" xfId="254"/>
+    <cellStyle name="常规 2 4 6" xfId="255"/>
+    <cellStyle name="常规 2 5" xfId="256"/>
+    <cellStyle name="常规 2 5 2" xfId="257"/>
+    <cellStyle name="常规 2 5 2 2" xfId="258"/>
+    <cellStyle name="常规 2 5 2 2 2" xfId="259"/>
+    <cellStyle name="常规 2 5 2 2 2 2" xfId="260"/>
+    <cellStyle name="常规 2 5 2 2 2 3" xfId="261"/>
+    <cellStyle name="常规 2 5 2 2 3" xfId="262"/>
+    <cellStyle name="常规 2 5 2 3" xfId="263"/>
+    <cellStyle name="常规 2 5 2 3 2" xfId="264"/>
+    <cellStyle name="常规 2 5 2 3 3" xfId="265"/>
+    <cellStyle name="常规 2 5 2 4" xfId="266"/>
+    <cellStyle name="常规 2 5 3" xfId="267"/>
+    <cellStyle name="常规 2 5 3 2" xfId="268"/>
+    <cellStyle name="常规 2 5 3 2 2" xfId="269"/>
+    <cellStyle name="常规 2 5 3 2 3" xfId="270"/>
+    <cellStyle name="常规 2 5 3 3" xfId="271"/>
+    <cellStyle name="常规 2 5 4" xfId="272"/>
+    <cellStyle name="常规 2 5 4 2" xfId="273"/>
+    <cellStyle name="常规 2 5 4 3" xfId="274"/>
+    <cellStyle name="常规 2 5 5" xfId="275"/>
+    <cellStyle name="常规 2 6" xfId="276"/>
+    <cellStyle name="常规 2 6 2" xfId="277"/>
+    <cellStyle name="常规 2 6 2 2" xfId="278"/>
+    <cellStyle name="常规 2 6 2 2 2" xfId="279"/>
+    <cellStyle name="常规 2 6 2 2 3" xfId="280"/>
+    <cellStyle name="常规 2 6 2 3" xfId="281"/>
+    <cellStyle name="常规 2 6 3" xfId="282"/>
+    <cellStyle name="常规 2 6 3 2" xfId="283"/>
+    <cellStyle name="常规 2 6 3 3" xfId="284"/>
+    <cellStyle name="常规 2 6 4" xfId="285"/>
+    <cellStyle name="常规 2 7" xfId="286"/>
+    <cellStyle name="常规 2 7 2" xfId="287"/>
+    <cellStyle name="常规 2 7 2 2" xfId="288"/>
+    <cellStyle name="常规 2 7 2 3" xfId="289"/>
+    <cellStyle name="常规 2 7 3" xfId="290"/>
+    <cellStyle name="常规 2 8" xfId="291"/>
+    <cellStyle name="常规 2 8 2" xfId="292"/>
+    <cellStyle name="常规 2 8 3" xfId="293"/>
+    <cellStyle name="常规 2 9" xfId="294"/>
+    <cellStyle name="常规 3" xfId="295"/>
+    <cellStyle name="常规 3 2" xfId="296"/>
+    <cellStyle name="常规 3 2 2" xfId="297"/>
+    <cellStyle name="常规 3 2 2 2" xfId="298"/>
+    <cellStyle name="常规 3 2 2 2 2" xfId="299"/>
+    <cellStyle name="常规 3 2 2 2 2 2" xfId="300"/>
+    <cellStyle name="常规 3 2 2 2 2 2 2" xfId="301"/>
+    <cellStyle name="常规 3 2 2 2 2 2 3" xfId="302"/>
+    <cellStyle name="常规 3 2 2 2 2 3" xfId="303"/>
+    <cellStyle name="常规 3 2 2 2 3" xfId="304"/>
+    <cellStyle name="常规 3 2 2 2 3 2" xfId="305"/>
+    <cellStyle name="常规 3 2 2 2 3 3" xfId="306"/>
+    <cellStyle name="常规 3 2 2 2 4" xfId="307"/>
+    <cellStyle name="常规 3 2 2 3" xfId="308"/>
+    <cellStyle name="常规 3 2 2 3 2" xfId="309"/>
+    <cellStyle name="常规 3 2 2 3 2 2" xfId="310"/>
+    <cellStyle name="常规 3 2 2 3 2 3" xfId="311"/>
+    <cellStyle name="常规 3 2 2 3 3" xfId="312"/>
+    <cellStyle name="常规 3 2 2 4" xfId="313"/>
+    <cellStyle name="常规 3 2 2 4 2" xfId="314"/>
+    <cellStyle name="常规 3 2 2 4 3" xfId="315"/>
+    <cellStyle name="常规 3 2 2 5" xfId="316"/>
+    <cellStyle name="常规 3 2 3" xfId="317"/>
+    <cellStyle name="常规 3 2 3 2" xfId="318"/>
+    <cellStyle name="常规 3 2 3 2 2" xfId="319"/>
+    <cellStyle name="常规 3 2 3 2 2 2" xfId="320"/>
+    <cellStyle name="常规 3 2 3 2 2 3" xfId="321"/>
+    <cellStyle name="常规 3 2 3 2 3" xfId="322"/>
+    <cellStyle name="常规 3 2 3 3" xfId="323"/>
+    <cellStyle name="常规 3 2 3 3 2" xfId="324"/>
+    <cellStyle name="常规 3 2 3 3 3" xfId="325"/>
+    <cellStyle name="常规 3 2 3 4" xfId="326"/>
+    <cellStyle name="常规 3 2 4" xfId="327"/>
+    <cellStyle name="常规 3 2 4 2" xfId="328"/>
+    <cellStyle name="常规 3 2 4 2 2" xfId="329"/>
+    <cellStyle name="常规 3 2 4 2 3" xfId="330"/>
+    <cellStyle name="常规 3 2 4 3" xfId="331"/>
+    <cellStyle name="常规 3 2 5" xfId="332"/>
+    <cellStyle name="常规 3 2 5 2" xfId="333"/>
+    <cellStyle name="常规 3 2 5 3" xfId="334"/>
+    <cellStyle name="常规 3 2 6" xfId="335"/>
+    <cellStyle name="常规 3 3" xfId="336"/>
+    <cellStyle name="常规 3 3 2" xfId="337"/>
+    <cellStyle name="常规 3 3 2 2" xfId="338"/>
+    <cellStyle name="常规 3 3 2 2 2" xfId="339"/>
+    <cellStyle name="常规 3 3 2 2 2 2" xfId="340"/>
+    <cellStyle name="常规 3 3 2 2 2 3" xfId="341"/>
+    <cellStyle name="常规 3 3 2 2 3" xfId="342"/>
+    <cellStyle name="常规 3 3 2 3" xfId="343"/>
+    <cellStyle name="常规 3 3 2 3 2" xfId="344"/>
+    <cellStyle name="常规 3 3 2 3 3" xfId="345"/>
+    <cellStyle name="常规 3 3 2 4" xfId="346"/>
+    <cellStyle name="常规 3 3 3" xfId="347"/>
+    <cellStyle name="常规 3 3 3 2" xfId="348"/>
+    <cellStyle name="常规 3 3 3 2 2" xfId="349"/>
+    <cellStyle name="常规 3 3 3 2 3" xfId="350"/>
+    <cellStyle name="常规 3 3 3 3" xfId="351"/>
+    <cellStyle name="常规 3 3 4" xfId="352"/>
+    <cellStyle name="常规 3 3 4 2" xfId="353"/>
+    <cellStyle name="常规 3 3 4 3" xfId="354"/>
+    <cellStyle name="常规 3 3 5" xfId="355"/>
+    <cellStyle name="常规 3 4" xfId="356"/>
+    <cellStyle name="常规 3 4 2" xfId="357"/>
+    <cellStyle name="常规 3 4 2 2" xfId="358"/>
+    <cellStyle name="常规 3 4 2 2 2" xfId="359"/>
+    <cellStyle name="常规 3 4 2 2 3" xfId="360"/>
+    <cellStyle name="常规 3 4 2 3" xfId="361"/>
+    <cellStyle name="常规 3 4 3" xfId="362"/>
+    <cellStyle name="常规 3 4 3 2" xfId="363"/>
+    <cellStyle name="常规 3 4 3 3" xfId="364"/>
+    <cellStyle name="常规 3 4 4" xfId="365"/>
+    <cellStyle name="常规 3 5" xfId="366"/>
+    <cellStyle name="常规 3 5 2" xfId="367"/>
+    <cellStyle name="常规 3 5 2 2" xfId="368"/>
+    <cellStyle name="常规 3 5 2 3" xfId="369"/>
+    <cellStyle name="常规 3 5 3" xfId="370"/>
+    <cellStyle name="常规 3 6" xfId="371"/>
+    <cellStyle name="常规 3 6 2" xfId="372"/>
+    <cellStyle name="常规 3 6 3" xfId="373"/>
+    <cellStyle name="常规 3 7" xfId="374"/>
+    <cellStyle name="常规 4" xfId="375"/>
+    <cellStyle name="常规 4 2" xfId="376"/>
+    <cellStyle name="常规 4 2 2" xfId="377"/>
+    <cellStyle name="常规 4 2 2 2" xfId="378"/>
+    <cellStyle name="常规 4 2 2 2 2" xfId="379"/>
+    <cellStyle name="常规 4 2 2 2 2 2" xfId="380"/>
+    <cellStyle name="常规 4 2 2 2 2 2 2" xfId="381"/>
+    <cellStyle name="常规 4 2 2 2 2 2 3" xfId="382"/>
+    <cellStyle name="常规 4 2 2 2 2 3" xfId="383"/>
+    <cellStyle name="常规 4 2 2 2 3" xfId="384"/>
+    <cellStyle name="常规 4 2 2 2 3 2" xfId="385"/>
+    <cellStyle name="常规 4 2 2 2 3 3" xfId="386"/>
+    <cellStyle name="常规 4 2 2 2 4" xfId="387"/>
+    <cellStyle name="常规 4 2 2 3" xfId="388"/>
+    <cellStyle name="常规 4 2 2 3 2" xfId="389"/>
+    <cellStyle name="常规 4 2 2 3 2 2" xfId="390"/>
+    <cellStyle name="常规 4 2 2 3 2 3" xfId="391"/>
+    <cellStyle name="常规 4 2 2 3 3" xfId="392"/>
+    <cellStyle name="常规 4 2 2 4" xfId="393"/>
+    <cellStyle name="常规 4 2 2 4 2" xfId="394"/>
+    <cellStyle name="常规 4 2 2 4 3" xfId="395"/>
+    <cellStyle name="常规 4 2 2 5" xfId="396"/>
+    <cellStyle name="常规 4 2 3" xfId="397"/>
+    <cellStyle name="常规 4 2 3 2" xfId="398"/>
+    <cellStyle name="常规 4 2 3 2 2" xfId="399"/>
+    <cellStyle name="常规 4 2 3 2 2 2" xfId="400"/>
+    <cellStyle name="常规 4 2 3 2 2 3" xfId="401"/>
+    <cellStyle name="常规 4 2 3 2 3" xfId="402"/>
+    <cellStyle name="常规 4 2 3 3" xfId="403"/>
+    <cellStyle name="常规 4 2 3 3 2" xfId="404"/>
+    <cellStyle name="常规 4 2 3 3 3" xfId="405"/>
+    <cellStyle name="常规 4 2 3 4" xfId="406"/>
+    <cellStyle name="常规 4 2 4" xfId="407"/>
+    <cellStyle name="常规 4 2 4 2" xfId="408"/>
+    <cellStyle name="常规 4 2 4 2 2" xfId="409"/>
+    <cellStyle name="常规 4 2 4 2 3" xfId="410"/>
+    <cellStyle name="常规 4 2 4 3" xfId="411"/>
+    <cellStyle name="常规 4 2 5" xfId="412"/>
+    <cellStyle name="常规 4 2 5 2" xfId="413"/>
+    <cellStyle name="常规 4 2 5 3" xfId="414"/>
+    <cellStyle name="常规 4 2 6" xfId="415"/>
+    <cellStyle name="常规 4 3" xfId="416"/>
+    <cellStyle name="常规 4 3 2" xfId="417"/>
+    <cellStyle name="常规 4 3 2 2" xfId="418"/>
+    <cellStyle name="常规 4 3 2 2 2" xfId="419"/>
+    <cellStyle name="常规 4 3 2 2 2 2" xfId="420"/>
+    <cellStyle name="常规 4 3 2 2 2 3" xfId="421"/>
+    <cellStyle name="常规 4 3 2 2 3" xfId="422"/>
+    <cellStyle name="常规 4 3 2 3" xfId="423"/>
+    <cellStyle name="常规 4 3 2 3 2" xfId="424"/>
+    <cellStyle name="常规 4 3 2 3 3" xfId="425"/>
+    <cellStyle name="常规 4 3 2 4" xfId="426"/>
+    <cellStyle name="常规 4 3 3" xfId="427"/>
+    <cellStyle name="常规 4 3 3 2" xfId="428"/>
+    <cellStyle name="常规 4 3 3 2 2" xfId="429"/>
+    <cellStyle name="常规 4 3 3 2 3" xfId="430"/>
+    <cellStyle name="常规 4 3 3 3" xfId="431"/>
+    <cellStyle name="常规 4 3 4" xfId="432"/>
+    <cellStyle name="常规 4 3 4 2" xfId="433"/>
+    <cellStyle name="常规 4 3 4 3" xfId="434"/>
+    <cellStyle name="常规 4 3 5" xfId="435"/>
+    <cellStyle name="常规 4 4" xfId="436"/>
+    <cellStyle name="常规 4 4 2" xfId="437"/>
+    <cellStyle name="常规 4 4 2 2" xfId="438"/>
+    <cellStyle name="常规 4 4 2 2 2" xfId="439"/>
+    <cellStyle name="常规 4 4 2 2 3" xfId="440"/>
+    <cellStyle name="常规 4 4 2 3" xfId="441"/>
+    <cellStyle name="常规 4 4 3" xfId="442"/>
+    <cellStyle name="常规 4 4 3 2" xfId="443"/>
+    <cellStyle name="常规 4 4 3 3" xfId="444"/>
+    <cellStyle name="常规 4 4 4" xfId="445"/>
+    <cellStyle name="常规 4 5" xfId="446"/>
+    <cellStyle name="常规 4 5 2" xfId="447"/>
+    <cellStyle name="常规 4 5 2 2" xfId="448"/>
+    <cellStyle name="常规 4 5 2 3" xfId="449"/>
+    <cellStyle name="常规 4 5 3" xfId="450"/>
+    <cellStyle name="常规 4 6" xfId="451"/>
+    <cellStyle name="常规 4 6 2" xfId="452"/>
+    <cellStyle name="常规 4 6 3" xfId="453"/>
+    <cellStyle name="常规 4 7" xfId="454"/>
+    <cellStyle name="常规 5" xfId="455"/>
+    <cellStyle name="常规 5 2" xfId="456"/>
+    <cellStyle name="常规 5 2 2" xfId="457"/>
+    <cellStyle name="常规 5 2 2 2" xfId="458"/>
+    <cellStyle name="常规 5 2 2 2 2" xfId="459"/>
+    <cellStyle name="常规 5 2 2 2 2 2" xfId="460"/>
+    <cellStyle name="常规 5 2 2 2 2 3" xfId="461"/>
+    <cellStyle name="常规 5 2 2 2 3" xfId="462"/>
+    <cellStyle name="常规 5 2 2 3" xfId="463"/>
+    <cellStyle name="常规 5 2 2 3 2" xfId="464"/>
+    <cellStyle name="常规 5 2 2 3 3" xfId="465"/>
+    <cellStyle name="常规 5 2 2 4" xfId="466"/>
+    <cellStyle name="常规 5 2 3" xfId="467"/>
+    <cellStyle name="常规 5 2 3 2" xfId="468"/>
+    <cellStyle name="常规 5 2 3 2 2" xfId="469"/>
+    <cellStyle name="常规 5 2 3 2 3" xfId="470"/>
+    <cellStyle name="常规 5 2 3 3" xfId="471"/>
+    <cellStyle name="常规 5 2 4" xfId="472"/>
+    <cellStyle name="常规 5 2 4 2" xfId="473"/>
+    <cellStyle name="常规 5 2 4 3" xfId="474"/>
+    <cellStyle name="常规 5 2 5" xfId="475"/>
+    <cellStyle name="常规 5 3" xfId="476"/>
+    <cellStyle name="常规 5 3 2" xfId="477"/>
+    <cellStyle name="常规 5 3 2 2" xfId="478"/>
+    <cellStyle name="常规 5 3 2 2 2" xfId="479"/>
+    <cellStyle name="常规 5 3 2 2 3" xfId="480"/>
+    <cellStyle name="常规 5 3 2 3" xfId="481"/>
+    <cellStyle name="常规 5 3 3" xfId="482"/>
+    <cellStyle name="常规 5 3 3 2" xfId="483"/>
+    <cellStyle name="常规 5 3 3 3" xfId="484"/>
+    <cellStyle name="常规 5 3 4" xfId="485"/>
+    <cellStyle name="常规 5 4" xfId="486"/>
+    <cellStyle name="常规 5 4 2" xfId="487"/>
+    <cellStyle name="常规 5 4 2 2" xfId="488"/>
+    <cellStyle name="常规 5 4 2 3" xfId="489"/>
+    <cellStyle name="常规 5 4 3" xfId="490"/>
+    <cellStyle name="常规 5 5" xfId="491"/>
+    <cellStyle name="常规 5 5 2" xfId="492"/>
+    <cellStyle name="常规 5 5 3" xfId="493"/>
+    <cellStyle name="常规 5 6" xfId="494"/>
+    <cellStyle name="常规 6" xfId="495"/>
+    <cellStyle name="常规 6 2" xfId="496"/>
+    <cellStyle name="常规 6 2 2" xfId="497"/>
+    <cellStyle name="常规 6 2 2 2" xfId="498"/>
+    <cellStyle name="常规 6 2 2 2 2" xfId="499"/>
+    <cellStyle name="常规 6 2 2 2 3" xfId="500"/>
+    <cellStyle name="常规 6 2 2 3" xfId="501"/>
+    <cellStyle name="常规 6 2 3" xfId="502"/>
+    <cellStyle name="常规 6 2 3 2" xfId="503"/>
+    <cellStyle name="常规 6 2 3 3" xfId="504"/>
+    <cellStyle name="常规 6 2 4" xfId="505"/>
+    <cellStyle name="常规 6 3" xfId="506"/>
+    <cellStyle name="常规 6 3 2" xfId="507"/>
+    <cellStyle name="常规 6 3 2 2" xfId="508"/>
+    <cellStyle name="常规 6 3 2 3" xfId="509"/>
+    <cellStyle name="常规 6 3 3" xfId="510"/>
+    <cellStyle name="常规 6 4" xfId="511"/>
+    <cellStyle name="常规 6 4 2" xfId="512"/>
+    <cellStyle name="常规 6 4 3" xfId="513"/>
+    <cellStyle name="常规 6 5" xfId="514"/>
+    <cellStyle name="常规 7" xfId="515"/>
+    <cellStyle name="常规 7 2" xfId="516"/>
+    <cellStyle name="常规 7 2 2" xfId="517"/>
+    <cellStyle name="常规 7 2 2 2" xfId="518"/>
+    <cellStyle name="常规 7 2 2 3" xfId="519"/>
+    <cellStyle name="常规 7 2 3" xfId="520"/>
+    <cellStyle name="常规 7 3" xfId="521"/>
+    <cellStyle name="常规 7 3 2" xfId="522"/>
+    <cellStyle name="常规 7 3 3" xfId="523"/>
+    <cellStyle name="常规 7 4" xfId="524"/>
+    <cellStyle name="常规 8" xfId="525"/>
+    <cellStyle name="常规 8 2" xfId="526"/>
+    <cellStyle name="常规 8 2 2" xfId="527"/>
+    <cellStyle name="常规 8 2 3" xfId="528"/>
+    <cellStyle name="常规 8 3" xfId="529"/>
+    <cellStyle name="常规 9" xfId="530"/>
+    <cellStyle name="常规 9 2" xfId="531"/>
+    <cellStyle name="常规 9 3" xfId="532"/>
   </cellStyles>
-  <dxfs count="39">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1728,9 +1960,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2017,22 +2246,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G243"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="8.125" style="5" customWidth="1"/>
     <col min="2" max="2" width="56.875" style="6" customWidth="1"/>
@@ -2044,7 +2274,7 @@
     <col min="8" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2067,7 +2297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -2090,7 +2320,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" spans="1:7">
       <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
@@ -2113,7 +2343,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" s="3" customFormat="1" spans="1:6">
       <c r="A4" s="13"/>
       <c r="B4" s="14" t="s">
         <v>20</v>
@@ -2129,7 +2359,7 @@
       </c>
       <c r="F4" s="14"/>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" s="3" customFormat="1" spans="1:6">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
@@ -2147,7 +2377,7 @@
       </c>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" s="3" customFormat="1" spans="1:7">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -2166,7 +2396,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" s="3" customFormat="1" spans="1:7">
       <c r="A7" s="13"/>
       <c r="B7" s="14" t="s">
         <v>29</v>
@@ -2183,7 +2413,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" s="3" customFormat="1" spans="1:6">
       <c r="A8" s="13"/>
       <c r="B8" s="14" t="s">
         <v>32</v>
@@ -2199,7 +2429,7 @@
       </c>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" s="3" customFormat="1" spans="1:6">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -2207,7 +2437,7 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" s="4" customFormat="1" spans="1:6">
       <c r="A10" s="15" t="s">
         <v>13</v>
       </c>
@@ -2219,7 +2449,7 @@
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" s="3" customFormat="1" spans="1:7">
       <c r="A11" s="13"/>
       <c r="B11" s="14" t="s">
         <v>35</v>
@@ -2232,19 +2462,19 @@
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="24">
-        <v>200201202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:7">
       <c r="A12" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>27</v>
@@ -2255,7 +2485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" s="3" customFormat="1" spans="1:6">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -2263,25 +2493,25 @@
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" s="4" customFormat="1" spans="1:6">
       <c r="A14" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" s="3" customFormat="1" spans="1:6">
       <c r="A15" s="13"/>
       <c r="B15" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>22</v>
@@ -2291,7 +2521,7 @@
       </c>
       <c r="F15" s="14"/>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" s="3" customFormat="1" spans="1:6">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -2299,7 +2529,7 @@
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
     </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" s="3" customFormat="1" spans="1:6">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -2307,7 +2537,7 @@
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
     </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" s="3" customFormat="1" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -2315,7 +2545,7 @@
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" s="3" customFormat="1" spans="1:6">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -2323,7 +2553,7 @@
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" s="3" customFormat="1" spans="1:6">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -2331,7 +2561,7 @@
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" s="3" customFormat="1" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -2339,7 +2569,7 @@
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
     </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" s="3" customFormat="1" spans="1:6">
       <c r="A22" s="13"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -2347,7 +2577,7 @@
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
     </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" s="3" customFormat="1" spans="1:6">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -2355,7 +2585,7 @@
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
     </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" s="3" customFormat="1" spans="1:6">
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -2363,7 +2593,7 @@
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" s="3" customFormat="1" spans="1:6">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -2371,7 +2601,7 @@
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
     </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" s="3" customFormat="1" spans="1:6">
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -2379,7 +2609,7 @@
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
     </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" s="3" customFormat="1" spans="1:6">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -2387,7 +2617,7 @@
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
     </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" s="3" customFormat="1" spans="1:6">
       <c r="A28" s="13"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -2395,7 +2625,7 @@
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
     </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" s="3" customFormat="1" spans="1:6">
       <c r="A29" s="13"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -2403,7 +2633,7 @@
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
     </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" s="3" customFormat="1" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -2411,7 +2641,7 @@
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
     </row>
-    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" s="3" customFormat="1" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -2419,7 +2649,7 @@
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
     </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" s="3" customFormat="1" spans="1:6">
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -2427,7 +2657,7 @@
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
     </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" s="3" customFormat="1" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -2435,7 +2665,7 @@
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
     </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" s="3" customFormat="1" spans="1:6">
       <c r="A34" s="13"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -2443,7 +2673,7 @@
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
     </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" s="3" customFormat="1" spans="1:6">
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -2451,7 +2681,7 @@
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
     </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" s="3" customFormat="1" spans="1:6">
       <c r="A36" s="13"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -2459,7 +2689,7 @@
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" s="3" customFormat="1" spans="1:6">
       <c r="A37" s="13"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -2467,7 +2697,7 @@
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
     </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" s="3" customFormat="1" spans="1:6">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -2475,7 +2705,7 @@
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
     </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" s="3" customFormat="1" spans="1:6">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -2483,7 +2713,7 @@
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
     </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" s="3" customFormat="1" spans="1:6">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -2491,7 +2721,7 @@
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
     </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" s="3" customFormat="1" spans="1:6">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -2499,7 +2729,7 @@
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
     </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" s="3" customFormat="1" spans="1:6">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -2507,7 +2737,7 @@
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
     </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" s="3" customFormat="1" spans="1:6">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -2515,7 +2745,7 @@
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
     </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" s="3" customFormat="1" spans="1:6">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -2523,7 +2753,7 @@
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
     </row>
-    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" s="3" customFormat="1" spans="1:6">
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -2531,7 +2761,7 @@
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
     </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" s="3" customFormat="1" spans="1:6">
       <c r="A46" s="13"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -2539,7 +2769,7 @@
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
     </row>
-    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" s="3" customFormat="1" spans="1:6">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -2547,7 +2777,7 @@
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
     </row>
-    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" s="3" customFormat="1" spans="1:6">
       <c r="A48" s="13"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -2555,7 +2785,7 @@
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
     </row>
-    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" s="3" customFormat="1" spans="1:6">
       <c r="A49" s="13"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -2563,7 +2793,7 @@
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
     </row>
-    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" s="3" customFormat="1" spans="1:6">
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -2571,7 +2801,7 @@
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
     </row>
-    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" s="3" customFormat="1" spans="1:6">
       <c r="A51" s="13"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -2579,7 +2809,7 @@
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
     </row>
-    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" s="3" customFormat="1" spans="1:6">
       <c r="A52" s="13"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -2587,7 +2817,7 @@
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
     </row>
-    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" s="3" customFormat="1" spans="1:6">
       <c r="A53" s="13"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -2595,7 +2825,7 @@
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
     </row>
-    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" s="3" customFormat="1" spans="1:6">
       <c r="A54" s="13"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -2603,7 +2833,7 @@
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
     </row>
-    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" s="3" customFormat="1" spans="1:6">
       <c r="A55" s="13"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -2611,7 +2841,7 @@
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
     </row>
-    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" s="3" customFormat="1" spans="1:6">
       <c r="A56" s="13"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -2619,7 +2849,7 @@
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
     </row>
-    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" s="3" customFormat="1" spans="1:6">
       <c r="A57" s="13"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -2627,7 +2857,7 @@
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
     </row>
-    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" s="3" customFormat="1" spans="1:6">
       <c r="A58" s="13"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -2635,7 +2865,7 @@
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
     </row>
-    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" s="3" customFormat="1" spans="1:6">
       <c r="A59" s="13"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -2643,7 +2873,7 @@
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
     </row>
-    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" s="3" customFormat="1" spans="1:6">
       <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -2651,7 +2881,7 @@
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
     </row>
-    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" s="3" customFormat="1" spans="1:6">
       <c r="A61" s="13"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -2659,7 +2889,7 @@
       <c r="E61" s="14"/>
       <c r="F61" s="14"/>
     </row>
-    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" s="3" customFormat="1" spans="1:6">
       <c r="A62" s="13"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -2667,7 +2897,7 @@
       <c r="E62" s="14"/>
       <c r="F62" s="14"/>
     </row>
-    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" s="3" customFormat="1" spans="1:6">
       <c r="A63" s="13"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -2675,7 +2905,7 @@
       <c r="E63" s="14"/>
       <c r="F63" s="14"/>
     </row>
-    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" s="3" customFormat="1" spans="1:6">
       <c r="A64" s="13"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -2683,7 +2913,7 @@
       <c r="E64" s="14"/>
       <c r="F64" s="14"/>
     </row>
-    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" s="3" customFormat="1" spans="1:6">
       <c r="A65" s="13"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -2691,7 +2921,7 @@
       <c r="E65" s="14"/>
       <c r="F65" s="14"/>
     </row>
-    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" s="3" customFormat="1" spans="1:6">
       <c r="A66" s="13"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -2699,7 +2929,7 @@
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
     </row>
-    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" s="3" customFormat="1" spans="1:6">
       <c r="A67" s="13"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -2707,7 +2937,7 @@
       <c r="E67" s="14"/>
       <c r="F67" s="14"/>
     </row>
-    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" s="3" customFormat="1" spans="1:6">
       <c r="A68" s="13"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -2715,7 +2945,7 @@
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
     </row>
-    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" s="3" customFormat="1" spans="1:6">
       <c r="A69" s="13"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -2723,7 +2953,7 @@
       <c r="E69" s="14"/>
       <c r="F69" s="14"/>
     </row>
-    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" s="3" customFormat="1" spans="1:6">
       <c r="A70" s="13"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -2731,7 +2961,7 @@
       <c r="E70" s="14"/>
       <c r="F70" s="14"/>
     </row>
-    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" s="3" customFormat="1" spans="1:6">
       <c r="A71" s="13"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -2739,7 +2969,7 @@
       <c r="E71" s="14"/>
       <c r="F71" s="14"/>
     </row>
-    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" s="3" customFormat="1" spans="1:6">
       <c r="A72" s="13"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -2747,7 +2977,7 @@
       <c r="E72" s="14"/>
       <c r="F72" s="14"/>
     </row>
-    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" s="3" customFormat="1" spans="1:6">
       <c r="A73" s="13"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -2755,7 +2985,7 @@
       <c r="E73" s="14"/>
       <c r="F73" s="14"/>
     </row>
-    <row r="74" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" s="3" customFormat="1" spans="1:6">
       <c r="A74" s="13"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -2763,7 +2993,7 @@
       <c r="E74" s="14"/>
       <c r="F74" s="14"/>
     </row>
-    <row r="75" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" s="3" customFormat="1" spans="1:6">
       <c r="A75" s="13"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -2771,169 +3001,169 @@
       <c r="E75" s="14"/>
       <c r="F75" s="14"/>
     </row>
-    <row r="76" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" s="3" customFormat="1"/>
+    <row r="77" s="3" customFormat="1" spans="2:6">
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
       <c r="D77" s="14"/>
       <c r="E77" s="14"/>
       <c r="F77" s="14"/>
     </row>
-    <row r="78" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" s="3" customFormat="1" spans="2:6">
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
       <c r="D78" s="14"/>
       <c r="E78" s="14"/>
       <c r="F78" s="14"/>
     </row>
-    <row r="79" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" s="3" customFormat="1" spans="2:6">
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
       <c r="D79" s="14"/>
       <c r="E79" s="14"/>
       <c r="F79" s="14"/>
     </row>
-    <row r="80" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" s="3" customFormat="1" spans="2:6">
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
       <c r="F80" s="14"/>
     </row>
-    <row r="81" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" s="3" customFormat="1" spans="2:6">
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
     </row>
-    <row r="82" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" s="3" customFormat="1" spans="2:6">
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
       <c r="F82" s="14"/>
     </row>
-    <row r="83" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" s="3" customFormat="1" spans="2:6">
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
       <c r="D83" s="14"/>
       <c r="E83" s="14"/>
       <c r="F83" s="14"/>
     </row>
-    <row r="84" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" s="3" customFormat="1" spans="2:6">
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
       <c r="D84" s="14"/>
       <c r="E84" s="14"/>
       <c r="F84" s="14"/>
     </row>
-    <row r="85" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" s="3" customFormat="1" spans="2:6">
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
       <c r="D85" s="14"/>
       <c r="E85" s="14"/>
       <c r="F85" s="14"/>
     </row>
-    <row r="86" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" s="3" customFormat="1" spans="2:6">
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
       <c r="D86" s="14"/>
       <c r="E86" s="14"/>
       <c r="F86" s="14"/>
     </row>
-    <row r="87" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" s="3" customFormat="1" spans="2:6">
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
       <c r="D87" s="14"/>
       <c r="E87" s="14"/>
       <c r="F87" s="14"/>
     </row>
-    <row r="88" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" s="3" customFormat="1" spans="2:6">
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
       <c r="D88" s="14"/>
       <c r="E88" s="14"/>
       <c r="F88" s="14"/>
     </row>
-    <row r="89" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" s="3" customFormat="1" spans="2:6">
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
       <c r="D89" s="14"/>
       <c r="E89" s="14"/>
       <c r="F89" s="14"/>
     </row>
-    <row r="90" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" s="3" customFormat="1" spans="2:6">
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
       <c r="D90" s="14"/>
       <c r="E90" s="14"/>
       <c r="F90" s="14"/>
     </row>
-    <row r="91" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" s="3" customFormat="1" spans="2:6">
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
       <c r="F91" s="14"/>
     </row>
-    <row r="92" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" s="3" customFormat="1" spans="2:6">
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
       <c r="D92" s="14"/>
       <c r="E92" s="14"/>
       <c r="F92" s="14"/>
     </row>
-    <row r="93" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" s="3" customFormat="1" spans="2:6">
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
       <c r="D93" s="14"/>
       <c r="E93" s="14"/>
       <c r="F93" s="14"/>
     </row>
-    <row r="94" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" s="3" customFormat="1" spans="2:6">
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
       <c r="D94" s="14"/>
       <c r="E94" s="14"/>
       <c r="F94" s="14"/>
     </row>
-    <row r="95" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" s="3" customFormat="1" spans="2:6">
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
       <c r="F95" s="14"/>
     </row>
-    <row r="96" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" s="3" customFormat="1" spans="2:6">
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
       <c r="F96" s="14"/>
     </row>
-    <row r="97" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" s="3" customFormat="1" spans="2:6">
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
       <c r="D97" s="14"/>
       <c r="E97" s="14"/>
       <c r="F97" s="14"/>
     </row>
-    <row r="98" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" s="3" customFormat="1" ht="18" customHeight="1" spans="2:6">
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
       <c r="D98" s="14"/>
       <c r="E98" s="14"/>
       <c r="F98" s="14"/>
     </row>
-    <row r="99" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" s="3" customFormat="1" ht="18" customHeight="1" spans="2:6">
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
       <c r="F99" s="14"/>
     </row>
-    <row r="100" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" s="3" customFormat="1" spans="1:6">
       <c r="A100" s="13"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -2941,7 +3171,7 @@
       <c r="E100" s="14"/>
       <c r="F100" s="14"/>
     </row>
-    <row r="101" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" s="3" customFormat="1" spans="1:6">
       <c r="A101" s="13"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -2949,7 +3179,7 @@
       <c r="E101" s="14"/>
       <c r="F101" s="14"/>
     </row>
-    <row r="102" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" s="3" customFormat="1" spans="1:6">
       <c r="A102" s="13"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -2957,7 +3187,7 @@
       <c r="E102" s="14"/>
       <c r="F102" s="14"/>
     </row>
-    <row r="103" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" s="3" customFormat="1" spans="1:6">
       <c r="A103" s="13"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -2965,7 +3195,7 @@
       <c r="E103" s="14"/>
       <c r="F103" s="14"/>
     </row>
-    <row r="104" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" s="3" customFormat="1" spans="1:6">
       <c r="A104" s="13"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -2973,7 +3203,7 @@
       <c r="E104" s="14"/>
       <c r="F104" s="14"/>
     </row>
-    <row r="105" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" s="3" customFormat="1" spans="1:6">
       <c r="A105" s="13"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -2981,7 +3211,7 @@
       <c r="E105" s="14"/>
       <c r="F105" s="14"/>
     </row>
-    <row r="106" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" s="3" customFormat="1" spans="1:6">
       <c r="A106" s="13"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -2989,7 +3219,7 @@
       <c r="E106" s="14"/>
       <c r="F106" s="14"/>
     </row>
-    <row r="107" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" s="3" customFormat="1" spans="1:6">
       <c r="A107" s="13"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -2997,7 +3227,7 @@
       <c r="E107" s="14"/>
       <c r="F107" s="14"/>
     </row>
-    <row r="108" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" s="3" customFormat="1" spans="1:6">
       <c r="A108" s="13"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -3005,7 +3235,7 @@
       <c r="E108" s="14"/>
       <c r="F108" s="14"/>
     </row>
-    <row r="109" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" s="3" customFormat="1" spans="1:6">
       <c r="A109" s="13"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -3013,15 +3243,15 @@
       <c r="E109" s="14"/>
       <c r="F109" s="14"/>
     </row>
-    <row r="110" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="17"/>
-      <c r="B110" s="18"/>
-      <c r="C110" s="18"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="18"/>
-      <c r="F110" s="18"/>
-    </row>
-    <row r="111" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" s="3" customFormat="1" spans="1:6">
+      <c r="A110" s="18"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="19"/>
+    </row>
+    <row r="111" s="3" customFormat="1" spans="1:6">
       <c r="A111" s="13"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -3029,133 +3259,133 @@
       <c r="E111" s="14"/>
       <c r="F111" s="14"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:6">
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
       <c r="D112" s="14"/>
       <c r="E112" s="14"/>
       <c r="F112" s="14"/>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:6">
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
       <c r="D113" s="14"/>
       <c r="E113" s="14"/>
       <c r="F113" s="14"/>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:6">
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
       <c r="D114" s="14"/>
       <c r="E114" s="14"/>
       <c r="F114" s="14"/>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:6">
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
       <c r="D115" s="14"/>
       <c r="E115" s="14"/>
       <c r="F115" s="14"/>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:6">
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
       <c r="D116" s="14"/>
       <c r="E116" s="14"/>
       <c r="F116" s="14"/>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:6">
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
       <c r="D117" s="14"/>
       <c r="E117" s="14"/>
       <c r="F117" s="14"/>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:6">
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
       <c r="D118" s="14"/>
       <c r="E118" s="14"/>
       <c r="F118" s="14"/>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:6">
       <c r="B119" s="14"/>
       <c r="C119" s="14"/>
       <c r="D119" s="14"/>
       <c r="E119" s="14"/>
       <c r="F119" s="14"/>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:6">
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
       <c r="D120" s="14"/>
       <c r="E120" s="14"/>
       <c r="F120" s="14"/>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:6">
       <c r="B121" s="14"/>
       <c r="C121" s="14"/>
       <c r="D121" s="14"/>
       <c r="E121" s="14"/>
       <c r="F121" s="14"/>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:6">
       <c r="B122" s="14"/>
       <c r="C122" s="14"/>
       <c r="D122" s="14"/>
       <c r="E122" s="14"/>
       <c r="F122" s="14"/>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:6">
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
       <c r="D123" s="14"/>
       <c r="E123" s="14"/>
       <c r="F123" s="14"/>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:6">
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
       <c r="D124" s="14"/>
       <c r="E124" s="14"/>
       <c r="F124" s="14"/>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:6">
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
       <c r="D125" s="14"/>
       <c r="E125" s="14"/>
       <c r="F125" s="14"/>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:6">
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
       <c r="D126" s="14"/>
       <c r="E126" s="14"/>
       <c r="F126" s="14"/>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:6">
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
       <c r="D127" s="14"/>
       <c r="E127" s="14"/>
-      <c r="F127" s="19"/>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F127" s="20"/>
+    </row>
+    <row r="128" spans="2:6">
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
       <c r="D128" s="14"/>
       <c r="E128" s="14"/>
       <c r="F128" s="14"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:6">
       <c r="B129" s="14"/>
       <c r="C129" s="14"/>
       <c r="D129" s="14"/>
       <c r="E129" s="14"/>
       <c r="F129" s="14"/>
     </row>
-    <row r="130" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" s="3" customFormat="1" spans="1:6">
       <c r="A130" s="13"/>
       <c r="B130" s="14"/>
       <c r="C130" s="14"/>
@@ -3163,7 +3393,7 @@
       <c r="E130" s="14"/>
       <c r="F130" s="14"/>
     </row>
-    <row r="131" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" s="3" customFormat="1" spans="1:6">
       <c r="A131" s="13"/>
       <c r="B131" s="14"/>
       <c r="C131" s="14"/>
@@ -3171,7 +3401,7 @@
       <c r="E131" s="14"/>
       <c r="F131" s="14"/>
     </row>
-    <row r="132" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" s="3" customFormat="1" spans="1:6">
       <c r="A132" s="5"/>
       <c r="B132" s="14"/>
       <c r="C132" s="14"/>
@@ -3179,7 +3409,7 @@
       <c r="E132" s="14"/>
       <c r="F132" s="6"/>
     </row>
-    <row r="133" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" s="3" customFormat="1" spans="1:6">
       <c r="A133" s="13"/>
       <c r="B133" s="14"/>
       <c r="C133" s="14"/>
@@ -3187,7 +3417,7 @@
       <c r="E133" s="14"/>
       <c r="F133" s="14"/>
     </row>
-    <row r="134" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" s="3" customFormat="1" spans="1:6">
       <c r="A134" s="13"/>
       <c r="B134" s="14"/>
       <c r="C134" s="14"/>
@@ -3195,7 +3425,7 @@
       <c r="E134" s="14"/>
       <c r="F134" s="14"/>
     </row>
-    <row r="135" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" s="3" customFormat="1" spans="1:6">
       <c r="A135" s="13"/>
       <c r="B135" s="14"/>
       <c r="C135" s="14"/>
@@ -3203,7 +3433,7 @@
       <c r="E135" s="14"/>
       <c r="F135" s="14"/>
     </row>
-    <row r="136" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" s="3" customFormat="1" spans="1:6">
       <c r="A136" s="13"/>
       <c r="B136" s="14"/>
       <c r="C136" s="14"/>
@@ -3211,7 +3441,7 @@
       <c r="E136" s="14"/>
       <c r="F136" s="14"/>
     </row>
-    <row r="137" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" s="3" customFormat="1" spans="1:6">
       <c r="A137" s="13"/>
       <c r="B137" s="14"/>
       <c r="C137" s="14"/>
@@ -3219,7 +3449,7 @@
       <c r="E137" s="14"/>
       <c r="F137" s="14"/>
     </row>
-    <row r="138" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" s="3" customFormat="1" spans="1:6">
       <c r="A138" s="13"/>
       <c r="B138" s="14"/>
       <c r="C138" s="14"/>
@@ -3227,15 +3457,15 @@
       <c r="E138" s="14"/>
       <c r="F138" s="14"/>
     </row>
-    <row r="139" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" s="3" customFormat="1" spans="1:6">
       <c r="A139" s="13"/>
       <c r="B139" s="14"/>
       <c r="C139" s="14"/>
       <c r="D139" s="14"/>
-      <c r="E139" s="20"/>
+      <c r="E139" s="21"/>
       <c r="F139" s="14"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6">
       <c r="A140" s="13"/>
       <c r="B140" s="14"/>
       <c r="C140" s="14"/>
@@ -3243,7 +3473,7 @@
       <c r="E140" s="14"/>
       <c r="F140" s="14"/>
     </row>
-    <row r="141" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" s="3" customFormat="1" spans="1:6">
       <c r="A141" s="13"/>
       <c r="B141" s="14"/>
       <c r="C141" s="14"/>
@@ -3251,7 +3481,7 @@
       <c r="E141" s="14"/>
       <c r="F141" s="14"/>
     </row>
-    <row r="142" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" s="3" customFormat="1" spans="1:6">
       <c r="A142" s="13"/>
       <c r="B142" s="14"/>
       <c r="C142" s="14"/>
@@ -3259,7 +3489,7 @@
       <c r="E142" s="14"/>
       <c r="F142" s="14"/>
     </row>
-    <row r="143" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" s="3" customFormat="1" spans="1:6">
       <c r="A143" s="13"/>
       <c r="B143" s="14"/>
       <c r="C143" s="14"/>
@@ -3267,7 +3497,7 @@
       <c r="E143" s="14"/>
       <c r="F143" s="14"/>
     </row>
-    <row r="144" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" s="3" customFormat="1" spans="1:6">
       <c r="A144" s="13"/>
       <c r="B144" s="14"/>
       <c r="C144" s="14"/>
@@ -3275,7 +3505,7 @@
       <c r="E144" s="14"/>
       <c r="F144" s="14"/>
     </row>
-    <row r="145" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" s="3" customFormat="1" spans="1:6">
       <c r="A145" s="13"/>
       <c r="B145" s="14"/>
       <c r="C145" s="14"/>
@@ -3283,7 +3513,7 @@
       <c r="E145" s="14"/>
       <c r="F145" s="14"/>
     </row>
-    <row r="146" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" s="3" customFormat="1" spans="1:6">
       <c r="A146" s="13"/>
       <c r="B146" s="14"/>
       <c r="C146" s="14"/>
@@ -3291,7 +3521,7 @@
       <c r="E146" s="14"/>
       <c r="F146" s="14"/>
     </row>
-    <row r="147" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" s="3" customFormat="1" spans="1:6">
       <c r="A147" s="13"/>
       <c r="B147" s="14"/>
       <c r="C147" s="14"/>
@@ -3299,7 +3529,7 @@
       <c r="E147" s="14"/>
       <c r="F147" s="14"/>
     </row>
-    <row r="148" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" s="3" customFormat="1" spans="1:6">
       <c r="A148" s="13"/>
       <c r="B148" s="14"/>
       <c r="C148" s="14"/>
@@ -3307,7 +3537,7 @@
       <c r="E148" s="14"/>
       <c r="F148" s="14"/>
     </row>
-    <row r="149" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" s="3" customFormat="1" spans="1:6">
       <c r="A149" s="13"/>
       <c r="B149" s="14"/>
       <c r="C149" s="14"/>
@@ -3315,7 +3545,7 @@
       <c r="E149" s="14"/>
       <c r="F149" s="14"/>
     </row>
-    <row r="150" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" s="3" customFormat="1" spans="1:6">
       <c r="A150" s="13"/>
       <c r="B150" s="14"/>
       <c r="C150" s="14"/>
@@ -3323,7 +3553,7 @@
       <c r="E150" s="14"/>
       <c r="F150" s="14"/>
     </row>
-    <row r="151" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" s="3" customFormat="1" spans="1:6">
       <c r="A151" s="13"/>
       <c r="B151" s="14"/>
       <c r="C151" s="14"/>
@@ -3331,7 +3561,7 @@
       <c r="E151" s="14"/>
       <c r="F151" s="14"/>
     </row>
-    <row r="152" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" s="3" customFormat="1" spans="1:6">
       <c r="A152" s="13"/>
       <c r="B152" s="14"/>
       <c r="C152" s="14"/>
@@ -3339,7 +3569,7 @@
       <c r="E152" s="14"/>
       <c r="F152" s="14"/>
     </row>
-    <row r="153" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" s="3" customFormat="1" spans="1:6">
       <c r="A153" s="13"/>
       <c r="B153" s="14"/>
       <c r="C153" s="14"/>
@@ -3347,7 +3577,7 @@
       <c r="E153" s="14"/>
       <c r="F153" s="14"/>
     </row>
-    <row r="154" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" s="3" customFormat="1" spans="1:6">
       <c r="A154" s="13"/>
       <c r="B154" s="14"/>
       <c r="C154" s="14"/>
@@ -3355,7 +3585,7 @@
       <c r="E154" s="14"/>
       <c r="F154" s="14"/>
     </row>
-    <row r="155" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" s="3" customFormat="1" spans="1:6">
       <c r="A155" s="13"/>
       <c r="B155" s="14"/>
       <c r="C155" s="14"/>
@@ -3363,7 +3593,7 @@
       <c r="E155" s="14"/>
       <c r="F155" s="14"/>
     </row>
-    <row r="156" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" s="3" customFormat="1" spans="1:6">
       <c r="A156" s="5"/>
       <c r="B156" s="14"/>
       <c r="C156" s="14"/>
@@ -3371,7 +3601,7 @@
       <c r="E156" s="14"/>
       <c r="F156" s="14"/>
     </row>
-    <row r="157" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" s="3" customFormat="1" spans="1:6">
       <c r="A157" s="5"/>
       <c r="B157" s="14"/>
       <c r="C157" s="14"/>
@@ -3379,7 +3609,7 @@
       <c r="E157" s="14"/>
       <c r="F157" s="14"/>
     </row>
-    <row r="158" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" s="3" customFormat="1" spans="1:6">
       <c r="A158" s="5"/>
       <c r="B158" s="14"/>
       <c r="C158" s="14"/>
@@ -3387,7 +3617,7 @@
       <c r="E158" s="14"/>
       <c r="F158" s="14"/>
     </row>
-    <row r="159" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" s="3" customFormat="1" spans="1:6">
       <c r="A159" s="5"/>
       <c r="B159" s="14"/>
       <c r="C159" s="14"/>
@@ -3395,7 +3625,7 @@
       <c r="E159" s="14"/>
       <c r="F159" s="14"/>
     </row>
-    <row r="160" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" s="3" customFormat="1" spans="1:6">
       <c r="A160" s="13"/>
       <c r="B160" s="14"/>
       <c r="C160" s="14"/>
@@ -3403,7 +3633,7 @@
       <c r="E160" s="14"/>
       <c r="F160" s="6"/>
     </row>
-    <row r="161" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" s="3" customFormat="1" spans="1:6">
       <c r="A161" s="13"/>
       <c r="B161" s="14"/>
       <c r="C161" s="14"/>
@@ -3411,7 +3641,7 @@
       <c r="E161" s="14"/>
       <c r="F161" s="6"/>
     </row>
-    <row r="162" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" s="3" customFormat="1" spans="1:6">
       <c r="A162" s="13"/>
       <c r="B162" s="14"/>
       <c r="C162" s="14"/>
@@ -3419,7 +3649,7 @@
       <c r="E162" s="14"/>
       <c r="F162" s="6"/>
     </row>
-    <row r="163" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" s="3" customFormat="1" spans="1:6">
       <c r="A163" s="13"/>
       <c r="B163" s="14"/>
       <c r="C163" s="14"/>
@@ -3427,7 +3657,7 @@
       <c r="E163" s="14"/>
       <c r="F163" s="6"/>
     </row>
-    <row r="164" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="164" customFormat="1" spans="1:6">
       <c r="A164" s="5"/>
       <c r="B164" s="14"/>
       <c r="C164" s="14"/>
@@ -3435,494 +3665,494 @@
       <c r="E164" s="14"/>
       <c r="F164" s="6"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:5">
       <c r="B165" s="14"/>
       <c r="C165" s="14"/>
       <c r="D165" s="14"/>
       <c r="E165" s="14"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:5">
       <c r="B166" s="14"/>
       <c r="C166" s="14"/>
       <c r="D166" s="14"/>
       <c r="E166" s="14"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:5">
       <c r="B167" s="14"/>
       <c r="C167" s="14"/>
       <c r="D167" s="14"/>
       <c r="E167" s="14"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="168" spans="2:4">
       <c r="B168" s="14"/>
       <c r="C168" s="14"/>
       <c r="D168" s="14"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:5">
       <c r="A170" s="13"/>
       <c r="B170" s="14"/>
       <c r="C170" s="14"/>
       <c r="D170" s="14"/>
       <c r="E170" s="14"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:5">
       <c r="A172" s="13"/>
       <c r="B172" s="14"/>
       <c r="C172" s="14"/>
       <c r="D172" s="14"/>
       <c r="E172" s="14"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="174" spans="2:5">
       <c r="B174" s="14"/>
       <c r="C174" s="14"/>
       <c r="D174" s="14"/>
       <c r="E174" s="14"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="175" spans="2:5">
       <c r="B175" s="14"/>
       <c r="C175" s="14"/>
       <c r="D175" s="14"/>
       <c r="E175" s="14"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="176" spans="2:5">
       <c r="B176" s="14"/>
       <c r="C176" s="14"/>
       <c r="D176" s="14"/>
       <c r="E176" s="14"/>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:6">
       <c r="B178" s="14"/>
       <c r="C178" s="14"/>
       <c r="D178" s="14"/>
       <c r="E178" s="14"/>
       <c r="F178" s="14"/>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="180" spans="2:5">
       <c r="B180" s="14"/>
       <c r="C180" s="14"/>
       <c r="D180" s="14"/>
       <c r="E180" s="14"/>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="181" spans="2:5">
       <c r="B181" s="14"/>
       <c r="C181" s="14"/>
       <c r="D181" s="14"/>
       <c r="E181" s="14"/>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:5">
       <c r="B182" s="14"/>
       <c r="C182" s="14"/>
       <c r="D182" s="14"/>
       <c r="E182" s="14"/>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="183" spans="2:5">
       <c r="B183" s="14"/>
       <c r="C183" s="14"/>
       <c r="D183" s="14"/>
       <c r="E183" s="14"/>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:5">
       <c r="B184" s="14"/>
       <c r="C184" s="14"/>
       <c r="D184" s="14"/>
       <c r="E184" s="14"/>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="185" spans="2:5">
       <c r="B185" s="14"/>
       <c r="C185" s="14"/>
       <c r="D185" s="14"/>
       <c r="E185" s="14"/>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="187" spans="2:6">
       <c r="B187" s="14"/>
       <c r="C187" s="14"/>
       <c r="D187" s="14"/>
       <c r="E187" s="14"/>
       <c r="F187" s="14"/>
     </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="189" spans="2:6">
       <c r="B189" s="14"/>
       <c r="C189" s="14"/>
       <c r="D189" s="14"/>
       <c r="E189" s="14"/>
       <c r="F189" s="14"/>
     </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="190" spans="2:5">
       <c r="B190" s="14"/>
       <c r="C190" s="14"/>
       <c r="D190" s="14"/>
       <c r="E190" s="14"/>
     </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="191" spans="2:5">
       <c r="B191" s="14"/>
       <c r="C191" s="14"/>
       <c r="D191" s="14"/>
       <c r="E191" s="14"/>
     </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:5">
       <c r="B192" s="14"/>
       <c r="C192" s="14"/>
       <c r="D192" s="14"/>
       <c r="E192" s="14"/>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="194" spans="2:6">
       <c r="B194" s="14"/>
       <c r="C194" s="14"/>
       <c r="D194" s="14"/>
       <c r="E194" s="14"/>
       <c r="F194" s="14"/>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="196" spans="2:6">
       <c r="B196" s="14"/>
       <c r="C196" s="14"/>
       <c r="D196" s="14"/>
       <c r="E196" s="14"/>
       <c r="F196" s="14"/>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="197" spans="2:6">
       <c r="B197" s="14"/>
       <c r="C197" s="14"/>
       <c r="D197" s="14"/>
       <c r="E197" s="14"/>
       <c r="F197" s="14"/>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="199" spans="4:4">
       <c r="D199" s="14"/>
     </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="200" spans="4:4">
       <c r="D200" s="14"/>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D201" s="21"/>
-      <c r="E201" s="22"/>
-    </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D202" s="22"/>
-      <c r="E202" s="21"/>
-    </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D203" s="22"/>
-      <c r="E203" s="22"/>
-    </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="201" spans="4:5">
+      <c r="D201" s="22"/>
+      <c r="E201" s="23"/>
+    </row>
+    <row r="202" spans="4:5">
+      <c r="D202" s="23"/>
+      <c r="E202" s="22"/>
+    </row>
+    <row r="203" spans="4:5">
+      <c r="D203" s="23"/>
+      <c r="E203" s="23"/>
+    </row>
+    <row r="204" spans="2:5">
       <c r="B204" s="14"/>
       <c r="C204" s="14"/>
       <c r="D204" s="14"/>
       <c r="E204" s="14"/>
     </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="205" spans="2:4">
       <c r="B205" s="14"/>
       <c r="C205" s="14"/>
       <c r="D205" s="14"/>
     </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="206" spans="2:5">
       <c r="B206" s="14"/>
       <c r="C206" s="14"/>
-      <c r="D206" s="21"/>
-      <c r="E206" s="22"/>
-    </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D206" s="22"/>
+      <c r="E206" s="23"/>
+    </row>
+    <row r="207" spans="2:5">
       <c r="B207" s="14"/>
       <c r="C207" s="14"/>
-      <c r="D207" s="21"/>
-      <c r="E207" s="22"/>
-    </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D207" s="22"/>
+      <c r="E207" s="23"/>
+    </row>
+    <row r="208" spans="2:5">
       <c r="B208" s="14"/>
       <c r="C208" s="14"/>
       <c r="D208" s="14"/>
       <c r="E208" s="14"/>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="209" spans="2:5">
       <c r="B209" s="14"/>
       <c r="C209" s="14"/>
       <c r="D209" s="14"/>
       <c r="E209" s="14"/>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B210" s="21"/>
-      <c r="C210" s="21"/>
-      <c r="D210" s="21"/>
-      <c r="E210" s="21"/>
-      <c r="F210" s="21"/>
-    </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B211" s="21"/>
-      <c r="C211" s="21"/>
-      <c r="D211" s="21"/>
-      <c r="E211" s="21"/>
-      <c r="F211" s="21"/>
-    </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B212" s="23"/>
+    <row r="210" spans="2:6">
+      <c r="B210" s="22"/>
+      <c r="C210" s="22"/>
+      <c r="D210" s="22"/>
+      <c r="E210" s="22"/>
+      <c r="F210" s="22"/>
+    </row>
+    <row r="211" spans="2:6">
+      <c r="B211" s="22"/>
+      <c r="C211" s="22"/>
+      <c r="D211" s="22"/>
+      <c r="E211" s="22"/>
+      <c r="F211" s="22"/>
+    </row>
+    <row r="212" spans="2:6">
+      <c r="B212" s="24"/>
       <c r="C212" s="14"/>
       <c r="D212" s="14"/>
       <c r="E212" s="14"/>
       <c r="F212" s="14"/>
     </row>
-    <row r="214" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" ht="16.5" customHeight="1" spans="2:6">
       <c r="B214" s="14"/>
       <c r="C214" s="14"/>
       <c r="D214" s="14"/>
       <c r="E214" s="14"/>
       <c r="F214" s="14"/>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="215" spans="2:6">
       <c r="B215" s="14"/>
       <c r="C215" s="14"/>
       <c r="D215" s="14"/>
       <c r="E215" s="14"/>
       <c r="F215" s="14"/>
     </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="216" spans="2:6">
       <c r="B216" s="14"/>
       <c r="C216" s="14"/>
       <c r="D216" s="14"/>
       <c r="E216" s="14"/>
       <c r="F216" s="14"/>
     </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="217" spans="2:6">
       <c r="B217" s="14"/>
       <c r="C217" s="14"/>
       <c r="D217" s="14"/>
       <c r="E217" s="14"/>
       <c r="F217" s="14"/>
     </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="218" spans="2:6">
       <c r="B218" s="14"/>
       <c r="C218" s="14"/>
       <c r="D218" s="14"/>
       <c r="E218" s="14"/>
       <c r="F218" s="14"/>
     </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="219" spans="2:6">
       <c r="B219" s="14"/>
       <c r="C219" s="14"/>
       <c r="D219" s="14"/>
       <c r="E219" s="14"/>
       <c r="F219" s="14"/>
     </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="220" spans="2:6">
       <c r="B220" s="14"/>
       <c r="C220" s="14"/>
       <c r="D220" s="14"/>
       <c r="E220" s="14"/>
       <c r="F220" s="14"/>
     </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="221" spans="2:6">
       <c r="B221" s="14"/>
       <c r="C221" s="14"/>
       <c r="D221" s="14"/>
       <c r="E221" s="14"/>
       <c r="F221" s="14"/>
     </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="222" spans="2:6">
       <c r="B222" s="14"/>
       <c r="C222" s="14"/>
       <c r="D222" s="14"/>
       <c r="E222" s="14"/>
       <c r="F222" s="14"/>
     </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="223" spans="2:6">
       <c r="B223" s="14"/>
       <c r="C223" s="14"/>
       <c r="D223" s="14"/>
       <c r="E223" s="14"/>
       <c r="F223" s="14"/>
     </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="224" spans="2:6">
       <c r="B224" s="14"/>
       <c r="C224" s="14"/>
       <c r="D224" s="14"/>
       <c r="E224" s="14"/>
       <c r="F224" s="14"/>
     </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="225" spans="2:6">
       <c r="B225" s="14"/>
       <c r="C225" s="14"/>
       <c r="D225" s="14"/>
       <c r="E225" s="14"/>
       <c r="F225" s="14"/>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="226" spans="2:6">
       <c r="B226" s="14"/>
       <c r="C226" s="14"/>
       <c r="D226" s="14"/>
       <c r="E226" s="14"/>
       <c r="F226" s="14"/>
     </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="228" spans="2:4">
       <c r="B228" s="14"/>
       <c r="C228" s="14"/>
       <c r="D228" s="14"/>
     </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="229" spans="2:4">
       <c r="B229" s="14"/>
       <c r="C229" s="14"/>
       <c r="D229" s="14"/>
     </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="230" spans="2:4">
       <c r="B230" s="14"/>
       <c r="C230" s="14"/>
       <c r="D230" s="14"/>
     </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="231" spans="2:4">
       <c r="B231" s="14"/>
       <c r="C231" s="14"/>
       <c r="D231" s="14"/>
     </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="232" spans="2:4">
       <c r="B232" s="14"/>
       <c r="C232" s="14"/>
       <c r="D232" s="14"/>
     </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="233" spans="2:4">
       <c r="B233" s="14"/>
       <c r="C233" s="14"/>
       <c r="D233" s="14"/>
     </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="234" spans="2:4">
       <c r="B234" s="14"/>
       <c r="C234" s="14"/>
       <c r="D234" s="14"/>
     </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="235" spans="2:4">
       <c r="B235" s="14"/>
       <c r="C235" s="14"/>
       <c r="D235" s="14"/>
     </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="236" spans="2:4">
       <c r="B236" s="14"/>
       <c r="C236" s="14"/>
       <c r="D236" s="14"/>
     </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="237" spans="2:4">
       <c r="B237" s="14"/>
       <c r="C237" s="14"/>
       <c r="D237" s="14"/>
     </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="241" spans="2:6">
       <c r="B241" s="14"/>
       <c r="C241" s="14"/>
       <c r="D241" s="14"/>
       <c r="E241" s="14"/>
       <c r="F241" s="14"/>
     </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="243" spans="2:2">
       <c r="B243"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="38" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="duplicateValues" dxfId="36" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="35" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="duplicateValues" dxfId="34" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="duplicateValues" dxfId="33" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="duplicateValues" dxfId="32" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
-    <cfRule type="duplicateValues" dxfId="31" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B98">
-    <cfRule type="duplicateValues" dxfId="30" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="29" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103">
-    <cfRule type="duplicateValues" dxfId="28" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105">
-    <cfRule type="duplicateValues" dxfId="27" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107">
-    <cfRule type="duplicateValues" dxfId="25" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="duplicateValues" dxfId="24" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B192">
-    <cfRule type="duplicateValues" dxfId="23" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209">
-    <cfRule type="duplicateValues" dxfId="22" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B241">
-    <cfRule type="duplicateValues" dxfId="21" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80:B81">
-    <cfRule type="duplicateValues" dxfId="20" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88:B89">
-    <cfRule type="duplicateValues" dxfId="19" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B91">
-    <cfRule type="duplicateValues" dxfId="18" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108:B110">
-    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:B126">
-    <cfRule type="duplicateValues" dxfId="15" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127:B128">
-    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B205:B207">
-    <cfRule type="duplicateValues" dxfId="12" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B214:B226">
-    <cfRule type="duplicateValues" dxfId="11" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C84:C85">
-    <cfRule type="duplicateValues" dxfId="10" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C127:C128">
-    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B13 B227 B15:B62 B212:B213 B244:B1048576 B65:B75 B130:B191 B193:B204 B242 B238:B240 B208">
-    <cfRule type="duplicateValues" dxfId="8" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B13 B106:B107 B15:B104 B111:B126 B129:B1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B111 B86 B93:B97 B77:B79 B100">
-    <cfRule type="duplicateValues" dxfId="6" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87 B92">
-    <cfRule type="duplicateValues" dxfId="5" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B102 B104 B106">
-    <cfRule type="duplicateValues" dxfId="4" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112 B129">
-    <cfRule type="duplicateValues" dxfId="3" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B113:C118 C119:C126">
-    <cfRule type="duplicateValues" dxfId="2" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B228:C231 B235:C237">
-    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232:C234">
     <cfRule type="duplicateValues" dxfId="0" priority="13"/>
   </conditionalFormatting>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>